--- a/study_case/data/news.xlsx
+++ b/study_case/data/news.xlsx
@@ -15,132 +15,1218 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="42">
-  <si>
-    <t>Time</t>
-  </si>
-  <si>
-    <t>Content</t>
-  </si>
-  <si>
-    <t>08:32:29</t>
-  </si>
-  <si>
-    <t>【早间公告】蓝思科技：拟向控股股东香港蓝思借款不超50亿元，用于补充流动资金及偿还部分金融机构借款。</t>
-  </si>
-  <si>
-    <t>08:31:34</t>
-  </si>
-  <si>
-    <t>上交所上日融资余额上涨0.2%，至5237.2亿元。</t>
-  </si>
-  <si>
-    <t>08:29:40</t>
-  </si>
-  <si>
-    <t>【上半年煤炭市场供需总体平衡 行业效益持续好转】从中国煤炭工业协会获悉，上半年全国煤炭市场供需总体平衡。煤炭消费量约18.9亿吨，同比增长3.1%；供应增加，全国规模以上煤炭企业原煤产量17亿吨，同比增长3.9%，全国煤炭进口1.46亿吨，同比增长9.9%。全社会库存处于合理水平。行业效益持续好转。全国规模以上煤炭企业实现利润总额1564亿元，同比增长18.4%。下半年煤炭市场将保持基本平衡的态势。（人民日报）</t>
-  </si>
-  <si>
-    <t>08:06:57</t>
-  </si>
-  <si>
-    <t>【早间公告】赣锋锂业：拟对全资子公司赣锋国际增资2亿美元；赣锋国际将以2720万美元与美洲锂业投资设立荷兰NHC公司。</t>
-  </si>
-  <si>
-    <t>07:46:33</t>
-  </si>
-  <si>
-    <t>【京津冀及周边地区限产方案出炉 行业影响不一】生态环境部近日下发《京津冀及周边地区2018-2019年秋冬季大气污染综合治理攻坚行动方案》意见征询稿。行业人士认为，政府对环保持续保持高压态势，行业影响不一。今年方案相较去年执行力度更严，限产时间有可能延长。冬季错峰对钢厂的生产影响或较去年有所加大，焦炭行业景气度有望随着环保要求趋严而提升，而政策预期对于铝产业链价格的催化作用值得关注。（上证）</t>
-  </si>
-  <si>
-    <t>07:35:35</t>
-  </si>
-  <si>
-    <t>【黄晓明账户疑涉股票操纵案，免罚背后触实名制规则】8月10日，证监会宣布对高勇操纵股票精华制药一案作出处罚。从接近监管层人士处确认，处罚书中的“黄某明”和“张某霞”的确是黄晓明及其母张素霞。从处罚决定书释放的案件细节来看，黄晓明连同委托给高勇“管理”的14个自然人账户持有者并不涉及违法认定，也无需在该案中承担相关责任。但出借给人账户委托他人代理交易这一行为，仍是对证券法中有关账户实名制要求的“越界”。 一位接近监管层的私募人士表示，由于黄晓明作为公众人物，其将证券账户交由他人管理最终被用于市场操纵行为的“示范效应”容易带来较为恶劣的社会影响，因此监管层虽不对其采取行政处罚，但仍然应当从严采取相应的自律监管等惩戒措施。 （21）</t>
-  </si>
-  <si>
-    <t>07:32:27</t>
-  </si>
-  <si>
-    <t>【二季度末商业银行不良贷款率环比上升】银保监会近日发布2018年二季度银行业主要监管指标数据。数据显示，银行业资产负债规模稳步增长，利润增长基本稳定，同时，商业银行不良贷款率较一季度末上升0.12个百分点至1.86%。专家认为，季节性因素和不良认定趋严等多重因素导致不良贷款余额和不良率较年初增加明显，但总体来看，商业银行资产质量仍处可控水平，拨备充足程度也较为合理。（中证券）</t>
-  </si>
-  <si>
-    <t>07:31:21</t>
-  </si>
-  <si>
-    <t>【基建需求叠加环保限产 水泥板块提前锁定全年业绩】近日，多家水泥上市公司发布半年报，业绩增速显著，如四川双马上半年净利润同比增长近5倍，天山股份上半年业绩同比大增11倍，冀东水泥上半年实现扭亏，净利逾5亿元。这是当前水泥行业高景气度的一个缩影。今年以来，基建需求叠加环保停限产，对水泥行业形成有力支撑。同时，新增产能的闸门则被关紧。就在8月13日，工信部网站发布通知，要求“切实做好禁止新增水泥、平板玻璃产能工作”。在短期前景较为明朗的情况下，业内人士普遍预计，今年整个水泥行业的利润大概率会达到创纪录的1000亿元。（上证）</t>
-  </si>
-  <si>
-    <t>07:29:13</t>
-  </si>
-  <si>
-    <t>【电子元器件板块量价齐升 机构密集调研大幅加仓】近期数十家机构募集调研了相关公司，基金对电子元器件的仓位近期快速提升。沪深部分绩优基金开始积极布局电子元器件板块。好买基金研究中心统计数据显示，上周基金主要加仓的板块包括轻工制造、通信和电子元件，加仓幅度分别为1.06%、1.05%和0.95%，其中电子元器件行业的仓位从此前一周的2.42%提升为3.37%。（上证）</t>
-  </si>
-  <si>
-    <t>07:27:26</t>
-  </si>
-  <si>
-    <t>【机构：估值底隐现 中长期乐观】受外围利空因素影响，昨日A股大幅低开，但尾盘上证指数跌幅大幅收窄，深证成指则小幅收涨。业内人士表示，土耳其汇率暴跌对A股影响有限，目前市场的估值底备受认同，叠加流动性宽裕有望延续，沪指年内重上3000点的概率很高。板块方面，周期、科技或接力消费、医疗，未来表现更好。（中证报）</t>
-  </si>
-  <si>
-    <t>07:18:50</t>
-  </si>
-  <si>
-    <t>【中国银行业不良贷款率创九年最高】中国银保监会公告显示，截至第二季度末，商业银行（法人口径）不良贷款较上季末增加1829亿元（266亿美元），达1.96万亿元，创逾十年有纪录以来的最大季度涨幅。不良贷款率1.86%，是2009年3月份以来的最高水平。数据显示，第二季度不良贷款的增量中，大约80%来自农村商业银行。但该行业上半年总体利润增加6.4%，至1万亿元，大多数银行的利润率均有所改善。</t>
-  </si>
-  <si>
-    <t>23:46:21</t>
-  </si>
-  <si>
-    <t>【茅台放弃国酒商标申请并致歉】8月13日，中国贵州茅台酒厂（集团）有限责任公司宣布，放弃“国酒茅台”商标注册申请，撤销诉讼申请，并向国家商标评审委员会致歉。茅台集团方面表示，对国家商标评审委员会复审决定“充分尊重，也乐于接受”。而之所以会提起诉讼，是因为“内部工作衔接问题”，已经决定依法向北京市知识产权法院申请撤回，并向国家商标评审委员会及各相关方表示诚挚歉意。</t>
-  </si>
-  <si>
-    <t>23:15:56</t>
-  </si>
-  <si>
-    <t>据媒体，8月13日，贵州茅台酒厂有限责任公司宣布，放弃“国酒茅台”商标注册申请，撤销诉讼申请，并向国家商标评审委员会致歉。</t>
-  </si>
-  <si>
-    <t>22:40:24</t>
-  </si>
-  <si>
-    <t>【鞍钢集团今日上调部分产品出厂价格】鞍钢集团今日对部分产品出厂价格进行调整，以“7月12日鞍钢出台2018年8月份产品价格政策”为基准，其中热轧板卷上调150元/吨，冷轧板卷上调100元/吨，线材上调300元/吨，螺纹上调100元/吨。</t>
-  </si>
-  <si>
-    <t>22:00:55</t>
-  </si>
-  <si>
-    <t>【 浙江医药通过参加美国听证会抗辩取得关税豁免 今日大涨逾6% 】绍兴商务消息，美国发布针对中国500亿美元进口商品拟加征关税的清单后，浙江医药发现精细化工原料药和制剂几乎全包括在清单内，随后立刻组织力量参加美国听证会。通过公众评议程序，终于成功将其出口产品排除在了340亿美元商品加征25%关税的清单外。由于浙江医药的抗辩，全中国的精细化工、原料药和制剂出口企业产品全部得到了关税豁免。13日浙江医药午后大幅拉升，涨6.25%。</t>
-  </si>
-  <si>
-    <t>21:56:51</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 【48只次新破发 最高已跌超4成！次新股惨淡行情下 打新收益却在上浮】越来越多的次新股正逼近甚至跌破发行价。2016年取消预缴款后发行的700余只次新股中，已有40多只最新收盘价跌破发行价(注：已考虑权息因素)，其中2018年上市的次新股中，华宝股份、今创集团、华西证券已破发。</t>
-  </si>
-  <si>
-    <t>21:07:45</t>
-  </si>
-  <si>
-    <t>深深房A：筹划重大资产重组延期复牌，股票将自8月14日起继续停牌不超过1个月。</t>
-  </si>
-  <si>
-    <t>21:01:05</t>
-  </si>
-  <si>
-    <t>康力电梯在互动平台上表示，康力优蓝公司的机器人产品，包括优友等多个机器人产品将在8月15-19日的世界机器人大会上进行展示。</t>
-  </si>
-  <si>
-    <t>20:34:01</t>
-  </si>
-  <si>
-    <t>立思辰：全资子公司与张家口智云教育签署了《张家口教育云PPP项目硬件采购、集成、运维服务以及应用软件采购运维合同》，合同金额预计3.13亿元。</t>
-  </si>
-  <si>
-    <t>20:18:22</t>
-  </si>
-  <si>
-    <t>【工业富联：拟开展累计不超过100亿元的衍生性商品交易业务】工业富联公告称，根据公司的经营预算，在符合公司开展衍生性商品交易业务的相关制度规定范围内，公司及子公司在2018年度直至公司董事会审议下一年度年度报告之日止，拟开展累计未结清契约总余额不超过100亿元的衍生性商品交易业务。公司及子公司开展衍生性商品交易业务，将使用来源合法的自有及自筹资金，不涉及首次公开发行股票的募集资金。</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="404">
+  <si>
+    <t>a_title</t>
+  </si>
+  <si>
+    <t>b_article</t>
+  </si>
+  <si>
+    <t>url_all</t>
+  </si>
+  <si>
+    <t>date_all</t>
+  </si>
+  <si>
+    <t>政治局就长生问题疫苗案处理7名部级 1人被立案</t>
+  </si>
+  <si>
+    <t>['原标题：政治局处理7部级，4名去职、1人立案', '来源：“长安街知事”微信公众号', '中共中央政治局常务委员会8月16日召开会议，听取关于吉林长春长生公司问题疫苗案件调查及有关问责情况的汇报。中共中央总书记习近平主持会议并发表重要讲话。', '会议指出，这起问题疫苗案件发生以来，习近平总书记高度重视，多次作出重要指示，要求立即查清事实真相，严肃问责，依法从严处理，坚决守住安全底线，全力保障群众切身利益和社会稳定大局。在党中央坚强领导下，国务院多次召开会议研究，派出调查组进行调查，目前已基本查清案件情况和有关部门及干部履行职责情况。', '会议强调，疫苗关系人民群众健康，关系公共卫生安全和国家安全。这起问题疫苗案件是一起疫苗生产者逐利枉法、违反国家药品标准和药品生产质量管理规范、编造虚假生产检验记录、地方政府和监管部门失职失察、个别工作人员渎职的严重违规违法生产疫苗的重大案件，情节严重，性质恶劣，造成严重不良影响，既暴露出监管不到位等诸多漏洞，也反映出疫苗生产流通使用等方面存在的制度缺陷。要深刻汲取教训，举一反三，重典治乱，去疴除弊，加快完善疫苗药品监管长效机制，坚决守住公共安全底线，坚决维护最广大人民身体健康。', '会议强调，要完善法律法规和制度规则，明晰和落实监管责任，加强生产过程现场检查，督促企业履行主体责任义务，建立质量安全追溯体系，落实产品风险报告制度。对风险高、专业性强的疫苗药品，要明确监管事权，在地方属地管理的基础上，要派出机构进行检查。要加强监管队伍能力建设，尽快建立健全疫苗药品的职业化、专业化检查队伍。要提高违法成本，对那些利欲熏心、无视规则的不法企业，对那些敢于挑战道德和良知底线的人，要严厉打击，从严重判，决不姑息。对涉及疫苗药品等危害公共安全的违法犯罪人员，要依法严厉处罚，实行巨额处罚、终身禁业。要加强干部队伍建设，激励担当作为，切实履行职责，对失职渎职行为严肃问责。', '会议要求，各级党委和政府要落实习近平总书记的重要指示精神，深刻认识药品安全的敏感性和重要性，深刻汲取教训，落实监管责任，坚持疫苗质量安全底线。要健全问题疫苗处置后续工作机制，做好疫苗续种补种工作，稳妥有序开展赔偿工作，完善疫苗管理长效机制。', '会议同意，', '对金育辉（吉林省副省长，2017年4月起分管吉林省食品药品监管工作）予以免 职，', '对李晋修（吉林省政协副主席，2015年12月-2017年4月任分管吉林省食品药品监管工作的副省长）责令辞 职，', '要求刘长龙（长春市市长，2016年9月任长春市代市长，2016年10月至今任长春市市长）、毕井泉（市场监管总局党组书记、副局长，2015年2月-2018年3月任原食品药品监管总局局长）引 咎辞 职，', '要求姜治莹（吉林省委常委、延边朝鲜族自治州委书记，2012年3月-2016年5月任长春市委副书记、市长）、焦红（国家药监局局长）作出深刻检查；', '对35名非中管干部进行问责；', '决定中央纪委国家监委对吴浈（原食品药品监管总局副局长、原卫生计生委副主任，分管药化注册管理、药化监管和审核检验等工作）进行立案审查调查。', '会议责成吉林省委和省政府、国家药监局向中共中央、国务院作出深刻检查。', '会议还研究了其他事项。']</t>
+  </si>
+  <si>
+    <t>http://news.sina.com.cn/c/2018-08-16/doc-ihhvciiw0724604.shtml</t>
+  </si>
+  <si>
+    <t>2018年08月16日 19:57</t>
+  </si>
+  <si>
+    <t>一个单位领导班子12人全员被查 他们干了啥？</t>
+  </si>
+  <si>
+    <t>['原标题：领导班子12人全员被查，干了啥？', '一个单位领导班子12人，集体陷落，他们干了啥？', '8月16日，《中国纪检监察报》发文揭露了湖南省郴州综合职业中专学校领导班子全员被查的细节。', '因违反中央八项规定精神、违反廉洁纪律、违反国家法律法规等，该校包括领导班子全体成员在内的12人分别受到党纪政务处分或问责处理。', '今年4月，郴州市纪委通报多起处级领导干部违反中央八项规定精神典型案件。', '其中，郴州综合职业中专学校校长、党委副书记马志华违规用公款旅游、违规收受红包礼金等问题，受到开除党籍、撤销其郴州综合职业中专学校校长职务处分，按科员确定其待遇。通报显示，马志华还存在其他违纪违法问题；学校党委书记彭伶敏因违规收受红包礼金等问题，受到党内警告处分。', '今年7月13日，郴州市纪委通报多起落实管党治党主体责任和监督责任不力被问责典型案例。', '其中，郴州综合职业中专学校党委书记彭伶敏、纪委书记尹海燕因学校班子成员严重违纪违法等问题被问责。2014年至2017年，学校校长马志华、原常务副校长张和平、原副校长谢珩、原副校长曾雄兵、职教中心办公室副主任邓心平等人，因收受他人礼金及财物等问题，分别受到开除党籍、留党察看两年、撤销党内职务等处分，造成严重不良影响。因落实主体责任不力，彭伶敏受到党内警告处分；因落实监督责任不力，尹海燕受到党内警告处分。', '报道显示，从2014年底开始，郴州职中与某培训学校开展联合办学。按照物价部门核定，郴州职中每年收取每名学生的学费最高不得超过2800元。而培训学校的法人代表袁霄，打着联合办学的旗号，向学生收取6000元到9000元不等的费用。', '2016年9月初，袁霄找到时任郴州职中分管招生工作的副校长谢珩，提出请学校领导吃饭，感谢对联合办学的关照和支持。谢珩觉得“风声紧”，有点犹豫。袁霄说自己只找饭店订餐但不作陪，由谢珩出面请学校领导一起聚餐，席间帮他给每名校领导送一个现金红包，一切费用均由袁霄承担。', '谢珩同意了这个提议。从此以后，每次都由谢珩出面请学校领导班子成员聚餐，并在席间发放现金红包。谢珩改任非领导职务后，接管其工作的副校长袁明宏继续承担起聚餐发红包的“任务”。这成了袁霄拉拢学校领导班子成员的“老规矩”。', '有了学校领导的支持，袁霄开始利用联合办学赚取利益。不管是谁，只要能招到一个学生，袁霄就给1500元“返回款”。包括郴州职中招生办原副主任邓心平也很快变成袁霄的生财工具，袁霄也多次送给邓心平现金共计33万余元。', '另外，郴州职中领导马志华、袁明宏、张和平、谢珩、曾雄兵等人都曾利用负责校园建设、后勤服务、招生注册、教务管理等职务便利，为他人提供帮助，收受现金红包或财物。', '学校领导班子全员被查，源自于一封举报信。2017年5月，郴州市北湖区纪委接到举报，反映郴州职中学费高昂、收费标准不透明、教职工私吞学费等问题。', '“政事儿”（微信ID：xjbzse）注意到，就在纪委收到举报信4个月后，学校校长马志华还获“郴州市教育突出贡献奖” 。', '据郴州市政府网站介绍：', '9月6日（2017年）下午，郴州市在市人民会堂对30位获得“郴州市教育突出贡献奖”人员进行隆重表彰，郴州综合职业中专学校校长马志华同志获此殊荣。本次获得表彰的人员是经学校考核推荐、县市区组织初评、市评审领导小组办公室组织对各县市区及市直学校上报的候选人进行考察评审，通过市评审领导小组集体研究审定并向社会公示等程序选出，其目的旨在表彰一批对郴州市教育做出突出贡献的人员。马志华同志自2008年起开始担任郴州综合职业中专学校校长，当时马志华同志是职业教育战线上的一名新兵，但该同志善于学习，现已成为一名职教专家。马志华同志自任校长以来，以其先进的办学理念、清晰的办学思路，坚持内涵发展、特色发展和创新发展，带领全校师生求真务实、攻坚克难、开拓创新，使学校发展步入快车道。在马志华同志的带领下，郴州综合职业中专学校已迈入全省先进、全国一流的行列，真正成为在全国有影响力的湖南省中职名校。', '但未过多久，马志华连带他的11位班子同事们，一起被处理。', '任上时，校长马志华曾经在“三严三实”专题教育学习研讨会上发言：“单位领导要做遵纪守法的模范，带动单位形成昂扬向上、纪律严明的风气。”党委书记彭伶敏也曾经对全体党员提出要求：“严防在小圈子里，遇事‘酒杯一端，放宽放宽，筷子一举，可以可以’”。']</t>
+  </si>
+  <si>
+    <t>http://news.sina.com.cn/c/2018-08-16/doc-ihhvciiw0650780.shtml</t>
+  </si>
+  <si>
+    <t>2018年08月16日 19:45</t>
+  </si>
+  <si>
+    <t>吉林长春长生公司问题疫苗案件问责名单(图)</t>
+  </si>
+  <si>
+    <t>['吉林长春长生公司问题疫苗案件问责名单↓↓']</t>
+  </si>
+  <si>
+    <t>http://news.sina.com.cn/c/2018-08-16/doc-ihhvciiw0630626.shtml</t>
+  </si>
+  <si>
+    <t>2018年08月16日 19:41</t>
+  </si>
+  <si>
+    <t>中央政治局会议听取疫苗案:吉林副省长金育辉免职</t>
+  </si>
+  <si>
+    <t>['[中共中央政治局常务委员会召开会议 听取关于吉林长春长生公司问题疫苗案件 调查及有关问责情况的汇报 中共中央总书记习近平主持会议]中共中央政治局常务委员会8月16日召开会议，听取关于吉林长春长生公司问题疫苗案件调查及有关问责情况的汇报。中共中央总书记习近平主持会议并发表重要讲话。', '会议指出，这起问题疫苗案件发生以来，习近平总书记高度重视，多次作出重要指示，要求立即查清事实真相，严肃问责，依法从严处理，坚决守住安全底线，全力保障群众切身利益和社会稳定大局。在党中央坚强领导下，国务院多次召开会议研究，派出调查组进行调查，目前已基本查清案件情况和有关部门及干部履行职责情况。', '会议强调，疫苗关系人民群众健康，关系公共卫生安全和国家安全。这起问题疫苗案件是一起疫苗生产者逐利枉法、违反国家药品标准和药品生产质量管理规范、编造虚假生产检验记录、地方政府和监管部门失职失察、个别工作人员渎职的严重违规违法生产疫苗的重大案件，情节严重，性质恶劣，造成严重不良影响，既暴露出监管不到位等诸多漏洞，也反映出疫苗生产流通使用等方面存在的制度缺陷。要深刻汲取教训，举一反三，重典治乱，去疴除弊，加快完善疫苗药品监管长效机制，坚决守住公共安全底线，坚决维护最广大人民身体健康。', '会议强调，要完善法律法规和制度规则，明晰和落实监管责任，加强生产过程现场检查，督促企业履行主体责任义务，建立质量安全追溯体系，落实产品风险报告制度。对风险高、专业性强的疫苗药品，要明确监管事权，在地方属地管理的基础上，要派出机构进行检查。要加强监管队伍能力建设，尽快建立健全疫苗药品的职业化、专业化检查队伍。要提高违法成本，对那些利欲熏心、无视规则的不法企业，对那些敢于挑战道德和良知底线的人，要严厉打击，从严重判，决不姑息。对涉及疫苗药品等危害公共安全的违法犯罪人员，要依法严厉处罚，实行巨额处罚、终身禁业。要加强干部队伍建设，激励担当作为，切实履行职责，对失职渎职行为严肃问责。', '会议要求，各级党委和政府要落实习近平总书记的重要指示精神，深刻认识药品安全的敏感性和重要性，深刻汲取教训，落实监管责任，坚持疫苗质量安全底线。要健全问题疫苗处置后续工作机制，做好疫苗续种补种工作，稳妥有序开展赔偿工作，完善疫苗管理长效机制。', '会议同意，对金育辉（吉林省副省长，2017年4月起分管吉林省食品药品监管工作）予以免职，对李晋修（吉林省政协副主席，2015年12月-2017年4月任分管吉林省食品药品监管工作的副省长）责令辞职，要求刘长龙（长春市市长，2016年9月任长春市代市长，2016年10月至今任长春市市长）、毕井泉（市场监管总局党组书记、副局长，2015年2月-2018年3月任原食品药品监管总局局长）引咎辞职，要求姜治莹（吉林省委常委、延边朝鲜族自治州委书记，2012年3月-2016年5月任长春市委副书记、市长）、焦红（国家药监局局长）作出深刻检查；对35名非中管干部进行问责；决定中央纪委国家监委对吴浈（原食品药品监管总局副局长、原卫生计生委副主任，分管药化注册管理、药化监管和审核检验等工作）进行立案审查调查。会议责成吉林省委和省政府、国家药监局向中共中央、国务院作出深刻检查。', '会议还研究了其他事项。']</t>
+  </si>
+  <si>
+    <t>http://news.sina.com.cn/c/2018-08-16/doc-ihhvciiw0543363.shtml</t>
+  </si>
+  <si>
+    <t>2018年08月16日 19:23</t>
+  </si>
+  <si>
+    <t>中央政治局召开会议 听取长生问题疫苗调查报告</t>
+  </si>
+  <si>
+    <t>['原标题：中共中央政治局常务委员会召开会议 听取关于吉林长春长生公司问题疫苗案件调查及有关问责情况的汇报 中共中央总书记习近平主持会议', '中共中央政治局常务委员会召开会议 听取关于吉林长春长生公司问题疫苗案件调查及有关问责情况的汇报 中共中央总书记习近平主持会议', '中共中央政治局常务委员会8月16日召开会议，听取关于吉林长春长生公司问题疫苗案件调查及有关问责情况的汇报。中共中央总书记习近平主持会议并发表重要讲话。', '会议指出，这起问题疫苗案件发生以来，习近平总书记高度重视，多次作出重要指示，要求立即查清事实真相，严肃问责，依法从严处理，坚决守住安全底线，全力保障群众切身利益和社会稳定大局。在党中央坚强领导下，国务院多次召开会议研究，派出调查组进行调查，目前已基本查清案件情况和有关部门及干部履行职责情况。', '会议强调，疫苗关系人民群众健康，关系公共卫生安全和国家安全。这起问题疫苗案件是一起疫苗生产者逐利枉法、违反国家药品标准和药品生产质量管理规范、编造虚假生产检验记录、地方政府和监管部门失职失察、个别工作人员渎职的严重违规违法生产疫苗的重大案件，情节严重，性质恶劣，造成严重不良影响，既暴露出监管不到位等诸多漏洞，也反映出疫苗生产流通使用等方面存在的制度缺陷。要深刻汲取教训，举一反三，重典治乱，去疴除弊，加快完善疫苗药品监管长效机制，坚决守住公共安全底线，坚决维护最广大人民身体健康。', '会议强调，要完善法律法规和制度规则，明晰和落实监管责任，加强生产过程现场检查，督促企业履行主体责任义务，建立质量安全追溯体系，落实产品风险报告制度。对风险高、专业性强的疫苗药品，要明确监管事权，在地方属地管理的基础上，要派出机构进行检查。要加强监管队伍能力建设，尽快建立健全疫苗药品的职业化、专业化检查队伍。要提高违法成本，对那些利欲熏心、无视规则的不法企业，对那些敢于挑战道德和良知底线的人，要严厉打击，从严重判，决不姑息。对涉及疫苗药品等危害公共安全的违法犯罪人员，要依法严厉处罚，实行巨额处罚、终身禁业。要加强干部队伍建设，激励担当作为，切实履行职责，对失职渎职行为严肃问责。', '会议要求，各级党委和政府要落实习近平总书记的重要指示精神，深刻认识药品安全的敏感性和重要性，深刻汲取教训，落实监管责任，坚持疫苗质量安全底线。要健全问题疫苗处置后续工作机制，做好疫苗续种补种工作，稳妥有序开展赔偿工作，完善疫苗管理长效机制。', '会议同意，对金育辉（吉林省副省长，2017年4月起分管吉林省食品药品监管工作）予以免\xa0 职，对李晋修（吉林省政协副主席，2015年12月-2017年4月任分管吉林省食品药品监管工作的副省长）责令辞 职，要求刘长龙（长春市市长，2016年9月任长春市代市长，2016年10月至今任长春市市长）、毕井泉（市场监管总局党组书记、副局长，2015年2月-2018年3月任原食品药品监管总局局长）引 咎辞 职，要求姜治莹（吉林省委常委、延边朝鲜族自治州委书记，2012年3月-2016年5月任长春市委副书记、市长）、焦红（国家药监局局长）作出深刻检查；对35名非中管干部进行问责；决定中央纪委国家监委对吴浈（原食品药品监管总局副局长、原卫生计生委副主任，分管药化注册管理、药化监管和审核检验等工作）进行立案审查调查。会议责成吉林省委和省政府、国家药监局向中共中央、国务院作出深刻检查。', '会议还研究了其他事项。']</t>
+  </si>
+  <si>
+    <t>http://news.sina.com.cn/w/2018-08-16/doc-ihhvciiw0491860.shtml</t>
+  </si>
+  <si>
+    <t>2018年08月16日 19:18</t>
+  </si>
+  <si>
+    <t>黑龙江调往郑州生猪确诊发生非洲猪瘟:30头猪死亡</t>
+  </si>
+  <si>
+    <t>['原标题：黑龙江调往郑州生猪确诊发生非洲猪瘟：30头生猪死亡', '央视网消息：农业农村部新闻办公室今天（16日）下午发布消息称，8月14日，河南省郑州市经济开发区某食品公司屠宰场的一车生猪发生不明原因死亡，共260头，发病30头，死亡30头，产地检疫证明显示生猪来自黑龙江省佳木斯市汤原县鹤立镇交易市场。8月16日凌晨，经中国动物卫生与流行病学中心国家外来动物疫病研究中心确诊，该起疫情为非洲猪瘟疫情。', '疫情发生后，农业农村部立即派出督导组分赴河南、黑龙江。河南已按照要求，启动应急响应机制，采取封锁、扑杀、无害化处理、消毒等处置措施，禁止所有生猪及易感动物和产品运入或流出封锁区。黑龙江省已开展排查和流行病学调查工作。目前，该起疫情已得到有效控制。', '']</t>
+  </si>
+  <si>
+    <t>http://news.sina.com.cn/c/2018-08-16/doc-ihhvciiw0657010.shtml</t>
+  </si>
+  <si>
+    <t>2018年08月16日 19:13</t>
+  </si>
+  <si>
+    <t>国务院下令没收长春长生公司所有违法所得</t>
+  </si>
+  <si>
+    <t>['原标题：国务院下令没收长春长生公司所有违法所得', '李克强主持召开国务院常务会议', '国务院常务会听取长生问题疫苗调查报告，下令没收长春长生公司所有违法所得。']</t>
+  </si>
+  <si>
+    <t>http://news.sina.com.cn/zx/2018-08-16/doc-ihhvciiw0560915.shtml</t>
+  </si>
+  <si>
+    <t>2018年08月16日 19:11</t>
+  </si>
+  <si>
+    <t>首例大数据产品不正当竞争纠纷案：淘宝获赔200万</t>
+  </si>
+  <si>
+    <t>['原标题：全国首例大数据产品不正当竞争纠纷案宣判，淘宝获赔两百万元', '澎湃新闻记者 张刘涛 通讯员 卢忆纯', '澎湃新闻（www.thepaper.cn）16日从杭州互联网法院获悉，当天上午，该院对全国首例大数据产品不正当竞争纠纷案进行了网上公开宣判，被告安徽美景信息科技有限公司构成不正当竞争，判令其停止侵权行为，同时赔偿原告淘宝（中国）软件有限公司经济损失及合理费用共200万元。', '在该案审理中，该院明确了大数据产品法定权益审查认定的多个裁判标准，对今后相关互联网案件的审理具有一定的示范意义。', '“大数据产业作为新型市场形态，目前正处在形成与新兴过程中，相关法律规范也处在探索创立阶段。为保障大数据产业的发展，在加大对侵权行为惩治力度充分保护大数据产品权利人合法权益的同时，审判实践中需积极探索创立相关裁判规则，充分发挥判决引领作用，规范大数据产品的开发与市场应用活动，明晰各相关主体对于数据产品的权利边界，引导大数据产业健康、有序发展。”该案承办法官沙丽向澎湃新闻表示。', '被告非法利用原告数据产品牟利', '该案件原告为淘宝（中国）软件有限公司，被告为安徽美景信息科技有限公司。原告认为被告在电商平台运营中，非法利用了原告开发、运营的涉案数据产品牟利。', '法院审理查明，原告开发、运营的涉案数据产品，是在收集网络用户浏览、搜索、收藏、交易等行为痕迹所产生的巨量原始数据基础上，以特定的算法深度分析过滤、提炼整合并经匿名化脱敏处理后形成的预测型、指数型、统计型等衍生数据，其呈现方式是趋势图、排行榜、占比图等，主要功能是为淘宝、天猫商家的网店运营提供系统的数据化参考服务，帮助商家提高经营水平。', '而被告运营的“咕咕互助平台”及“咕咕生意参谋众筹”网站，直接采用了以提供远程登录已订购涉案数据产品用户电脑技术服务的方式，招揽、组织、帮助他人获取涉案数据产品中的数据内容，将原告的数据产品“移花接木”作为自身数据兜售传播，并从中获利。', '法院审理认为，网络数据产品的开发与市场应用已成为当前互联网行业的主要商业模式，是网络运营者市场竞争优势的重要来源与核心竞争力所在。本案涉案数据产品系原告付出人力、物力、财力，经长期经营积累形成，为其带来了可观的商业利益与市场竞争优势。原告对涉案数据产品享有竞争性财产权益，对于侵犯其权益的不正当竞争行为有权提起诉讼。而被告未付出劳动创造，将涉案数据产品直接作为获取商业利益的工具，此种据他人劳动成果为己的牟利行为，明显有悖公认的商业道德，属于不劳而获“搭便车”的不正当竞争行为，如不加禁止，将挫伤大数据产品开发者的创造积极性，阻碍大数据产业的发展，进而会影响到广大消费者福祉的改善。', '根据被告美景公司自行公布的用户数量、版本分类、收费标准计算，其在本案中的侵权获利已超过200万元。遂依照反不正当竞争法的相关规定作出上述判决。', '法院明确多个具示范意义裁判标准', '经审理，杭州互联网法院经首次明确了相关裁判标准作为依据：如网络运营者收集、使用网络用户行为痕迹信息，除网络用户已自行公开披露的信息之外，应比照网络安全法关于网络用户个人信息保护的相应规定予以规制；网络运营者对于网络用户个人信息的安全负有法定保护义务和审慎注意义务，公开使用或许可他人使用其收集的网络用户个人信息的，应事先另行取得被收集者的明示同意；网络运营者对于原始网络数据仍应受制于用户对其所提供信息的控制，只能依其与用户的约定享有对原始网络数据的使用权，而不享有独立的权利及个案审判中不宜确认网络运营者享有数据产品财产所有权等。', '上述裁判标准的明确，对我国今后相关互联网案件的审理具有一定的示范意义。']</t>
+  </si>
+  <si>
+    <t>http://news.sina.com.cn/o/2018-08-16/doc-ihhvciiw0576794.shtml</t>
+  </si>
+  <si>
+    <t>2018年08月16日 19:06</t>
+  </si>
+  <si>
+    <t>警惕 黑“一带一路”的某国组织正在筹划大动作</t>
+  </si>
+  <si>
+    <t>['原标题：警惕！黑“一带一路”的某国组织，正在筹划大动作', '他们的计划是，在8月底或9月初借着“一带一路”倡议提出五周年，“蹭热点”推出有关“一带一路”建设现状的深度报道，目的是挑毛病、泼脏水。', '最近一段时间，在国际上抹黑中国“一带一路”倡议的声音似乎集中爆发出来，因为眼瞅着就要到“一带一路”倡议提出五周年的日子。逢五逢十肯定会有一些回顾和盘点，而有些势力认为，这是在国际上抹黑“一带一路”的好机会。', '那么，这些抹黑之声是怎么出台的？在“一带一路”提出五周年之际，那些抹黑“一带一路”的人还会搞什么大动作？', '关于这几个问题，刀哥最近跟一些外国朋友聊了聊，谁曾想，竟然有了巨大收获。', '壹', '美国一直是抹黑“一带一路”倡议的主力军。', '不久前，美国16名国会议员写了一封联名信给美国财政部长和国务卿蓬佩奥，在这封信中，他们宣称：中国的“一带一路”倡议让很多沿途国家欠下了巨额的中国债务，并因此而寻求国际货币基金组织的帮助。', '美国这16名议员的口径，与近段时间以来，西方媒体故意抹黑“一带一路”倡议的报道一模一样，不可谓用心不阴毒。', '众所周知，“一带一路”倡议是我国在2013年时所提出来的，意在充分依靠我国与相关国家既有的双多边机制，积极发展与沿线国家的经济合作关系，共同打造政治互信、经济融合、文化包容的利益共同体、命运共同体和责任共同体。', '可以说，“一带一路”倡议对于沿线国家的经济、基础建设帮助是巨大的，是一项利国利民的好事。不过，就是这样一个参与方都说好的倡议，却被有些西方媒体刻意抹黑，形容是“债务黑洞”。', '美国政客们为什么这么干呢？', '本周，刀哥与几位美国某大媒体大媒体的相关人士聊了聊才知道，在特朗普升级中美贸易战的背景下，该这家媒体正调集全球各站点了解“一带一路”事务的骨干采编人员，酝酿一个操作。', '甚至，连曾经只在中国驻站半年、现在被派到南亚的美国籍摄像师也被要求参与。', '他们的计划是，在8月底或9月初借着“一带一路”倡议提出五周年，“蹭热点”推出有关“一带一路”建设现状的深度报道。', '说是深度报道，其实挑毛病、泼脏水的内容肯定是连篇累牍。', '这家美国大媒体的两位资深人士告诉刀哥，这个深度报道的策划由该报现任采编业务负责人亲自点题并“督战”，此人曾常驻大中华区近十年，相当熟悉关于中国的选题。', '近期，这家美国媒体刊登的部分与中国相关负面文章的思路，都出自他手，比如指责新疆自治区政府打压维族人的话题。', '贰', '那么，这家美国大媒体准备怎么抹黑“一带一路”呢？', '上述两位资深人士告诉刀哥，那位负责人已经做出要求，所有参与此次“特别报道”的人员，一定要聚焦中国在“一带一路”节点国家的明星项目，重点从投资回报率、融资结构、地缘政治考虑、中企与政府间关系等角度审视这些项目。', '上述两位该媒体资深人士与刀哥聊天中，其实也主要为了解中企承建北非某国首都一项大工程的建设情况。', '交谈过程中，对方提出的问题主要是：', '根据公开资料，中企组成的银团将承担八成以上费用，能收回成本吗？', '其中有些央企是上市公司，他们如何说服投资者这一投资决定，背后是不是有“上面”的意思？', '该国经济状况并不好，西方国家不大在当地投资，中企投资的主要考量是什么？', '中企建的另一个工业园到底是赚还是赔？', '据这两位资深人士透露，由该媒体驻华一位站点负责人将率领另一队人马由中国国内出发，前往巴基斯坦报道中巴经济走廊重点项目。这位负责人曾常驻巴基斯坦，熟谙当地事务。', '根据接近这位负责人的人士给刀哥的分析，瓜达尔港近况、瓜达尔机场升级工程、卡拉奇出发的公路铁路、拉合尔城轨等，很可能将是这次他们赴巴基斯坦调查、报道的重点。', '根据刀哥获得消息，这媒体此次报道团队属于战役性质，至少驻大中华区的几家记者站和来自部分欧洲站、非洲站的人员都会全面参与，最后由该报的高层亲自统筹、审定。', '叁', '除了上述这家美国大媒体外，还有一些美国媒体也在策划类似报道，据说也是“蹭热点”的选题思路，可能还会针对“一带一路”在债务、生态环境等方面的问题。', '那么，到底这背后是个体行为还是集团作战？', '根据公开资料，设在美国联邦政府内的美国广播理事会的确有清晰的传播计划，专门针对“一带一路”。该项目名为“龙的触角”（Dragon’s Reach），设有一个名为重夺丝路的官方网站。', '该网站主要搜集美国及西方主流媒体关于中国在“一带一路”沿线活动的报道，更新频率较高，平均约一周一次。', '而这个美国广播理事会，每年接受国会8亿美元左右的财政拨款，主要由美国之音、自由欧洲电台/自由电台、中东广播网等组成，都是冷战遗存下来的老牌反共媒体，因此该官网上挑选的新闻以负面消息为主并不令人奇怪。', '其他市场化美媒虽然不在那个理事会内，但这些媒体集中报道“一带一路”在一定程度上受到了这一计划的影响。', '两个月前，刀哥曾与另一家知名美媒的朋友聊天，对方说“一带一路”成为美媒关注的热点，有可能是受中美贸易战的影响，中美话题比较热门，“一带一路”是中国与美争夺第三方市场。', '美国主流媒体一般在年初2月时，会制定年度策划，原本今年的重点是一度剑拔弩张的朝鲜半岛，但何曾想局势转圜如此之快，失去了原有的冲突性，导致亚太区的报道热点需要做出调整。', '他们看来看去，还是选定中美之间的结构性矛盾，因为随着中国的快速崛起，“一带一路”近两年在华盛顿圈子里被视为中国马歇尔计划，营造中美冷战的舆论气氛，很对美国一些人的胃口。', '从这个意义上，“一带一路”话题相当于填补了亚太区域长线选题的空缺。另外值得一提的是，美国广播理事会下的那几家“官媒”对“一带一路”持续的“关注”，确实起到了一定的提示作用，那个官网提供了不少选题线索。', '不过，这些美国媒体界的人士承认，如果比较最近出来的这几篇文章，跟几年前的区别不大，或者说一样的套路。一方面，一带一路也就推了五年，成也罢，败也罢，言之尚早。另一方面，巨亏或停摆的一带一路项目就那些，写来写去也不超过该范围。', '值得一提的是，这些人在言谈中，虽然对“一带一路”有“东方马歇尔计划”“政治工程不计成本”等刻板印象，但对特朗普主动挑起并升级中美贸易战均持否定态度。', '他们认为，虽然中国对美弹药有限（因为美国对华出口少），但中国目前的反制措施产生了不错的政治影响，豆农等群体正是特朗普的支持人群，且若中方精准反制美国在华投资，美方将得不偿失。', '更重要的是，贸易保护主义在侵蚀美国本就下滑的国际声誉，招致盟友反对。一旦因此影响中期选举，特朗普势必会改变政策。']</t>
+  </si>
+  <si>
+    <t>http://news.sina.com.cn/c/2018-08-16/doc-ihhvciiw0400617.shtml</t>
+  </si>
+  <si>
+    <t>2018年08月16日 19:02</t>
+  </si>
+  <si>
+    <t>这一上市公司造假天下大白 供应商集体讨债</t>
+  </si>
+  <si>
+    <t>['原标题：这一上市公司，造假天下大白！央视探访：核心子公司人去楼空、供应商集体讨债…', '雅百特：供应商集体讨债 海外项目人去楼空', '雅百特是中小板强制退市的第一股，由于恶劣的业绩造假事件导致了公司走入退市境地。', '今年7月5日，据证监会消息，雅百特及相关人员因涉嫌证券犯罪案件被移送公安机关依法追究刑事责任。', '从7月6日开始，雅百特股价成一字板连续跌停近一个月，目前雅百特已经进入退市整理期。', '今天是雅百特在A股市场的最后一个交易日，根据上市公司公开披露的信息，记者来到了雅百特办公所在地——上海市天山西路789号中山国际广场A栋6层。', '走入公司，整个楼层显得格外冷清，前台人员告诉记者，6层是公司管理层办公地，目前都在外出差，随后按照工作人员的指引记者来到了4层员工办公区。工作人员介绍，由于公司属于建筑设计承包企业，大部分的员工都在外跑业务。', '在记者走访的过程中，碰巧遇到了前来要账的材料供应商，据了解从去年下半年开始公司开始拖欠部分款项，小到几十万，大到上百万。', '材料供应商：以前合作还可以，从去年开始就不行了，来了好几天，见不到人，这几天每天都过来。', '雅百特主营金属屋面围护和分布式屋面光伏，以及建筑工程设计承包。业务一直以国内市场为主，海外业务在主营业务中占比一般在5%左右，但在2015年，公司通过虚构海外工程项目的方式虚增利润2.6亿，海外业务占比暴增至23%。', '但当记者来到雅百特海外项目分公司位于北京市丰台区的诺德中心时，却找不到雅百特业绩造假的核心子公司。', '记者：你好，请问雅百特在这个楼里吗？', '物业工作人员：他们已经搬走有一段时间了。', '左手倒右手 雅百特利润七成造假', '近年来雅百特经历了怎样变迁，从借壳上市到受机构追捧，股价一度创出57元的高点，但只不过3年多的时间，公司股价只有1块多钱，甚至可能被强制退市。公司的这次业务造假，到底有哪些特点？ 2015年8月，雅百特成功借壳中联电气上市， 当年的半年报显示，公司净利润1270万元，但到了年底，雅百特的业绩陡增至2.66亿元。年报显示，利润主要来自巴基斯坦的一个地铁项目。', '根据公司公告，雅百特在与巴基斯坦木尔坦市开展的城市快速公交专线项目实现收入超过2亿元，占年度销售总额21.8%。', '证监会调查人员：调查发现雅百特根本就没有参与这个项目的建设，它是找了海外的一个公司伪造了一个虚假的工程建设合同。', '在调查中，雅百特负责人辩解称，巴基斯坦木尔坦项目建设城市快速公交线，总投资超过3.5亿美元。公司曾向海外出口了一批建筑材料，他们声称这批建筑材料就是用于巴基斯坦木尔坦公交车站的建设。', '证监会调查人员：雅百特公司为了伪造施工的假象，它从国内出口了一批建筑材料到巴基斯坦，报关单上进口地是巴基斯坦卡拉奇港，但在实际过程中，它把材料实际运到香港和新加坡，然后通过关联公司把材料从香港和新加坡又进口回了中国。', '调查人员曾经要求公司及相关中介机构前往木尔坦核实该项目，但雅百特相关人员根本没去过巴基斯坦木尔坦市，施工现场的照片都是假的。', '相关的资金往来也都是走的空账，雅百特把资金从境内公司以国际贸易的形式将钱转到海关，然后又以进口的方式把资金以项目收入的名目从海关转回中国，来伪造一个真实的资金收入。', '证监会调查人员：在调查雅百特的时候，发现了很多它的走账公司和供应商都是空壳公司，所以要求雅百特向证监会提供供应商的联系方式，雅百特一直在推托。', '调查人员在调查中发现，雅百特之所以伪造项目，业绩造假，根源于当年重组借壳上市时的承诺。作为重组的条件之一，新股东承诺雅百特未来3年利润不少于10亿元，2015年到2017年，分别为2.55亿元、3.61亿元、4.76亿元。', '证监会调查人员：因为它重组的时候，对2015年、2016年、2017年的业绩做了承诺，必须要达到一定的标准，否则它要用股份进行赔偿。', '2017年12月，雅百特造假大白天下，证监会公布《行政处罚决定书》，经确认，雅百特于2015至2016年9月通过虚构海外工程项目、虚构国际贸易和国内贸易等手段，累计虚增营业收入约5.8亿元，虚增利润近2.6亿元，其中2015年虚增利润占当期利润总额约73%。', '公司相关负责人被处以不同年限的证券市场禁入以及相应金额的罚金。', '雅百特进入退市整理期 投资者启动索赔程序', '依照深交所的退市程序，雅百特7月6日复牌，证券简称变更为“*ST百特”，30个交易日后，深交所将在次一交易日对公司股票实施停牌，并在此后15个交易日内作出是否暂停公司股票上市的决定。同时，目前投资者开始陆续提起诉讼，要求上市公司进行赔偿。', '广东的陈先生一直经营着服装店生意，偶尔也试着买一些股票做投资，2017年4月初他买入雅百特股票48600股，每股买入价为17.44元，然而他没想到的是仅仅几天，公司就爆出业绩造假的消息。', '投资者 陈先生：开始看这个公司还是挺好的，后来突然爆出了造假，股价就跌停，卖都卖不出去。', '2017年4月8日，公司发布公告，因公司涉嫌信息披露违法，中国证监会决定对公司立案调查。', '4月10日，雅百特开盘即被巨量卖盘封死在跌停板上，连续二天跌停之后，4月12日，跌停板才被打开。', '陈先生：等跌停板打开才卖出去。当时等跌停板打开就全卖了，大概亏了20万，到现在还没有索赔。', '2018年7月5日，因涉嫌构成违规披露、不披露重要信息罪，雅百特被中国证监会移送公安机关。', '7月6日，雅百特证券简称变更为“*ST百特”，从7月6日起，公司股价连续跌停。在45个交易日之后，深交所将作出是否暂停公司股票上市的决定。', '中国人民大学金融与证券研究所联席所长 赵锡军：证监会专门出台了一个关于其它重大违法行为的细则，或者是一些具体的界定。比如，对国家的安全，有没有违反国家安全方面的法律法规，公共的安全、生态的安全、公众健康的安全、生产的安全等。如果上市公司违反了这些方面的法律法规，也会要求它退市。', '雅百特一季报显示，目前公司股东人数4.01万户，人均持有流通股7920股。', '从十大流通股股东名单来看，共有四家机构，中央汇金公司赫然在列，中央汇金持有雅百特414.33万股，占比1.3%。', '浙江裕丰律师事务所副主任 厉健：雅百特退市，对投资者索赔有重大影响。公司可能无力赔付投资者损失，可能出现打赢官司拿不到赔款的情况。', '律师告诉记者，过去的一年里，投资者起诉索赔实际处于暂停状态，主要原因是两地法院对管辖权有争议，究竟按公司注册地址还是主要办事机构所在地确定。直到今年四月，最高人民法院裁定雅百特案由南京中院管辖，目前法院已经正式受理投资者赔偿案。', '浙江裕丰律师事务所副主任 厉健：根据司法解释，暂定索赔条件是，在2016年3月25日至2017年4月7日（含当日）期间买入雅百特股票，并在2017年4月8日后卖出或继续持有该股票的亏损投资者可以索赔，最终索赔条件以法院认定为准。']</t>
+  </si>
+  <si>
+    <t>http://news.sina.com.cn/c/zj/2018-08-16/doc-ihhvciiw0361385.shtml</t>
+  </si>
+  <si>
+    <t>2018年08月16日 18:53</t>
+  </si>
+  <si>
+    <t>新京报:红芯浏览器是“站在巨人的肩膀上打包”吧</t>
+  </si>
+  <si>
+    <t>['原标题：红芯浏览器是“站在巨人的肩膀上打包”吧！ | 沸腾', '文 | 陈迪', '“站在巨人肩膀上的创新”，就是把巨人的产品打包几层拿出来卖吗？', '昨天晚上科技圈曝光了一件非常搞笑的事情。一款名叫“红芯”的“国产浏览器”，自称“打破美国垄断，中国首个自主创新智能浏览器内核”。', '不过打脸的是，有网友发现，通过将红芯浏览器的安装文件多次解压缩后，出现了大量与谷歌Chrome浏览器中一致的同名文件，安装目录高度一致，甚至含有谷歌浏览器的图标文件，以及Chrome的版本号（49.1）。', '红芯浏览器安装程序的文件属性中也显示着：原始文件名为chrome.exe。在昨天红芯公司C轮融资的新闻下，有网友言简意赅地留言道：“Hello， Chrome！”', '面对全网山呼海啸的“抄袭”、“骗子”的指责，“红芯”公司的回应也是让人大跌眼镜。今天早上，新京报的记者采访到了其中一位联合创始人，她的说法是：', '“这个并不是我们去抄袭，我们去妄改名字什么的，我们本来就是这样。我们也是尊重说，我们是站在巨人的肩膀上去做创新”——高婧，“红芯”联合创始人。', '原来“站在巨人肩膀上的创新”，就是把巨人的产品打包几层拿出来卖吗？汉语词汇“创新”的词义，就是反反复复被这样的人、这样的公司一点一点地污染的。过去把别人的成果拿过来，改动一点点就叫做“微创新”，大家慢慢见怪不怪都认了；现在加一层皮肤连里面文件名都不带改的都敢说自己是创新了，所以这次该叫什么？打包式创新？换皮式创新？难怪现在有种说法：卖皮肤的要比做软件的更赚钱。', '更可笑的是，出了这么荒唐的事情，这家公司还是拿到了2.5亿的C轮融资。这个名字，“红芯”，把外国的现成产品换个包装就说是国产的，然后还顺利拿到这么多钱，让人不由自主回想起十几年前的那出“汉芯”造假闹剧。', '2003年，上海交大的陈进，托人从美国买了十片摩托罗拉的芯片回国，然后雇了一个民工把摩托罗拉的标志磨掉，再印上“汉芯”和“上海交大”的中文字样，就当作自主创新成果拿去发布。', '随后陈进当上长江学者，拿到上亿科研经费，在学校当院长在外面当CEO，妥妥的人生赢家。三年之后，事情败露。陈进虽然被撤销职务，但是这桩欺骗了整个国家上下的骗局，到最后竟然没有人因此受到法律追究，也没有人坐牢。', '十几年前的“汉芯”能够骗倒这么多人，其宣称的“中国自主知识产权”的光环可能模糊了不少人的判断力。十几年后的这个“红芯”，虽然业务性质不一样，但是“国产”、“打破美国垄断”、“属于中国人自己的”，这些卖点依然如出一辙。', '其实有一个很有意思的细节，“红芯”这家公司之前是不叫“红芯”的，也就是今年5月初才改的现在这个名字；而在那之前的4月中，发生了美国商务部禁止向中兴出售电子技术和元件的事情。', '“红芯”之后的改名、公关，就非常有借风造势的意思。他们主打的是“国产自主可控”这一点，“红是中国红”，这是他们高管的原话，结果现在被扒出来，他们其实不过是把美国人的东西套层皮冒充国产。', '做产品的就该踏踏实实做产品，从来就没有什么技术创新是通过卖爱国人设就能卖出来的。以后大家但凡见到这种扯大旗赚吆喝的，睁大眼睛看清楚，说不定就会意外发现那不过是“站在巨人肩膀上打包”。']</t>
+  </si>
+  <si>
+    <t>http://news.sina.com.cn/c/zj/2018-08-16/doc-ihhvciiw0332603.shtml</t>
+  </si>
+  <si>
+    <t>2018年08月16日 18:52</t>
+  </si>
+  <si>
+    <t>虚假大学多在东部生源多在中西部 教授：信息滞后</t>
+  </si>
+  <si>
+    <t>['原标题：骗局花样百出，“假大学”“假中专”为何禁而不绝', '文/刘博超', '光明日报8月16日消息，8月中旬，随着各省区市高职专科批次录取渐次完成，2018年高考招生录取也进入尾声。征集志愿和调剂结束后，是落榜考生最心焦，也是“野鸡大学”招生人员最为活跃的阶段。面对花样百出的“假大学”“假中专”骗局，家长考生如何远离虚假学校的陷阱，虚假宣传骗局招生经久不绝的深层原因在哪里？记者进行了调查。', '信息不对称，相信天上掉馅饼', '宁夏灵武宁东镇的张生春五年前被一个声称与某医科大学合作办学的学院招去，直到学院被查处，才知道自己浪费了3年时间和数万元学费。记者采访了张生春的同学发现，他们大都来自山西长治、甘肃平凉、民勤，内蒙古包头等地。“当时没过线，心里着急，一看学院在大学园里、医大边上，也听说合作办学收分低，就去了。”张生春说。', '在日前曝光的392所虚假大学名单中，在北京的有151所。而记者了解到，虽然很多虚假大学设在东部发达地区，生源却大多来自中西部地区，且家境多不宽裕，迫切需要好的就业改善经济状况。', '“虚假大学在大城市已经骗不到人了，但由于信息流动还有滞后效应，农村、中西部地区便成了‘假大学’广告轰炸的目标。”大连理工大学高等教育研究院教授罗志敏指出。', '今年6月，一个名为“武汉经贸大学”的“山寨官网”被河北省网信办依法关停。该网站的栏目布局、主页大图与正规高校河北经贸大学完全相同，甚至简介中还有“围绕湖北省委、省政府提出的实现河北‘科学发展，绿色崛起’的奋斗目标”等字眼。该学校曾经归属于民办武汉经贸大学，属于非学历高等教育机构，并于2016年经整合组建了现在的武汉光谷职业学院，原建制已经撤销。骗子借用旧名、复刻官网，就“建立”了一所“大学”。', '“前些年为了创收，部分高校办学种类过多过杂，为类似骗局提供了生存的土壤。现在口子已经收紧，但骗子还在大行其道。”不愿具名的专家陆盛平（化名）表示，现在网上录取很公平，走正规志愿填报流程就不会出问题。正规录取的学生都有与学籍管理有关的联网编码，如果尝试非常规渠道，耽误了正规录取的时间，一个月后系统关闭，再想去报到就来不及了。“不要相信所谓点招、特招，不要相信天上掉馅饼。”', '多头管理，执法难聚力', '据《扬子晚报》报道，因虚假宣传，今年4月，南京有关部门下发通知，取消南京交通科技学校2018年招生资格。6月，该校换了一个名字新领航职业学校，又开始招生。', '打开南京新领航职业学校网站，“校企合作、订单式培养、确保对口就业、入学即就业”字眼映入眼帘。除了就业保障，网站还标明了文凭保障：毕业颁发中专文凭+大专文凭+本科文凭，国家承认学历，教育部备案，电子注册，学信网可查。', '记者通过“天眼查”系统发现，江苏新领航教育科技集团股份有限公司成立于2018年6月1日。最初经营范围是教育领域内的技术服务。后来，在一个月内先后增加了“从事国家批准设置的特定职业和职业标准范围以外的培训（不含国家统一认可的职业证书类培训）；互联网信息服务；艺术培训；研学培训；科技培训；人力资源咨询；人力资源软件研发；非学历职业技能培训（不含国家统一认可的职业证书类培训）等。”', '南京交通科技学校的主管单位南京市人力资源和社会保障局朱清怡处长表示，这家单位换了一个名字又开始招生明显属于违规行为，但新领航集团不是人社部门审批和管理的机构，是在工商部门注册的机构，不在技工院校招生的范围之内，也从来没有给过任何的招生计划。此外，这家新领航教育集团的工商登记注册地点位于句容市华阳街道，这在查处上存在一定难度。他建议，应该由政府组成联合的执法机构对这样的机构进行严肃查处。', '“主体权责是按照谁审批谁监管的原则进行的。注册在工商，出了事也不能让教育、人社这些部门负责。”罗志敏还表示，因为历史形成、部门利益等原因，学校尤其是职业学校的主管、监管部门多样，多头管理难以统一归责。', '“工商注册为教育企业本身不能说违法，只能说虚假宣传。”陆盛平表示，教育部门并没有执法权，只能发布正规高校名录，而虚假大学名录，省区一级无权发布，国家层面掌握不全，这就给了“假大学”“假中专”生长空间。', '风险防控，高校监管待健全', '交15万元中介费，每年再向中介交1.5万元杂费，住宿舍、在教室上课、参加考试甚至运动会，却没有学生证、饭卡，更没有学籍。2015年，某知名高校曾发生校外不法人员“运作入学”的招生诈骗。后经校方查实，后勤集团职工串通中介，私自为受骗学生安排了住宿。校方表示，相关人员已受到责任追究。在这个例子中，高校管理的疏失为骗局的可信度增添了重要砝码。', '同年，云南新兴职业学院大理分校被曝2012、2013级的234名大专学生学籍远在云南文山的三鑫职业技术学院。原来，新兴学院当年招录考生过多，三鑫学院又有指标空缺，便承诺帮新兴学院解决学生的学籍问题。新兴学院将这些学生信息汇总后交由三鑫学院录取、办学籍，原拟通过转学转回，后来未能兑现。违规变通给学生带来的潜在风险变成了现实。', '有学籍注册证明，有学业档案，有教育主管机构的学历认证和官网的查询记录，也不意味着有含金量。“一些高校成人教育学院只重招多少学生，却不抓教学管理和教学质量。虽隶属于某所高校，但办学模式却很独立，脱离了学校教务部门的监管，学校关心的是它每年上缴的学费收入，其他则很少过问。上级教育主管机构缺乏像普通教育那样的一套行之有效的监管措施，从而存在一个‘监管盲区’。”罗志敏说。', '他表示，要堵漏洞，只有加强监管，“一方面，是高校对其下属机构的监管，一方面也有上级教育主管部门的监督，同时要加大信息公开力度，接受社会监督”。', '来源：光明日报']</t>
+  </si>
+  <si>
+    <t>http://news.sina.com.cn/c/2018-08-16/doc-ihhvciiw0304536.shtml</t>
+  </si>
+  <si>
+    <t>2018年08月16日 18:38</t>
+  </si>
+  <si>
+    <t>马哈蒂尔将访华 西媒煽风点火炒作中马负面新闻</t>
+  </si>
+  <si>
+    <t>['原标题：（全球热点）马哈蒂尔将访华\u3000中马关系受关注', '新华社北京8月16日电（全球热点）马哈蒂尔将访华\u3000中马关系受关注', '新华社记者', '马来西亚总理马哈蒂尔应邀将于8月17日至21日对中国进行正式访问。', '这将是马哈蒂尔再次担任总理后首次访华。中国是他就任以来在东盟之外首个正式出访的国家。', '自马来西亚举行大选产生新政府以来，中马关系未来走向备受关注。', '分析人士认为，中马关系传统友好，又同属发展中国家，秉持相似发展理念，坚持独立自主外交政策，崇尚亚洲价值观，反对强权政治，中马共同利益远远大于个别分歧，对中马关系的展望不应局限于一时一隅，而应着眼未来、聚焦发展。', '[新闻事实]', '马哈蒂尔16日接受新华社专访时表示，对华关系对马来西亚十分重要，他在上一次担任总理期间就一直致力于推动与中国的紧密关系，中国发展让马来西亚受益良多，欢迎来自中国的投资。', '马哈蒂尔5月10日宣誓就职总理。新政府13名内阁部长7月2日宣誓就职，标志着组阁完成。', '自新政府履职以来，中马政府保持互动、加强沟通，中马关系实现平稳过渡。', '马来西亚总理特使、元老理事会牵头人达因7月18日访华期间，向国务院总理李克强递交了马哈蒂尔的亲笔信。马哈蒂尔在信中表示，马来西亚新一届政府将继续致力于保持对华友好关系，愿推动两国全面战略伙伴关系进一步强化，欢迎中国企业赴马投资兴业，对马中关系发展前景感到乐观。', '马哈蒂尔8月1日在吉隆坡会见国务委员兼外交部长王毅时也表示，中国不断发展壮大，对马来西亚意味着更多和更大的机遇。良好的马中关系对马来西亚的发展有益，对地区的和平繁荣有利。', '他还说，希望中方企业尤其是高科技企业加大对马来西亚的投资。', '[深度分析]', '中国社科院亚太与全球战略研究院研究员王玉主认为，对于中马关系未来走向不必过于担心，不应为一两个项目而过分焦虑，而应向前看。', '首先，马来西亚新政府当前一些表态或举动与该国内部政治因素密切相关，应从中马关系大局出发，聚焦发展，而不应做过多负面解读。', '其次，马新政府施政重点之一是大力发展本国经济，中马经济互补性强、合作潜力很大。', '第三，马哈蒂尔本人一直崇尚亚洲价值观，坚持独立自主的外交政策，反对强权政治，认同区域合作尤其是东亚一体化进程，其立场与中方有诸多共同点。', '正如国务委员兼外交部长王毅所言，中方愿同马方共同努力，以马哈蒂尔此次访华为契机，对未来合作进行全方位规划设计，开辟中马关系新的美好未来。', '[即时评论]', '自马来西亚新政府上台以来，西方媒体频频抓住中马关系走向做文章，炒作负面新闻。', '中马双边关系根植于两国源远流长的传统友谊，堪受风雨。两国经济合作项目顺应了国家发展和民生改善的需要，堪受风雨。推动区域合作与一体化进程是域内各国基于自身发展特点与优势形成的共识，堪受风雨。', '事实上，几乎每逢中国周边国家有政权更迭，都能见到西方媒体以偏概全、煽风点火的“套路”。在与周边国家合作时，中国始终坚持与邻为善、以邻为伴，始终坚持互利互惠、合作共赢，这是中国同周边国家关系发展能经受住各种风雨考验的关键所在。', '[背景链接]', '马哈蒂尔1925年出生于马来西亚吉打州。他曾于1981年至2003年间任马来西亚总理。在他任职的22年间，马来西亚发展迅速，成为“亚洲四小虎”之一。2018年5月，他率希望联盟在大选中获胜并出任总理。', '据中方统计，2017年中马双边贸易额960.3亿美元，同比上升10.5%，占中国与东盟贸易额的18.7%。中国已连续9年成为马来西亚最大贸易伙伴，双边贸易额有望于今年突破1000亿美元。中国连续两年成为马制造业最大投资来源国，连续多年成为马工程施工承包的最主要合作方。中国已连续6年是马外国游客最大来源国之一。']</t>
+  </si>
+  <si>
+    <t>http://news.sina.com.cn/c/2018-08-16/doc-ihhvciiw0136809.shtml</t>
+  </si>
+  <si>
+    <t>2018年08月16日 18:19</t>
+  </si>
+  <si>
+    <t>49家公司钩织黄晓明商业帝国 经营问题频现</t>
+  </si>
+  <si>
+    <t>['独家揭秘！黄晓明商业帝国版图：49家公司四种手法 经营问题频发', '见习记者 邸凌月 华夏时报（www.chinatimes.net.cn）记者 王兆寰 广州报道', '一个人名下有49家公司是种什么体验？黄晓明是回答这个问题的不二人选。', '近日，随着黄晓明卷入18亿股票操纵案，其商业版图也一并浮现，规模之大，堪称娱乐圈之最。那么，其是否会因操纵案而承担惩罚？又是怎样堆砌起宏大的商业帝国？《华夏时报》记者经过独家调查将一一揭开面纱。', '49家公司钩织商业帝国', '8月15日，黄晓明再次发声，在微博中就近期报道进行澄清。', '声明一共4条，每一条，黄晓明都在极力否认自己及母亲与该案件的联系，但这样就能逃脱与此案的干系吗？某大型券商法务人员向记者表示，黄晓明账户是高勇在打理，虽是高勇操纵股价，但案件坐实后委托人可能也会承担部分惩罚，并且对于黄晓明，不排除后续追责的可能。', '黄晓明究竟是否会被惩罚，最终还是要依据法律来判定。《证券法》第二百零三条表明，违反本法规定，操纵证券市场的，责令依法处理非法持有的证券，没收违法所得，并处以违法所得一倍以上五倍以下的罚款；没有违法所得或者违法所得不足三十万元的，处以三十万元以上三百万元以下的罚款。单位操纵证券市场的，还应当对直接负责的主管人员和其他直接责任人员给予警告，并处以十万元以上六十万元以下的罚款。', '该案件看似告一段落，但黄晓明的商业帝国版图却成为大众关注的对象。', '启信宝数据显示，与黄晓明有关联的企业共有49家，堪称娱乐圈之最，“老炮儿”冯小刚仅为18家，素有“范爷”之称的范冰冰不过拥有10家，黄晓明的朋友圈也再次曝光，李冰冰、任振泉（即任泉）、章子怡频频现身黄晓明的关联企业。', '49家公司中，黄晓明担任法人的企业为9家，担任股东的企业高达46家，在12家企业担任高管，三者虽有交集，但同样能够说明黄晓明的商业版图涉猎够广，其中包含广播、电视、电影、商务服务、软件和信息技术服务、酒、饮料和精制茶制造、服装、餐饮、文化艺术等，投资类公司成为黄晓明的一大类，多达13家。', '经记者梳理，黄晓明的商业帝国崛起路径可分为以下4类：一是成立个人工作室，即股东仅为黄晓明一人，注册资本可高可低，如东阳横店淇悠影视文化工作室、上海攸合影视文化工作室等6家，越来越多的明星加入此队列；二是与母亲张素霞一同设立，典型的“母子公司”，多为咨询类企业，其中上海聪垚商务咨询有限公司、上海毓盛商务咨询有限公司注册资本分别高达1.25亿元、0.9亿元，张素霞担任监事一职，其还是青岛市企业干部；三是与圈中好友、商业伙伴共同投资开公司，共计10家，且7家从事投资行业；四是与VC/PE机构合作创办公司，如数岩科技（厦门）股份有限公司。', '跨领域、多手法，黄晓明逐渐建立起了他的商业帝国，针于这四种路径，著名经济学家宋清辉认为，这种模式不是一天可以成型的，存在较大问题违法违规等行为的可能性，呼吁监管层对此进一步调查，不能草率、不了了之。资本市场不是法外之地，不管是明星还是普通人，只要违反了相关法律法规，都应受到相应的处罚。', '旗下公司经营问题频现', '值得注意的是，在49家公司中，记者并没有看到黄晓明与妻子Angelababy（杨颖）共同出现在某家企业的股东名单中，不过，宁波星鎏股权投资中心（有限合伙）股东除黄晓明外，还有一位叫杨铭的自然人，其正是杨颖的经纪人，该股权基金投资了深圳市住百家发展股份有限公司、北京和聚网络科技有限公司，而据公开资料显示，杨颖旗下创投基金AB Capital在2015年也曾投资住百家。', '公开资料显示，住百家通过互联网PC端网站、移动端App等线上、下各渠道，向用户提供海外精品短租住宿服务及自由行配套的吃住行游购娱等特色产品和服务。公司曾在新三板挂牌，今年7月公告称终止挂牌，并且实际控制人陷离职员工劳工纠纷，被列入失信被执行人名单，不仅如此，该公司常年亏损。', '黄晓明投资的其他公司问题也层出不穷，北京星云梦科技有限公司、北京良友名都餐饮管理有限公司等4家公司收到多次裁判文书；湘西老爹生物有限公司风险信息多达71个，包括行政处罚、开庭公告等；中国合伙人腾飞股权投资基金管理（上海）有限公司、北京大咖联盟投资管理合伙企业（有限合伙）均存在经营异常。', '某股份制银行支行前行长陈熙伟告诉记者，明星有有稀缺性，有粉丝，有号召力，有形象的背书，有钱，有公关媒体资源，还有人脉。考虑到资本市场操作的便捷性，无论明星是实际出金入股，还是技术入股，甚至资源入股等其他方式，透过股权投资公司参与市场，无论从持有还是退出，都有极大便利性，所以股权投资公司成了明星们最直接的选择。', '娱乐圈和资本圈均过于接近钱，所谓近朱者赤近墨者黑，明星染指资本圈是否合适？宋清辉表示，真正让明星暴富、暴赚的，最终还得染指资本圈，但这一做法不太合适，应受到舆论的谴责，不然会给资本圈带来浮躁之气。', '黄晓明若被查实，就需要承担相应的法律责任，监管部门应一视同仁，不能因为是明星就“网开一面”。宋清辉最后强调，在暴富效应的冲击下，近年来娱乐圈和资本圈关系密切，这种趋势还在延续。']</t>
+  </si>
+  <si>
+    <t>http://news.sina.com.cn/c/zj/2018-08-16/doc-ihhvciiw0118348.shtml</t>
+  </si>
+  <si>
+    <t>2018年08月16日 18:18</t>
+  </si>
+  <si>
+    <t>栗战书调研 从地图上随机选了3位客人</t>
+  </si>
+  <si>
+    <t>['原标题：栗战书调研，从地图上随机选了3位客人', '来源：“长安街知事”微信公众号', '七月下旬，时值盛夏。中共中央政治局常委、全国人大常委会委员长栗战书7月19日至23日前往江西赣州、南昌、九江、景德镇调研。', '长安街知事（微信ID：Capitalnews）注意到，作为江西省选出的全国人大代表，栗战书此行来江西，不仅是调研，也是回原选举单位联系群众、听取意见，履行人大代表的职责。', '在江西调研的第一天中午，栗战书就请来了三位“客人”。最新一期的《中国人大》杂志披露，他们是栗战书在调研途中，从地图上随机选取的三名县委书记，分别是赣州市信丰县县委书记刘勇、上犹县县委书记赖晓岚、大余县县委书记曹爱珍。', '这三位来自红色革命老区的县委书记，除了信丰县县委书记刘勇是一名“60后”外，其他两位女县委书记赖晓岚、曹爱珍都是“70后”。', '出生于1971年的赖晓岚，在担任上犹县县委书记前，曾担任过瑞金市委副书记、市长。她的父亲也曾在上犹县当过县委书记，而她“女不承父业”的故事更令人印象深刻。', '原来，赖晓岚父亲在任上犹县县委书记期间，曾大力倡导“马路经济”，号召村民路边摆摊、网箱养鱼。赖晓岚担任县委书记后，为了保护清水、治理污染，她让村里人拆除了网箱。为了整治村容村貌，她还大力治理马路边乱搭乱建行为。', '听完这个故事，栗战书深受感动。他指出，这些观念的转变，是贯彻落实习近平总书记新发展理念的生动实践。', '同是“70后”的大余县县委书记曹爱珍，则致力于绿色殡葬改革，打造乡村旅游点。', '“对大余县来说，殡葬陋习是乡村文明、乡村振兴最大的短板。” 她说，以前县里广泛存在抬棺游街、开门见坟、“人鬼混居”的现象，一个个山头被占，一片片树林被毁，很多家庭因丧致贫、返贫。通过大力推进绿色殡葬改革，现在的大余县已经打造了46个乡村旅游点。', '郡县治，天下安。在推进实施党中央重大决策部署方面，基层干部扮演着至关重要的角色。打好三大攻坚战，也离不开优秀的基层干部队伍。三位县委书记讲的一件件小事、一个个细节，便是了解基层工作的钥匙。', '长安街知事（微信ID：Capitalnews）注意到，栗战书此行一个重点，就是老区脱贫攻坚工作。他专程来到瑞金市叶坪乡仰山村，走进村民家中看望慰问，在村医务室和村委会询问村民看病、社保、住房等情况。', '7月22日下午，他在景德镇紫晶宾馆召开了一场特别的会议。', '除调研组成员外，参会的主要是江西省、市、县、乡四级人大负责同志和景德镇的全国人大代表。大家结合自身工作，就人大工作如何更好服务党和国家工作大局、助力打好三大攻坚战进行讨论。', '7月22日，全国人大常委会在景德镇举行四级人大负责人座谈会', '此外，他还先后来到新材料、新能源、电子信息、飞机制造等企业，调研产品研发、市场推广和企业发展情况，鼓励企业努力攻克核心技术，在自主创新上取得更多成果。', '栗战书考察长江最美岸线建设情况，强调要贯彻好习近平总书记关于“共抓大保护，不搞大开发”的重要指示，加强区域协作共治，实现水美、岸美、产业美、环境美。', '他在景德镇御窑厂遗址了解陶瓷文物保护工作，到陶溪川陶瓷文化创意园实地调研，叮嘱要把传统文化瑰宝保护好、传承好，把现代陶瓷产业做大做强。']</t>
+  </si>
+  <si>
+    <t>http://news.sina.com.cn/c/2018-08-16/doc-ihhvciiw0014893.shtml</t>
+  </si>
+  <si>
+    <t>2018年08月16日 18:04</t>
+  </si>
+  <si>
+    <t>山西反腐“救火队员”仅仅3年就堕落：人是会变的</t>
+  </si>
+  <si>
+    <t>['原标题：山西反腐“救火队员”堕落：人是会变的！', '来源：“长安街知事”微信公众号', '昨晚，山西纪委监委发布消息，吕梁市委原常委、孝义市委原书记马文革因严重违纪违法问题被“双开”。', '长安街知事（微信ID：Capitalnews）注意到，马文革曾是组织用心栽培的领导干部，曾在山西塌方式腐败发生后“空降”吕梁，不过他却辜负了组织重托，仅仅3年就堕落了。', '对此，中纪委机关刊用5个字评价他：人是会变的。', '公开简历显示，马文革1966年出生于山西柳林县，1987年从山西财经大学企业管理专业毕业后，入职《山西经济日报社》，此后从事新闻工作长达13年。2000年，马文革进入山西省委政策研究室党刊编辑室工作，2010年担任山西省委政策研究室副主任、机关纪委书记。', '长安街知事（微信ID：Capitalnews）注意到，在政策研究室期间，马文革一直受到组织用心栽培。其间，他曾挂职任清徐县委常委、副县长两年，并且接受过两次培训学习，一次为省级党校青年干部培训班，另一次为中组部组织的公共管理高级培训。', '2014年，山西发生塌方式腐败，半年之间有7名省部级官员被查，其中包括杜善学、陈川平、聂春玉、白云四名在任常委，全年处分的厅级干部达45人。到2015年初，省管干部空缺近300名。', '吕梁市是山西的腐败重灾区之一。原市长丁雪峰、原副市长张中生、市人大常委会原副主任郑明珠、市政法委原书记李良森、离石区委原书记闫刚平5名厅级干部先后被查，杜善学、白云、聂春玉3名“晋七虎”落马前也曾在吕梁任要职。', '就是在这个时候，马文革被组织委以重任。当年3月，他“空降”山西，出任吕梁市委常委、孝义市委书记。不过他却辜负了组织重托，3年后就落马了。', '先例在前，马文革为什么还敢腐，他到底干了什么？', '根据山西省纪委监委的通报，马文革不仅收受礼品、接受宴请，还要求商人向其提供私人会所并长期使用、插手干部选拔任用、违规从事营利活动等，涉嫌犯受贿罪。在组织调查时，他还伪造证据，转移隐匿违纪违法所得，企图对抗组织审查。', '本来，马文革应感恩组织的信任与重托，但他理想信念丧失，以权谋私，严重违反党的纪律，最终自毁前程。', '早在2014年11月，新华社曾专门刊发过《山西吕梁反腐报告》，报告称，大量煤炭挖掘造成一些地方自然地质塌陷的同时，这片土地更因资源经济与权力腐败的勾结，形成了可怕的“黑金”现象，一座英雄城市，被“黑金”绊倒。现在看来，被绊倒的吕梁仍没有完成“形”“魂”重塑，彻底“站起身来”。', '作为“刷新吏治第一批选任的干部”，马文革的堕落令人扼腕。中国纪检监察杂志曾用5个字评价他称：人是会变的。“有些干部过去可能是好同志，并不意味着今后也是好同志。过去的好同志在严峻复杂的考验面前，也有可能蜕变。”', '曾经的好干部黯然落马值得反思，对干部的考察一般只能基于其过去表现，人性的复杂、环境的挑战，短时间内想要辨识清楚，存在一定难度。这也再次警示我们，拒腐蚀、永不沾的法纪之弦必须时刻绷紧，否则，任何人都有“一失足成千古恨”的危险。']</t>
+  </si>
+  <si>
+    <t>http://news.sina.com.cn/c/2018-08-16/doc-ihhvciiw0014514.shtml</t>
+  </si>
+  <si>
+    <t>刘树伟任中部战区空军副参谋长 曾在沙尘暴中返航</t>
+  </si>
+  <si>
+    <t>['原标题：刘树伟任中部战区空军副参谋长，曾在沙尘暴中沉着返航', '澎湃新闻记者 岳怀让', '空军特级飞行员刘树伟少将最新职务现已明确。', '据中国空军网8月16日消息，应俄罗斯国防部邀请，中国空军7架歼-10表演机和2架伊尔-76运输机今天从新疆某机场离境飞赴俄罗斯，参加国际军事技术论坛飞行表演任务。', '这是继2013年8月赴俄罗斯参加莫斯科国际航展之后，中国空军八一飞行表演队第二次远赴俄罗斯进行飞行表演，在世界舞台上展现中国精神、中国力量和中国空军的形象风采。', '消息提到，中国空军赴俄罗斯执行飞行表演任务指挥员、中部战区空军副参谋长刘树伟少将表示：八一飞行表演队作为“中国蓝天仪仗队“，是强国兴军的窗口、改革开放的窗口、军事交流的窗口。', '上述军方权威媒体报道证实，刘树伟少将已经出任中部战区空军副参谋长职务，跻身副军级军官之列。公开报道显示，刘树伟是空军特级飞行员，曾荣获空军飞行人员金质荣誉奖章，曾任原广州军区航空兵某师师长，2017年7月晋升少将军衔。', '人民网军事频道2011年1月曾刊发系列报道《“多能”师长——广空航空兵某师师长刘树伟小故事》。文章介绍称，刘树伟是一名复合型的飞行员和指挥员，一般来说，飞行员完成改装后都是固定飞一种机型，刘树伟却能熟练驾驶现役3型三代战机和1型二代战机，能熟练使用英语指挥作战训练，随时能驾驶所属部队三型战机带队升空遂行作战任务。', '1996年，刘树伟作为某师首批飞行员参加改装某第三代新型战机。经过两年多时间严格的改装训练，他熟练掌握了驾驭某新型战机的技战术。', '1999年8月，部队赴西北新执行战法研练任务，时任某团飞行二大队大队长的刘树伟和3名飞行员执行完任务返航途中，突遇沙尘暴袭击，整个机场黄沙弥漫，在空中看不清跑道，地面看不到飞机，指挥员无法实施指挥引导的情况下，他们沉着冷静，密切协同，凭着低气象仪表飞行的过硬技术小航线反向安全着陆，避免了重大事故的发生。', '走马上任师长岗位后，刘树伟刻苦学习钻研，深入进行探索实践。刘树伟在所属某国产新机团参训，驾驶着国产新型战机一会儿低空突防，一会儿进行空战格斗，一会儿用雷达锁定对手，先后完成了仪表特技、对抗空战和对地精确打击等课目的训练。']</t>
+  </si>
+  <si>
+    <t>http://news.sina.com.cn/o/2018-08-16/doc-ihhvciiw0038674.shtml</t>
+  </si>
+  <si>
+    <t>2018年08月16日 18:03</t>
+  </si>
+  <si>
+    <t>大陆推出18位居住证 台胞兴奋:能网上买火车票了</t>
+  </si>
+  <si>
+    <t>['原标题：大陆推出18位居住证 台胞兴奋：能网上买火车票了', '海外网8月16日电 国务院新闻办16日举行新闻发布会表示，国务院办公厅将印发《港澳台居民居住证申领发放办法》，并于9月1日正式实施。居住证采用了居民身份证制作技术标准，采纳了台湾同胞提出的使用18位身份证号码的建议。对此，在大陆长期居住的台生和台青都非常兴奋，纷纷表示总算突破技术瓶颈，迈入“新的里程碑”。', '据台湾《旺报》报道，在北京开业10年的台湾医生林峻生说，18位居住证最大的影响是，大陆现在几乎“跟金钱相关的线上申请”都会遇到身份验证问题，台胞证以前最大问题就是“永远过不了这个验证”，而现在按照大陆编码规则，给台胞重新发一个18位号码证件，生活便利性将大大增加。', '林峻生说，台胞之间已经在转传，18码居住证好处包括“3项权利”：参加社会保险、依法缴存提取和使用住房公积金；“6项基本公共服务”：居住地政府及有关部门提供义务教育、基本公共就业服务、基本公共卫生服务、公共文化体育服务、法律援助和其他法律服务；“9项便利”：居住地办理机动车登记、申领机动车驾驶证、报名参加职业资格考试、申请授予职业资格、办理生育服务登记以及在大陆住宿旅馆，乘坐大陆国内航班、火车等交通运输工具，办理银行、保险、证券和期货等金融服务。', '“以前这些文件都要亲自到现场办理，现在应该都能上网申请！另外购买公园及各类文体场馆的门票，也可以跟大陆居民同等价格。”林峻生表示，18位居住证还有一个很大差异，就是台湾学者申请大陆国家经费、研究经费，以前没号码，线上申请不了；现在应该都可以突破技术上的瓶颈，“打通任督二脉，迈入新的里程碑！”', '北京清华大学台籍博士生罗鼎钧表示，台胞证是旅行证件，和居住证差很多。他对居住证最大期待就是买大陆机票、火车票，“以前我都是上网预订之后，去车站港澳台取票机，或是去代售点拿票。”他希望，未来台湾民众可以像大陆居民一样，“刷证件就直接进站”。', '此前据新华社报道，国务院新闻办16日举行新闻发布会，介绍《港澳台居民居住证申领发放办法》的有关内容，公安部副部长侍俊、国务院港澳办副主任黄柳权、国务院台办副主任龙明彪出席发布会。侍俊表示，近日，国务院办公厅将印发《港澳台居民居住证申领发放办法》，并于9月1日正式实施，这是党中央、国务院便利港澳台居民在内地（大陆）学习、创业、就业和生活的重要文件。', '龙明彪介绍道，台湾居民来往大陆通行证，也就是我们通常说的“台胞证”，是台湾同胞来往大陆的旅行证件。台湾居民居住证与台胞证最大的不同，居住证是台湾同胞在大陆学习、工作、生活的身份证件，不能用于出入大陆，而台胞证是出入大陆的唯一证件。居住证采用了居民身份证制作技术标准，采纳了台湾同胞提出的使用18位身份证号码的建议，这样就确保了在社会公共服务系统中用于识读身份证的所有终端和设备都能识读它。简单地讲，居住证用于在大陆证明身份，能实现与身份证在日常使用上的无差别体验，具备了台胞证目前无法实现的许多功能。', '龙明彪说，《港澳台居民居住证申领发放办法》明确规定，台湾同胞在大陆从事有关活动需要证明身份时，有权以居住证证明身份，大陆有关单位及其工作人员不得拒绝，否则就是违法。这些都充分体现了我们努力为台胞在大陆学习、工作、生活等方面创造更为便利条件的诚意和决心。']</t>
+  </si>
+  <si>
+    <t>http://news.sina.com.cn/c/gat/2018-08-16/doc-ihhvciiw0272917.shtml</t>
+  </si>
+  <si>
+    <t>2018年08月16日 17:59</t>
+  </si>
+  <si>
+    <t>全国夏粮减产 中国人的饭碗还端得牢吗？</t>
+  </si>
+  <si>
+    <t>['原标题：新闻分析：夏粮减产，中国人的饭碗还端得牢吗？', '新华社北京8月16日电 题：夏粮减产，中国人的饭碗还端得牢吗？', '新华社记者董峻、王立彬', '连续丰收多年，今年全国夏粮却减产了，中国人的饭碗还能否端得牢？粮农卖粮难和惜售现象并存又意味着什么？针对近期粮食焦点话题，记者采访专家进行分析。', '粮食生产不再一味追求产量', '根据国家统计局对全国25个夏粮生产省份调查，今年全国夏粮总产量为13872万吨，比上年减产306万吨、下降2.2%。', '夏粮减产来自播种面积和单产的双下降。具体而言，因单产下降减产了220万吨，因面积减少则减产了86万吨。', '单产下降的原因主要是老天爷没怎么帮忙。去年秋冬种时河南等地的持续降雨导致部分麦田播期推迟，今年清明前后黄淮海等小麦主产区又遭受大范围大幅度降温天气，影响了穗粒数形成。进入灌浆收获期时，安徽等地的长时间阴雨天气不仅影响产量形成，还导致小麦出芽霉变，降低了品质。', '而播种面积减少更偏重人为原因。国家统计局农村司高级统计师黄加才分析说，各地调整农业种植结构，减少夏粮播种面积，增加花生、蔬菜等经济作物播种面积。此外，棉花目标价格改革政策的实施，也促使新疆更多农户倾向于扩棉减麦。', '尽管如此，2.2%的减产幅度并没有改变全国粮食持续丰收的态势。事实上，从2004年到2017年我国粮食生产创下“十四连丰”稳定增长奇迹的这一时期，在2010年、2016年和今年，都曾有过夏粮产量比上年略减的情况。', '随着农业供给侧结构性改革深入推进，我国粮食生产正在向更绿色和更可持续方向转变。不再唯产量论英雄，这才是粮食生产中的重大变化。', '农业农村部种植业管理司司长曾衍德说，今年华北和新疆塔里木河地下水超采区调减小麦面积200多万亩，西南西北调减条锈病菌源区小麦70多万亩；节水小麦品种面积达20%，比上年提高8个百分点。', '小麦购销减少的同时优质小麦需求旺盛', '据国家粮食和物资储备局统计，截至8月10日主产区小麦累计收购4004.9万吨，同比减少1968.5万吨。这引发了市场对粮食安全问题的关注。', '小麦收购大降，主要是受天气灾害导致小麦质量下滑和收储制度调整的交叉影响。农业农村部市场司司长唐珂分析说，小麦购销不旺原因有三：', '——南方麦区由于抽穗扬花期、收割期天气不利造成小麦质量受损较重，北方麦区受春季低温冻害影响小麦质量也有所下降，导致优质粮源偏少；', '——为给市场化收购留出更大的空间，今年小麦最低收购价预案的启动时间推迟了10天以上；', '——最低收购价收购的质量标准由国标五等及以上提高到国标三等及以上，四等及以下的粮食由各地组织引导市场化收购。', '对部分受自然灾害影响而品质不达标的夏粮，国家粮食和物资储备局等六部门上月已联合发出通知，要求各地区积极妥善处理超标小麦等问题，避免出现农民“卖粮难”，并建立长效机制，切实保护种粮农民利益。', '在质量差的小麦购销清淡的同时，质量好的小麦价格却一路上涨，农民惜售心理较强。唐珂表示，随着小麦最低收购价的首次下调，市场机制作用得到充分发挥，优质小麦需求旺盛、价格上涨。', '优质比例提升正是当前我国粮食市场需求发生重大变化的体现。今年市场紧缺的优质强筋弱筋小麦面积占30%，比上年提高2.5个百分点。', '中国人的饭碗仍将主要装的是中国粮', '采访中专家普遍认为，今年夏粮仍然获得好收成，为全年粮食丰收及经济平稳健康运行奠定了坚实基础，这既得益于中央高度重视粮食和农业生产，也得益于各地各级农业部门坚决贯彻中央部署，强化措施，努力稳定和优化粮食生产。', '党的十八大以来，我国粮食生产持续丰收，产能站上6000亿公斤新台阶，水稻、小麦、玉米三大主粮的自给率均超过98%，中国人的饭碗里主要装的仍是中国粮，为确保国家粮食安全奠定坚实基础。如今，我国人均粮食占有量达到447公斤，比世界平均水平高47公斤。', '根据农业农村部今年的种植业工作要点，稳定口粮面积仍是粮食生产中的首要目标，提出要坚持稻谷、小麦最低收购价，完善粮食收储政策，健全主产区利益补偿机制，保护农民种粮积极性和地方政府抓粮积极性。', '同时，引导农民合理安排种植结构，积极发展优质稻米和强筋弱筋小麦，力争稻谷、小麦等口粮品种面积稳定在8亿亩。', '农业农村部副部长韩俊同时表示，当前我国农业发展的主要矛盾由总量不足转变为结构性矛盾，需要在深化改革和扩大开放中加快推动农业供给侧结构性改革。今后该出口的尽力出口，该进口的主动进口，这是明确的政策导向。']</t>
+  </si>
+  <si>
+    <t>http://news.sina.com.cn/o/2018-08-16/doc-ihhvciiv9884191.shtml</t>
+  </si>
+  <si>
+    <t>2018年08月16日 17:44</t>
+  </si>
+  <si>
+    <t>台风“温比亚”16日夜到17日晨在浙沪沿海登陆</t>
+  </si>
+  <si>
+    <t>['原标题：台风“温比亚”16日夜到17日晨在浙江象山至上海一带登陆', '据中国气象局、中央气象台通报，继台风“安比”、“云雀”、“摩羯”在上海或浙江登陆之后，今年第18号台风“温比亚”也将登陆地点锁定在浙沪沿海。', '8月15日14时，东海热带低压加强为今年第18号台风（热带风暴级；英文名称：Rumbia；中文名称：温比亚；名字来源：马来西亚；名称意义：棕榈树）。自生成以来，“温比亚”一直以热带风暴级别的强度稳步向我国华东沿海靠近；16日14时，“温比亚”距离浙江省舟山偏东方约190公里，中心附近最大风力9级（23米/秒）。中央气象台今天继续发布台风黄色预警：预计，“温比亚”将以每小时15公里左右的速度向西偏北方向移动，强度逐渐加强，将于16日夜间到17日早晨在浙江象山至上海一带沿海登陆（热带风暴级或强热带风暴级，9~10级，23~28米/秒）。登陆后深入内陆，强度缓慢减弱。', '中央气象台台风专家钱奇峰指出，“温比亚”具有近海生成、高纬西折、结构松散不对称等特点。近海生成：“温比亚”在东海东部海面生成，生成后向西北转偏西方向靠近华东沿海；高纬西折：“温比亚”西折时接近北纬30度，属于西折纬度较高的台风；结构松散不对称：“温比亚”生成后结构一直较为松散，具有结构不对称的特征，其风雨影响北侧强于南侧。', '受其影响，16日夜间至18日，浙江北部、上海、江苏、安徽、湖北、河南等地将有大到暴雨，局地有大暴雨。期间，东海、黄海南部及华东沿海将有大风。', '未来24小时具体预报如下：', '大风预报：16日14时至17日14时，黄海南部、东海大部、江苏大部及沿海、长江口区、杭州湾、上海、浙江北部及沿海、福建北部沿海、巴士海峡、台湾以东洋面将有6~7级大风，阵风8~9级；其中东海北部和黄海西南部的部分海域、江苏东南部沿海、长江口区、上海沿海、杭州湾、浙江东北部沿海将有8~9级大风，“温比亚”中心经过的附近海域或地区风力可达10级，阵风11~12级。', '降雨预报：16日14时至17日14时，江苏中南部、浙江北部、上海、安徽中南部等地有大到暴雨，其中浙江东北部、江苏南部、上海南部局地有大暴雨（100~180毫米）。', '为何今年的台风如此“偏爱”浙沪沿海？据气象专家介绍，近期台风生成时间密集，间歇期短，同时大气环流形势相对稳定，副热带高压的位置异常偏北，不断引导台风沿着副高南侧行进至浙沪沿海一带。', '专家提醒，“温比亚”将成为7月以来第4个在浙沪沿海登陆的台风，登陆后还将进一步深入内陆，浙江、上海、江苏及安徽、湖北、河南等地需防范强降雨可能引发的城市内涝、中小河流洪水、山洪和地质灾害。适逢暑期旅游旺季，请公众及时关注最新预报预警信息，合理安排出行时间，并注意交通安全。', '另外，今年第16号台风“贝碧嘉”已于15日21时40分前后在广东省雷州市沿海登陆，16日14时其中心位于北部湾，中心附近最大风力有10级（28米/秒）。预计“贝碧嘉”将于17日凌晨至上午在越南沿海登陆，对我国的影响趋于减弱结束。但16日夜间至17日，广西西部和南部、云南南部等地仍有大到暴雨，广西沿海、北部湾等海域将有大风。']</t>
+  </si>
+  <si>
+    <t>http://news.sina.com.cn/o/2018-08-16/doc-ihhvciiv9878927.shtml</t>
+  </si>
+  <si>
+    <t>合肥:新落户本科人才3年内每年补贴1万元租房补贴</t>
+  </si>
+  <si>
+    <t>['原标题：合肥市新落户人才租房补贴发放实施细则', '为吸引和鼓励更多青年人才来肥创新创业，加大青年人才安居保障力度，规范人才租房补贴发放程序，根据合肥市《关于进一步支持人才来肥创新创业的若干政策》（合办〔2018〕18号）精神，制订本细则。', '一、补贴对象与条件', '1。补贴对象', '在我市行政区域内新落户的在职在岗、且无自有住房的下列人员：', '（1）博士；', '（2）35岁以下的硕士；', '（3）35岁以下毕业3年内的全日制本科和大专、高等职业院校毕业生。', '上述人员不含党政机关、国有企事业单位人员。', '2。补贴条件', '申请租房补贴者需同时具备以下条件：', '（1）申请人为2018年1月1日以后落户我市，本市户籍未迁出的毕业生视同新落户人员；', '（2）全日制本科（含海外留学归国人员及技师学院预备技师班毕业生）、大专、高等职业院校毕业生（含技工院校高级工班毕业生）应为2015年1月1日以后毕业；', '（3）按规定在我市缴纳企业职工养老保险；', '（4）申请人家庭在本市行政区域内无自有住房。', '二、申请程序', '1。租房补贴申请实行网上申报。申请人通过安徽政务服务网合肥专厅或手机APP完成租房补贴申请。', '2。申请人应如实填报个人资料：', '（1）申请人身份证、户口簿或常住人口登记表、社保卡和缴纳社保证明；已婚的需提供结婚证和家庭成员身份证号码。', '（2）本人毕业证书、学位证书。国（境）外高校毕业生需提供教育部留学服务中心国（境）外学历学位留学认证。', '3。租房补贴申请审核通过的，续发期间无需再申请，符合补贴条件即按月发放。', '4。申请人有下列情形之一的，须重新提出补贴申请：', '（1）申请人变更在肥就业单位的；', '（2）申请人创业实体依法破产、注销后，重新创业或在本市其他单位就业的；', '（3）申请人租房补贴申请审核不通过，或在续发期间不符合补贴条件停发的。', '三、\xa0受理与审核', '1。人才租房补贴全程实行网上自助办理，安徽政务服务网实现数据在线实时比对。申请人网上申请，信息填写保存后，在提交申请时，户籍、学历、婚姻状况、住房、社保、纳税等申请信息能够自动通过安徽政务服务网进行数据比对验证，验证符合条件的予以审核通过，验证不通过的信息自动反馈显示到申请提交界面，供申请人核实和补充。如申请人发现系统反馈信息有误，可向相关信息验证部门提出修改申请，相关部门在接到申请5个工作日内完成信息修正等工作。', '2。每月下旬，各县（市）区、开发区住房保障部门对上月新申请补贴和拟续发补贴的相关情况进行审核，审核结果在申报平台上发布。申请人对于审核结果有异议的，可申请人工复核。需修改原审核结果的，相关部门或县（市）区、开发区应书面向市住房保障部门提出并说明原因；需补发或追回租房补贴的，由发放地住房保障部门书面向市住房保障部门提出并提交相关材料，经市住房保障部门会同市财政部门确认，由相关县（市）区、开发区住房保障部门予以补发或追回，并在补贴管理系统中记录。', '3。市住房保障部门通过安徽政务服务网汇总各县（市）区、开发区审核结果，于每月初及时将上月通过审核拟补贴的人员名单及补贴金额在合肥市房产局和合肥市人社局网站上公示5天，公示无异议的反馈至申请人单位所在县（市）区、开发区；公示有异议的反馈至相关部门进行重新审核。', '市住房保障部门应及时将公示结果与需发补贴金额反馈市财政、人社等相关部门。', '四、补贴标准与发放', '1。租房补贴的标准为：博士每人每年2万元，硕士每人每年1.5万元，本科毕业生每人每年1万元，大专、高等职业院校毕业生每人每年0.6万元。', '2。租房补贴自审核通过申请的当月计发、按月发放。个人租房补贴发放累计不超过36个月。', '3。租房补贴经审核公示后，由各县（市）区、开发区住房保障部门于每月月底前将符合条件人员上月的补贴发放至申请人社会保障卡的金融账户。', '4。因申请人社保卡遗失、信息不准确、金融账户未激活等原因，导致补贴发放不成功的，发放地住房保障部门应及时通知申请人完成补卡、修正信息、激活金融账户等事项，并纳入下月一并发放；因申请人个人原因造成租房补贴无法发放的，不再予以补发；因申请人个人工作、住房等发生变化，无法满足租房补贴发放条件时，自当月起予以停发补贴，符合发放条件后，重新提出补贴申请，经审核符合条件的按规定予以发放补贴。', '5。市与县（市）区、开发区财政部门按照1：1比例及时安排补贴资金，并纳入各级财政预算安排。', '五、其他要求', '1。各地各部门要根据职责分工，不断完善工作机制，相互支持配合，及时解决工作中出现的问题。', '2。各县（市）区、开发区要建立定期检查制度，市里每半年对租房补贴发放情况进行抽查。', '3。\xa0对在申报过程中弄虚作假的单位和个人，一经核实，取消申报资格，依法追缴补助资金，并纳入诚信黑名单；涉嫌犯罪的，依法移送有关机关追究刑事责任。', '本细则由市房产局会同有关部门解释，并负责组织实施。', '本细则自发布之日起施行，有效期3年。', '来源：合肥市人力资源和社会保障局']</t>
+  </si>
+  <si>
+    <t>http://news.sina.com.cn/c/zj/2018-08-16/doc-ihhvciiv9686429.shtml</t>
+  </si>
+  <si>
+    <t>2018年08月16日 17:24</t>
+  </si>
+  <si>
+    <t>干部引扶贫项目让32贫困户种葡萄 成活率不到20%</t>
+  </si>
+  <si>
+    <t>['原标题：乡村干部当“翘脚老板”，32户贫困户一年付出打了水漂', '四川省广安市消河乡，村民周业民因病致贫，2016年定为贫困户。这一年，周业民虽生活窘迫，却也迎来新的希望--他所在的消河村引进了葡萄苗木栽种这一产业扶贫项目。项目实施方案“效益”一栏清楚告诉大家：“通过种植葡萄，3年后实现销售收入40万元，可使32户贫困户97人受益。”', '满怀着脱贫致富的希望，像周业民一样的贫困户开始了葡萄苗木培育。一年过去了，大部分苗木却相继枯死。乡亲们欲哭无泪，依靠产业致富的念头破灭了。', '眼见葡萄苗木栽下去大面积死亡，消河村村民愤而举报了村干部。', '2017年9月20日，广安区纪委接到网络举报：消河村引进产业扶贫项目，让贫困户种植葡萄，一年后，种下地的2000多株葡萄苗大部分枯死，成活率不到20%……', '消河乡距广安城区50余公里，地属浅丘平坝，适宜栽种水稻、玉米、小麦、油菜、蚕桑等粮经作物，此前从未种过葡萄，为何会在这一次破天荒？！', '“2016年上半年，乡里组织召开扶贫工作会，说消河村产业扶贫项目一直没动静，必须加快进度。乡里让我们村自行组织实施、自行规划项目。后来村里组织村干部和所有在家贫困户对扶贫项目资金进行规划，这时候有人就说，葡萄2-3年就可挂果，收益好、见效快……”消河村村委会相关工作人员回忆说。', '为了抢抓扶贫进度，在乡里未派人参与指导，村里未结合本地实际考察论证，仅有部分贫困户自行讨论的情况下，消河村党支部时任书记周君、时任村委会主任蒋德高决定将种植葡萄苗作为本村产业扶贫项目。', '随后，消河村采取招标形式实施采购。由于村干部对招标程序不熟悉，对投标人资格审查不严格，致使招标程序形同虚设，被投标人围标、串标，原本仅需几元钱就能买到的葡萄苗，最后竟以29.9元的价格成交。葡萄苗到货后，周君、蒋德高等人虽将苗木发放给贫困户栽种，却并未要求供货方提供相关的技术培训。', '一个关乎全村贫困户的产业扶贫项目，在不经任何可行性论证、不上党委会讨论、不组织验收、不引进技术指导的情况下，就匆匆上马了。只顾栽种，不管成活。最终导致葡萄苗成活率低、项目资金违规拨付等系列问题发生，浪费扶贫资金7万多元，严重伤害贫困户的积极性。', '事情查清后，时任消河村党支部书记周君、村委会主任蒋德高在脱贫攻坚工作中履职不到位，消河乡党委书记杨冰在消河村产业扶贫项目实施过程中当“甩手掌柜”“翘脚老板”，致使扶贫项目未真正惠及贫困群众，被给予党内严重警告处分。', '2018年4月，消河村组织召开村民代表大会，就补植补栽及产业发展管理工作征求了村民代表意见建议，消河乡党委邀请广安区农业局及高校农学专家实地走访，根据技术、季节要求，决定购买晚熟8号血橙进行补植补栽，减少葡萄苗成活率低带来的损失。4月中旬，乡主要领导、第一书记、驻村农技员、帮扶单位代表成立工作组到供苗单位进行实地考察、询价，决定在广安市某农业发展专业合作社采购晚熟血橙1000株。4月28日，区农业局专业技术人员、供货单位技术人员及乡农技站工作人员组织乡村两级干部和村民以社为单位进行了集中栽培。', '如今，一片片长势喜人的血橙，给村民们带来了真正的希望。']</t>
+  </si>
+  <si>
+    <t>http://news.sina.com.cn/c/2018-08-16/doc-ihhvciiv9735108.shtml</t>
+  </si>
+  <si>
+    <t>2018年08月16日 17:21</t>
+  </si>
+  <si>
+    <t>蔡奇陈吉宁在内蒙古的两天两夜 都干了啥？</t>
+  </si>
+  <si>
+    <t>['原标题：蔡奇陈吉宁在内蒙古的两天两夜', '来源：北京日报', '撰文 | 徐飞鹏 范俊生 \xa0摄影 | 戴冰 同军', '为深入贯彻党中央关于打好精准脱贫攻坚战的重大决策部署，4月8日至10日，北京市党政代表团赴内蒙古自治区，就扶贫协作工作进行沟通对接，并签署全面深化北京内蒙古扶贫协作三年行动框架协议。市委书记蔡奇，市委副书记、市长陈吉宁与内蒙古自治区党委书记、人大常委会主任李纪恒，自治区党委副书记、政府主席布小林，自治区党委副书记、政协主席李佳座谈。', '在两地一家亲的热烈气氛中，北京·内蒙古扶贫协作工作座谈会召开。布小林、陈吉宁分别介绍了双方经济社会发展及扶贫协作工作。', '李纪恒代表自治区党委、政府，对北京市党政代表团表示热烈欢迎，对北京市长期以来给予内蒙古的支持和帮助表示衷心感谢。他说，', '20多年来特别是党的十八大以来，北京市在经济发展、社会建设、民生改善、干部人才队伍培养等方面给予内蒙古全方位支持，有力助推了我区改革开放和现代化建设进程。这次北京市党政代表团来内蒙古考察，倾注真情实意，拿出真金白银，坚持真抓实干，深入推进北京内蒙古扶贫协作，必将有力促进我区打赢脱贫攻坚战、决胜全面建成小康社会。我们要深入贯彻落实习近平总书记扶贫开发战略思想和党中央脱贫攻坚决策部署，扎实推动北京内蒙古扶贫协作三年行动框架协议落地见效，借力首都的支持和帮助，扎扎实实把脱贫攻坚推向前进。', '蔡奇感谢内蒙古长期以来在清洁能源、农副产品、生态环保、安全保障等方面，给予北京的大力支持和无私帮助。他说，我们所到之处，深为内蒙古各级党员干部在精准脱贫攻坚战中付出的艰苦努力所感动，这种工作韧劲和精神值得我们学习。', '蔡奇说，', '内蒙古地处祖国北疆，战略地位十分重要，携手内蒙古各族人民共同奔小康意义重大。北京作为首都，必须坚持以习近平新时代中国特色社会主义思想为指导，带头深入贯彻习总书记关于打好精准脱贫攻坚战的重要指示精神和党中央部署，坚持从打好三大攻坚战、全面建成小康社会的高度，从建设好边疆、实现国家长治久安的高度，从实现“两个一百年”奋斗目标和中华民族伟大复兴中国梦的高度，充分认识扶贫协作工作的重要性，切实增强思想自觉和行动自觉，把它作为一项重大政治任务，作为北京分内的事来办，以更大决心、更精准举措、更过硬作风，助力内蒙古打好脱贫攻坚战。', '蔡奇说，', '要坚持精准扶贫精准脱贫基本方略，全面强化扶贫协作各项措施，确保助力内蒙古当地群众如期脱贫。', '一是抓好精准聚焦。瞄准深度贫困地区和特殊贫困群众，瞄准建档立卡贫困人口，推动资金项目、干部人才、政策措施等向贫困村、建档立卡贫困人口倾斜。财政援助资金投向扶贫脱贫项目的比例要达到80%以上，新增资金全部投向脱贫攻坚。两地共同建好扶贫项目库，因地制宜、因村因户因人施策深化扶贫攻坚，打造“菜单式”扶贫项目清单，力争更好地帮到点上、扶到根上。进一步织密健康扶贫网，让贫困群众少得病、看好病，减少因病返贫现象。', '二是强化力量配置。要配强干部，把北京派出的挂职干部压到扶贫一线去；发挥首都教育、人才优势，在加强内蒙古当地干部人才培训方面多做工作，帮助打造一支带不走的专业人才队伍。要做好资金保障，加快资金拨付，力争当年项目当年启动、当年见效，提高资金使用效益。', '三是完善对接机制。北京16个区的党政一把手要直接到对口帮扶的旗县对接工作，新增结对帮扶旗县的区要抓紧按照签订的“携手奔小康”协议，扎实推进结对帮扶工作。对照国家东西部扶贫协作考核要求，做到每一项指标背后都有任务支撑、措施保障、评估检查。', '四是全方位动员社会力量参与，形成政府、市场、社会协同推进的良好局面。进一步完善部门、乡镇及学校、医院等结对帮扶。鼓励支持企业到结对帮扶旗县投资兴业，更多吸纳贫困人口就近就业。市属国企要发挥带头作用。', '五是促进民族交往交流交融，促进各民族群众像石榴籽一样紧紧地抱在一起，把扶贫协作工作打造成民族团结工程。', '六是两地共同打好“组合拳”，巩固脱贫成果。注重增强结对帮扶地区的造血功能，带动贫困群众依靠辛勤劳动脱贫致富。积极搭建产业扶贫平台，加强贫困群众发展生产和务工经商的基本技能培训。围绕能源、农业、旅游等深化合作，助力受援地培育新增长极。北京市要切实加强组织领导，层层压实责任，狠抓作风建设，强化督查考核，确保扶贫协作各项任务落到实处。', '在两天时间里，北京市党政代表团风尘仆仆、马不停蹄，来到乌兰察布市、呼和浩特市的4个国家级贫困县考察扶贫协作项目，走访慰问建档立卡贫困群众。', '兴和县南三号自然村焦玉娥一家，通过北京绿山谷芽菜公司订单式豌豆种植收购增加收入，实现脱贫。在她家走访时，蔡奇特意走进粮房察看，细心地发现还有不少余粮，就叮嘱北京相关部门帮忙找销路，为焦玉娥家再增加些收入。卓资县板凳沟村是深度贫困村。蔡奇与69岁的王恩梅老两口坐在炕头拉家常，详细询问生活情况。老人的红外衣格外喜庆，她高兴地告诉蔡奇，今年村子异地搬迁，就要住进县城里的安置楼了。蔡奇还来到武川县看望了八十高龄的孤寡老人张二花。蔡奇为贫困户的日子一天比一天好感到高兴，他说，做好扶贫协作工作是北京市义不容辞的责任，让我们一起努力，共同打好精准脱贫攻坚战。', '老乡脱贫，产业先行。察哈尔右翼前旗是国家级贫困旗县。马铃薯深加工龙头企业凯达公司的落户，不仅带动100户建档立卡贫困户增收，还解决了60位建档立卡贫困人口就业问题。设施农业示范园，一座日光温室年纯收入就达6万元，年内全村彻底摘掉贫困帽已成定局。卓资县是革命老区和深度贫困县。国务院扶贫办主推的北京德青源“金鸡产业扶贫”项目建设，将实现“卓资熏鸡”与蛋鸡养殖产业融合发展，间接带动1万多贫困人口脱贫。武川县是国家级扶贫开发重点县。蒙禾源菌业、塞丰马铃薯种业公司发挥各自优势，促进了农民就业增收。', '健康扶贫是精准扶贫的重要方面。蔡奇走进兴和县蒙中医院诊室察看，并向患者了解诊疗情况。当他走进远程会诊中心时，当地医生正在与数百公里外的北京医院退休神内科专家秦绍森连线，对一位继发癫痫贫困患者再诊断。蔡奇通过远程视频系统对北京会诊专家表示感谢。他说，知名专家通过远程会诊指导基层医院诊治疑难重症，为当地贫困人口健康脱贫发挥了很好作用。这件事情很有意义，希望坚持下去。', '扶贫还需扶智。在兴和县京蒙小学，蔡奇察看了师资力量和帮扶建档立卡贫困学生上学等情况。', '北京市党政代表团一路学习考察，一路深入思考。每到一处，蔡奇都要求北京相关区、职能部门与对口帮扶地区负责人面对面对接，确保扶贫协作任务落地见效。蔡奇还看望了北京市在内蒙古自治区挂职的干部代表。', '内蒙古自治区和北京市领导曾一春、云光中、李杰翔、段志强、李秉荣、张工、魏小东、崔述强，内蒙古自治区政府秘书长包振玉、北京市政府秘书长靳伟参加。']</t>
+  </si>
+  <si>
+    <t>http://news.sina.com.cn/c/nd/2018-04-11/doc-ifyteqtq7750224.shtml</t>
+  </si>
+  <si>
+    <t>2018年04月11日 06:38</t>
+  </si>
+  <si>
+    <t>北京16区与内蒙古这些旗县结对奔小康</t>
+  </si>
+  <si>
+    <t>['原标题：北京16区与内蒙古这些旗县结对奔小康', '来源：北京日报', '撰文 | 徐飞鹏 范俊生 \xa0摄影 | 同军', '昨天下午，北京市与内蒙古自治区签署全面深化扶贫协作三年行动框架协议，进一步明确未来三年扶贫协作任务书。自今年起，北京内蒙古扶贫协作资金将从原计划的县均1000万元增至县均3000万元，今后三年扶贫协作资金合计从原计划的9.92亿元增至29.75亿元，比原计划共增加19.83亿元，助力内蒙古自治区受帮扶地区到2020年如期实现脱贫目标。', '北京内蒙古签署全面深化扶贫协作三年行动框架协议', '据介绍，中央交给北京市的对口支援、帮扶、协作任务包括7个省区的89个县级地区，其中就包括内蒙古自治区7盟市的31个旗县。从1996年开始，两地结为对口帮扶关系。', '根据这份“升级版”扶贫协作协议，两地将遵循聚焦重点、精准施策，当地主体、帮扶助力，广泛动员、合作发展的原则，聚焦深度贫困地区，将帮扶资金、帮扶项目、人才支持等向深度贫困地区集中倾斜；聚焦特殊贫困群体，将帮扶资金80%以上用在与建档立卡贫困人口紧密联系的项目上来，重点解决因病因学因残等贫困比例较高人群脱贫难题；聚焦精准施策，按照“五个一批”基本思路和国家考核“六项重点”，因人因户施策。', '协议确定了7个方面的重点扶贫协作内容：', '1、抓好资金项目、实施深度聚焦行动', '加大对受帮扶地区财政资金支持力度，建立扶贫帮扶资金增长机制。2018至2020年北京市安排财政资金29.75亿元用于扶贫协作。双方精准安排推动年度项目，推动建立与贫困旗县脱贫攻坚规划相衔接的扶贫帮扶项目储备库，资金项目安排严格向深度贫困旗县倾斜，帮扶资金80%以上用于贫困村、建档立卡贫困户。', '2、加强人才支援、实施扶智扶志行动', '双方加强干部人才交流，继续选派党政干部开展交流挂职；支持挂职干部协助分管或直接从事扶贫协作工作，并明确职责权限。选派技术人才开展支农、支教、支医、志愿服务等工作。重点支持集中连片特困地区师资培训，优质数字教育资源共享，共同开展贫困地区基层医疗卫生人员培训。组织开展各类扶贫相关干部人才学习培训，提高扶贫帮扶思想认识和实际能力。', '3、开展产业扶贫、实施扶贫造血行动', '发挥北京人才、科技、资本密集优势，以合作共建园区、共建特色产业基地等为载体，共同支持受帮扶地区建设一批贫困人口参与度高的特色产业基地，积极承接劳动密集型产业；培育一批带动贫困户发展产业的本地合作组织和龙头企业，有效带动贫困群众产业脱贫，吸纳就业脱贫。', '4、组织劳务协作、实施就业扶持行动', '双方定期开展业务交流和就业创业服务合作，采取岗位培训与短期技能培训结合的方式，开展农村致富带头人培训、农业实用技术培训，以及贫困家庭劳动力参与的职业技能培训。', '5、深化结对帮扶、实施携手奔小康行动', '组织北京市16个区结对帮扶内蒙古自治区31个旗县开展携手奔小康行动：', '◆东城区——化德县、阿尔山市', '◆西城区——喀喇沁旗、鄂伦春自治旗', '◆朝阳区——卓资县', '◆海淀区——敖汉旗、科尔沁右翼前旗', '◆丰台区——林西县、扎赉特旗', '◆石景山区——宁城县、莫力达瓦达斡尔族自治旗', '◆门头沟区——察哈尔右翼后旗、武川县', '◆房山区——察哈尔右翼中旗、突泉县', '◆通州区——翁牛特旗、科尔沁右翼中旗、奈曼旗', '◆顺义区——巴林左旗、科尔沁左翼中旗', '◆昌平区——阿鲁科尔沁旗、太仆寺旗', '◆大兴区——察哈尔右翼前旗、正镶白旗、苏尼特右旗', '◆平谷区——商都县', '◆怀柔区——四子王旗、科尔沁左翼后旗', '◆密云区——巴林右旗、库伦旗', '◆延庆区——兴和县', '6、发挥北京优势、实施特色帮扶行动', '利用北京帮扶资金，开展贫困大学生资助，助力受帮扶地贫困家庭解决因学致贫返贫问题；开展精准医疗扶贫，帮助内蒙古自治区在受帮扶旗县开展精准医疗救治，对商定的重特大疾病建档立卡贫困人口分类诊治，助力受帮扶地区解决“因病致贫、因病返贫”难题。', '7、完善大扶贫格局、实施社会动员行动', '双方搭建工作平台，鼓励支持北京各类群团组织、社会组织、公民个人等积极参与扶贫帮扶，开展助困、助医、助学、助残、助老等公益活动，帮助贫困人口解决实际困难。']</t>
+  </si>
+  <si>
+    <t>http://news.sina.com.cn/c/nd/2018-04-11/doc-ifyuwqez8641035.shtml</t>
+  </si>
+  <si>
+    <t>经济学家：中国城市发展面临的问题是包容性变差</t>
+  </si>
+  <si>
+    <t>['原标题：李铁：城市发展面临最大问题是包容性越来越差，过多追逐形象', '4月10日，中国城市和小城镇改革发展中心理事长、首席经济学家李铁在博鳌接受媒体采访时表示，不认为中国的人口红利在消失，但中西部城市如何吸引人才，需要时间，也需要更好的城市发展政策。', '“我不认为中国的人口红利在消失。”李铁说，“只是说世界工厂的模式在中国已经逐渐成为过去，而可能在中西部还没有成为过去，要清醒地认识到现实。”', '他谈到，中国13.9亿人口，户籍人口城镇化率42.3%，常住人口城镇化率58.52%，农村还可以释放上亿的劳动力，怎么能说人口红利消失了呢？随着科技、资本对劳动力的替代，中国可能将长期面临劳动力就业不足，而不是劳动力过剩的状况。如果不能稳妥解决就业，反过来会阻碍经济增长。', '留在一线城市和逃离北上广深之辩经久不衰。从城市管理者角度看，近年来人才“争夺战”从三四线城市蔓延到一二线城市，各地落户条件进一步放宽，因为人是城市活力的来源和产业兴盛的基础。', '李铁认为，因为东部土地成本、劳动力成本的提高，产业向中部地区转移是趋势。可以看到，武汉城市圈、郑州城市群等很多在发挥作用，河南、湖北、安徽、四川这些年的人口流出数量在下降，城市化增长速度高于东部地区，这是可喜现象。更重要的是，这些城市如何以好的政策吸引人才来助力经济增长。', '“现在无论东部地区还是中部地区，城市发展面临最大的问题就是城市包容性越来越差，城市过多追逐它的形象，发展房地产，忽视了对产业的包容。”李铁指出。', '他进一步解释说，以房地产为主导的城市发展模式最重要的一个特点就是要把房子卖出去，房子卖出去一定要包装好，所以大量城市更多注重外部形象，比如宽街道、大的城市公园。但是国外很多大城市不是这样的路径，都是从较低端的产业起步，逐步更新，进入到现代的发展模式。', '“当我们的城市一旦过早注重形象，它面临的一个问题就是城市发展成本过高。过去，城市发展成本过高是通过什么来弥补的呢？通过招商引资、房地产来弥补收支差额。”李铁说，“当房地产发展出现瓶颈，房子卖不出去的时候，差额就没有人弥补了，城市维护财政运转的压力越来越大，就会形成地方债务，形成地方金融风险。”', '“这是中国三四线城市普遍存在的问题。”李铁说。', '对此，他提出建议，“城市，特别是处于工业化中前期的城市，要特别注意初期的低成本发展，要循序渐进，不要做形象工程、政绩工程、视觉过程，更多以就业为主导，解决城市居民就业和生活两方面问题，不要急于赶超。”']</t>
+  </si>
+  <si>
+    <t>http://news.sina.com.cn/o/2018-04-11/doc-ifyteqtq7737674.shtml</t>
+  </si>
+  <si>
+    <t>2018年04月11日 06:23</t>
+  </si>
+  <si>
+    <t>日本前首相福田康夫：中国越开放 世界越受益</t>
+  </si>
+  <si>
+    <t>['原标题：中国越开放，世界越受益——访日本前首相、博鳌亚洲论坛咨询委员会主席福田康夫', '中国未来发生的事对世界影响巨大', '记者：此次博鳌亚洲论坛2018年年会开幕式上，中国国家主席习近平发表了题为《开放共创繁荣\xa0创新引领未来》的主旨演讲，宣布了中国在扩大对外开放方面的4项重大举措，您认为这些措施会给中国乃至世界发展起到什么影响？', '福田康夫：我认为习主席说得非常好，世界非常欢迎中国进一步扩大改革开放。中国越开放，世界越受益。现在中国是世界第二大经济体，中国的发展和世界的发展进程深度融合，中国未来发生的事情对世界影响巨大。', '记者：2018年是中国改革开放40周年，可否分享您印象比较深刻的关于中国改革开放的记忆？', '福田康夫：中国改革开放这40年中，我印象最深刻的事是40年前邓小平访日。当时邓小平参观了日本产业界，到访了许多工厂，也希望他们在中国建厂；特别是他希望日本钢铁公司也能在中国投资建厂。钢铁是一个国家工业的基础，邓小平当时提出这样的要求，我认为对中国发展是大有裨益的。', '世界各国应共享“一带一路”红利', '记者：中美之间正发生贸易摩擦，日本在上世纪也同美国发生过贸易战，您怎样看待二者之间的相似与不同之处？', '福田康夫：中美之间的贸易战和上世纪美日贸易战还是有很多相似之处的。一方面，我们贸易战的对象都是美国，另一方面，和中国一样，日本当时在对美贸易中处于顺差位置，美国处于贸易逆差，因此产生了很多摩擦。当时日本为了改善这种状况作出了大量努力，比如说限制进口、下调汇率等等。', '我认为，解决中美之间的贸易摩擦问题，需要把很多政策进行组合一并来解决，多管齐下；而且必须通过协商这一条路，来解决贸易摩擦，实现双赢。对话是很重要的。', '记者：习近平主席在今天的讲话中多次提到并再次强调了“一带一路”倡议和“人类命运共同体”理念，您如何看待其对世界经济发展及和平稳定的作用？', '福田康夫：“一带一路”是中国提出的关于未来发展的方向和计划，要推进“一带一路”建设，需要和平稳定的周边环境。因此，在推进“一带一路”过程中，中国会同世界各国保持稳定良好关系，世界也就会因此变得更加和平与稳定。中国是一个有影响力的大国，中国不仅关心自身经济，还将其他国家和世界作为一个整体来考虑，这非常好。', '我认为，各国在参与“一带一路”建设中，绝对不能抱有“只能自己好、不许别人好”的自私想法，世界各国参与者都应该共享实惠、共享利益，我相信这也是习主席提出构建“人类命运共同体”的初衷。', '博鳌论坛对亚洲乃至世界大有裨益', '记者：您作为博鳌亚洲论坛的前任理事长，如何评价博鳌论坛所产生的“博鳌智慧”对于世界的影响？', '福田康夫：正如它的名字所显示的，博鳌亚洲论坛是亚洲国家决定要聚集在一起，通过协商来解决问题的一个论坛。有识之士聚集在一起，在商业、贸易等各个方面不同程度上交换意见，并且结合中国的改革开放政策，不断促进世界的发展。博鳌论坛讨论的结果，也通过媒体的报道迅速传到中国各地和世界。因此，博鳌亚洲论坛不仅对中国经济界、亚洲经济界有益，对于世界经济界也大有裨益。我也希望所有来参加博鳌亚洲论坛的各界朋友们都能畅所欲言，贡献自己的智慧。']</t>
+  </si>
+  <si>
+    <t>http://news.sina.com.cn/c/nd/2018-04-11/doc-ifyteqtq7719790.shtml</t>
+  </si>
+  <si>
+    <t>2018年04月11日 06:03</t>
+  </si>
+  <si>
+    <t>中国科协:我国科技论文与专利绝对数量居世界前列</t>
+  </si>
+  <si>
+    <t>['原标题：我国科技论文与专利绝对数量居世界前列', '本报北京4月10日电\xa0\xa0（记者喻思南）中国科协10日在北京发布了《2016—2017中国科协学科发展研究系列报告》。《报告》显示，2016年全国投入研究与试验发展经费15676.7亿元，超过欧盟15国的平均水平。', '近两年来，我国学科发展取得了长足的进步。主要表现在：2016年全国投入研究与试验发展经费稳步提高，超过欧盟15国的平均水平2.08%；科技论文与专利进入快速增长期，绝对数量已居世界前列；学科平台建设对标国际一流，综合性国家科学中心、国家重点实验室等国家级科研平台逐步优化整合；研发人员规模不断扩大，科研生力军不断成长，高层次人才助力学科发展；学科国际合作交流频繁深入，我国国际科研合作“走出去”道路不断拓展。', '《报告》指出，目前制约学科发展的深层次问题仍存在，如科研环境与管理体制机制依然制约着科研创新，学科平台建设缺少统筹规划与监管，学科评价体系、人才评价体系有待完善等。']</t>
+  </si>
+  <si>
+    <t>http://news.sina.com.cn/c/2018-04-11/doc-ifyuwqez8568721.shtml</t>
+  </si>
+  <si>
+    <t>2018年04月11日 05:02</t>
+  </si>
+  <si>
+    <t>张又侠在纪念张廷发同志诞辰100周年座谈会上讲话</t>
+  </si>
+  <si>
+    <t>['原标题：在纪念张廷发同志诞辰100周年座谈会上的讲话', '今天，我们怀着十分崇敬的心情，纪念张廷发同志诞辰100周年，深切缅怀他光辉战斗的一生和为党、国家、军队作出的卓越贡献，追思学习他的革命精神和崇高风范，激励我们不忘初心、牢记使命、接续奋斗，把新时代强国强军事业不断推向前进。', '张廷发同志是中国共产党的优秀党员，久经考验的忠诚的共产主义战士，无产阶级革命家，我军杰出的军事领导人。曾任空军政治委员、司令员，中央军委委员、常委，中顾委委员，中共第十一、十二届中央政治局委员。1955年被授予空军少将军衔，曾获三级八一勋章、二级独立自由勋章、一级解放勋章和一级红星功勋荣誉章。在长达70多年的革命生涯中，张廷发同志为民族独立和人民解放、为新中国的国防事业和人民空军的建设发展鞠躬尽瘁，奉献了毕生精力，建立了不朽功勋。', '张廷发同志1918年4月9日出生于福建省沙县一个手工业者家庭。1933年9月，他年仅15岁就参加中国工农红军，同年12月加入中国共产主义青年团，1936年11月转为中国共产党党员。土地革命战争时期，张廷发同志作战勇敢、意志坚强。先后任红一方面军第5军团13师37团战士、班长、排长、通信主任，红四方面军第31军91师司令部参谋、股长。他参加了中央革命根据地第五次反“围剿”，作战中不怕流血牺牲，执行命令坚决；长征路上，他拖着溃烂的左腿从江西出发，始终坚持战斗，爬雪山过草地，在艰苦卓绝的斗争环境中，出色完成了党交给的各项任务。', '全国抗日战争时期，张廷发同志参与运筹谋划严谨干练、带兵打仗机智果敢。先后任八路军第129师386旅司令部参谋，东进纵队司令部通信科长、作战科长，385旅轮训队队长、司令部作战股长，129师司令部作战科长、太行军区司令部参谋处长，其间参加了著名的百团大战和多次反“扫荡”战斗。他认真领会刘伯承、邓小平等首长指示要求，传达落实命令及时，掌握敌情战况准确，拟制作战文书周密，圆满完成了各项工作。1942年6月，日军“挺身队”偷袭129师师部和晋冀鲁豫边区政府，张廷发同志临危不乱、灵活指挥，带领警卫部队成功完成掩护任务，受到刘伯承师长赞扬。1944年7月，张廷发同志任太行军区第7军分区司令员，他靠前指挥、敢于斗争，率部参加道清战役、安阳战役和对敌全面反攻，有力打击了日本侵略者，发展壮大了抗日武装力量，为抗日战争胜利作出了积极贡献。', '全国解放战争时期，张廷发同志独当一面、屡建战功。先后任晋冀鲁豫军区第6纵队参谋长，晋冀鲁豫野战军司令部参谋处长、南下大别山支队司令员，桐柏军区第3军分区司令员、中共汉南工委书记、桐柏军区汉南指挥部司令员兼政治委员，中共襄樊地委书记、襄樊军分区司令员兼政治委员。他率部参加邯郸战役，腿部中弹仍继续追击；带领南下支队6000余人和大批重要物资，胜利抵达大别山；指挥所属部队参加邓县、宛西、宛东、襄樊等战役，挺进汉南主动歼敌、收编民变武装、发动群众、建立政权，成功开辟汉南新区；率部参加樊城战役，积极配合淮海战役，大力支援渡江作战，开展剿匪反霸和土地改革，巩固当地革命政权，为中国革命的胜利作出了重要贡献。', '新中国成立后，张廷发同志先后任第11军副军长，空军第一副参谋长、参谋长、副司令员兼参谋长。他坚决贯彻党中央、毛主席决策指示，在空军党委领导下，积极投入抗美援朝备战训练工作，具体组织歼击机部队第二次入朝轮番作战、战后空军作战经验总结等；他积极探索空军部队建设规律，狠抓战备训练、战场建设和部队管理，全面提高部队战斗力；他参加指挥并成功开辟北京至拉萨空中航线，参加组织实施空军入闽作战、国土防空作战，有力打击了美军和台湾国民党空军的嚣张气焰。', '“文化大革命”期间，张廷发同志受到残酷迫害，被停职反省。1969年10月和1970年8月，先后被送往山东鱼台和陕西大荔农场监督劳动，身心受到严重摧残。他坚持党的实事求是作风，立场坚定，旗帜鲜明，忍辱负重，与林彪一伙进行了不懈斗争，表现了一名共产党员坚持真理的高贵品质。1973年恢复工作后，张廷发同志任空军副司令员、空军党委第三书记，1975年10月任空军政治委员、空军党委第一书记。他与空军党委绝大多数常委一起，同“四人帮”进行坚决斗争，经受住了严峻的政治考验。', '1977年4月至1985年7月，张廷发同志任空军司令员、空军党委第一书记。他坚决拥护党的十一届三中全会以来的路线方针政策，坚决贯彻党中央、中央军委决策指示，同高厚良政委等空军党委一班人，采取一系列重大措施，全面整顿机关、部队，推动各方面拨乱反正，恢复和发扬我党我军优良传统，狠抓战备训练和从严治军，连续制定3个《空军建设三年规划》并严格抓好落实，推进空军革命化现代化正规化建设，使空军的面貌发生了根本变化，得到了邓小平同志的高度评价。在此期间，空军圆满完成了首次战备训练汇报表演、边境自卫还击作战、华北地区实兵演习和新中国成立35周年阅兵等重大任务。', '1985年7月，张廷发同志退出领导岗位后，仍然关心党的事业，关心国家经济发展和社会进步，关心空军的建设和发展，提出了许多有价值的建议。他积极参加社会活动，关心老区建设，为扶贫事业、希望工程不遗余力。他认真撰写回忆著作、文章，为有关部门提供重要历史资料，为宣传人民军队的优良传统和作风尽职尽责。', '同志们！', '张廷发同志的一生，是革命的一生、战斗的一生，是为共产主义事业不懈奋斗的一生。他的革命精神、崇高品质和优良作风，永远值得我们学习和发扬光大。', '我们要学习张廷发同志赤胆忠心、听党指挥的政治品格，铸牢对党绝对忠诚的坚定信念。从参加革命那天起，张廷发同志就抱定了听党话、跟党走的信念，在血与火、生与死的考验中始终对党忠心耿耿。长征途中，他经历了九死一生、艰苦斗争的磨练，经历了与张国焘分裂活动斗争的考验，以坚强革命意志和信念一路走到陕北。他始终坚持党指挥枪的根本原则，无论是做机关参谋工作、率部冲锋陷阵，还是受命开创新区，都坚决听从党的召唤、服从党的安排，党叫干啥就干啥。“文化大革命”期间，面对林彪、江青两个反革命集团的拉拢利诱和残酷迫害，在肋骨被打断、痛失爱子的情况下，始终无所畏惧、决不妥协，“对党对社会主义坚定不移”。1975年，他临危受命担任空军政委，牢记邓小平、叶剑英同志的嘱托，顶住巨大压力，同“四人帮”作坚决斗争，保证党对空军的领导权不被野心家夺去，确保了党对空军部队的绝对领导。在新时代强国强军征程上，我们学习张廷发同志，就是要自觉做绝对忠诚、绝对纯洁、绝对可靠的革命战士，增强“四个意识”，严守政治纪律和政治规矩，坚定对习近平新时代中国特色社会主义思想的信仰，坚决维护习近平总书记在党中央和全党的核心地位，坚决维护党中央权威和集中统一领导。全军要旗帜鲜明讲政治，毫不动摇坚持党对军队绝对领导，牢固确立习近平强军思想的指导地位，坚决维护权威、维护核心、维护和贯彻军委主席负责制，坚决听从党中央、中央军委和习主席指挥。', '我们要学习张廷发同志智勇双全、能参善战的军事才能，全面提高履行新时代使命任务的能力。在长期革命生涯中，张廷发同志善于学习和灵活运用毛泽东军事思想，善于从战争中学习战争，表现出了过硬的军事领导和指挥才能。他在129师、晋冀鲁豫野战军司令部工作期间，参与作战谋划和具体组织反“扫荡”斗争、定陶战役、巨野战役、鲁西南战役等一系列作战，很好地发挥了参谋助手作用。他担任太行军区第7军分区司令员时，率部参加道清、安阳战役，打主攻作战勇敢，打协同配合默契，取得良好战果。他担任桐柏军区第3军分区司令员后，正确处理消灭敌人和建立政权的关系，坚持合理分兵、集中用兵，与兄弟部队一起三克枣阳新野、围歼邓县守军、纵横宛西宛东，为创建桐柏解放区奠定了基础。邓小平同志在写给党中央、毛主席的报告中，给予第3军分区“胜利最多、士气民气最好、发展最大”的高度评价。他担任空军参谋长后，坚决贯彻毛主席“全力以赴，务歼入侵之敌”指示，在空军党委领导下，精心筹划作战部署，加强指挥机关建设，制定战备值班制度，组建夜航独立大队，参与组织打夜间低空窜扰侦察机、高空侦察机、入侵美军飞机等作战行动，为捍卫我空防安全发挥了积极作用。在新时代强国强军征程上，我们学习张廷发同志，就是要强化知识不足、本领不足、能力不足的紧迫感，主动来一个大学习，不断提高政治水平和工作水平，做到政治过硬、本领高强；就是要把练兵备战作为军队的第一要务，坚持一切向能打仗、打胜仗聚焦，不当“和平兵”、治好“和平病”，深入研究现代战争制胜机理，大抓实战化军事训练，全面提高新时代备战打仗能力，有效履行新时代军队使命任务。', '我们要学习张廷发同志迎难而上、开创新局的使命担当，扛起推进改革发展的时代重任。张廷发同志无论是在革命战争年代，还是在和平建设时期，始终充满高昂革命热情，勇于担当、敢于斗争、不辱使命。1948年7月，根据中央军委和中原军区出击汉水流域的决策部署，张廷发同志率部强渡汉水开辟新区。他指挥部队迅速歼灭盘踞当地的反动武装，控制东西280华里、南北450华里范围，普遍建立区以上政权；创造性执行党的政策和策略，成功解决收编40支6000余人的民变武装问题；面对国民党10万军队进攻，他在三面受敌的极端困难形势下，组织军民与敌巧妙周旋，展开殊死斗争，巩固和发展了汉南解放区。新中国成立后，张廷发同志具体负责组织实施开辟拉萨航线，在环境条件复杂、无先例可循的情况下，组织各方力量迎难而上、集智攻关，很好解决了高原机场选址修建、飞机改装试航、航线选择确定等一系列难题，历经五个多月艰苦奋战取得成功，创造了我国航空史上的奇迹。“文化大革命”结束后，面对空军这个“重灾区”复杂情况，他团结带领空军党委一班人，大刀阔斧进行“两个大检查”和“十大整顿”，迅速扭转局势；大抓航空兵部队甲类团建设，掀起各行各业比武考核热潮，使空军部队战斗力很快得到恢复提高；全面加强教育训练、院校建设、装备建设和部队管理，涌现出了空一师、朱伯儒等一大批重大先进典型，开创了人民空军建设发展的新局面。在新时代强国强军征程上，我们学习张廷发同志，就是要永远保持革命战争时期那么一股劲、那么一种革命精神、那么一种拼命精神，敢于直面问题，勇于担当作为，树立和贯彻新发展理念，落实好党的十九大作出的各项战略部署，奋力走好新时代的长征路。军队要大力弘扬改革创新精神，坚定不移走中国特色强军之路，不断推进政治建军、改革强军、科技兴军、依法治军，扎实推进军民融合发展，在新的起点上推动国防和军队建设展现新气象、取得新作为。', '我们要学习张廷发同志坚持原则、廉洁奉公的高尚情操，永葆共产党人的本色作风。张廷发同志历经革命战争的艰苦锤炼，历经“文化大革命”的严峻考验，历经改革开放和发展社会主义市场经济的洗礼，始终保持共产党人的革命精神，恪守革命战士的崇高追求。他具有坚强的党性和组织纪律观念，坚持真理、坚持原则，不搞团团伙伙、拉帮结派，敢于同一切错误言行作坚决斗争。他襟怀坦荡、公道正派，主持空军工作期间，坚持德才标准提拔使用年轻干部，倾心倾力为空军现代化建设选贤任能。他经常说：“要把心思全部放在部队建设上，不搞拉拉扯扯、请客送礼那一套，要靠自己努力工作。”他以身作则、率先垂范，强调“要求下面做到的，自己首先做到；要求下面不做的，自己首先不做；办不到的事情就不要说，说了就要算数，就要兑现”。上世纪80年代初，空军机关准备给空军党委常委各配一台彩电，他严肃批评说，“严部队首先要严机关，严别人首先要严自己，看我的、跟我来，才是一个领导干部的风格”。他作风朴实务实，经常深入基层调研，加强具体指导，解决实际问题，经常在部队的办公室过夜、到连队食堂就餐。张廷发同志对家属子女和身边工作人员要求严格，教育子女不要沾自己的光，鼓励他们正直做人、认真做事。在新时代强国强军征程上，我们学习张廷发同志，就是要牢记党的性质宗旨，坚守共产党人的精神追求，继承发扬我党我军的光荣传统和优良作风，严格遵守全面从严治党、全面从严治军的各项规定和纪律要求，坚决纠治形式主义、官僚主义，与“四风”积弊和腐败问题作坚决斗争，坚持原则、严格自律、艰苦奋斗，决不以权谋私、搞特殊化，做一个堂堂正正、清爽干净的共产党人。', '同志们！', '习近平总书记指出，唯有不忘初心，方可告慰历史、告慰先辈，方可赢得民心、赢得时代，方可善作善成、一往无前。今天，中国特色社会主义进入了新时代，国防和军队建设也进入了新时代，老一辈革命家和无数革命先烈为之奋斗终生的伟大事业正呈现出勃勃生机、展现出光明前景。让我们更加紧密地团结在以习近平同志为核心的党中央周围，高举中国特色社会主义伟大旗帜，全面贯彻习近平新时代中国特色社会主义思想和党的十九大精神，埋头苦干，开拓进取，奋发作为，为实现党在新时代的强军目标、把人民军队全面建成世界一流军队，为决胜全面建成小康社会、夺取新时代中国特色社会主义伟大胜利、实现中华民族伟大复兴的中国梦而努力奋斗！']</t>
+  </si>
+  <si>
+    <t>http://news.sina.com.cn/c/2018-04-11/doc-ifyteqtq7676971.shtml</t>
+  </si>
+  <si>
+    <t>专家：美国最近猛打台湾牌 最终遭殃是台湾</t>
+  </si>
+  <si>
+    <t>['原标题：大陆要求美停止对台售武 专家：美打台湾牌最终遭殃是台湾', '参考消息网4月11日报道 境外媒体称，北京9日呼吁美国停止一切形式的对台售武和美台官方往来。美国近日猛打台湾牌，大陆学者认为最终遭殃的是台湾。', '特朗普猛打“台湾牌”', '据新加坡《联合早报》4月10日援引台湾媒体报道，美国日前公告对台潜艇“营销核准证”。中国外交部发言人耿爽和国防部发言人吴谦9日异口同声表示，中国坚决反对美国售台武器，要求美国停止一切形式的对台售武。', '另据《经济学人》报道，美国白宫国家安全顾问博尔顿可能6月访问台湾，为新落成的“美国在台协会”台北办事处新址剪彩。', '耿爽9号对此回应时，呼吁美国停止美台官方往来和提升实质关系，以免对中美关系和台海和平稳定造成严重损害。', '报道称，美国上个月通过《台湾旅行法》，之后便传出博尔顿或其他美国部长级高官可能访台，美国可能对台出售潜艇技术以及美国海军陆战队将在“美国在台协会”驻扎等消息。这是美国总统特朗普时隔一年多再次猛打台湾牌。', '“联美制中”一厢情愿', '与此前推文恐吓不同的是，如今特朗普已通过政府发布将对中国商品加征关税的清单，并组成了相对鹰派的外交及国防团队。', '有分析认为，美国此举可能是为了抬高贸易谈判的筹码，通过施压迫使北京在市场准入和技术转让方面作出更多让步。根据这个逻辑，台湾既然只是谈判筹码，一旦大陆满足了美国的开价，台湾就会被抛弃，因此对台湾是祸多于福。', '中国人民大学国际关系学院副院长金灿荣接受《联合早报》访问时则表示，美国近期再打台湾牌，应该与中美贸易摩擦没有直接关系，而是与美国把中国当成大国博弈对象的大战略有关。他分析，美国2017年下半年起调整了大战略并把北京定义为战略竞争对手后，美国战略界对大陆敌意上升，开始打出很多牌。贸易是大战略的其中一个环节，台湾是另一个环节。', '报道认为，从台湾学者的角度看，美国再打台湾牌，则再次验证了美国无论哪个政党执政、无论谁当总统都不会放弃台湾的立场。', '北京大学国际关系学院院长贾庆国受访时说：“这只是台湾一厢情愿的想法。民进党如果挑战了‘一个中国’的底线，大陆必然会作出强硬的反制措施。”']</t>
+  </si>
+  <si>
+    <t>http://news.sina.com.cn/o/2018-04-11/doc-ifyteqtq7611130.shtml</t>
+  </si>
+  <si>
+    <t>2018年04月11日 02:49</t>
+  </si>
+  <si>
+    <t>北京市住建委：共有产权房不得拒绝组合贷</t>
+  </si>
+  <si>
+    <t>['原标题：共有产权房不得拒绝组合贷', '新京报讯\xa0（记者邓琦\xa0实习生余华尊）近日有媒体报道，北京共有产权项目不可以申请组合贷。昨日，新京报记者向北京市住建委求证得知，按照相关规定，购房人可以申请组合贷，开发商不得拒绝。一旦发现有企业拒绝，情节严重者将按文件规定被停止网签资格。', '市住建委相关负责人表示，按照《北京市共有产权住房管理暂行办法》，在信贷优惠政策方面已提出，购买共有产权住房的，购房人可以按照政策性住房有关贷款规定申请住房公积金、商业银行等购房贷款。', '另外，今后北京的共有产权住房项目公告中，需明确表示支持组合贷。目前在各区选房和签约现场，也有公积金业务办理柜台。据悉，下一步各区住建委会加强现场监督。市住建委也将加强监管，一旦发现有企业拒绝申购家庭组合贷行为，住建和公积金部门将联合执法，情节严重者，将依据文件规定暂停其项目的预售许可、网上签约。', '■\xa0释疑', '共有产权房申购数量为何大幅度下降？', '专家称，申购下降幅度大，是因为审核的条件更严格了', '近日有报道称，北京共有产权房申购家庭数量大幅度下降。专家表示，“这是好事儿，下降越多，说明越能满足刚需。”', '共有产权房申购家庭数量确实大幅度下降了吗？记者发现，北京首个共有产权住房项目朝阳锦都家园共有427套房源，共有16万户申购家庭，按最后通过审核的12万户计算，申购家庭和房源比例大约为281：1，即281人抢一套房。而首个真正的共有产权住房金隅大成金成雅苑项目，969套房源只有5万户家庭申购，按最后通过审核的1.5万户家庭计算，申购家庭和房源比例仅为15.4：1，确实大幅度下降。', '申购人数为何会下降？国务院发展研究中心刘卫民研究员表示，其实如果大家都来抢这个共有产权住房，并不是政府所希望。首先，申购下降幅度大，是因为审核的条件更严格了。我们聚焦的是首次购房的无房刚需家庭。以前有很多家庭抱着中彩票的心理来，现在来申购的是有迫切需求的老百姓。', '另外，我们制度的设计本身打消了投机的空间，想通过这个保障性房子赚一笔钱的人不会来了，因为这个房子重点是满足老百姓的居住，不合理的获利已通过制度设计打消掉，炒房的热情有所消减，促进市场更加理性。', '■\xa0相关新闻', '共有产权房弃选率70%？\xa0昌平住建委：严重不实', '近日有报道称，北京市昌平区三个共有产权住房项目由于公共交通不便、位置偏远、性价比不高等原因导致“遇冷”，“弃选率70%”。', '昌平区住建委昨日下午回应，截至目前，昌平区绿海家园等三个共有产权住房项目还未进行选房，有关报道“弃选率70%”的数据严重不实，从而得出“遇冷”的结论无从谈起。', '昌平区住建委相关负责人表示，昌平区绿海家园等三个共有产权住房项目（第一批）于2018年4月2日进行了公开摇号，将于4月13日开展选房工作。也就是说，截至目前，上述项目还未进行选房。', '该负责人介绍，从4月2日项目摇号结束到选房前的期间，相关部门要对摇号产生的家庭按房源比例进行违法建设行为的审核认定工作，还要组织监督开发企业准备选房场地、布置以及购房合同签订、贷款咨询等多项工作。由于上述不实报道，最近有很多申购家庭来电询问选房时间是否变了，产生了不必要的误解，相关部门和开发企业做了大量的解释工作。区住建委也郑重提示，昌平区绿海家庭等三项目选房、签约工作仍按照公告中的时间安排正常进行，请申购家庭以区住房城乡建设委发布的项目公告为准，不要听信不实报道，避免利益受损。']</t>
+  </si>
+  <si>
+    <t>http://news.sina.com.cn/c/nd/2018-04-11/doc-ifyuwqez8500829.shtml</t>
+  </si>
+  <si>
+    <t>2018年04月11日 02:39</t>
+  </si>
+  <si>
+    <t>北京多区行政案件或集中在通州审理 至少增800件</t>
+  </si>
+  <si>
+    <t>['原标题：北京多区行政案件 或将在通州集中审', '昨日下午，通州法院召开《2016-2017年度涉城市副中心行政案件司法审判白皮书》（简称《白皮书》）新闻发布会。', '记者在发布会上获悉，北京市市级行政机关迁至通州后，根据北京市高级人民法院已确定的属地管辖原则，目前分散在西城、东城、海淀、朝阳等区级法院的相应案件将可能集中于通州法院审理。届时，将对通州法院行政诉讼格局带来很大改变。', '预计行政案件至少增800件', '通州法院行政庭庭长邱春阳介绍，通州法院联系了审理市级行政机关案件的各区级法院，收集了2016年和2017年涉市级行政机关行政诉讼案件的大致数据。其中2016年，全市涉及市级行政机关的行政诉讼案件共942件，2017年为655件。涉诉单位主要集中在国土规划、公安、房屋登记等部门。', '“综合评估近两年的收案数据，预计通州区法院未来行政诉讼案件将增加不低于800件”，邱春阳表示，以北京市级行政机关以及承担相关行政复议职能的中央国家机关为被告的案件预计将呈现集中分布、多元交织的特点，这是市政府东迁后对通州法院行政审判工作带来的挑战。届时，通州法院对行政审判工作将具备全市层面的影响力。', '通州法院行政庭副庭长孟强表示，通州法院目前已了解到入驻通州的市级机关范围，还将与涉市级机关案件的管辖法院沟通交流案件审判难点与管理经验。法院拟采取建立专业化审判团队、类型化审理行政案件的模式，应对案件增长，保证案件质量。此外对涉及案件较多的市规土委、市住建委、市公安局等，指定庭内法官分别负责，对案件的审判要点、法律适用等进行深入剖析和研究，保证案件审理效率与质量。', '孟强表示，通州法院下一步将强化行政审判队伍，提升庭审效率和裁判文书质量，提高通州法院行政审判的整体水平。', '行政诉讼多涉及拆迁拆违', '《白皮书》显示，2016年“城市副中心”上升为国家战略后，多个大规模拆迁腾退项目同时上马，建设进度明显加快，行政案件数量增长。两年间，通州法院共审结行政诉讼案件468件，其中涉城市副中心行政诉讼案件171件，案件主要类型包括疏解整治相关类58件、拆除违建类49件、拆迁类32件、与拆迁相关信息公开类16件、因拆违引起的赔偿类12件，以及环境保护类4件。', '在办理行政诉讼案件过程中，通州法院调研发现涉城市建设行政执法中存在一些共性问题，如执法程序不规范问题较为突出，个别行政机关为完成行政目标，存在简化甚至省略法定程序的情形，不听取行政相对人陈述申辩；此外，部分行政机关在行政执法中片面追求办事速度，忽视了民生保障，比如基层行政机关为了追求拆违、拆迁速度，采用“先拆除、后补偿”的方法。', '在此次发布的《白皮书》中，通州法院特别附上2016、2017年度行政机关败诉情况一览表，对于涉诉单位的败诉原因进行“点名”。', '“根据统计，2016年行政机关败诉的案件是33件，2017年败诉案件45件，法院以公正中立的态度严格保护行政相对人的合法权益，对于确实存在违法的情况，依法判处行政机关败诉。”邱春阳表示，此次《白皮书》发布的对象就是案件中所涉及的行政机关，发布这些最主要的作用就是促进行政机关在日常工作中依法行政，提升依法行政的能力。', '本组稿件采写/新京报记者\xa0刘洋']</t>
+  </si>
+  <si>
+    <t>http://news.sina.com.cn/c/nd/2018-04-11/doc-ifyteqtq7609068.shtml</t>
+  </si>
+  <si>
+    <t>今日头条旗下内涵段子被关停 抖音评论也删除了？</t>
+  </si>
+  <si>
+    <t>['原标题：今日头条旗下内涵段子被关停 抖音评论也删除了？', '中新经纬客户端4月11日电 4月10日晚间，有媒体报道称今日头条旗下短视频平台抖音评论全部被删。截至发稿时，中新经纬客户端（微信公众号：jwview）在抖音客户端发现，即使显示有上万条评论，下方仍然显示“暂无评论”。', '近来，国家有关部门加大了对视频类、资讯类等应用的监管力度，今日头条等新闻资讯类APP频遭监管和媒体“点名”。', '4月4日，国家广播电视总局针对社会舆论强烈关注的“今日头条”、“快手”两家网站播出有违社会道德节目等问题，立即会同属地管理部门严肃约谈了“今日头条”、“快手”两家网站主要负责人，提出严肃批评，责令全面进行整改。随后，快手和火山小视频遭到部分手机应用商店下架。', '4月10日，国家广播电视总局在督察“今日头条”网站整改工作中，发现该公司组织推送的“内涵段子”客户端软件和相关公众号存在导向不正、格调低俗等突出问题，责令“今日头条”永久关停“内涵段子”客户端软件及公众号。并要求该公司举一反三，全面清理类似视听节目产品。', '4月10日，今日头条在其官方头条号表示，根据监管部门要求，将永久关停“内涵段子”客户端软件及公众号，在此向内涵段子的用户及公众致歉。同时将对全线产品进行严格审查，积极整改，营造风清气正的网络环境。（中新经纬APP）']</t>
+  </si>
+  <si>
+    <t>http://news.sina.com.cn/c/nd/2018-04-11/doc-ifyteqtq7605687.shtml</t>
+  </si>
+  <si>
+    <t>2018年04月11日 02:14</t>
+  </si>
+  <si>
+    <t>英拍卖行回应中国文物局：符合英国法律 17点开拍</t>
+  </si>
+  <si>
+    <t>['原标题：[独家]英拍卖行回应中国文物局谴责：下午五点开拍 符合英国法律', '来源：中国之声', '据中国之声《新闻纵横》报道：上月末有消息爆出，疑似圆明园被抢的稀有西周青铜器“虎鎣”将于4月11号在英国拍卖。据拍卖行介绍，这件藏品的估价高达12万到20万英镑（约合110万-180万人民币）。消息一出，引起广泛关注。有文物专家对“虎鎣”是否确实为圆明园流失文物展开讨论，有律师呼吁希望圆明园遗址公园能够作为原告起诉这次拍卖行为。', '昨天，国家文物局正式声明说，在得知英国坎特伯雷拍卖行即将拍卖疑似中国圆明园流失文物后，已通过多种渠道与该行进行沟通，要求其遵守国际公约精神与职业道德准则，尊重中国人民的文化权益与民族情感，终止对上述文物的拍卖和宣传活动。但4月9号，坎特伯雷拍卖行依然明确表示，拒绝撤拍上述文物。', '中国之声独家对话坎特伯雷拍卖行拍卖顾问', '10号深夜，中国之声《新闻纵横》编辑以竞拍者身份联系到坎特伯雷拍卖行拍卖顾问吉布森，对方介绍，这场拍卖拍品共有1022件，为期两天，已于当地时间10号上午10点、北京时间昨天下午5点开始。“青铜虎鎣”是第二天拍卖的第一个拍品，预计将于当地时间4月11号上午10点、北京时间11号下午5点开拍，有意竞拍者可以先通过网络注册并交纳保证金，再前往现场竞拍。', '对于中方声明，对方没有正面回应，只是表示，英国法律保护拍卖不受影响，将会如期进行：“我们了解中国国家文物局的谴责声明，但是我们的拍卖将合法地如期进行，因为英国没有相关法律阻止我们合法地在英国拍卖。联合国教科文组织公约（UNESCO Convention）也只应用于在1970年之后从中国拿走的东西，因此它不具有强制将文物归还中国的能力。我们的展品经由英国牛津鉴定中心（Oxford Authentication TL test）证明，百分之百是来自西周时期的铜器，此外有家信证明，该展品在家族已流传四代，根据时间判断，确认是来自圆明园的文物，非常少见，具有极高价值。”', '拍卖为何可以合法进行？追讨海外流失文物，难度有多大？', '根据许多英美法系国家的法律，取得时效期届满，将使无权占有人对其占有的财产取得所有权。这意味着，只要经过足够长的时间，即使是侵略所得的文物，这些国家的法律也保护文物所有者的合法所有权。', '此外，虽然目前国际上有不少关于文物保护的公约，但这些公约仅仅对成员国有约束力，不少国家至今尚未参加部分重要公约，再加上国际公约的执行大多要依靠各成员国的自主行为，因此，通过法律途径追索文物的难度和阻力非常大。', '我国对海外流失文物的追讨主要有四种途径：依法追讨、商业回购、政府间外交谈判和捐赠。2016年11月，国家文物局在获悉日本某机构计划拍卖非法流失的中国文物后，要求其停止拍卖，随后拍卖机构撤拍了相关文物。这被认为是国家文物局首次成功叫停海外中国流失文物拍卖。这样依法追讨的难度有多大呢？', '中国政法大学国际法学院副院长、教授霍政欣说：“践行国际条约，它只调整公约实施之后的相关的情况，也就是法律上讲的没有溯及力。你像这个文物可能清朝末年就流失过去了，然后那个时代并没有国际条约来解决这个问题，所以利用国际条约就追不回历史上这个流失的文物。另外世界各国的国内法、民法上都有善意取得制度、取得时效制度，这也导致即便不说国际法问题，就国内法也有追索不可逾越的法律障碍。”', '值得一提的是，国家文物局明确表示，不赞成境内机构和个人参与上述文物的竞拍活动，并呼吁国际友好人士本着人文主义精神，共同抵制疑似非法流失文物拍卖。', '霍政欣教授认为，一些拍卖行利用“爱国情怀”炒作非法流失的中国文物，中国个人和机构再高额回购，相当于受到“二次伤害”：“参与商业回购，这是一种实现文物回国的一种途径。但是现在不鼓励国有机构参与非法流失文物的商业拍卖。第一点，我们不认可这种非法流失文物现在的合法性。第二点作为国有企业，你要参与这样的文物的商业拍卖，会给外界一种中国政府认可它的合法性现状的一个印象，为今后有可能的法律追溯带来一些困惑。第三点就是中国的机构和个人，现在在国际市场上参与文物拍卖是一个非常引人注目的一个现象，一来是国内现在这个比较有钱，二是涉及到中国的文物，中国当事方肯定更有一些回扣的意愿，这样就导致很多的中国文物在海外市场的价格飙涨，这反过来会给国内的文物安全造成隐患。”', '霍政欣教授以圆明园青铜兽首的拍卖过程为例进行说明：“其实我们这么多年去回顾了当年那个文物，就是圆明园青铜兽首的整个拍卖过程，从它上世纪80年代第一次出现在海外市场，到后面最后一次兽首拍卖了一次，价格飙涨了1万倍，就有一些国际的资本已经注意到就是利用这个民族情感故意炒作，这样的话导致中国的机构和个人去参与拍卖，最后价格越来越高，所以最后说中国人在第一次被抢了这个文物是一次伤害，其实第二次用一个离谱的高价去购买这些东西也是一次伤害。”', '疑似圆明园被抢文物“虎鎣”的前世今生', '虎鎣，是“鎣”类青铜器的一种。有研究认为，与一般被用作祭祀的青铜器不同，在周代，“鎣”是一种用来盛水的实用器具，类似于我们今天的水壶。按照拍卖行的说法，现存于世的“鎣”只有七件，因而非常珍贵。从拍卖行提供的照片看，“虎鎣”的造型更像一个茶壶。英国当地艺术家对它的描述是，“造型中的虎不是常见的一只，而是两只，这极富想象力而且稀有。其中一只老虎在盖子上居高临下，倒水时仿佛随时一跃而下，而另一个老虎以更加自然的姿势蹲伏在下，形成了手柄”。', '“虎蓥”之前的拥有者——英国海军上校哈利·刘易斯·埃文斯在和家人的信件中详述了他参与洗劫圆明园获得青铜器等珍贵文物的过程，这些信函与文物一起被发现。在信中，哈利·刘易斯·埃文斯这样描述道：“法国人搜刮了大量值钱的战利品，包括手表、钟表、皮大衣、丝绸等。将军号令用上所有能找到的推车，能装多少就装多少回来。”', '圆明园学会学术专业委员会委员刘阳接受央视记者采访时表示，基本可以确认，这件“虎鎣”属于圆明园：“从目前我们能掌握的资料和信件来看，这件文物基本可以确定是圆明园的。当然目前我们看不到原件，不能百分之百确定它百分之百是。”', '当中国之声记者询问是否需要专人去看现场的实物才能确定文物来源时，刘阳表示：“看实物是一部分，另外就是文献的真实度。我还是很认可他现有的信件和信件里对蓥的描述和来自圆明园的过程。这个蓥确实比较少，我们掌握的资料确实不多，但是不是就确定在期限上，还需要进一步的考证，但有一点肯定，蓥这种青铜器确实不多，应该是在个位数，但到底是不是七件还是五件还是六件，现在我们还需要进一步的考证。”', '国家文物局表示，将密切关注事件进展，并将继续依照相关国际公约和中国法律规定，通过一切必要途径促使从我国非法流失的文物回归中国。中国之声将继续关注。', '记者：丁飞、赵初楠、实习编辑刘雨桐']</t>
+  </si>
+  <si>
+    <t>http://news.sina.com.cn/c/nd/2018-04-11/doc-ifyzeyqa2352898.shtml</t>
+  </si>
+  <si>
+    <t>2018年04月11日 01:12</t>
+  </si>
+  <si>
+    <t>一文梳理：博鳌传出四大重磅信号 权威解读来了</t>
+  </si>
+  <si>
+    <t>['原标题：一文梳理：博鳌传出四大重磅信号 权威解读来了', '博鳌亚洲论坛2018年年会于4月8日至11日在博鳌举行，本次年会主题为“开放创新的亚洲，繁荣发展的世界”。年会设置了“全球化与一带一路”、“开放的亚洲”、“创新”和“改革再出发”4个板块，共60多场正式讨论。', '截至今日，博鳌亚洲论坛已经传出多个重磅声音，释放了许多重磅信号！都有哪些？', '央视财经频道推出《博鳌之夜》特别节目，为您呈现博鳌亚洲论坛上众多国内外重量级嘉宾的精彩观点和言论，并且邀请多位权威专家进行解读。下面，一文带你了解↓↓', '重磅信号一：中国将进一步扩大开放', '今天，国家主席习近平出席博鳌亚洲论坛2018年年会开幕式并发表题为《开放共创繁荣 创新引领未来》的主旨演讲，向世界清晰传递了中国将进一步扩大开放的决心和信心，引发了与会嘉宾的强烈共鸣。', '招商局集团董事长 李建红：新时代，呈现新气象，新征程，要谱写新篇章。随着中国进一步对外改革开放，我国应该两条腿走路，一方面要加大引进来的力度，譬如高端装备制造、领先科技、先进管理、优秀人才。同时，还要加快发展的速度，加快走出去的速度。', '中国国家金融研究院院长 朱民：开放是世界潮流，是未来潮流。整个世界变成了地球村，所以，我们都得面向开放，大家都在一起，这是一个未来的趋势，是一个世界的趋势。新的历史阶段新开放，我们以前开放金融业，比如银行、保险公司，是有股权的设置要求，不能占大股30%等等，市场准入从股权的结构来说，是有限的。但现在是全面开放，比如从不同的产品、不同的行业，以及基础设施很多方面服务都开始全面开放，不仅仅开放了银行业，还有狭义定义的证券业等等。', '重磅信号二：中国与世界的关系发生大变化！这些领域要进一步开放', '△央视财经频道《博鳌之夜》特别节目', '自1978年党的十一届三中全会开启我国的改革进程以来，中国的改革事业已走过了40年的光辉岁月。在改革开放的四十年中，中国与世界的合作、竞争关系正在发生着变化，在《改革开放40年：中国与世界》的分论坛上，与会嘉宾就表示，中国正在与其他国家分享自己的资产和资源，而这将会带来更多的就业机会和发展机遇。', '国务院发展研究中心副主任 隆国强：中国过去40年的发展，是人类经济发展史上的一个奇迹，从我们自身来看，长达40年保持一个9.5%的高速增长，持续的时间之长、速度之高是前所未有的。中国发展让全体中国人受益，所以从它的发展持续时间之长、速度之高、意义受益面之宽是前所未有的，放在全球比较也是如此，在有记载的人类发展史上也没有这样的。', '第八任联合国秘书长、博鳌亚洲论坛理事会理事长 潘基文：中国作为一个经济不断发展的经济体，知道如何能够把自己的资产、资源与其他的国家进行分享。“一带一路”分享，是双向的。同时，在提到国际社会尤其是西方国家，对于“一带一路”倡议，以及扩展与中国关系中收益、法制、规则等方面的担忧时，潘基文表示，这是对中国政府诚意的贬低。中国帮助了许多非洲国家，带来了资金，技术和劳动力，许多人来到这里参与建设，包括使用本地劳动力。', '此外，在外资金融机构、保险机构准入和放宽股比等金融领域的进一步开放，也将为共商共建提供更好的条件。', '证监会副主席 方星海：全世界现在最多的储蓄不是在美国，而是在中国。中国今后每年都会有很多储蓄，如果把这些储蓄通过金融体系很好地配置起来，特别是在开放的情况下，向全世界配置的话，我们会改变世界。', '重磅信号三：中国海外投资有了新趋势，内外资企业将迎新机遇！', '△央视财经频道《博鳌之夜》特别节目', '近年来，中国企业海外投资的规模和方向都在发生调整。商务部数据显示，2017年，我国境内投资者累计对外投资1200.8亿美元，同比下降29.4%。此外，今年前2个月我国新设立外商投资企业8848家，同比增长129.2%；实际使用外资1394亿元人民币，同比增长0.5%。中国海外投资有哪些变化呢？外企在华投资有哪些新趋势呢？', '中国投资有限公司副董事长 屠光绍就表示，这说明经历了这样大的起落之后，中国企业对外投资更理性了，也更健康了，而且，对外投资将来的可持续性也增强了。', '此外，在欧洲，航空业、通讯、智能制造等特殊产业对于海外投资存在一定的限制，且不同国家之间政策法规并不一致，这需要中国企业保持清醒的认识。', '泰丰资本首席执行官 诸葛熹：当中国企业进入欧洲，他们需要明确意识到欧洲不是一个国家，而是由多个国家组成。法国的员工和英国的员工工作方式不同，因此，能细致和准确地理解本土商业模式，对于中国企业海外投资至关重要。', '在全面开放新格局中，企业应该如何抓住机遇？', '国务院发展研究中心副主任 隆国强表示，对于中国经济来说，要更好地把握全球化带来新的机遇，引进更高质量的投资者，我国正在转向高质量发展，我们需要引进人才，引进研发型的外商投资，引进知识密集型的服务业等等，这些开放将有利于促进中国的创新能力的增强，产业结构的升级，同时也会有利于中国消费者能够更好地有更多的选择。对于外商投资企业来说，这一系列的开放，令外国的投资者能分享中国市场带来的机遇。中国市场规模还在扩张，特别是结构在变化，比如产业结构在升级，消费结构在升级，这会给外国投资者通过这种扩大开放，更好地分享中国市场机遇，和中国共同发展。', '重磅信号四：全球化进入“下半场”！中国要做好这些准备', '△央视财经频道《博鳌之夜》特别节目', '近年来在世界经济缓慢复苏的过程中，一股逆全球化的潮流出现，全球贸易保护主义也随之迅速抬头。最近一段时间以来，美国挑起的中美贸易摩擦，引发了国际社会的强烈反对。面对贸易保护主义，我国应该如何来应对？全球化进入“下半场”，中国要做好哪些准备？', '国务院国资委主任 肖亚庆在接受央视财经专访时表示，中央企业坚决反对贸易保护主义。贸易保护主义把门关上以后，只能有害于发起贸易保护的本身，对所有经济一体化参与者来讲，都不是一个好消息。大家共同站起来维护贸易全球化进程，这才是一个正确的选择。中央企业首先要做好自己的事情，我们要通过自身的改革发展，不断壮大自己的实力，提高自身的发展能力和提高自己的经营效益。并且，通过进一步扩大开放，不断寻求新的伙伴，大家一起合作，一起努力来共同促进技术产品领域的发展，用我们自己开放合作的成果来展示新的发展的机遇。我们坚持改革不动摇，坚持开放不动摇。既欢迎国内的其他所有制企业来加入中央企业下一步的改革，也欢迎境外的一些企业来参与我们混合所有制的改革。', '国务院发展研究中心副主任 隆国强：我们自己要把握好开放的重点、开放的力度、开放的节奏，这样才能够防范开放带来的金融风险。从资源安全角度来说，我们是一个人多、资源少的国家，中国的资源保障是有赖于全球合作的，所以，我们恰恰要开放，在开放中来保障我们的资源安全。']</t>
+  </si>
+  <si>
+    <t>http://news.sina.com.cn/c/nd/2018-04-11/doc-ifyteqtq7580447.shtml</t>
+  </si>
+  <si>
+    <t>2018年04月11日 00:39</t>
+  </si>
+  <si>
+    <t>中国向老挝移交援建的轻武器射击比赛场项目</t>
+  </si>
+  <si>
+    <t>['原标题：（国际）中国向老挝移交援建的轻武器射击比赛场项目', '新华社万象4月10日电（记者章建华）由中国人民解放军援建的老挝人民军的东盟轻武器射击比赛场项目移交仪式10日在万象举行。', '老挝人民革命党中央政治局委员、国防部长占沙蒙中将、中国驻老挝大使王文天以及中老相关部门代表100余人出席项目移交仪式。王文天与老挝人民革命党中央委员、国防部副部长兼总参谋长苏温中将代表双方在项目移交书上签字。', '王文天和苏温在项目移交仪式上发言时均表示，这一项目是中国军队支持老挝军队建设和对外交流的具体体现，是中老两军友好合作的新象征。双方将进一步深化两军友好合作，以实际行动将中老全面战略合作伙伴关系推向新高度。（完）']</t>
+  </si>
+  <si>
+    <t>http://news.sina.com.cn/c/nd/2018-04-11/doc-ifyteqtq7580448.shtml</t>
+  </si>
+  <si>
+    <t>2018年04月11日 00:44</t>
+  </si>
+  <si>
+    <t>新京报：“城管与公安打起来” 依法处理不能护短</t>
+  </si>
+  <si>
+    <t>['原标题：“城管与公安打起来”，要依法处理不能护短', '只要有关方面依法查处，秉持法律至上、绝不护短的心态，让公众看到其中的是非曲直，也就能够挽回流失的公信。', '文\xa0|欧阳晨雨', '城管执法与商贩或拆迁户有点冲突并不稀罕，但与公安民警发生肢体冲突，倒是相当罕见。不过最近在商丘，就发生了这样一件“怪事”。', '据新京报报道，4月8日，因棚户区改造拆迁发生冲突，商丘市公安局数位民警与商丘睢阳区城管局队员肢体冲突，分别有民警和城管队员受伤，但未与被拆迁群众发生冲突。目前，当地已成立政法、纪检工作组调查。', '有关调查工作仍在继续，但不少疑云依旧挥之不去。根据《人民警察法》，人民警察的任务是“维护国家安全，维护社会治安秩序，保护公民的人身安全、人身自由和合法财产，保护公共财产，预防、制止和惩治违法犯罪活动”。按照国务院《城市管理行政执法条例》，城管执法机关依法行使集中后的行政处罚权，并实施法律、法规规定的与行政处罚权有关的行政检查权和行政强制权。', '所以，如论常理，民警与城管是不同的执法部门，依法各司其职，为什么会发生冲突呢？', '审视这起执法部门之间的冲突，源于一个麻烦的“历史遗留问题”。所涉的长江鑫苑棚户区改造项目，2012年8月开始实施征收，涉及征收民众476户1700多人，被拆迁民众长达6年没有得到安置，已被征收民众长期上访，处理起来的确不无棘手。但是，即便是一块“硬骨头”，从职责范围看，城管和公安部门，也没有理由冲突起来。', '但你的想象力可能要被事实打败。实际上，不仅商丘有这样一起沸沸扬扬的“肢体冲突”，近年来，一些地方的城管与公安其实没少“斗狠”。而且两者之间的冲突，也多与“拆迁”有关。特别是2011年的驻马店城管围攻警察事件，多人被刑事追责，就与“旧房改造”项目有所关涉。', '回看这起冲突事件，有传言说，“城管队员要拆房，且没有拆迁令”。如果这个传言属实，那城管执法者的所作所为，就有违反《物权法》《城市房屋拆迁管理条例》等法规之嫌。', '毕竟，城管“强拆权”，只涉及对不符合城市容貌标准、环境卫生标准的建筑物或者设施所作强制拆除，而一个多年未能妥善解决的棚户区改造项目，不太可能摇身一变成为“合法”强拆对象。如以此传言，那民警所为，也是保护公民财产不受损。', '不过要判断孰是孰非，最终都有待相关部门还原真相。事实上，由于冲突双方都是政府部门人员，在公众看来，这样的事情往往很难处理。按照过去的经验，一些地方往往采取和稀泥的态度，相关主管领导也都护着自己的部门，最后，不了了之。所以，此事的后续处理，公众希望看到的恰恰是，有关方面拿出绝不护短的态度，依法公正调查、追责。', '建设法治政府，是全面依法治国的“三驾马车”之一。然而，一幕“城管与公安打起来”的闹剧，却折射出一些地方基层权力行使的几许迷乱，也反映出建设法治政府任重道远。对于此事，只要有关方面依法查处，秉持法律至上、绝不护短的心态，让公众看到其中的是非曲直，也就能够挽回流失的公信。', '□欧阳晨雨（学者）']</t>
+  </si>
+  <si>
+    <t>http://news.sina.com.cn/c/nd/2018-04-11/doc-ifyteqtq7578964.shtml</t>
+  </si>
+  <si>
+    <t>2018年04月11日 00:37</t>
+  </si>
+  <si>
+    <t>日媒:中国网民对日企态度改观 对日产品好感上升</t>
+  </si>
+  <si>
+    <t>['原标题：日媒：中国网民对日企态度改观 对日产品好感度上升', '参考消息网4月11日报道 日媒称，中国网民对日本企业的态度发生了变化。通过到日本旅游和从网上购买日本产品等，越来越多的中国消费者习惯使用日本产品，这似乎使他们对日本企业的看法也发生了变化。', '据《日本经济新闻》4月10日报道，1月底，无印良品被指在中国发行的商品目录地图中没有登载钓鱼岛属于重大错误，要求无印良品进行整改。在中国网民指责对中国政府进行抗议的日本政府的同时，无印良品表示，没有人到店铺进行抗议，商品销售也没有受到任何影响。', '报道称，越来越多的中国人认为，日本产品安全值得信赖。数据显示，投诉或拒绝购买日本产品的中国人趋于减少。', '负责分析亚洲社交媒体和促销的日本Trend Express公司在汽车等三大领域将新浪微博网民的评价分为“肯定”、“中立”和“否定”三大类。', '统计结果显示，2017年中国网民对日本汽车的肯定评价占8.7%，否定评价占2.4%。2012年中国与日本围绕钓鱼岛问题发生激烈对立，中国网民对日本汽车的否定评价比例达30.2%，之后连续五年下降。化妆品、母婴产品的否定评价比例也持续下降，对母婴产品的肯定评价比例明显上升。', '与此同时，2017年赴日旅游的中国游客达700多万人次，购买日本产品的跨境网购也盛况空前。运营知名日本购物账号的一位负责人表示，对日本有好感的中国网民日益增加，网友留言也比较冷静和客观。', '报道称，日本企业在产品安全等方面的信誉度较高，但如果辜负消费者的信赖，受到的报应也必然严重。发布日本商品和旅游信息、拥有约150万名粉丝的微博账户负责人指出，中国的消费者不会受到与自己无关的企业曝出丑闻的影响。不过，这位负责人也警告称，如果是曝出影响健康等的问题，则可能引发严重后果。', '报道称，收入提高的消费者对产品功能和安全性的要求日益严格。日本企业只有努力不辜负消费者对产品和服务的信赖这一条路可以走。（编译/马晓云）']</t>
+  </si>
+  <si>
+    <t>http://news.sina.com.cn/c/2018-04-11/doc-ifyuwqez8468365.shtml</t>
+  </si>
+  <si>
+    <t>2018年04月11日 00:26</t>
+  </si>
+  <si>
+    <t>汽车工业协会：关税降是机遇 有底气放宽股比限制</t>
+  </si>
+  <si>
+    <t>['原标题：中国汽车工业协会：有底气放宽股比限制 关税降低是挑战更是机遇', '来源：中国之声', '据中国之声《新闻纵横》报道：10日，国家主席习近平在博鳌亚洲论坛2018年年会上提出，要尽快放宽外资股比限制、特别是汽车行业外资限制，并显著降低汽车进口关税。有汽车业业内人士将之称为“平地一声雷”。', '中国汽车行业将迎来哪些挑战和机遇？', '随着改革开放大门打开，中国的车企大都选择了中外合资的道路走下去，随之诞生了东风本田、上海大众、一汽马自达，这些大家耳熟能详的汽车合资品牌。今年的全国两会期间，政府工作报告指出，下调汽车、部分日用消费品等进口关税。车领域究竟如何扩大开放也成为了大家关注的焦点。', '10日，国家主席习近平在博鳌亚洲论坛2018年年会开幕式演讲中给放宽汽车行业准入定下了调子，提出下一步要尽快放宽外资股比限制特别是汽车行业外资限制。', '说到合资股比，就要从1994年《汽车产业政策》说起，在那版政策中设置了车企外资持股比50%的上限，并且明确规定，“外国企业同一类整车产品不得在中国建立两家以上合资合作企业”。在2004年版、2009年版汽车产业政策中，也都延续了以上两项限定政策。', '资深汽车行业观察员李洋：“最主要的是利益的分配，因为谁占的股比多，谁分得的合资企业的经营收入的利益就多。其二，关于话语权，如果我们处在控股地位，未来的在生产经营中肯定是中方大事小事说了算。”', '其实，过去十年以来，汽车行业内部一直在讨论究竟是不是应该开放合资股比限制。2014年，吉利集团董事长李书福曾表示，“只有股比放开，汽车行业才能有一个公平竞争的环境，老百姓才能得到真正实惠。”', '对此，中国汽车工业协会顾问 杜芳慈表示，之所以现如今我国选择进一步开放汽车产业，正是因为我国已经发展起一批自主品牌，有了进一步开放的底气。', '杜芳慈：“第一个就是我们现在中国汽车工业和改革开放初期，包括94年产业政策制定时期，已经完全不一样了。第二个就是国外的企业，几乎是个汽车厂都在中国有了合资企业了。所以在这种情况下，我们进一步开放，已经具备了条件，而且我们自主品牌的发展也越来越好。所以我们有底气做股比开放政策的制定。”', '除了汽车股比之外，习主席在10号的演讲中明确，今年将相当幅度降低汽车进口关税，努力增加人民群众需求比较集中的特色优势产品进口，加快加入世界贸易组织《政府采购协定》进程。', '纵观世界，日本汽车进口是零关税，美国是2.5%，韩国是8%，欧盟是10%，而印度、阿根廷、墨西哥等国分别为60%、35%和33%。', '自从中国加入WTO后，我国针对汽车进口关税也有一份明确的下调路线图和时间表。根据此前公开的数据，我国汽车进口关税从入世前的70%至80%，下降至目前的25%，这一数字也是乘用车最惠国平均税率。', '进口汽车、合资车、自主品牌车，曾经三分天下的格局将迎来大变局？', '一直以来，我国的汽车市场中呈现进口汽车、合资车、自主品牌车三分天下的局面，那么，关税的下调势必会导致进口车价的降低，这是不是会对合资车、自主品牌车形成一定的压力呢？', '中国汽车工业协会秘书长助理徐海东认为：“对中国自主品牌肯定是有冲击的。比如说关税直接降低，就意味着进口车它会以更低的价格进来。就会相应地传导到合资企业的产品也降价，同时最后会挤压到我们中国的自主品牌。也就是说中国自主品牌的利润可能会更低，那么我们发展起来可能就会更有难度。”', '不过在杜芳慈看来，之前入世之时也曾有人表示我国汽车行业将遭受毁灭性打击，但事实证明我国已经成为世界上最大最活跃的市场。因此，他认为，开放股比和关税降低将给中国车企一个走向世界最前端的机遇。', '杜芳慈：“当年我们在WTO谈判的时候，当时提出了一个分析，说我们中国入了WTO以后，就会有两个行业会遭到毁灭性的打击。一个是汽车工业，一个是农业。但是事实证明中国的汽车工业不但没有遭到毁灭性打击，而且现在变成世界上最大最活跃的市场，我们自主品牌的发展也越来越好。所以我就觉得开放，包括开放股比既对我们有一定的压力，有一定的挑战，也是我们的一种激励，也需要我们中国自己的企业抓住这个机遇，迎难而上，使自己走到世界最前端的一个机遇。”']</t>
+  </si>
+  <si>
+    <t>http://news.sina.com.cn/c/nd/2018-04-11/doc-ifyzeyqa2179935.shtml</t>
+  </si>
+  <si>
+    <t>2018年04月10日 23:59</t>
+  </si>
+  <si>
+    <t>新华社评中美贸易摩擦:紧攥双拳何以分享中国红利</t>
+  </si>
+  <si>
+    <t>['新华社北京4月10日电题：紧攥双拳何以分享中国红利？', '新华社记者姜琳', '“中国开放的大门不会关闭，只会越开越大！”中国国家主席习近平10日在博鳌亚洲论坛斩钉截铁的宣示，受到国际舆论广泛关注和高度赞扬。一系列对外开放新举措，彰显中国坚持自己发展道路的决心和从容应对外来挑战的信心。', '在美国祭起贸易保护主义大旗、不断挑起对华贸易摩擦的背景下，外界有人疑虑，中国扩大开放是不是不得已而为之的权宜之计？这样的理解，未免太不了解中国的历史，更轻视了中国的经济实力和发展定力。', '经历过封闭之痛，享受过开放之利，过去40年中国经济发展的巨大成就是在开放条件下取得的，未来中国经济实现高质量发展也必须在更加开放的环境中进行。中国的对外开放是自主开放，是毫不动摇、始终坚持的基本国策。扩大对外开放更是基于对“必须在历史前进的逻辑中前进、在时代发展的潮流中发展”深刻认知基础上的战略自觉。大幅度放宽市场准入、创造更有吸引力的投资环境、加强知识产权保护、主动扩大进口等扩大开放的四项重大举措，是中国基于自身发展和捍卫全球多边贸易体系作出的战略抉择。', '中国是多边贸易体系的倡导者、维护者，并日益发挥引领作用。当前，在经济全球化驱动下，世界呼唤互利共赢，值此关键时刻，习近平主席宣示的四项重大举措，会让中国对外开放呈现全新的局面，在为自身发展开辟新天地的同时，也必将为推动全球经济复苏注入新的活力。中国机遇就是世界红利。', '然而，有的国家贸易保护主义和逆全球化思潮抬头，仿佛把自己关在一间黑屋子里，握紧拳头，警惕地把外部世界一切鲜活、阳光的东西当作敌人。试问，身处暗室怎能看到发展机遇，紧攥双拳又何以分享发展红利？', '时代大势，浩浩荡荡。当今世界已经成为你中有我、我中有你的地球村，各国经济社会发展日益相互联系、相互影响，推进互联互通、加快融合发展成为促进共同繁荣发展的必然选择。中国不打地缘博弈小算盘，不搞封闭排他小圈子，不做凌驾于人的强买强卖，自然希望他国抛弃冷战思维，不搞零和博弈，同怀务实之心，共襄发展盛举。（完）', '相关新闻：', '美国打响对华贸易战：', '特朗普考虑对华追加1000亿美元关税', '突然跟中国领导人套近乎？特朗普的谈判术你要懂', '中方强势反击：', '博鳌论坛秘书长：特朗普药方没开对 结局“走着瞧”', '中国将橙汁威士忌列加税清单 打中特朗普“七寸”', '应对美贸易保护“招数” 中国还有哪些反制利器？', '分析解读：', '专家：中美贸易摩擦对中国宏观经济运行影响不大', '中国“窃取”知识产权？多位专家用事实打脸美国']</t>
+  </si>
+  <si>
+    <t>http://news.sina.com.cn/c/nd/2018-04-11/doc-ifyteqtq7574682.shtml</t>
+  </si>
+  <si>
+    <t>2018年04月11日 00:22</t>
+  </si>
+  <si>
+    <t>蔡英文急否“特朗普是棋子” 怕美爸爸打屁股吗？</t>
+  </si>
+  <si>
+    <t>['原标题：蔡英文急否认说“特朗普是棋子”，是怕美国爸爸打屁股吗？', '差点以为环环做了假新闻！', '蔡英文到底有没有说“川普是我们的棋子”？', '翻译一下，蔡英文有没有胆量在美国爸爸面前硬气一回？', '答案似乎是，有贼心，没贼胆 。', '环环（ID：huanqiu-com） 今晚报道了一件奇闻——蔡英文上电视访谈，回应“台湾是美国棋子”，居然敢说“你不要忘了，我们自己也是棋手，所以川普是我们的棋子”。☞要是我就忍不了！特朗普，蔡英文说你是她“棋子”！', '也就是特朗普他老人家私人律师办公室被FBI查了，和中国大陆的贸易战更让他头大，不然还不分分钟发推特回骂蔡英文：反了你个小赤佬！', '环环的消息源，是多家台媒，他们都引用了台湾世新大学传播学院院长游梓翔的脸书贴文，总结了蔡英文在年代电视台《新闻面对面》节目中的3个“惊句”：', '你不知道我在接近你', '赖清德是个诚实的人', '川普是我们的棋子', '执笔的冬瓜侠在报道中提到，发稿前看到的年代电视台9日晚播出的画面中，没有蔡英文“忤逆”特朗普的内容。该台发布的预告片称，有关说“台湾也是棋手”的内容会在10日晚播出。', '10日晚，节目还在播出，诡异的一幕发生了……', '台湾“总统府”（即省长办公室——环环注）10日晚突然发布声明，矛头直指游梓翔“造假”，批评他曾经做过地方政府发言人，却“失格散布不实讯息，炮制假新闻”。同时点名批评《中国时报》《联合报》两家蓝营媒体“未经查证，径自引用不实讯息，做成错假新闻”，要求游本人与两家媒体公开道歉。', '翻译一下，省长办公室的意思是，蔡英文绝对没有说“川普是我们的棋子”。', '被指责的游老师立即发脸书回击，态度强硬。他拿出《中国时报》10日头版截图，证明自己援引有据。↓', '截图显示，《中国时报》的报道在“美陆贸易战 台也是棋手”的小标题下有这样的内容：', '她说，“你不要忘了，我们自己也是棋手，所以川普是我们的棋子。然后我们在两大之间，我就顺势操作嘛”。', '此外，游梓翔提醒“总统府”，评论要有所本，要求对方拿出证据证明自己造假，同时请对方放心，“我是个诚实的人”。↓', '57分钟后，游老师就证明了自己的诚实。', '他突然在脸书发布致歉声明，宣称经与《中国时报》查证，以及节目实际播出的内容，确认《中国时报》在报道中，将主持人谢震武的一句话，放入蔡英文引语的信号内。也就是说，蔡英文只说了“台湾也是棋手”，那句“所以川普是我们的棋子”是男主持人接话茬说的，不是蔡英文原话。↓', '这……好像就尴尬了。', '环环晚上加班，看了这段将近两小时的节目，这段对话也找到了，分享如下：', '如果节目内容乐观真实，没人被人动过手脚，那句“川普是棋子”，确实是男主持人说的。', '视频在这里↓', '视频来源：环球时报新媒体', '今晚，有好心的同行给冬瓜侠发来线索，提醒蔡英文可能没说特朗普是棋子的情况。', '冬瓜侠铭记于心，万分感谢。', '有这些朋友在，环环的团队绝不敢在主观上有一丝造假之念。', '也正因此，无论多晚，这篇跟进报道必须要发。', '但有几句话也要说一下：', '1 蔡英文没有说“川普是棋子”，但她说强调不要小瞧台湾，我们也是棋手，这时候主持人说“川普也是我们的棋子”，蔡英文接话说“我就顺势操作嘛”。这是不是对“川普是棋子”的默认？', '2 为什么一定要否认说“川普是棋子”？除了这确实不是蔡英文本人原话，是不是也担心，如不澄清，特朗普会兴师问罪，起码会心里不爽，早晚找茬？', '3 现场有人问，蔡英文是不是想做金正恩？再结合上下语境，蔡英文是不是聊high了，说了一部分心里话？说完后又担心无法收场，所以赶紧灭火？', '在游梓翔的致歉脸书下，有台湾网友称赞他是条汉子，有人批评媒体乱写，也有人留言说，“川普爸爸听见这个说法会不高兴，只能赶快消毒”。', '看，这样想的不止冬瓜侠一个吧。', '你怎么看呢？']</t>
+  </si>
+  <si>
+    <t>http://news.sina.com.cn/c/2018-04-11/doc-ifyteqtq7569608.shtml</t>
+  </si>
+  <si>
+    <t>2018年04月11日 00:01</t>
+  </si>
+  <si>
+    <t>王毅：所有拥抱全球化的国家都会成功</t>
+  </si>
+  <si>
+    <t>['原标题：王毅：所有拥抱全球化的国家都会成功', '2018年4月10日，国务委员兼外交部长王毅出席博鳌亚洲论坛新老理事“致敬与传承”主题活动并致辞。', '王毅代表东道国政府，感谢过去8年各位理事和咨询委员为论坛发展作出的宝贵贡献，希望新一届理事会传承“博览天下，独占鳌头”的博鳌精神，把论坛办成全球一流品牌。', '王毅说，习近平主席上午在论坛年会上发表重要演讲，全面回顾了40年来中国改革开放所取得的历史性成就，根据中国建设现代化经济体系、打造全面开放新格局的需要，宣布了中国致力于扩大开放的一系列重大举措，习主席掷地有声地强调，中国开放的大门不会关闭，只会越开越大！中国的改革开放必然成功，也一定能够成功！中国的对外开放必将打开一片全新的景象。王毅表示，习主席的演讲正在传遍全世界，相信世界各国包括大洋彼岸的国家，都会接收到这些重要而积极的信号。', '王毅说，博鳌亚洲论坛一定会发展，因为海南在发展，中国在发展，亚洲在发展！博鳌亚洲论坛一定会成功，因为中国会成功，亚洲会成功，所有拥抱全球化的国家都会成功！']</t>
+  </si>
+  <si>
+    <t>http://news.sina.com.cn/o/2018-04-10/doc-ifyteqtq7567099.shtml</t>
+  </si>
+  <si>
+    <t>2018年04月10日 23:52</t>
+  </si>
+  <si>
+    <t>疑似非法流失文物今在英拍卖:3500年前西周青铜器</t>
+  </si>
+  <si>
+    <t>['原标题：抵制！疑似非法流失文物明日在英拍卖', '呼吁国际友好人士本着人文主义精神，共同抵制疑似非法流失文物拍卖。希望有关部门通过一切必要途径促使从我国非法流失的文物回归中国。', '明天（英国当地时间4月11日），据今约3500年的稀有西周青铜器“虎鎣（yíng）”将在英国东南部肯特郡当地一家拍卖行进行拍卖，并被这家坎特伯雷拍卖行（The Canterbury Auction Galleries）当作此次拍卖的封面物品大肆宣传。', '英国《每日电讯报》以“平房里的劫掠物（Bungalow loot）”为题着重介绍了这件来自中国的宝贵文物。文章称，这件稀世珍宝是1860年英国军队从咸丰皇帝的颐和园抢劫而来，具有3500年历史。在肯特郡海滨小镇的一栋平房中被发现。', '器物拥有者是英国皇家海军陆战队上尉Harry Lewis Evans（1831-1883）的后代。Evans参与了第二次鸦片战争期间在中国的侵略。并且在给母亲的一封信中详述了法国和英国军队如何占领和掠夺宫殿，Evans写道：“我成功地获得了几个青铜器和珐琅花瓶。”', '拥有者是一对老年退休夫妇，直到他们向附近的坎特伯雷拍卖行的中国艺术顾问Alastair Gibson展示时才知道它的价值。Alastair Gibson赞叹道，当我被请求来到这个不起眼的平房看到一小堆中国青铜器时，我无法想象这扇门可以打开1860年的时代胶囊。', '目前“鎣”类青铜器已知仅存世七件，除“虎鎣”和另一件“鎣”现身拍场，其余五件均为博物馆收藏，实属罕见。这件“虎鎣”因其器盖和出水口的老虎造型而得名。老虎在中国被看作动物之王和能防御邪恶力量最强大的动物。', '国家文物局官方微博@中国文博 3月28日曾就此事发表声明称，日前，有媒体报道英国坎特伯雷拍卖行（The CANTERBURY AUCTION Galleries）将于4月11日拍卖“青铜虎鎣”等疑似圆明园流失文物，国家文物局正在了解核实有关情况，相关部门负责人表示，国家文物局一贯反对并谴责买卖非法流失文物的行为，希望有关机构遵守相关国际公约精神，尊重文物原属国人民的感情，不买卖非法流失的文物，不以此类文物为名进行商业炒作。', '今天（4月10日），国家文物局再发《关于英国坎特伯雷拍卖行拍卖疑似中国圆明园流失文物事的声明》，强烈谴责坎特伯雷拍卖行行为，并呼吁共同抵制疑似非法流失文物拍卖。', '全文如下：', '国家文物局在得知英国坎特伯雷拍卖行即将于4月11日拍卖疑似中国圆明园流失文物后，通过多种渠道与该行进行沟通，要求其遵守国际公约精神与职业道德准则，尊重中国人民的文化权益与民族情感，终止对上述文物的拍卖和宣传活动。4月9日，坎特伯雷拍卖行明确表示，拒绝撤拍上述文物。', '尊重本国和其他国家的文化遗产，促进非法流失文物返还原属国，是国际社会的广泛共识，也是中国政府的一贯立场。国家文物局强烈反对并谴责坎特伯雷拍卖行不顾我方严正抗议，执意拍卖疑似非法流失文物，并以战争劫掠文物为名进行商业炒作的行为。国家文物局不赞成境内机构和个人参与上述文物的竞拍活动，并呼吁国际友好人士本着人文主义精神，共同抵制疑似非法流失文物拍卖。', '国家文物局将密切关注事件进展，并将继续依照相关国际公约和中国法律规定，通过一切必要途径促使从我国非法流失的文物回归中国。', '在英国坎特伯雷拍卖行的脸书账号上，有网友留言呼吁“停止拍卖中国文物！”', '据坎特伯雷拍卖会估计，虎鎣售价将在12万至20万英镑。与虎鎣一同出售的还有两件来自中国的青铜器。', '让我们再通过拍卖行发布的照片看看这件中国流失的珍宝。', '再次呼吁国际友好人士本着人文主义精神，共同抵制疑似非法流失文物拍卖。希望有关部门通过一切必要途径促使从我国非法流失的文物回归中国。']</t>
+  </si>
+  <si>
+    <t>http://news.sina.com.cn/o/2018-04-10/doc-ifyuwqez8455151.shtml</t>
+  </si>
+  <si>
+    <t>2018年04月10日 23:34</t>
+  </si>
+  <si>
+    <t>海南首家中外合资医院揭牌 奥地利总统出席</t>
+  </si>
+  <si>
+    <t>['原标题：海南首家中外合资医院揭牌 奥地利总统出席', '（聚焦博鳌）海南首家中外合资医院揭牌 奥地利总统出席', '中新社博鳌4月10日电 （记者 洪坚鹏）10日晚，由中国海航集团与奥地利奥美德集团共同出资建设的海南首家中外合资综合医院——海南慈航国际医院在海南揭牌。在此间参加博鳌亚洲论坛年会的奥地利总统亚历山大·范德贝伦出席揭牌仪式并致辞。', '海南慈航国际医院位于海南海口，是一家具备“国际标准、国际设计、国际监理、国际投资、国际管理”的综合医院，预计于今年10月全面完工。该医院将围绕海南国际旅游岛建设，从地方特色和需求出发，积极整合国内外优质医疗资源、应用国际医疗项目管理和服务经验，搭建畅通完善的国际医疗服务平台。当晚，海航集团还宣布将于今年10月开通深圳直飞维也纳航线。', '范德贝伦在致辞时说，奥地利和中国自1971年建交以来，在旅游、经贸和文化等多个领域达成了合作，取得了长足的进步。此次奥中两家企业合作组建医院，将为海南民众带来显著的实惠。随着深圳——维也纳航线的开通，也将吸引奥中两国游客互访，令奥中两国联系更加紧密。', '海航集团董事局主席陈峰表示，今年正值中国改革开放40周年和海南建省办经济特区30年，深圳——-维也纳航线的开通，将为中奥经济、文化交流开辟新的“空中大通道”，亦是海航集团积极参与“一带一路”建设的行动。', '奥地利总理塞巴斯蒂安·库尔茨、维也纳国际机场联合首席执行官和运营总裁Julian Jaeger等嘉宾出席仪式。', '据悉，海航集团旗下航空企业已开通至“一带一路”沿线国家直飞航线106条。今年上半年，海南航空先后开通了海口——悉尼，深圳——布鲁塞尔、北京——蒂华纳——墨西哥城、深圳——马德里、伦敦——长沙等多条远程国际航线。（完）']</t>
+  </si>
+  <si>
+    <t>http://news.sina.com.cn/o/2018-04-10/doc-ifyzeyqa1991554.shtml</t>
+  </si>
+  <si>
+    <t>2018年04月10日 23:12</t>
+  </si>
+  <si>
+    <t>广深港高铁车轮偏离路轨后 港铁:9月底通车不会变</t>
+  </si>
+  <si>
+    <t>['原标题：一地两检只差最后一步 广深港高铁好事多磨', '时代周报记者 陈泽秀 潘展虹 发自广州', '随着广深港香港段项目主要工程的竣工，广深港高铁全线通车的步伐越来越近。', '4月1日起，广深港高铁香港段开始试运行，其间铁路部门每日将安排多趟高速动车组往返于广州南、深圳北、福田站和西九龙站之间。', '广深港香港段只有26公里，由香港特别行政区全资兴建，香港铁路有限公司（下称“港铁公司”）负责规划设计。这段高铁从香港南部的西九龙站出发，经专用隧道向北延伸，与深圳福田站相连。早在2011年12月，广深港高铁广州南至深圳北段就已开通；2015年12月，深圳北至福田段开通。', '按照规划，今年9月香港段开通后，广深港高铁将实现全线通车。届时，从广州南站到香港西九龙站，仅需48分钟，“粤港一小时生活圈”将成为现实。业内人士认为，粤港澳大湾区的发展也有望因此而提速。', '然而，试运行三天后，就发生了高铁列车车轮偏离路轨事件。香港政府方面表示，正在全力跟进此事，通车前会进行全面测试，确保安全才批准通行。港铁公司主席马时亨在接受媒体采访时表示，该事件不会改变9月底通车的目标。', '试运行发现问题及时处理', '4月3日晚，港铁公司工程人员巡查石岗列车停放处时，发现一列停泊于维修车库、前一日较早时试行的高铁列车尾卡（最后一节车厢）部分车轮偏离路轨。港铁方面称，涉事列车尾卡共有8个车轮，其中4个车轮出轨，全部都是右边的车轮，事件中无人受伤。', '港铁车务营运总管李圣基4月4日晚公开表示，经初步检查，列车情况没有问题，路轨也没有问题，但看到维修轨道下承托的工字铁有一点轻微变形。', '马时亨认为，试运行三日后便发现问题是“好事”，一般新落成的铁路试运行3个月，此次高铁试运长达6个月，目的正是要找出毛病并立即处理。', '据悉，试营运主要工作包括为列车服务系统与车站设施系统进行磨合等工作，如信号系统与票务系统，让职员练习营运程序，并在试营运期间进行各项演习，当中包括与有关部门进行联合的演习。初期，将进行一系列连接内地高铁网络的相关工作，包括制定列车营运时间表等。列车运行及可靠度测试将分阶段进行，列车会以不载客方式进行测试。', '据香港媒体报道，高铁列车车轮偏离路轨事件发生后，港铁工程人员已暂停试车安排，但会继续测试信号、票务等系统。', '同济大学铁道与城市轨道交通研究院教授孙章对时代周报记者表示，一般列车行驶结束后，会回到车辆段进行养护维修。根据规模，车辆段可分为不同的等级。孙章推测，此次事故可能是列车停放处的路轨设计不符合标准，“矫正一下，不难的”。', '国家发改委综合运输研究所原所长董焰则认为，铁路上无小事，不可掉以轻心。应该对地面轨道、车辆等多方面因素进行科学和审慎的检查，找出事故的原因。“香港铁路采用英国的技术标准，与内地不一样。现在广深港高铁实行一个标准后，香港是否适应，运行可能会出现哪些问题，在试运行时都要做审慎的检查。”董焰对时代周报记者表示。', '香港机电工程署已知会港铁，正安排高铁列车生产商青岛四方派专家尽快前往香港参与调查，署方亦已要求港铁就事故成因和改善措施提交报告。', '4月7日，香港运输及房屋局局长陈帆表示，政府检视报告后才会批准恢复试车，政府部门亦会进行独立调查，完成后会向公众交代。', '串联粤港一小时生活圈', '香港工作的广州人陈榕，每个月都会乘坐广九直通车往返于香港和广州。这趟列车从香港九龙（红磡）至广州东站，全程183公里，大约耗时两小时，一等座成人票为210港元。', '“从香港出发，是在市区，周边交通很方便，回到广州后，东站也能接驳到地铁。”陈榕说道。对于跨境大巴，广九直通车能直接到达香港市区，不需要在深圳过关中转，行李比较多的时候比较方便。', '但是与广深动车相比，陈榕认为广九直通车的速度还是偏慢，购票也不方便。', '像陈榕一样，往返于香港与内地的人并不少。去年1月，广九直通车的列车由原来的9节车厢增加至10节，单列载客量由833人增加至965人。根据香港政府的统计，目前在广东省长期居住、工作及升学的香港人达到51万，其中1.5万多名长者正领取香港特区政府“广东计划”下的高龄津贴。', '广深港高铁全线开通后，为这部分人群提供了另一种选择，在速度、舒适度、时间方面均有优势，票价也具有吸引力。这条北起广州市，经东莞、深圳到达香港的高铁，全长约140公里，正式开通后，由广州南站出发，仅需48分钟即可到达香港西九龙站，票价260港元。此外，还设有庆盛、虎门、光明、深圳北、福田等车站，供沿线旅客上下车。', '据规划，初期每日开行127对列车。其中，往返于广州和香港的短途列车114对。长途列车13对，可直达北京、上海、昆明等14个城市。', '香港行政长官林郑月娥此前曾表示，高铁香港段最大贡献是让香港市民享受到便捷、舒适的跨境服务，快速抵达深圳、广州以及其他内地主要城市，并连接至现时长达2.5万公里的国家高铁网络。', '孙章也认为，广深港高铁对当前的广九直通车起到分流作用，最大的优点是把香港纳入到全国的高铁网络中。“现在是四纵四横，到2025年实现八纵八横后，就更加方便了。”', '“一地两检”只差最后一步', '如果从广州搭乘广九直通车，乘客要在广州完成内地的出境手续后上车，到达香港下车后，再办理入境手续，反之亦然，是“两地两检”。', '与广九直通车明显不同，广深港高铁在西九龙站实施“一地两检”，即离港旅客在完成出境手续后，会先通过内地的入境手续，然后才上车前往内地，到达后就不用再次通关。反过来，全国各地的旅客到达香港下车后，才需要办中国的出境手续，然后再办香港的入境手续。', '2017年11月18日，特区政府与内地签署了《内地与香港特别行政区关于在广深港高铁西九龙站设立口岸实施“一地两检”的合作安排》（下称“合作安排”）。同年12月27日，全国人民代表大会常务委员会批准了合作安排，并确认合作安排符合宪法和《基本法》。', '然而，“一地两检”真正落地实施，还需要最后一步，即香港立法会通过特区政府提交的《广深港高铁“一地两检”条例草案》。这成了广深港高铁如期通车的关键。', '根据条例草案，位于西九龙站地下二、三和四层的指定范围为西九龙站内地口岸区，并确定广深港高铁香港段上营运中的客运列车的车厢，视为在西九龙站内地口岸区范围之内。', '截至目前，香港立法会已经举行了两场关于“一地两检”的公听会。有香港市民表示，遇到前往内地航班延误，而前往内地二、三线城市航班选择不多，希望高铁尽快通车，带给市民省时便利。也有发言市民希望尽快落实高铁“一地两检”，达至高铁最大效益，否则只是快过直通车的交通工具。', '据悉，立法会7月休会，如未能于今个立法年度完结前完成审议，对高铁如期通车将带来风险。']</t>
+  </si>
+  <si>
+    <t>http://news.sina.com.cn/c/2018-04-10/doc-ifyuwqez7803353.shtml</t>
+  </si>
+  <si>
+    <t>2018年04月10日 01:51</t>
+  </si>
+  <si>
+    <t>台籍诈骗犯大陆受审 台民众:谢大陆“清理门户”</t>
+  </si>
+  <si>
+    <t>['原标题：台籍诈骗犯大陆受审 台民众叫好：感谢大陆协助“清理门户”', '参考消息网4月10日报道 英媒称，4月4日，78名涉嫌诈骗在菲律宾被捕的来自台湾地区的疑犯，遭菲律宾当局移交至天津，预计将在大陆受审。', '据英国广播公司网站4月9日报道，台湾陆委会、外事主管部门及法务主管部门，均就事件向大陆提出抗议；然而在台湾网络上，不论蓝绿统“独”的民众，大多持正面态度，网民纷纷感谢大陆协助“清理门户”。', '报道称，台湾民众欲与诈骗犯切割，为此叫好，折射出台湾在两岸以至外事上的尴尬。', '报道称，近年，先后有西班牙、肯尼亚及多个东南亚国家，将诈骗疑犯遣返大陆——2017年底，44名来自台湾的诈骗疑犯被北京法院判处9个月到15年不等的监禁刑罚。', '台湾辅仁大学社会系助理教授周伟航则分析称，诈骗疑犯遣送大陆令台湾民众觉得欣慰，除了诈骗犯难以唤起社会同情，也因为民众对台湾法制系统失去信心，而没有去注意到台湾在对外事务与两岸上的尴尬。', '“台湾案件审理时间相对长，民众看不到正义的立刻展现……台湾的法治系统也是有轻有重。”周伟航分析：“（民众）这是‘包青天心态’，期待有个青天大老爷”。']</t>
+  </si>
+  <si>
+    <t>http://news.sina.com.cn/c/2018-04-10/doc-ifyuwqez7783860.shtml</t>
+  </si>
+  <si>
+    <t>2018年04月10日 00:34</t>
+  </si>
+  <si>
+    <t>香港路政署回应港珠澳大桥人工岛传闻：质量过关</t>
+  </si>
+  <si>
+    <t>['原标题：香港路政署：港珠澳大桥人工岛质量过关', '新华社香港4月9日电（记者周雪婷）香港特区政府路政署署长钟锦华9日表示，港珠澳大桥人工岛防波堤设计科学、合理和安全，没有被冲散；防波堤与施工图吻合，不同时段的照片记录也显示防波堤堤石无移动过，无需修复。', '有香港网民日前在社交网络发布了一张港珠澳大桥（下称“大桥”）人工岛的照片并配以文字，认为大桥人工岛防波堤堤石被海浪冲散。此图引起多家媒体跟进报道，并质疑大桥人工岛有“塌陷”风险。大桥管理局4日就此事进行了回应，并邀请香港特区政府路政署有关人员8日到大桥人工岛考察有关情况。', '特区政府路政署9日召开新闻发布会，向媒体介绍考察大桥人工岛后的情况。钟锦华表示，大桥人工岛堤石是随机摆放，但也是按照工程所需有一定密度。大桥管理局会定期目测，观察堤石有没有较之前疏落或移到其他位置，若有情况发生，大桥管理局会度量及跟进。', '钟锦华表示，大桥属国家级项目，施工标准采用“就高不就低”的准则，即内地、香港、澳门哪一个地方的施工标准较高，就采用哪地的标准。他在考察中进入大桥隧道内观察，发现隧道并无出现位移、裂纹或渗水。', '钟锦华说，大桥管理局过去一年目测过人工岛防波堤及用作保护隧道的堤石，都未发现有移动。2017年防波堤更是经过特大台风“天鸽”的袭击，堤石位置都没有变化，说明工程已经过重大考验，社会应对此有信心。', '港珠澳大桥管理局4日发表文章表示，被误传“海浪冲散”的人工岛两个部位，经过长期的观测、分析以及“天鸽”台风袭击后的观测，显示并无受到任何影响，完全满足相关规范、规定及设计要求。', '港珠澳大桥主体工程集桥、岛、隧于一体，全长约29.6公里。主体工程已于2月6日顺利通过了交工验收。经质检部门检测、荷载试验，大桥工程质量优良。']</t>
+  </si>
+  <si>
+    <t>http://news.sina.com.cn/o/2018-04-09/doc-ifyteqtq6857125.shtml</t>
+  </si>
+  <si>
+    <t>2018年04月09日 22:44</t>
+  </si>
+  <si>
+    <t>香港中联办主任：反对国家制度就是对港人的犯罪</t>
+  </si>
+  <si>
+    <t>['原标题：香港中联办主任：反对国家制度就是对港人的犯罪', '海外网4月7日电 据中央政府驻港联络办网站消息，4月6日下午，全国人大代表、中央政府驻港联络办主任王志民应邀出席“新时代、新机遇、新发展——2018全国两会精神分享论坛”，并以《以习近平新时代中国特色社会主义思想为指导 全面落实全国两会精神 开创“一国两制”事业新辉煌》为题发表了主题演讲。', '王志民在演讲中重申，没有中国共产党领导的中国社会特色祖国就没有“一国两制”，所以共产党领导是“一国两制”50年不变，行稳致远的保障。', '王志民称修宪为“一国两制”实践提供了根本性的保障，他形容宪法第31条是香港的“出世纸”，香港特别行政区的设立与宪法有关。他续指，修宪将国家主席习近平提出的14条基本方略加入宪法，其中一条有关“一国两制”，修宪确立香港继续按照“一国两制”方针实行“港人治港”、高度自治。', '他表示，在宪法中明确中国共产党领导是中国特色社会主义最本质的特征，同样是为“一国两制”成功实践行稳致远提供更坚实有力的宪制保障。如果去反对国家的这些基本制度，就是反“一国两制”，就是对香港人的犯罪，对香港是祸，不是福。', '王志民表示，“香港太需要提倡对宪法精神的尊重”，他形容宪法是香港的“根”和“本”，如果根、本动摇就会出现乱象。他说，为香港有更好明天，既要学习《基本法》，也要学习宪法；特别为在座人士提供宪法和基本法合订本，希望大家能“看一看，学一学”，甚至成为大家的案头书。', '王志民强调，爱国是人类民族共同的核心价值，“爱国没有错”，呼吁要把爱说出去，就可去除心魔。', '另外，王志民透露，港区人代郑耀棠早前在两会提出中央设专职机构加强对粤港澳大湾区的协调，并要求设特殊湾区政策促进经济，此建议得到全体港区人代的联署，他相信很快会实现。', '在王志民的讲稿中亦提及，未来20年，香港将从内地融资中心，转化为三个新中心，即内地的全球财富管理中心、领先的离岸风险管理中心和内地的全球资产定价中心。香港的角色将从为内地吸引资金，到为内地配置资产。', '据了解，此次活动由全国人大常委谭耀宗，全国政协常委余国春、唐英年、陈冯富珍和香港特区全国人大代表第一召集人马逢国发起，香港友好协进会和港区省级政协委员联谊会联合主办，共有来自香港社会各界的代表人士近1200人出席。', '分享论坛上，谭耀宗及全国政协常委林建岳、陈冯富珍，全国人大代表马逢国、廖长江、洪为民还分别结合自己参加全国两会、学习两会精神的体会，畅谈感受和收获，并与现场嘉宾进行了热烈友好的互动。']</t>
+  </si>
+  <si>
+    <t>http://news.sina.com.cn/c/gat/2018-04-07/doc-ifyvtmxc2926792.shtml</t>
+  </si>
+  <si>
+    <t>2018年04月07日 05:56</t>
+  </si>
+  <si>
+    <t>台湾桃园一处民宅失火致致4死 疑因电线插座起火</t>
+  </si>
+  <si>
+    <t>['原标题：台湾桃园一处民宅失火致4人死亡', '中新社台北4月5日电（记者 陈小愿 张晓曦）台湾桃园市桃园区福山街一处2层楼民宅5日发生火灾，造成4人死亡。', '综合中央社、联合新闻网等台湾媒体报道，桃园市政府消防局救灾救护指挥中心当天清晨4时48分接获民众报案，位于桃园区福山街一处民宅发生火警。消防局立即调派各式消防车辆26辆及救护车6辆，以及消防人员81名，前往现场抢救。', '消防局称，到达现场时发现火焰已由建筑物内窜出。抢救过程中，发现2楼内受困的4人已没有生命迹象。其中3人为年逾四旬的大人，另有一名男童。', '据悉，失火建筑为地上2层的铁皮结构建筑，火势于清晨5时37分扑灭，不过因为火势太大造成内部铁皮结构部分坍塌。', '检察官到场初步堪验后发现，起火点为一楼楼梯口到二楼楼梯间的电线插座，疑因延长线使用不当造成电流负荷过大所致。但详细原因还要等鉴定报告出炉才能确定。（完）']</t>
+  </si>
+  <si>
+    <t>http://news.sina.com.cn/o/2018-04-05/doc-ifyteqtq4566966.shtml</t>
+  </si>
+  <si>
+    <t>2018年04月05日 20:43</t>
+  </si>
+  <si>
+    <t>台湾两空服员感染麻疹仍出勤 虎航：绝无知情不报</t>
+  </si>
+  <si>
+    <t>['原标题：台湾两空服员感染麻疹仍出勤 虎航：绝无知情不报', '中新网4月5日电 据台湾“中央社”报道，台湾虎航2名空服员日前感染麻疹，台湾虎航今天发表声明称，并无知情不报，且在确诊后立即取消空服员后续任务。', '台当局“疾管署”确认一名感染麻疹台湾虎航空服员，在可传染期间曾有6趟出勤。', '台湾虎航5日发布声明，强调绝无知情不报，故意派遗有感染疾病的组员，反而组员一被判断为“疑似”症状，就马上取消后续任务。', '台湾虎航重申，其中一名感染麻疹的空服员在症状出现后，随即多次就医，但都被诊断为感冒，直至4月2日再次就诊，医生判断有疑似症状出现后随即隔离。', '对曾经接触过感染麻疹空服员的旅客，台湾虎航已提交名单给“疾管署”，由卫生单位进行后续追踪。', '台湾虎航表示，对于其他执勤员工，已造册列管追踪，提供卫教数据并要求自主健康管理，如有任何症状出现应戴上口罩、立即回报并寻求医疗咨询，同时取消后续勤务。', '台湾虎航也将协同医疗单位提供MMR疫苗供机组员施打，避免发生机舱内交互感染事件。']</t>
+  </si>
+  <si>
+    <t>http://news.sina.com.cn/o/2018-04-05/doc-ifyuwqez5318233.shtml</t>
+  </si>
+  <si>
+    <t>2018年04月05日 14:33</t>
+  </si>
+  <si>
+    <t>广深港高铁香港段昨试运列车尾部出轨 暂停试车</t>
+  </si>
+  <si>
+    <t>['原标题：广深港高铁香港段昨试运列车尾部出轨 暂停试车', '海外网4月4日电 广深港高铁香港段正在试运行，每日安排多班列车往返广州南、深圳北、福田站及西九龙站。港铁表示，工程人员昨晚巡查广深港高铁石岗列车停放处时，发现一列停泊于维修车库的高铁列车，尾卡部份车轮偏离路轨。', '港铁表示，昨晚（3日）9时15分，工程人员巡查石岗列车停放处时，发现一列停泊于维修车库、昨日较早时试行的高铁列车，尾卡部分车轮偏离路轨，事件中无人受伤。港铁指非常关注情况，将进行详细调查，并已通知香港机电工程署。', '据香港东网消息称，广深港高铁香港段预料今年第三季通车，并于4月1日开始试车。据悉，涉事列车尾卡共有8个车轮，当中4个车轮出轨，港铁事后检查涉事列车发现所有数据正常，包括车轮和路轨的宽度，港铁会继续调查列车在移动时，包括向前或向后行驶，进入或离开维修车槽时相关数据是否有异常，而为安全起见，在调查有初步结果前，港铁会暂停高铁试车安排。', '香港机电工程署回复查询时表示，非常关注今次事故，并在港铁按既定机制通报署方后即时派员到场调查。署方知悉港铁正安排高铁列车生产商青岛四方派专家尽快来港参与调查，署方亦已要求港铁就事故成因和改善措施提交报告。']</t>
+  </si>
+  <si>
+    <t>http://news.sina.com.cn/c/gat/2018-04-04/doc-ifysuuya4635801.shtml</t>
+  </si>
+  <si>
+    <t>2018年04月04日 13:52</t>
+  </si>
+  <si>
+    <t>菲遣送78名台诈骗嫌犯到大陆 台“外交部”又急了</t>
+  </si>
+  <si>
+    <t>['原标题：台“外交部”又急了，菲律宾遣送78名台籍电信诈骗嫌犯到大陆', '[环球网综合报道]台湾电信诈骗嫌犯屡次在海外国家被当地政府遣送回大陆，让台当局颇为不满。这一次，菲律宾政府也于4日清晨将78名电信诈骗台湾嫌犯遣送回大陆，台涉外部门又急了，称已“责成‘驻菲律宾代表处’表达严正抗议”。', '台湾“联合新闻网”报道称，今年1月13日，菲律宾警方和移民局在吕宋岛北部的南伊罗科斯省（Ilocos Sur）和大马尼拉地区，同步扫荡可疑电信诈骗据点，共逮捕151名嫌犯，其中73名为大陆籍、78名为台湾籍。随后，73名大陆嫌犯在2月底已遣返回大陆，78名台籍嫌犯4日清晨也遣送回大陆。', '对此，台涉外部门4日发布新闻稿称，案发后已由“驻菲代表处”与菲律宾政府全力交涉，“同时指示驻处尽全力要求菲律宾政府依国际惯例，将涉案台湾人遣返台湾”。但“菲方仍以中国屡屡强力施压为由，将本案涉案台湾人遣返大陆”。', '台当局不满海外台籍嫌犯被遣送回大陆已不是一次两次。此前，西班牙、印尼、马来西亚等国家警方均在当地破获跨国电信诈骗案，其中涉案的台籍嫌犯均按批次被遣送回大陆，对此，台陆委会曾表达“强烈不满”，还声称是“大陆施压所致”。', '而对于台当局的表态，网友自然不买账。有网友说，大陆帮忙管教那些“害人精”，台湾民众感激还来不及呢。还有网友批评，大陆可以把台当局纵放诈骗集团记录公之于众，反观台湾那些官员、民代、法官都是什么德性！', '国台办发言人马晓光曾对马来西亚将20多名台籍电信诈骗嫌犯送往大陆一事回应表示，以台湾居民为主的团伙作案，受害人都是大陆的民众。所以为了依法惩处犯罪，维护受害人权益，大陆带回来处理，大家应该可以理解。', '他进一步表示，台湾陆委会应该想一想，为什么5月20日以后，双方警务部门的人员没有再就合作打击犯罪事宜进行过会面和接触，为什么这些台湾电信诈骗嫌疑人由于屡屡被轻纵，导致受害人权益不能受到维护。台湾陆委会更应该反思的是台湾的有关规定和台湾的政治文化。']</t>
+  </si>
+  <si>
+    <t>http://news.sina.com.cn/c/2018-04-04/doc-ifyswxnq2532292.shtml</t>
+  </si>
+  <si>
+    <t>2018年04月04日 13:40</t>
+  </si>
+  <si>
+    <t>蒋介石陵寝遭泼漆后最快6月底开放 游客锐减一半</t>
+  </si>
+  <si>
+    <t>['原标题：蒋介石陵寝遭泼漆后最快6月底开放 游客锐减一半', '中新网4月4日电 据台湾“联合报”报道，在蒋家家属出面协调后，国民党主席吴敦义3日终于得以前往慈湖谒陵，成为泼漆事件后慈湖首位到访来宾；马英九也将于4月5日前往。不过，两蒋慈湖与头寮陵寝，仍然不对外开放。桃园市政府表示，计划最快六月底之后再开放。', '据报道，台湾军方曾与蒋家家属及“立委”蒋万安等沟通，未来重新开放慈湖和头寮陵寝时，将以安全为优先考量，除了军方现有人力，桃园市政府也会加派警力协助维安。奉厝蒋介石灵柩的四合院，将加设强化玻璃，并且仅允许家属和经申请同意的团体进入，不对一般民众开放。协调过程中，家属曾表达希望开放一般民众进入，但被军方以人力、安全考量为由婉拒。', '慈湖蒋介石陵寝“2.28”当天遭泼漆后关闭至今，今年清明连假更首度不对外开放，台湾军方3日表示，未来是否开放要征得家属同意。不过，慈湖游客已锐减至少一半，民代担心冲击观光，呼吁当局拿出诚意。', '国民党主席吴敦义昨天率党员前往慈湖谒陵，仅献花致意未致词。台湾军方表示，蒋介石陵寝已经修复，但暂不对外开放，国民党事前提出申请，获得家属同意才得以进入。', '桃园市政府统计，上月的周末，慈湖游客服务中心平均每天涌入三千多人，但陵寝关闭前至少有六、七千人，清明等连假甚至可达上万。']</t>
+  </si>
+  <si>
+    <t>http://news.sina.com.cn/o/2018-04-04/doc-ifyteqtq3784484.shtml</t>
+  </si>
+  <si>
+    <t>2018年04月04日 11:38</t>
+  </si>
+  <si>
+    <t>2018年台湾县市长选举：国民党5月或完成整体布局</t>
+  </si>
+  <si>
+    <t>['原标题：2018年台湾县市长选举：国民党5月或完成整体布局', '中新网4月4日电 据台湾“中央社”消息，国民党备战2018年台湾县市长选举，目前尚有8县市未提名；其中，新北市人选6日出炉，台北市5月2日公布初选结果，台南市、高雄市、金门县等6县市还在协调整合；5月可望完成整体布局。', '今年底台湾县市长选举，国民党已通过提名13县市；桃园市长党内初选结果3月28日出炉，由国民党籍“立委”陈学圣脱颖而出，将待4月12日国民党中央常务委员会通过提名。', '目前，国民党尚有8县市未提名。台北市长选举方面，台北市议员锺小平、前国民党籍“立委”丁守中、孙大千、前台湾陆委会副主任委员张显耀登记党内初选；初选民调时间从4月29日至5月1日，台北市党部预计5月2日公布民调结果。', '此外，民进党方面已完成15县市提名，还有新竹县、花莲县、新北市、台北市、金门县和连江县（马祖）等6个县市等待提名。', '据悉，民进党备受关注的新北市长人选将在4月下旬确定，台北市长究竟要和现任市长柯文哲合作还是自推选，5月下旬是决定的关键点。']</t>
+  </si>
+  <si>
+    <t>http://news.sina.com.cn/o/2018-04-04/doc-ifyteqtq3776496.shtml</t>
+  </si>
+  <si>
+    <t>2018年04月04日 11:29</t>
+  </si>
+  <si>
+    <t>民进党有意与柯文哲选举上合作？吕秀莲:逻辑奇怪</t>
+  </si>
+  <si>
+    <t>['原标题：传民进党有意与柯文哲合作 吕秀莲怒轰：难道他赢了会入党？', '中国台湾网4月4日讯 据台湾“东森新闻云”报道，日前传出台湾地区领导人蔡英文于官邸约见台北市长柯文哲与其夫人，表达2018选举愿意合作的决定。对此，表态参选台北市长的前台湾地区副领导人吕秀莲怒轰民进党中央“逻辑很奇怪”，难道柯文哲赢了就会入党？柯文哲赢了就等于民进党赢吗？', '吕秀莲认为，柯文哲若是再次当选台北市长，就会成为取代蔡英文的政治强人，所以她不理解“为什么民进党要支持柯文哲”，更讽刺，民进党若不提人，让柯文哲赢了台北市长之战，“阿Q就是你赢啦？”', '吕秀莲也提到，有民调显示，民进党跟国民党看好度相差20%，这是可喜的现象，但民进党不提名台北市长人选，反而全力支持礼让柯文哲，“我不懂这是什么逻辑？”', '吕秀莲讽刺民进党中央，“是他们太聪明、我太笨，还是他们对党的忠诚度有问题，我实在不愿意怀疑。”吕秀莲强调，因为基层党员非常期待全党团结，打赢这场胜仗，而她听不懂的逻辑，相信很多支持者也听不懂，“我们是要打赢胜仗还是要帮柯文哲打赢胜仗？”（中国台湾网 娟子）']</t>
+  </si>
+  <si>
+    <t>http://news.sina.com.cn/c/gat/2018-04-04/doc-ifyteqtq3712674.shtml</t>
+  </si>
+  <si>
+    <t>2018年04月04日 10:12</t>
+  </si>
+  <si>
+    <t>港媒：想“台独”李扁都做不到 赖清德更不行</t>
+  </si>
+  <si>
+    <t>['原标题：港媒关注解放军罕见实弹训练：想“台独”，李、扁做不到，赖清德更不行', '[环球网综合报道]2016年民进党当局上任后，两岸关系急转直下，日前，台“行政院长”赖清德一席“我确实是台独工作者”的言论更是让急冻的两岸关系雪上加霜。香港中评社4月4日发表评论称，赖清德再三以“台独”言词刺激大陆，不顾后果，行事像当年的李登辉、陈水扁，但李扁二人最后都以失败告终，“他们都做不到，赖清德更不行”。', '评论认为，近期大陆民间“武统”声浪高涨，赖清德的“台独”言词肯定会对“武统”声浪火上加油。《人民日报》海外版3日发表评论指出，面对明显挑战两岸关系现状的言行，大陆更有足够理由提升对台军事斗争准备。', '评论称，大陆媒体昨日披露，解放军驻安徽宿松县竹墩空军部队3月3日至8月31日进行为期182天的昼夜间高空实弹训练。报道引述军事观察人士表示，持续长达182天、专门使用实弹实施昼夜间高空实弹训练，对大陆空军来说相当罕见。网络上有网友留言称，这是演练把“台独”炸成渣吗？此次训练必对“台独”分子有震慑作用！', '对此，评论称，大陆媒体报道“武统”越来越多，很多军事演练最后都会与“武统”拉上关系，而有关“武统”话题也可以公开讨论，官民都在谈“武统”。当年李登辉、陈水扁鼓吹“台独”、推动“台独”，比现在的赖清德还要疯狂猖獗，但他们最后都以失败告终。陈水扁说过“台独”根本做不到，李登辉也做不到。李扁都曾手握台湾最高权力多年，他们都做不到，赖清德更不行。', '对于铁杆“台独”赖清德的表态，国台办2日点名批其“自不量力”。国台办发言人马晓光表示，赖清德顽固坚持“台独”立场，多次公然发表“台独”言论，狂妄挑战两岸关系现状，严重挑衅两岸主流民意，危害台海和平稳定，危害两岸同胞特别是台湾同胞的根本利益，这是十分危险的，也是自不量力的。', '同时，他强调，大陆和台湾同属一个中国，台湾是中国领土不可分割的一部分，永远不可能从祖国分裂出去。我们坚决反对“台独”分裂活动。一切分裂国家的行径和伎俩注定都是要失败的，终将受到人民的谴责和历史的惩罚。']</t>
+  </si>
+  <si>
+    <t>http://news.sina.com.cn/c/2018-04-04/doc-ifyswxnq2357651.shtml</t>
+  </si>
+  <si>
+    <t>2018年04月04日 09:14</t>
+  </si>
+  <si>
+    <t>赖清德用闽南语叫嚣“台独” 港媒：加速大陆武统</t>
+  </si>
+  <si>
+    <t>['原标题：赖清德用闽南语叫嚣“台独” 港媒：加速大陆“武统”', '海外网4月4日电\xa0台“行政院长”赖清德日前频频叫嚣自己是“台独工作者”，狂妄挑战两岸关系现状，引发外界舆论一致抨击。昨日（4月3日），赖清德毫不收敛，上午出席一项活动时刻意以闽南语发言，再声称自己是“台独工作者”。中评社再度发文警告，赖清德再三以“台独”言词刺激大陆，不顾后果，行事像当年的李登辉、陈水扁，引来大陆政府及媒体严词痛斥，是必然的，赖清德的“台独”言词肯定会对“武统”声浪火上加油。', '近期大陆民间“武统”声浪高涨，人民日报海外版3日发表评论直指，面对明显挑战两岸关系现状的言行，大陆更有足够理由提升对台军事斗争准备。中评社直指，赖清德的“台独”言词肯定会对“武统”声浪火上加油。', '另据环球网3日报道，解放军驻安徽宿松县竹墩空军部队3月3日至8月31日进行为期182天的昼夜间高空实弹训练。报道引述军事观察人士表示，持续长达182天、专门使用实弹实施昼夜间高空实弹训练，对大陆空军来说相当罕见。网络上还有军迷留言说，这是演练把“台独”炸成渣吗？此次训练必对“台独”分子有震慑作用！中评社指出，大陆媒体报道“武统”越来越多，很多军事演练最后都会与“武统”拉上关系，而有关“武统”话题也可以公开讨论，官民都在谈“武统”。', '针对大陆的主流媒体刊发了系列的“武统”文章一事，3月28日国台办回应称，我们的对台大政方针是明确的，一贯的。我们会以最大的诚意、尽最大的努力来争取和平统一的前景，但是我们维护国家领土主权的决心是坚定不移的，绝不允许任何“台独”分裂势力把台湾从国家分裂出去。', '中评社认为，赖清德鼓吹“台独”终将以失败告终。当年李登辉、陈水扁鼓吹“台独”、推动“台独”，比现在的赖清德还要疯狂猖獗，但他们最后都以失败告终。陈水扁说过“台独”根本做不到，李登辉也做不到。李扁都曾手握台湾最高权力多年，他们都做不到，赖清德更不行。', '对于赖清德的“台独”暴冲言论，外界舆论批其挟洋自重，以一己之私把台湾民众福祉绑上危险的“台独”战车。', '南京大学台湾研究所所长、教授刘相平表示，为了私利，赖清德不惜把台湾人民绑上“台独”的列车上“暴冲”，把台湾人民置于十分危险的境地。', '厦门大学台湾研究院副院长、教授张文生则直言，赖清德自称是“台独工作者”，做了“台独”急先锋，只是再次暴露了赖清德的施政无能，清算军公教引起怨声载道，煤电污染导致民怨沸腾，年底选举成为检验赖清德的政绩的关键时刻，赖清德面临为民进党败选下台负责的政治危机。张文生分析，施政无能，政绩不够，赖只好玩弄“台独”意识形态来转嫁危机。', '曾经做过民进党“立委”的岛内学者朱高正呼吁，蔡英文应尽快撤除赖清德的“阁揆”职务，以免危害台湾安全。朱高正认为，赖清德是一个“不读历史、缺乏基本国际政治常识、没有知识的乡巴佬”，他在台湾的政坛地位其实很低，也很不受各界所重视，目前他的发言都是为了短期利益、刻意迎合“激进台独”，并不能真正影响台湾民众对两岸关系的认知。', '台湾资深媒体人黄玮翰认为，赖清德如此谈话只会引发两岸的紧张对立冲突，若是造成两岸不可挽救的战争危机，赖清德将是台湾的罪人，但是民进党政治人物向来就是只管自己的私欲利益，怎会管台湾民众的生死幸福呢？']</t>
+  </si>
+  <si>
+    <t>http://news.sina.com.cn/c/gat/2018-04-04/doc-ifysuuya3217703.shtml</t>
+  </si>
+  <si>
+    <t>2018年04月04日 08:01</t>
+  </si>
+  <si>
+    <t>蔡英文怼扁“保外就医”不是好事？台媒：看傻眼</t>
+  </si>
+  <si>
+    <t>['原标题：蔡英文亲上火线对怼陈水扁？台媒称“让人看傻眼”', '台当局前领导人陈水扁执政时，曾发行“阿扁电子报”，内有以当时自己的爱犬“勇哥”为主角，内容多为励志的“勇哥物语”漫画。最近陈水扁不断通过社交软件LINE群组发表“新勇哥物语”，向支持者发出讯息。', '据悉，日前，陈水扁借“新勇哥物语”，称自己以前“虎落平阳被犬欺”，现在则“龙困浅滩被猴戏”，而且回忆过往“在鬼地方（指在土城看守所及台北监狱）的日子”，借勇哥之口说“哪像哪位读书人只顾自己念书，不顾别人死活。”“仗义多是屠狗辈，负心多是读书人。”有网友评论认为，“新勇哥物语”里的“猴”、“负心”，暗讽仍未“特赦陈水扁”的蔡英文当局。', '面对陈水扁的放话，台当局领导人蔡英文亲上火线响应，说陈水扁“保外就医”“不是好事”。民进党前后两任领导人如此隔空叫阵，让人看傻了眼。', '台湾《联合报》对此发表评论说，“保外就医”的陈水扁这么嚣张，原应由台中监狱约束其言行；再往上，至少还有台当局“矫正署”及“法务部”负责，不该由台当局领导人出来应战。而今，陈水扁愈来愈不把台中监狱放在眼里，甚至以挑战红线为乐；蔡英文一怒亲自跳出来回应，除暴露台湾民主之荒谬，也暴露民进党价值的梁歪柱斜。', '但是，纵容陈水扁如此得寸进尺的，不正是蔡英文和她的民进党同志吗？蔡英文不断放纵“保外就医”的陈水扁四处趴趴走，又利用权位来讨好支持陈水扁人士，除弄得社会大众认知混淆，更搞得“司法体系”不知如何“依法行政”。例如，她任用主张陈水扁“特赦”的赖清德出任台当局“行政院长”，她又提名扬言清算“办绿不办蓝”的“司法官”的陈师孟出任“监委”，后者并坚称陈水扁“无罪”。这些，难道不是搬石头砸自己的脚？', '“勇哥”是当年陈水扁养的黑狗，他借用这只狗的名义不停发言撩拨，在民众看来，总是一场政治好戏。但政治难道只要热闹就好，而不问是非黑白，不问“法理体制”？', '不仅如此，陈水扁最近还抖露出和选举相关的讯息：蔡英文日前约见柯文哲夫妇，说陈菊为了任蔡英文办公室负责人而放弃刘世芳；真真假假，也显示蔡英文办公室另有“眼线”向他通风报信。这点，必然踩到了蔡英文的痛处。蔡英文和“勇哥”的对话，终究只是鸡同鸭讲，民进党的价值也散失了一地。', '3月31日，蔡英文跟媒体茶叙时，对于陈水扁不断透过朋友LINE群组发表“新勇哥物语”，发表了她的个人意见，甚至明讲“对陈水扁的保外就医也不会是好事情”。', '对此，《联合报》一篇文章解读说，往好的想，蔡英文真的很关心陈水扁，希望陈水扁能够继续保外就医，起码保有一定人身自由，因此“语重心长”地善意提醒陈水扁；往坏的想，会不会是蔡英文透过隔空放话，对台中监狱下指导棋，暗示未来若再踩一次，就撤销他的保外就医。', '而陈水扁随即在最新的“新勇哥物语”响应表示：“再把阿扁关押对民进党才有好处！”，完全不把蔡英文放在眼里。', '台湾《中央网络报》4月2日也发表评论指出，究竟是什么原因，会让蔡英文一反过去“尊扁”态度，而必须明讲：“对保外就医不太好”？结合陈水扁在“新勇哥物语”的关于选举的爆料可以看出，不论陈水扁掌握有关岛内选举战讯息的真实性有多高，若蔡英文不在此时予以警告，随着年底选战的日期逼近，陈水扁若持续透过“新勇哥物语”发表与选情有关的评论，难免会对选情造成影响。', '台中监狱曾三令五申告诫陈水扁保外就医不得参与政治活动，但是陈水扁不论是参加凯达格兰学校募款餐会、未经报备拜访李登辉、出席陈致中造势晚会并登台，以及在“扁联会”成立大会上录像致词等等，哪一项举动没有跨越台中监狱不得参与政治活动的红线。由此可见，陈水扁所做的事是否不利保外就医的标准，不在于他做了或没做什么，而在于他所做的有否影响民进党的选情或选战策略。蔡英文前此都未表示意见，偏偏对“新勇哥物语”的政治评论开刀，不是为了选举，还有其他原因吗？', '来源：中国台湾网']</t>
+  </si>
+  <si>
+    <t>http://news.sina.com.cn/o/2018-04-03/doc-ifyteqtq3257689.shtml</t>
+  </si>
+  <si>
+    <t>2018年04月03日 15:11</t>
+  </si>
+  <si>
+    <t>“九二共识”名词创造者:越搞“台独”越自寻死路</t>
+  </si>
+  <si>
+    <t>['原标题：“九二共识”名词创造者提醒蔡英文，越搞“台独”越是“自寻死路”', '[环球网综合报道]日前，台湾前“国安会秘书长”苏起在美国参加“两岸的局势及台湾的未来”的演讲时，对于现行岛内存在的“统独”争议表示，从台湾“中研院”社会所的民调来看，“49%的台湾民众认为未来是被统一的。虽然‘台独’的比例很高，但是大家清楚，主观上希望‘台独’，客观上最后还是会被统一。同时，他提醒民进党当局，台湾越是搞“台独”，绝对是“自寻死路”！', '香港中评社3日报道称，苏起在演讲中说道，“两岸一家亲”是现在两岸之间最低的基础。两岸一家亲简单说就是“We are all Chinese”。没有两岸一家亲的概念，就不可能“一个中国”。这是感情认同因素。但我的理解让民进党接受还是蛮有困难的。而民进党继续骂“九二共识”也毫无疑义，应该创造自己的桥梁，但他们弄不出这样一个桥梁。', '说起大陆、台湾与美国的关系，苏起表示这三角关系未来将以大陆与美国的关系为主轴，两岸、美台和台日都是附属关系。大陆和台湾都面向美国，彼此斜着眼睛。但两岸“武统”的可能性不大，大陆也不希望走到“武统”这一步。“和统”仍是大陆对台的主轴。在大陆和美国尚未“充分沟通”前，大陆应该不会“武统”台湾，但会加强“促进和统”。如果台湾不断搞小动作刺激大陆，大陆可能会把相关做为提早实施。台湾越搞“台独”，绝对是“自寻死路”！', '对于目前大陆与美国的关系，苏起认为，“中美关系可避免成为美国内斗的一部分，特朗普政府对中国表示出强硬的态度源自其内部压力，特朗普签署‘台湾旅行法’就是美国政府的‘台湾牌’。以台湾为筹码牵制中国”。包括近日贸易摩擦问题，“都是短期性的”。', '而对于目前台湾的处境，苏起更忧心台湾所谓的“国际境遇”，尤其是梵蒂冈与中国大陆关系走向建交屡传建交，苏起说如果台湾与梵蒂冈“断交”成为事实，将会对台湾产生严重的影响。梵蒂冈将成为这些中南美洲国家与台湾“断交”骨牌效应的第一块骨牌。“中南美洲国家与台湾的贸易占台湾贸易总额约百分之二左右。但重点不是经济，而是台湾将丧失了通过访问中南美州过境美国，拓展台美交流的机会和缘由。”', '国民党美西南支部委员谢宗煌对于苏起的表态表示赞同，他说，苏起是“九二共识”这个名词的发明创造者， “九二共识”对海峡两岸关系和平发展的重要性不言而喻，有“九二共识”两岸可以互相合作，共创双赢。现在执政的民进党当局不承认“九二共识”，以至于台湾经济、防务等都出现了很多困境和危机。']</t>
+  </si>
+  <si>
+    <t>http://news.sina.com.cn/c/2018-04-03/doc-ifyteqtq3236377.shtml</t>
+  </si>
+  <si>
+    <t>2018年04月03日 14:33</t>
+  </si>
+  <si>
+    <t>蒋介石在台棺柩遭泼漆案侦结 涉案10人被提起公诉</t>
+  </si>
+  <si>
+    <t>['原标题：蒋介石在台棺柩遭泼漆案侦结 涉案10人被提起公诉', '中新网4月3日电 据台湾“中央社”消息，发生于2月28日的台湾桃园大溪区慈湖陵寝遭人闯入泼漆案，桃园地检署今天侦查终结，李嘉宇等10人分别遭检方以“刑法”公然侮辱坟墓、公众纪念处所，以及毁损、妨害公务罪嫌提起公诉。', '二二八和平纪念日当天，有团体前往桃园市大溪区的慈湖陵寝，对蒋介石棺柩泼洒红漆。', '桃园地方法院检察署今天发布新闻稿表示，李嘉宇等10人泼漆毁损慈湖陵寝一案侦查终结，被告李嘉宇、陈俞璋、庄承澔、郭润庭、郭荞瑛、罗宜、周维理、王腾苇、张闵乔等9人，均依“刑法”公然侮辱坟墓、公众纪念处所及毁损罪嫌提起公诉；另外杨侒橙因以身体推挤及徒手拉扯后指部桃园管理组陵寝官，除上述罪嫌，还多了一项妨害公务罪。', '至于被告李嘉宇等10人，违反“文化资产保存法”之毁损历史建筑，涉及行政裁罚部分，检察官表示将另行函知桃园市政府依法处理。', '']</t>
+  </si>
+  <si>
+    <t>http://news.sina.com.cn/o/2018-04-03/doc-ifyswxnq1922193.shtml</t>
+  </si>
+  <si>
+    <t>2018年04月03日 14:27</t>
+  </si>
+  <si>
+    <t>“海峡号”调整4月航班 每周1平潭往返台北改台中</t>
+  </si>
+  <si>
+    <t>['原标题：“海峡号”调整4月航班 每周一平潭往返台北改至台中', '新华社福州4月3日电（记者宓盈婷\u3000刘旸）记者3日从福建海峡高速客滚航运有限公司获悉，由于年度运务调整，公司调整平潭对台客滚航线航班，4月份“海峡号”每周一平潭至台北的往返航班全部改为平潭至台中往返。', '航班调整后，“海峡号”每周执行5个航班，每周一、四、日执航平潭至台中往返航线，每周五、六执航平潭至台北往返航线。航班时间为平潭港上午9时开航，台北港或台中港下午2时30分开航。', '“丽娜轮”航班保持不变，每周将执行2个航班，每周二、三执行台北至平潭往返航线。航班时间为台北港上午9时开航，平潭港下午2时30分开航。', '福建海峡高速客滚航运有限公司有关负责人表示，公司已发布了航班变更消息，并通知各票务代售点告知乘客。对于已经按之前航班班次购买船票的乘客，可以办理退改签。', '目前，平潭已开通至台中、台北两条海上高速客滚航线。2011年11月，“海峡号”开通平潭至台中航线。2012年5月，“海峡号”开通平潭至台北航线。2013年10月，“丽娜轮”参与执行台北至平潭航线。']</t>
+  </si>
+  <si>
+    <t>http://news.sina.com.cn/o/2018-04-03/doc-ifyteqtq3128723.shtml</t>
+  </si>
+  <si>
+    <t>2018年04月03日 11:29</t>
+  </si>
+  <si>
+    <t>国民党“立委”盼两岸推“大中华货币”:或得诺奖</t>
+  </si>
+  <si>
+    <t>['原标题：国民党“立委”盼两岸共推“大中华货币”：或可得诺奖', '[观察者网综合报道]近日，台湾“蓝营”高官在“立法院”接受质询时，几名国民党“立委”提出要在两岸共推“大中华货币”，或许还能因此使两岸关系大为缓和，籍此获得诺贝尔和平奖。', '香港中评社台北4月2日消息，中国国民党“立委”罗明才2日在“立法院”财政委员会质询“中央银行”总裁杨金龙，两岸有没有可能成立“大中华货币”概念？', '杨金龙当时并未否认，还提到在两岸关系比较热络的时候，就曾想谈货币互换协议，但大陆没有同意。', '“立法院”财政委员会2日邀请“中央银行”总裁杨金龙就“20年来（1998年-2017年）台湾经济增长率、通货膨胀率及人均GDP与新加坡、韩国及香港之比较”进行专题报告，并备质询。', '罗明才质询杨金龙时提及人民币最近升值，杨表示，如果持续开放且币值稳定，市场接受程度就会上升。罗明才还问及两岸未来有没有可能成立大中华货币的概念？也许杨金龙还因此获得什么和平奖？', '国民党“立委”费鸿泰质询杨金龙时也力挺“大中华货币”，他同样表示，如果央行可以朝大中华货币这个方向来做，两岸关系会缓和很多，杨金龙还可以获得诺贝尔和平奖。', '杨金龙并未否认此一方向，并表示，在两岸发展还很缓和，比较热络的时候就要谈SWAP换汇协议，但就是因为大陆方面考量政治因素（没有实现）。', '罗明才追问，那换个角度想，如果是他，会以政治因素治理“央行”，还是经济成长考量？杨金龙则说，“央行”政策都是以“全民福祉”为依归。', '观察者网查询资料发现，所谓SWAP换汇协议，即货币互换协议，是结合外汇现货及远期交易的一种合约，合约双方约定某一日期按即期汇率交换一定数额的外汇，然后在未来某一日期，按约定的汇率（即远期汇率）以相等金额再交换回来。', '“大中华货币区”概念早已提出', '另外，蓝营所说的“大中华货币”概念似乎是首次出现，但“大中华货币区”的概念却是早已有之，其内涵是在该区域内率先使人民币成为通用货币，进而推动人民币国际化。', '2012年10月，中国人民大学国际货币研究所理事和副所长、国际货币金融机构官方论坛顾问委员会成员向松祚受邀对深圳银行系统作了一场关于人民币国际化的报告。他当时认为，构建“大中华货币区”可能是人民币国际化最现实的选择，这一条件已经成熟。', '他提出，我国金融对外开放战略应该以推进人民币国际化为核心，加强区域货币金融合作，而构建大中华货币区应是最现实的选择，因为大中华区有共同的语言，这是重要的优势。', '他建议分三步走：第一步（2010―2020年）将人民币从国内货币提升为重要的国际贸易结算货币；第二步（2020―2030年）将其从国际贸易结算货币提升为国际金融结算货币（如在债券市场、股票市场、商品交易市场、碳排放市场逐步推开），建成大中华货币区并扩展至东盟自由贸易区；第三步（2030―2040年）从国际金融交易结算货币提升为主要国际储备货币（如外汇交易对手货币、主要投资货币、金融结算货币、债券发行货币）。通过推动这项战略设计，一个“亚洲人民币货币区”将自然建立。', '在具体步骤上，他认为，目前最现实的选择是构建包括中国内地、香港、澳门、台湾在内的“大中华货币区”，再过渡到整个东南亚货币区，进而扩展到其他国家，如澳大利亚、日本、韩国、中亚国家等。']</t>
+  </si>
+  <si>
+    <t>http://news.sina.com.cn/c/gat/2018-04-03/doc-ifyteqtq3122765.shtml</t>
+  </si>
+  <si>
+    <t>2018年04月03日 11:21</t>
+  </si>
+  <si>
+    <t>45%民众支持民进党选县市长?国民党:民调还是文宣</t>
+  </si>
+  <si>
+    <t>['原标题：45%台民众支持民进党选县市长？国民党：做民调还是做文宣？', '[环球网综合报道]台湾地区县市长选举将近，“台湾世代智库”1日公布最新民调，结果显示，有45%民众认为应由民进党候选人当选，高于国民党的25%。据台“东森新闻云”3日报道，国民党文传会主委李明贤质疑，“台湾世代智库”到底是在做民调还是在做文宣？', '李明贤质疑，“台湾世代智库”的民调，一直以来都与社会上的普遍认知有极大差异。以蔡英文施政满意度调查为例，今年2月初“台湾世代智库”公布民调，蔡英文的满意度高达51.2%，这个数字与其他民调有极大的差异，像是“台湾竞争力论坛”1月底的民调，蔡英文满意度仅27.6%；旺旺中时民调中心在1月11日公布的民调，民众对蔡英文表现仅有26%表示满意。', '李明贤表示，即使是被视为绿营的“新台湾国策智库”民调，在去年12月15日公布的民调中，民众对蔡英文的满意度也只有28.8%。“台湾世代智库”所作的蔡英文满意度调查，几乎是其他民调的两倍左右，令人不能不怀疑其信度与效度，显然必须要加以严格检视才行。', '李明贤要求“台湾世代智库”，应公布详细的抽样方式与样本数的分布，并详列问卷题目，具体说明如何从政党看好度，推论出各县市长的当选看好度。如果不能严谨说明此份民调的具体调查过程，不能不让人怀疑在此敏感时期公布此一民调，是否别有居心？']</t>
+  </si>
+  <si>
+    <t>http://news.sina.com.cn/c/2018-04-03/doc-ifyswxnq1790275.shtml</t>
+  </si>
+  <si>
+    <t>2018年04月03日 10:49</t>
+  </si>
+  <si>
+    <t>台媒：陈菊确定接任“总统府秘书长” 将发人事令</t>
+  </si>
+  <si>
+    <t>['原标题：台媒：陈菊确定接任“总统府秘书长” 传蔡办15日发布人事令', '[环球网综合报道]据台湾“东森新闻云”4月3日报道，高雄市长陈菊是否北上接下总统府秘书长一位备受外界关注。尽管至今双方仍未证实，但昨陈菊被拍到“低调入府”，事后于“2018 年第十届IESF世界电竞锦标赛”签约仪式记者会时更声称，“战士没有选择战场的权利。”态度软化。据了解，陈菊接任“总统府秘书长”几乎是箭在弦上，现传出“总统府”15日就会发布人事令，预计4月下旬陈菊就会正式赴任。', '台当局“内阁”2月底进行第二波改组，原“总统府秘书长”吴钊燮接下“外交部长”一职，新任秘书长悬缺至今，外界盛传将由高雄市长陈菊接任此职。对此，陈菊多次回应，有新进展会向大家报告，并未多做透露。', '然而，陈菊2日早上被拍到“入府”与台湾地区领导人蔡英文见面，虽然称是针对“IESF世界电竞锦标赛”进行讨论，但据了解，陈菊北上其实已经势在必行，传出将于15日蔡英文出访非洲“邦交国”斯威士兰前发布人事令，待蔡英文下旬回国后，陈菊便会正式赴任。', '正在“保外就医”、却“不甘寂寞”的台湾地区前领导人陈水扁也相当关心此事，近日发表的“新勇哥物语”更爆料，称民进党“立委”刘世芳退出高雄市长初选的真正原因，与高雄市长陈菊北上接任“总统府秘书长”有密切关系，陈菊当时回应此说法时仅称，“谢谢指教。”']</t>
+  </si>
+  <si>
+    <t>http://news.sina.com.cn/c/2018-04-03/doc-ifyswxnq1786289.shtml</t>
+  </si>
+  <si>
+    <t>2018年04月03日 10:45</t>
+  </si>
+  <si>
+    <t>不吸烟的中国女性肺癌高发 罪魁祸首:二手烟+油烟</t>
+  </si>
+  <si>
+    <t>['原标题：女性肺癌高发 小心身边的杀手', '近日，中国疾病预防控制中心官微公布由国家癌症中心发布的2018年全国最新癌症报告。这份汇集整理了全国31个省、市、自治区肿瘤登记处资料的报告，详细地体现了我国恶性肿瘤的发病现状。报告中指出，全国恶性肿瘤新发病例380.4万例，相当于平均每天超过1万人被确诊为癌症，每分钟有7个人被确诊为癌症！全国恶性肿瘤中，发病首位的就是肺癌。可怕的是，不论城市还是农村，男性还是女性，肺癌都是“通吃不误”。', '其中有个最令人费解的现象：近几年，越来越多的研究资料提示，我国肺癌发病情况呈现出了与其他国家明显的差异，在我国肺癌新增病例中，不吸烟的女性比率正在大幅上升。此前，提到肺癌，公共卫生界和普通群众都认为，吸烟是引起肺癌的首位因素。', '不吸烟的中国女性比吸烟的美国女性患肺癌的几率还高？这究竟是怎么回事儿？！到底谁才是罪魁祸首？', '吸二手烟等于慢性自杀', '说到女性肺癌发病率激增，中日医院胸外科副主任梁朝阳教授表示，一方面是现在公众的体检意识增加了，另一方面是检查手段更加现代化，再有就是受其他因素的影响，比如，我国特殊的烹饪方式，二、三手烟以及环境污染等问题。“另外，吸烟是肺癌的高危因素，但不吸烟也可能会得肺癌。”梁朝阳教授解释说，因为癌症是多个因素综合作用的结果，既有内因，也有外因，还有“运气”，吸烟只是其中的一个重要因素，但这是最重要的一个因素，又是一个你绝对可以控制的因素。', '“虽然在临床上都称之为肺癌，表面看起来也很相似，但吸烟患者和不吸烟患者所患的癌症是不一样的。”梁朝阳进一步解释说， 不吸烟女性得的几乎全是肺腺癌，很多有EGFR和ALK基因突变；而吸烟者的肺癌各种各样，鳞癌很多，EGFR和ALK突变比例少。', '首先，从病理学上分析，肺癌一般分为：小细胞肺癌和非小细胞肺癌，后者还可再进一步分为肺腺癌、鳞癌和大细胞癌。“吸烟的患者多数是肺鳞癌和小细胞肺癌，而不吸烟的患者往往表现为非小细胞肺癌。”梁朝阳表示，致癌风险因素分两类：内源和外源。“内源主要是遗传因素和年龄，风险不可控；而外源则主要是生活习惯和环境，风险是可以控制的。”', '在外源致癌因素中，最容易想到的是：二手烟。我国是全世界二手烟问题最严重的国家，超过7亿女性和小孩，在家里和公共场合，都长期是二手烟受害者。', '中国疾控中心控烟办公室的实验显示，在一个122.5平方米的房间里，吸一支烟，PM2.5的浓度可达到800微克/立方米；吸两支烟，PM2.5的浓度可达到1500微克/立方米（世界卫生组织PM2.5标准是：24小时平均浓度值小于25微克/立方米，我国PM2.5标准是：24小时平均浓度值小于75微克/立方米），室内PM2.5的值严重超标。', '研究表明，如果老公吸烟，老婆得肺癌的概率是普通人群的200%以上。', '“被动吸烟吸进的有害物质比主动吸烟更多。”梁朝阳表示，这是因为香烟点燃后外冒的烟与吸入的烟相比，一些致癌物质的含量更高，如一氧化碳含量高5倍，焦油和尼古丁高3倍，苯高4倍，氨高46倍，亚硝胺高50倍，这些物质被不吸烟者经鼻吸入呼吸道后，一样可损害气管上皮细胞，诱发癌变。', '另外，吸烟者吸烟有自己固定的时间段，而被动吸烟者却多次、持续、反复地吸到多个吸烟者吐出的烟雾。在通风不好的室内有人吸烟，不吸烟者最常见的症状是眼部的刺激症状、头痛、咳嗽，这会明显地增加非吸烟者患上肺癌和心脏疾病的机会。因此，吸二手烟的危害更大。', '其实，除一手烟外，二手烟烟雾中和吸烟后，遗留在空气、皮肤、毛发、衣服、沙发、地毯和床具窗帘等当中的三手烟烟雾，也会成为伤肺的元凶。', '我国有55%的15岁以上女性每天都在承受被动吸烟的危害。对此，有不少肺癌治疗专家严厉指出：“在家庭或公共场所吸烟，让别人吸自己的‘二手烟’，这不仅是一种自私的、不道德的行为，甚至可以说是一种‘慢性谋杀’！”', '炒菜油烟导致女性肺癌高发', '另一个重要的致癌因素是炒菜油烟。', '中国菜好吃，因为中国人能利用煎、煮、烹、炸、炒等各种方法，尽其所能追求菜肴的色、香、味俱全；相反，西方的烹饪方式则相当“理性”，同一道菜从纽约到洛杉矶口味不会有太大的变化。有研究发现，油炸或者热油炒菜的时候，PM2.5能迅速飙升几十倍。', '“中国独特的烹饪方式，才是女性肺腺癌高发的重要因素。”中国胸外科肺癌联盟主席、首都医科大学肺癌诊疗中心主任支修益教授表示，女性在厨房的时间普遍比男性要长，因此遭受有害气体的危害更大，患肺癌的危险性也会相应增加。', '英国曾有一项研究报告表明，在通风系统差、燃烧效能极低的灶具上做饭，相当于每天吸两包烟，这种情况每年在全球导致160万人死亡。同济大学肿瘤研究所、上海肺科医院癌症免疫研究室主任周彩存教授课题组在研究肺癌和油烟发病机理中发现，厨房油烟与烧菜时油的温度有直接关系。', '“做完饭，我都不想吃了。”这话很多家庭主妇都说过。究其原因，就是当油温升到一定程度时，除了形成多种化合物外，还会产生凝聚体，使人产生“醉油”症状，导致食欲减退、精神不振、疲乏无力等，医学上称为油烟综合征。另有动物实验显示，菜籽油、豆油加热到270℃至280℃时产生的油雾凝聚物，可导致细胞染色体损伤，这一点被认为和癌症的发生有关。这意味着，如果是平时在家炒菜，厨房吸油烟机排污状况良好，厨房通风，油烟能很快散尽，影响不大。如果是长时间处在油烟浓度高的环境中，对鼻、眼、咽喉黏膜的刺激性比较强，可能引起鼻炎、咽喉炎、气管炎等疾病，对肺部的影响也是显而易见的，可引发慢阻肺，严重者或可引发肺癌。', '为此，梁朝阳再三提醒大家，除了正确使用抽油烟机外，一定要注意厨房通风，同时还要减少爆炒和油炸等。“对烟草烟雾说不，不抽一手烟、拒绝二手烟和警惕三手烟。”', '// &lt;![CDATA[\n// &lt;！[CDATA[\n// &lt;！[CDATA[\n// &lt;！[CDATA[\n（function（） {\n    var s = “_” + Math.random（）。toString（36）。slice（2）；\n    document.write（‘&lt;div id=“’ + s + ‘”&gt;&lt;/div&gt;’）；\n    （window.slotbydup=window.slotbydup || []）。push（{\n        id： ‘2475336’，\n        container： s，\n        size： ‘300，250’，\n        display： ‘inlay-fix’\n    }）；\n}）（）；\n// ]]&gt;\n// &lt;![CDATA[\n// &lt;！[CDATA[\n// &lt;！[CDATA[\n// &lt;！[CDATA[\n&lt;/div&gt;\n\n&lt;/td&gt;&lt;/tr&gt;&lt;/table&gt;&lt;div id=“function_code_page”&gt;&lt;/div&gt;  \n\n      &lt;/div&gt;\n// ]]&gt;', '来源：科技日报']</t>
+  </si>
+  <si>
+    <t>http://news.sina.com.cn/c/zs/2018-04-12/doc-ifyzeyqa8019937.shtml</t>
+  </si>
+  <si>
+    <t>2018年04月12日 03:53</t>
+  </si>
+  <si>
+    <t>新京报：美国能否“逃离”民粹主义？</t>
+  </si>
+  <si>
+    <t>['原标题：美国能否“逃离”民粹主义？', '犀赵牛渚', '在美国仅拥有高中学历的群体，其实际收入在过去的50年里一直在下降。这些研究有助于理解民粹主义为何在美国如此强势兴起。', '近日，IMF（国际货币基金组织）出版了2018年最新一期《金融与发展》杂志，本期“经济学人物”栏目介绍的是普林斯顿大学经济学教授安格斯·迪顿（Angus\xa0Deaton）。迪顿是在2015年获得了诺贝尔经济学奖，在2018年作为“经济学人物”显然有“过气”之嫌。', '成为2018年杂志首期的“经济学人物”，无疑是因为迪顿长期研究的“美国非拉丁裔中年白人的患病与死亡率”这一问题，对于理解今天美国强烈的民粹主义和保护主义倾向，提供了一面透镜。', '迪顿和妻子——同为普林斯顿大学经济学教授的安妮·凯斯（Anne\xa0Case）的共同研究显示：高中毕业及以下学历的非拉丁裔美国中年白人的患病率和死亡率都在上升，该群体每十万人里自杀的发生率，从2000年的16人增加到2015年的25.5人，因毒品而中毒的人数则从6人增至30人。', '迪顿和凯斯估算，假如按1979-1998年这20年间美国自杀和患病率平均下降趋势来计算，那么这个群体在1999-2013年间额外丧生的人数有近50万。相比之下，非洲裔和拉丁裔群体的健康和寿命都在改善中。', '迪顿说，在美国仅仅拥有高中学历的群体，他们的实际收入在过去的50年里一直在下降。这一贫富差距不断拉大的趋势很难纠正。2017年迪顿和凯斯的新论文“21世纪的患病率和死亡率”发现，2015年以来的情况并未好转。他们的研究在很大程度上有助于理解为什么民粹主义和保护主义浪潮会在美国如此强势兴起。', '迪顿更为人所知的著作是2013年出版的《大逃亡：健康、财富和不平等的起源》，他将人类摆脱贫困与早逝，努力改善生活质量的艰难历程形容为“大逃亡”：当一部分人从匮乏、疾病及死亡中逃脱时，另一部分人则继续被留在这些漩涡中。', '迪顿在《大逃亡》中有一个令人印象深刻的比较。近年来，法国的经济增长远不如美国迅速，但如果对两国收入最高的1%之外的99%的人群的平均收入进行比较会发现，法国的增速远远快于美国。换句话说，除了收入最高的那1%人群之外，剩余的99%的法国人要比剩余的99%的美国人日子要过得好。', '如果我们认为不平等与民粹主义和保护主义的兴起有莫大的渊源，那迪顿的研究是否意味着，欧洲在贸易保护主义这条路上并非是特朗普的“同道中人”？', '人类有没有可能最终实现“大逃亡”？迪顿还是持乐观的态度，他认为知识的传播无法阻断，这将让未来的“逃亡者”能够站在巨人的肩膀上；在世界范围内，暴力在减少；与之前相比，人们参与社会活动的机会也大为增加；教育受重视的程度在提高，如今，全世界80%的人口都受到过教育，而在1950年，世界上有一半人口是文盲。因此，像迪顿一样，我们有理由对实现“大逃亡”保持乐观。', '□赵柯（中共中央党校国际战略研究院副教授）']</t>
+  </si>
+  <si>
+    <t>http://news.sina.com.cn/c/zs/2018-04-12/doc-ifyteqtq8552702.shtml</t>
+  </si>
+  <si>
+    <t>2018年04月12日 01:55</t>
+  </si>
+  <si>
+    <t>新京报谈“北大口红”：没“北大”只有“想红”</t>
+  </si>
+  <si>
+    <t>['原标题 “北大口红”：没“北大”只有“想红”', '来论', '4月9日，北大校友王梓在微信公号上发表一篇文章《我把北大校徽上的红色做成了口红，献给颐和园路5号的你》，阅读数迅速突破10万+。', '我曾感慨，北大学子不光卖猪肉会上新闻，送快递、开米粉店也会上新闻。北大毕业生应该从事什么行业，才不会被社会另眼看待？', '“北大”二字其实是北大免费送给所有毕业生和在校生的一份礼物。', '有的同学不想要，毕业之后便不再想与“北大”发生瓜葛，只想安静地做自己。', '有的同学要了，只是在落魄或遇到困难时祭出，权当救急锦囊。但他们有的其实心怀羞愧，比如“北大屠夫”陆步轩就说，“我给母校丢了脸、抹了黑，我是反面教材。”', '与此同时，也有一些人急不可耐地收下这份礼物，不管走到哪里，不管做什么事，都把“北大”这顶帽子亮出。严格来讲，只要不做违法乱纪的事，也无可厚非。行走江湖，有个标签总会方便一些，但没必要把学校看得过于神圣，个别人薅一薅羊毛不是大事。', '但是卖“北大口红”的王梓不属于其中任何一种。第一，她的吃相更难看。第二，她还真有可能违法乱纪了。', '有人爆料，这款口红在相关政府部门网站上查不到备案信息，是一款“三无产品”。这个创意可能还涉嫌抄袭自其北大同学。王梓的个人简历也被发现存在注水的成分。更重要的是，这款口红号称是“面向校友限量发售12000支”，严重违背了“兔子不吃窝边草”的“收智商税”行规。', '校友专供这点也是许多北大同学格外不满的原因，“我好不容易考上北大，就是为了给人当韭菜吗？”即使知道自己铁定不会缴纳智商税，可也没人想要被当成潜在韭菜。', '但所谓“面向校友”可能只是一种营销策略。就像市面上各种“特供”产品一样，谁掏钱就特供给谁。“北大口红”又不是凭学生证购买。考不上北大也照样可以买。恐怕这才是王梓同学心中的主要受众。', '□西坡（媒体人）']</t>
+  </si>
+  <si>
+    <t>http://news.sina.com.cn/c/zs/2018-04-12/doc-ifyuwqez9441251.shtml</t>
+  </si>
+  <si>
+    <t>2018年04月12日 01:52</t>
+  </si>
+  <si>
+    <t>新京报:艺人炒作与未成年女友婚恋 这是毒鸡汤</t>
+  </si>
+  <si>
+    <t>['原标题：艺人炒作与未成年女友婚恋，这是一种毒鸡汤', '可能让少年误入歧途的错误价值观，在公共平台应该继续整改，尤其对未成年人影响相对较大的文娱领域，相关监管部门更是不能放松警惕。', '文\xa0|与归', '演艺圈情侣，宣扬错误爱情观被禁言', '公开资料显示，张木易、张千巽是某音乐组合成员。在两人的故事版本中，AKAMA MIKI（即后改名张千巽）的父母在2008年为热爱音乐的女儿请了一位叫张木易的音乐老师，两人因此相识。2012年6月29日，张木易与年仅12岁的AKAMA MIKI在微博公开恋情，两人年龄相差13岁。', '2018年4月4日，张木易连发两条微博，分别展示了自己在婚纱店的自拍和半张婚纱照，并配文：“你让我看到了这世界上最美的画面。”预示两人好事将近，张千巽也点赞了该微博，承认了该消息。', '是的，你没看错，从张千巽12岁开始，这份“爱情誓言”就滚动播放到现在。有些没有底线的自媒体开始炒作“00后都要结婚了，我还是单身狗”，但更多的对“未成年养成系”“恋童癖”的谴责。', '从6年前开始到如今，二人的公开“秀恩爱”一直引发争议。不久前，快手上推送的未成年妈妈引起轩然大波；仅仅一年前，亲子节目里的“父女CP”让该节目面临前所未有的舆论危机。这一回，或许后果更严重。在广电总局为抵制低俗内容严肃约谈快手、今日头条等平台并责令整改的背景下，继续炒作未成年人“养成恋爱”无疑是“顶风作案”。', '若是商业炒作，利用未成年人更是恶劣', '有段2010年的视频资料显示，10岁的张千巽参加安徽卫视《周日我最大》节目，当时一脸稚气的她说：“女生跟男生玩是很奇怪的。”那么，又是什么让这样一个懵懂的小姑娘，在两年后突然蜕变为“早熟萝莉”公开恋情，还称自己8岁时就对张木易一见钟情？', '演艺圈里，经纪公司每逢艺人有新的影视作品或者综艺节目上映，策划一些CP炒作已经见怪不怪，只是若张木易和张千巽的恋爱也是一场旷日持久的低俗炒作，由于涉及未成年人，性质就非常恶劣了。毕竟，两人的组合背负的是整个经纪公司的利益。微博管理员即给出说明“本次事件中是否存在有组织的炒作，微博将继续进行调查。”', '因此，问题的关键不在于张木易和张千巽是否存在“真爱”，而是其他未成年孩子会怎么想？又会在这种行为影响下怎么做？此外，二人身份的特殊之处还在于他们是艺人，当公众人物在公开平台上发言，尤其需要自律，需要社会责任意识。', '因为，指向未成年人的“恋爱”会向别有用心的成年“大叔”传达：我可以去找一个哪怕不满十岁小萝莉，玩一把“养成恋爱”；它同时也会向一些未成年人，甚至儿童传达这样一种感情取向：我觉得这位叔叔对我很好，我是不是要嫁给他？', '社交平台的低俗内容，需要持续整改', '曾经红极一时的玛丽苏电影《暮光之城》有一个备受谴责的情节：狼人雅各布在女主怀着半人半吸血鬼的女儿蕾妮斯梅时，就爱上了那个还未出生的小姑娘。蕾妮斯梅出生后，雅各布就以未来伴侣自居陪伴左右。虽然电影是魔幻题材，而且有“烙印爱人”这样一个狼人种族择偶的设置，但一经上映还是被指“恶心”。', '不管是现实还是影视剧，这种双向的炒作，很容易破坏两个群体彼此心中习以为常的禁忌，甚至作用到实际行动中。事实上，二人的故事的确已经对不少人造成了影响，有的网友甚至以浪漫主义的笔调“歌颂”道，“那年她8岁，他20岁，遇见是《缘分》；后来她12岁，他24岁，注定《勇敢爱》……”这样的文字大概会让三观正常的人起一身不寒而栗的鸡皮疙瘩。', '为什么要坚决反对张木易和张千巽“秀恩爱”？尽管爱情不以年龄差距为束缚，姐弟恋、忘年恋都越来越被这个日益多元化、日益文明开放的社会所包容。', '但现代文明又再让我们恪守一道底线：未成年人的感情是需要保护的、需要引导的。可能让少年误入歧途的错误价值观，在公共平台应该继续整改，尤其对未成年人影响相对较大的文娱领域，相关监管部门更是不能放松警惕。']</t>
+  </si>
+  <si>
+    <t>http://news.sina.com.cn/c/zs/2018-04-12/doc-ifyteqtq8515587.shtml</t>
+  </si>
+  <si>
+    <t>2018年04月12日 01:08</t>
+  </si>
+  <si>
+    <t>新京报：积分落户启动 入籍北京又打开一扇窗</t>
+  </si>
+  <si>
+    <t>['原标题：积分落户启动，入籍北京又打开了一扇窗', '身为首都，本身又是一个特大型城市，北京的人口问题历来复杂、敏感，广受关注，积分落户政策的正式启动是项积极的举措。', '文\xa0|熊志', '11日上午，北京市召开新闻发布会，向社会发布《北京市积分落户操作管理细则》，决定从4月16日起，正式启动北京市首批积分落户申报工作。持北京市居住证、不超过法定退休年龄、在京连续缴纳社会保险7年及以上，且无刑事犯罪记录的，可参加积分落户申报。', '经过一年多的准备，北京积分落户终于由冷启动进入实施阶段。对于在北京长期稳定工作的外地人而言，户籍的大门又打开了一扇窗。在上述4项前提之外，他们在就业、教育、纳税和守法记录等9个指标上的积分达到一定门槛，就有可能转换成本地户籍，享受均等的公共福利。', '此番启动的北京积分落户还有一大亮点，那就是精简了申报流程。积分申报的4项前提和9大指标，每一项都对应着具体的“证”和“章”；而从公布的纵向流程来看，还有注册、关联单位、积分填报、确认提交等8大步骤。', '因为打通了部门之间的信息壁垒，落户申报的指标项都不需要民众亲自计算，大部分申请人足不出户就能完成申报流程，最大程度释放了数字化和信息网络化的红利。', '积分落户最终的落脚点是“人”，服务于人的自由流通和市场壁垒的破除，最终让城市成为有尊严的居所。与现有的大学毕业生落户、人才引进、投靠亲属等渠道不同，积分落户政策让长期在京务工的非京籍普通劳动者也享有了相同的机会。', '当然，如何充分利用信息网络化和简政放权的优势，保证落户的公正公平、公开透明运行；如何合理确定落户规模；分值权重的设置如何进一步优化等等，在具体的落地执行中，都还需要进一步磨合、完善。', '户籍制度的改革是一个长期的过程，人口资源与环境之间的矛盾也是我们面临的一个紧迫问题。不过，不管此轮积分落户最终能惠及多少人，加大改革、废除城乡的藩篱，是应该始终坚持的大方向。', '在这个过程中，那些辛勤工作在城市第一线的就业者，作为城市不可或缺的一部分，都有机会感受到这个城市的温度，这充分体现了北京这座城市的情怀与担当。', '身为首都，本身又是一个特大型城市，北京的人口问题历来复杂、敏感，广受关注，积分落户政策的正式启动是项积极的举措。']</t>
+  </si>
+  <si>
+    <t>http://news.sina.com.cn/c/zs/2018-04-12/doc-ifyuwqez9405665.shtml</t>
+  </si>
+  <si>
+    <t>新京报：BBC纪录片陷造假门 摆拍和造假是两码事</t>
+  </si>
+  <si>
+    <t>['原标题：BBC纪录片陷造假门，摆拍和造假是两码事', 'BBC纪录片的口碑，是来自自然界的神奇，以及舍生忘死的摄影师们的勇气。而任何“造假”的纪录片，都是对勇气的玷污、对荣誉的污蔑。', '文\xa0|二号少女', '一提到英国广播公司（BBC）的纪录片，许多人都会心生佩服。不过，近日多家媒体却爆出，BBC在2011年播放的纪录片《人类星球》（Human Planet）中，关于树屋部落的片段是假的。日前，BBC也已经承认造假。', '消息一出，很多网友认为，BBC演砸了，近一个世纪积累下的良好口碑彻底崩盘。事实是，这不是BBC第一次陷入造假门。比如，《人类星球》里的沙漠野狼其实是“家狼”，是动物园里跟驯狼师过日子的狼；再比如，《巴塔哥尼亚：地球的隐秘天堂》的火山爆发其实是合成的；还比如，《蓝色星球II》里1992年落水小黄鸭也是后来工作人员洒落的，并不是当年那批小黄鸭……这样让人沮丧的消息，难怪有些死忠粉都发微博留言说“累觉不爱”了。', '那么，纪录片到底能不能摆拍？在某些道具、情节上不那么完全真实的纪录片是否有违纪录片拍摄伦理呢？这就很有必要讨论了。', 'BBC在《记录自然世界的原则》（相当于BBC纪录片工作者的工作手册）中明确提出：“当野外实景拍摄不实际，或者野外实景拍摄会对拍摄者或自然生命及其后代带来伤害时，可以使用圈养动物描绘自然界的现象。只需注意不要在影片中宣称该场景是在野外实际场景拍摄即可”。', '也就是说，纪录片不必完全忠实于自然，但这必须符合两个条件，一是，拍摄困难，将给拍摄者或动物及其后代带来伤害时可以使用圈养的动物；二是，不得给观众造成假象，认为这完全是摄影师在大自然中拍摄的真实场景。这在专业上，也被称为“摆拍”。', '之所以这么规定，是因为拍摄者无法完全呈现最残酷、真实的大自然，或是已经过去的历史。纵使技术进步得再快，时至今日，自然界中依然还有我们无法抵达的地方。这是之所以眼下业界允许纪录片“摆拍”的原因。', '但问题是，此次BBC被爆出造假的镜头？符合以上这两个条件吗？当然不。摄影师涉嫌的是“造假”，而不是复原自然的“摆拍”。“摆拍”说到底还是来源于真实，造假却是脱离了真实，这就有违纪录片伦理。', 'BBC这段火遍全球的造假视频，讲述了巴布亚新几内亚科罗威人中的一个家族，搬进树屋生活的故事。这种树屋高达40多米，坐落在热带雨林一棵棵大树的树冠之上。', '然而，当探险家Will Millard随摄制组来到当年拍过《人类星球》的部落时，当地人告诉他，树屋根本不是“我们的家”，“只是委托建造的”。实际上，当地部落实际住的树屋离地面很近，高处的那些树屋只是用来举行仪式的，或是部落小孩子们碰面的地方。', '显然，摄影师这么做，只是为了营造拍摄效果、迎合人们的猎奇心态，这是愚弄观众、违背真实的“造假”。如果用一个词来形容，这属于纪录片界的“丑闻”，是绝对不该被允许的。因为观众基于对纪录片的信任，会基本相信摄影师的镜头语言，相信摄影师呈现出的自然世界。', '而摆拍乃至造假的争议，近年来国内最火爆的纪录片之一《舌尖上的中国》系列，也没能“免俗”。2014年5月12日，植物学博士顾有容在果壳网发表一篇博文，从植物学角度证明《舌尖2》第一集《脚步》中的镜头是嫁接的——藏族孩子一开始爬的是树干挺直高大的针叶树，可之后导演给出了一个近景镜头，却是一棵不同科目的树种。', '根据BBC的工作手册，《脚步》中的“摆拍”镜头并没有问题，因为位置太高，可能危及采蜜者与摄影师的生命。问题就出在“摆拍”得太不专业，连树叶都搞错了。', '说回BBC的纪录片，毕竟这是行业内一直被奉为圭臬的品牌，不少观众会将其影像当做电脑屏保。之所以这样做，是因为人们惊叹自然界的伟大，造物主的神奇，以及舍生忘死的摄影师们的勇气。', '而任何“造假”的纪录片，都是对勇气的玷污、对荣誉的污蔑。经过这一次次的造假门，但愿BBC能吸取教训，为观众呈现出最真实、生动的自然界。']</t>
+  </si>
+  <si>
+    <t>http://news.sina.com.cn/c/zs/2018-04-12/doc-ifyteqtq8515551.shtml</t>
+  </si>
+  <si>
+    <t>新京报谈抗癌药零关税：一项暖心的惠民之举</t>
+  </si>
+  <si>
+    <t>['原标题\xa0抗癌药零关税：一项暖心的惠民之举', '降低抗癌药品关税，最终降至零关税，确实击中了民生的痛点，让抗癌药品价格逐步平民化，亦是最基本的人道主义关怀。', '文\xa0|社论', '4月10日下午，李克强总理在上海考察时，特意来到一家抗癌制药外企。在考察中，李克强总理说，“我们欢迎各国企业和创业者来华投资兴业，并且会进一步扩大开放力度”。“我们会继续对抗癌药品降低关税，直至降至零关税！”', '在今年两会闭幕后回答中外记者提问时，李克强总理曾经表示，“一些市场热销的消费品，包括药品，特别是群众、患者急需的抗癌药品，我们要较大幅度地降低进口税率，对抗癌药品力争降到零税率。”这次在考察抗癌制药外企时，他再次提及和确认这个承诺，体现了政府对这一事关民生痛点的关切，也表明这项工作正在稳步进行之中。', '目前，许多患者使用的抗癌药品，特别是癌症治疗靶向药，许多都是一些进口药品。这些药品，价格非常昂贵，一般的家庭难以承受。这往往导致“一人得病，全家返贫”的现象。', '为了不拖累家庭，无奈之下，一些患者只能选择保守治疗，甚至放弃治疗。而另有一些患者，则可能被迫加入“海淘”一族，即到印度等周边国家曲线采购进口药品或低价的“仿制药”，但是这些药品，往往真假难辨，在缺乏医生指导的情况之下使用，副作用难以控制。', '从一些网络的舆论亦可知，包括抗癌药品在内的一些“救命药”价格过于昂贵的话题，也经常成为网络热点。从这个角度来说，降低抗癌药品关税，最终降至零关税，确实击中了民生的痛点，让抗癌药品价格逐步平民化，亦是最基本的人道主义关怀。', '据业内人士估计，2017年我国抗肿瘤药市场规模已经超过1200亿元，其中一半左右依赖进口，如果施行进口抗癌药零税率，将给患者带来不小的实实在在的优惠。更为重要的是，降低抗癌药品关税，具有强烈的导向意义，会带来药品审批、生产和销售等方面的一系列改革，直至还利于民、让患者受益。', '实际上，优化药品审评审批流程、调整进口药品注册管理政策等等，过去一直都有相关改革举措推出。在关税方面，2017年12月1日开始，也已经有26种进口药品的关税，从4%-6%统一下调至2%。而从2%再降至零税率，则是未来要做的事情。', '当然，逐渐降低抗癌药品关税，最终降低至零关税，也并非毫无阻力。这项举措，势必会给国内的药企带来一定程度的竞争压力。但从积极的角度来说，短时间的竞争压力，也是一项倒逼机制，促使国内药企以更快、更有效的方式提高研发水平和生产能力。', '其实，目前中国不少医药企业在肿瘤治疗药物的某些领域已与国际水平接近并行，无论是疗法和药品都具备一定的竞争优势。降低进口药品税率，对这些药企并不会造成太大的冲击，只会有良性影响。', '而且，值得注意的是，中国的人口基数大，药品市场的规模也很大，目前已是世界第二大医药消费市场。这意味着，药品价格也具备充分的挤压空间。', '降低进口抗癌药品降低关税，直至降至零关税，也是符合当前中国继续扩大开放的举措。开放的也是人文的，相信随着进口抗癌药品零关税的到来，在药品生产和销售领域，会有更多惠民改革随之而来，也会有更多的患者得到更好的治疗，获得幸福健康的生活。']</t>
+  </si>
+  <si>
+    <t>http://news.sina.com.cn/c/zs/2018-04-12/doc-ifyteqtq8515518.shtml</t>
+  </si>
+  <si>
+    <t>人民日报中央厨房:让8岁学生“认罪” 事情大在哪</t>
+  </si>
+  <si>
+    <t>['原标题：让8岁学生“认罪”，事情大在哪', '睡前聊一会，梦中有世界。大家好，我是党报评论君。', '上学时，同学之间起冲突，最怕的是三个字：“你等着”。话虽短，却在人心里埋下了一根“恐惧的稻草”。“等着”是什么意思？要等到什么时候？会发生什么情况？的确，有些事情如果不说清楚，而是抛出一个极为简单的“判词”，就让人没底了。', '这几天，“有多大事”四个字，同样让人心里没底。事情是这样的：贵阳某学校一个8岁的孩子，被认为偷了笔，班主任当着全班同学的面录制了“认罪”视频。家长难以认同，找老师和学校协商，引来当地媒体关注。当记者就相关问题采访当地教育局工作人员时，他们回应道，“就算没拿东西，就算老师冤枉他了，又有多大事啊？”此话一出，语惊四座。', '每句惊人之语都是在击打人心。就像此事，虽然在一些事实细节上尚未清晰，如孩子是偷笔还是拿起来看一看、老师是强行认定过错还是有理有据、学校的回应处理是否偏颇，等等。但有一点再清晰不过了，那就是包括老师在内的相关教育工作者对待孩子和教育一事上，方式简单、态度敷衍。可以说，击中很多家长心中最柔软之处的，不只是这句“雷语”，而且是教育过程中的“简单思维”。', '教育旨在让人成为“更好的人”。这首先要求教育工作者是“足够好的人”，学为人师、行为世范，才能真正成为“灵魂的工程师”。今天，当人们越来越重视高质量教育、越来越为教育竞争而焦虑时，一些看似不严重、不经意的表达方式、处理手段，都可能让孩子留下阴影、让家长耿耿于怀。当然，这并不意味着，应对教育难题，老师、学校和教育主管部门就要畏首畏尾、缩手缩脚，而是不该简化复杂问题、忽视简单问题。必须看到，教育有两个维度，一个是“复杂度”，一个是“深度”，单凭一架梯子就想攀登教育高峰，恐怕一不小心就会跌落、摔伤。', '办教育就是谋未来，但不是简单勾勒，而是系统描绘。在很长一段时间内，从幼儿园虐童到补习班“乱象”，从“择校热”到“学区房”，从不能输在“起跑线”到全家上阵“跑步前进”，教育焦虑每每都能成为社会的痛点和焦点。正是因为敏感脆弱又备受关注，教育才牵动着孩子、家长和教育工作者的心，也才必须要求各方都能在畅通配合与友善沟通中实现教育效果最优化。这件事也警醒我们，是时候摒弃“简单思维”了，更是时候让教育进一步科学化、规范化、法治化了。就像有专家提出的“六顶思考帽”，白色代表中立客观、绿色意寓生机勃勃、黄色象征乐观肯定、黑色指向怀疑批评、红色表达直觉感受、蓝色负责控制调节。教育作为系统性工程，在此过程中如何给自己戴好“思考帽”，同样值得深思。', '有人说：“要发现你是否错了，最快捷的方式就是把你所相信的讲出来。”我们相信，中国的教育会在伴随阵痛中不断成熟；我们相信，譬如“有多大事”的简单思维会没有市场；我们相信，包括教育在内的各个领域，都能在各方齐心努力中得到发展；我们相信，一个拔节生长的中国会给人们带来美好生活……但请勿忘，对于中国教育、对于中国发展，你、我、我们不是“客人”而是“主人”，都需要为之奋斗。', '这正是：人生路上走，教育是为先。上好每一课，简约不简单。']</t>
+  </si>
+  <si>
+    <t>http://news.sina.com.cn/c/zs/2018-04-11/doc-ifyteqtq8426585.shtml</t>
+  </si>
+  <si>
+    <t>2018年04月11日 22:33</t>
+  </si>
+  <si>
+    <t>湖南浏阳市委书记党报撰文:简单粗暴也是懒政怠政</t>
+  </si>
+  <si>
+    <t>['原标题：“简单粗暴”也是懒政怠政', '黎春秋', '多下精准精细的功夫，从实际出发，用行动说话', '在日前召开的中央全面深化改革委员会第一次会议上，习近平总书记强调，全面深化改革进入了一个新阶段，改革的复杂性、敏感性、艰巨性更加突出。当此之时，落实改革部署、推进事业发展，尤其需要领导干部树立正确的政绩观。', '“既要做让老百姓看得见、摸得着、得实惠的实事，也要做为后人作铺垫、打基础、利长远的好事，既要做显功，也要做潜功”。今年全国两会期间，习近平总书记在参加山东代表团审议时的这段话，为各级领导干部履职尽责、干事创业提供了根本遵循。消极应付、为官不为，这是典型的懒政怠政，应该着力根除。同时，也要警惕一些领导干部打着“积极作为”的旗号，追求一时的政绩，在行政上简单粗暴，搞“一刀切”“一锅煮”。', '“简单粗暴”看似雷厉风行、轰轰烈烈，实为披着马甲的懒政怠政。为“维护城市形象”，对所有流动摊贩一禁了之；为“保护生态环境”，对所有工业企业一停了之；为“整合教育资源”，在行政村合并时，对辖区内学校一并了之，凡此种种，每一个看似合理的目的背后，投射的都是懒政怠政的影子。取缔所有流动摊贩，比疏导分流、实施持证经营管理省事得多；关停所有企业，比全面排查、分类施策轻松得多；并村时索性一起并校，比为照顾偏远地方学生保留一定的教学点少操心很多。这种简单粗暴的行政方式，虽然给自己减少了些麻烦，虽然看起来是有所作为，却给人民群众增加了烦恼，透支的是党和政府公信力，伤害的是党群干群鱼水情。', '简单粗暴的作为，根源在于政绩观的错位，在于民生至上理念的缺失。一个设身处地为百姓着想的领导干部，看到的不仅仅是流动摊贩带来的城市管理难题，还有他们肩上担子所挑起的全部生计；一个有着正确政绩观的领导干部，看到的不仅仅是一串串关停企业的数据，还有这些企业的工人以及他们背后的千百个家庭；一个以人为本的领导干部，看到的不仅是学校管理的方便，还有偏远地区学生每天上学往返的艰辛与不易。改革进入深水区，各种利益错综复杂，要平衡好各方利益，必须兼顾各方诉求，既考量全局又谋之长远。把老百姓装在心中，把人民利益摆在至高无上的地位，才能避免“简单粗暴”。', '习近平总书记强调，人民对美好生活的向往，就是我们的奋斗目标。作为领导干部，必须时刻把人民群众幸福不幸福、快乐不快乐、满意不满意作为想问题、作决策、办事情的根本标尺，不走“简单粗暴”的捷径，多下精准精细的功夫，从实际出发，用行动说话，真正把工作做到人民群众的心坎上。', '（作者为湖南省长沙市委常委、浏阳市委书记）']</t>
+  </si>
+  <si>
+    <t>http://news.sina.com.cn/c/2018-04-04/doc-ifyswxnq2269185.shtml</t>
+  </si>
+  <si>
+    <t>2018年04月04日 03:41</t>
+  </si>
+  <si>
+    <t>省纪委书记到巡视组长家中家访 纪检监察有新动作</t>
+  </si>
+  <si>
+    <t>['原标题：省纪委书记到巡视组长家中家访，新动作！', '来源：“长安街知事”微信公众号', '撰文 | 李拓', '今日出版的《中国纪检监察报》介绍，定期开展家访，已成为江西省纪检监察系统深入了解纪检监察干部的家庭、家教、家风等情况的常态。长安街知事（微信ID：Capitalnews）注意到，家访工作参与和覆盖的范围很广，甚至省纪委监委班子也要全员参与其中。', '江西省纪委监委机关党委专职副书记刘玉椿介绍，领导干部家访工作在省纪委常委会领导下，由机关党委负责组织协调，采取分级方式进行。', '比如，省纪委监委主要领导一般到领导班子成员家中家访，班子成员一般到分管部门负责人家中家访，也可越级家访。内设机构及下属单位、派驻机构和省委巡视机构主要负责人到所在单位干部职工家中家访。', '家访的主要内容为何？文章中提到，包括转达问候祝愿、通报工作情况、听取家属建议等。', '而家访的最重要目的，就是听一听干部在不同时间和场所的表现有无不同，看一看干部在社会上与机关内的言行有无差别，盯一盯干部在“八小时之外”是不是也能绷紧纪律这根弦，瞧一瞧家中摆设是否和其收入相符。', '江西省委常委、省纪委书记、省监委主任孙新阳就表示，家访更重要的是摸实情、强监督，通过实地了解、与干部家属谈心交流等，进一步摸清干部的思想、家庭、家风等情况，推动监督责任落地生根。', '这不是孙新阳第一次就江西省纪检监察系统的家访工作表态。去年2月，孙新阳到省委第四巡视组组长卢作全家中家访。过程中他表示，作为领导干部，既要管好自己也要管好配偶子女，不但要廉洁修身，还要廉洁齐家，带头树立良好家风。', '2017年1月8日，中国共产党第十八届中央纪律检查委员会第七次全体会议通过了《中国共产党纪律检查机关监督执纪工作规则（试行）》。其中明确提出，纪检机关应当加强对监督执纪工作的领导，严格教育、管理、监督，切实履行自身建设主体责任。', '可见，对纪检监察系统内的家访工作不仅要做，更要认真做长久做，做出效果。一旦忽视了这样的内部监督，后果将是严重的。', '长安街知事（微信ID：Capitalnews）此前曾介绍过，去年12月21日，广西柳州市中级人民法院公开审理了广东省汕头市委原常委、纪委书记邢太安涉嫌受贿、行贿、巨额财产来源不明一案。', '检方指控，邢太安先后利用其担任广东省茂名市人民检察院检察长，中共广东省汕头市委常委、纪委书记的职务便利，直接或者通过妻子李雯收受财物折合人民币150余万元。此外，还有共计折合2300余万元的财产不能说明来源。', '在邢被公审的前一个月，湖南省纪委正厅级干部李政科涉嫌严重违纪落马。李也由此成为十九大后首个被查的纪检正厅。', '党的十九大以来，国家监察体制改革不断深化，惩前毖后、治病救人的方针贯穿始终。就家访这一项工作来说，就是纪检监察机关坚持抓早抓小、防微杜渐，努力做到关口前移、标本兼治的重要工作实践。', '纪检机关不是保险箱，纪检干部也没有天然的免疫力。唯有不断加强纪检监察队伍的自身主体责任建设，才能有利于推动全面从严治党、反腐败斗争向纵深发展。']</t>
+  </si>
+  <si>
+    <t>http://news.sina.com.cn/c/zs/2018-04-03/doc-ifysuuya1276990.shtml</t>
+  </si>
+  <si>
+    <t>2018年04月03日 17:42</t>
+  </si>
+  <si>
+    <t>陈希除中央书记处书记和中组部长外 再有兼职</t>
+  </si>
+  <si>
+    <t>['原标题：中央政治局委员陈希再有兼职', '4月3日，国务院任免国家工作人员。', '陈希兼任国家行政学院院长；任命何毅亭为国家行政学院分管日常工作的副院长（正部长级），王东京、甄占民、李季为国家行政学院副院长，陈立、黄宪起、谢春涛为国家行政学院院务委员会委员；任命杨春光为国家邮政局副局长；任命李朋德为中国地质调查局副局长。', '汪永清不再兼任国务院副秘书长职务；免去王国强的国家中医药管理局局长职务。', '“政事儿News”（微信ID：zsenews）注意到，3月，中共中央印发《深化党和国家机构改革方案》。', '《方案》显示：组建新的中央党校（国家行政学院）。党校是我们党教育培训党员领导干部的主渠道。为全面加强党对干部培训工作的集中统一领导，统筹谋划干部培训工作，统筹部署重大理论研究，统筹指导全国各级党校（行政学院）工作，将中央党校和国家行政学院的职责整合，组建新的中央党校（国家行政学院），实行一个机构两块牌子，作为党中央直属事业单位。', '主要职责是，承担全国高中级领导干部和中青年后备干部培训，开展重大理论问题和现实问题研究，研究宣传习近平新时代中国特色社会主义思想，承担党中央决策咨询服务，培养马克思主义理论骨干，对全国各级党校（行政学院）进行业务指导等。', '陈希简历', '陈希，男，汉族，1953年9月生，福建莆田人，1970年12月参加工作，1978年11月加入中国共产党，清华大学化学与化学工程系催化动力学专业毕业，研究生学历，工学硕士学位，研究员。', '1970-1975年福州大学机械厂工人', '1975-1979年清华大学化工系基本有机合成专业学习', '1979-1979年福州大学化工系教师', '1979-1982年清华大学化学与化学工程系催化动力学专业硕士研究生', '1982-1984年清华大学校团委军体部部长、副书记', '1984-1987年清华大学团委书记、校党委学生工作部副部长、校党委常委', '1987-1990年清华大学党委常委、学生工作部部长，校团委书记', '1990-1990年清华大学教师，北京语言学院英语短期培训班学习', '1990-1992年美国斯坦福大学访问学者', '1992-1993年清华大学化工系教师、系党委副书记', '1993-2000年清华大学党委副书记、工会主席、体委主任（其间：1997-1998年中央党校一年制中青年干部培训班学习；1999.07被评为研究员）', '2000-2002年清华大学党委常务副书记', '2002-2008年清华大学党委书记（副部长级）', '2008-2010年教育部副部长、党组副书记', '2010-2011年辽宁省委副书记', '2011-2013年中国科学技术协会党组书记、主持常务工作的副主席、书记处第一书记', '2013-2017年中央组织部主持常务工作的副部长（正部长级）', '2017-2018年中央政治局委员、中央书记处书记，中央组织部部长，中央党校校长', '2018年3月中央政治局委员、中央书记处书记，中央组织部部长，中央党校校长，国家行政学院院长', '第十八届、十九届中央委员，十九届中央政治局委员、中央书记处书记。第十六届、十七届中央纪委委员。']</t>
+  </si>
+  <si>
+    <t>http://news.sina.com.cn/c/zs/2018-04-03/doc-ifysuuya1236104.shtml</t>
+  </si>
+  <si>
+    <t>2018年04月03日 17:30</t>
+  </si>
+  <si>
+    <t>2017年哪地抢到了人？ 深穗杭常住人口净流入最多</t>
+  </si>
+  <si>
+    <t>['原标题：2017年哪个城市真正抢到了人？ 深穗杭常住人口净流入最多', '21世纪经济报道 21财经APP 定军 ，何葳 北京', '2017年西安常住人口增加最快，达到了70万以上，深圳有60多万，广州有45万左右，杭州、长沙和重庆有近30万左右。不过，从实际常住人口净流入，即常住人口增加数与自然增长人口之差可以看出，深圳、广州、杭州是最具有竞争力的城市。', '近期西安出台凭学生证就可入户的政策，使得当地户籍人口快速增加。', '不过，要增加有效人口，常住人口仍最有价值，因为户籍迁入后，人是否在当地居住还不一定。', '21世纪经济报道汇总各城市统计数据发现，2017年常住人口增加最快的是西安，达到了70.19万，其次是深圳、广州、杭州、重庆、长沙，分别有27万多到62万左右不等。深圳2017年增加了61.99万常住人口，广州增加了45.49万，杭州增加了28万。', '但是，这并不是说西安2017年实际“抢”到的人才最多。', '西安常住人口显著增加，主要是西咸新区常住人口统计纳入西安导致。2017年西安常住人口为953.4万，相比上一年增加了70.19万。但是西咸新区咸阳片区户籍人口有60.59万人。按此看，实际西安常住人口只增加了10万左右。', '因类似原因导致常住人口数据迅猛增加的还有成都。', '统计数据显示，成都2016年末全市常住人口1591.8万人，比上一年增加了126万。但是这不等于成都常住人口流入了100多万，其实是由于简阳被成都代管，导致简阳人口数字纳入成都导致。', '简阳统计公报显示，2016年年末常住人口106.45万人，户籍人口为1499074，按此看，成都2016年实际新增常住人口有限。', '2017年成都常住人口为1604.47万人，比上年增加12.97万，这在全国“人才大战”中不算很抢眼。', '最近几年真正抢人多的城市，以深圳、广州、杭州较为明显。', '以深圳为例，深圳2017 常住人口为1252.83万人，增加61.99万，其中自然增长为10.15万（新出生人口减去死亡人口）。这就是说，深圳从2017年的常住人口从外地净流入有50多万。', '广州2017年常住人口新增加了45.49万，实际自然增长人口14.01万人，这就是说有30万常住人口是净流入的。', '杭州年末全市常住人口946.80万人，比上年末增加28.00万人（自然增长5.69万，等于是常住人口净流入22万）。', '重庆 2017全市常住人口3075.16万人，比上年增加26.73万人，其中自然增长人口11.92万，这就说有14万左右常住人口净流入。', '其他城市因为缺乏人口自然增长数据，难以判断常住人口是否为净流入状态。不过，大部分城市常住人口增长慢，甚至京沪津出现负增长。', '很多城市实施了人才抢夺战略，但是常住人口净流入的不多。很多城市户籍人口增长快，但是常住人口增加数低于户籍人口增加数，这表明很多只是迁入了户籍，并未迁入人口，抢夺人才效果要打折扣。', '很多专家认为，一些西部城市目前有去工业化特征，这导致经济放慢，实际对人才吸引力有限。', '在近期社科院工业所举办的的区域协调发展战略与雄安新区建设学术研讨会上，首都经贸大学副校长杨开忠指出， 人才是在新的区域发展为最根本、最稀缺的资源，那些受到人才青睐的城市和人才在竞争中必然胜出。']</t>
+  </si>
+  <si>
+    <t>http://news.sina.com.cn/c/zs/2018-04-03/doc-ifyteqtq3293437.shtml</t>
+  </si>
+  <si>
+    <t>2018年04月03日 14:49</t>
+  </si>
+  <si>
+    <t>新京报评景区儿童票收取标准：不妨废身高立年龄</t>
+  </si>
+  <si>
+    <t>['原标题：儿童票标准不妨“废身高立年龄” | 新京报快评', '既然在国家法律法规或常识认知里，我们判断是否是儿童，都是以年龄作为标准，那么在儿童票的认定上，也应该遵从这样的标准。', '公交、景区、娱乐场所等通常都有儿童票，儿童票的收费依据大多是孩子身高。因儿童身高测量不准，或身高高于平均值，在收费上引发争执的现象也时有发生。', '近日有媒体进行的一项调查显示，56.7%的受访家长认为以身高作为儿童票收取标准不合理，36.7%的受访家长曾因孩子该不该免票与工作人员发生争执。67.1%的受访家长赞同儿童票收取以年龄为准。', '这份调查一定程度上表明，应不应该享受儿童票的判定依据和标准，已经与公众的现实愿望产生了脱节，很多时候甚至成为引发纠纷矛盾和争执的“罪魁祸首”。', '为什么有将近7成的受访家长更倾向于以年龄为标准？原因主要在以下几个方面：', '其一，随着公众生活水平的提高，儿童身体发育普遍较快，旧有的儿童票身高标准已经不能满足现实需要了。', '其二，很多儿童受父母遗传和基因影响，身高明显高于同龄人的平均身高，导致“超高”而无法享受儿童票。', '其三，一些场所的儿童身高测量受发型、鞋底、地面等因素影响，造成不确定性。而肉眼判断的不标准、不科学，也容易造成误判，产生分歧。', '可以说，很多人在现实中都遭遇过这些情况。尤其是对于那些身高明显高于同龄人平均身高的孩子，别人都能免票或折扣进入某些场所，自己却因身高超限而无法享受到儿童应有的福利，难免会觉得自己受到了“歧视”和伤害。比起额外要付出的票价来说，这显然是更值得关注的问题。', '事实上，世界上大多数国家都以年龄作为儿童免票或享受优惠的唯一标准。就热门景点而言，纽约帝国大厦观景台规定，12岁及以下儿童可享受免票和儿童票优惠。公交、地铁和铁路运输方面，在俄罗斯和新加坡，7岁以下儿童可免费搭乘公共交通等。', '既然在国家法律法规或常识认知里，我们判断是否是儿童，都是以年龄作为标准，那么在儿童票的认定上，也应该遵从这样的标准。', '并且，作为孩子来说，他们的年龄是唯一的，也是明确的，不会存在人为、主观的操作空间，以此作为判断儿童是否享受免费或优惠的标准，最为客观合理，也最为公平公正。', '当然，年龄不如身高“一目了然”，但也不一定要随时携带户口本那么麻烦。例如公交，在进行年龄核查后可以为儿童办理“儿童卡”并规定时效；在“互联网+”的背景下，一些景区、铁路等部门也可以依靠互联网或家长提供的相关电子证明来查核。', '此外，在国家法律或相关部门在确定儿童票年龄标准之后，家长们也宜尽快带孩子去公安部门办理身份证，随时备用。作为儿童，是该有一张附着权利和福利的证件。']</t>
+  </si>
+  <si>
+    <t>http://news.sina.com.cn/c/zs/2018-04-03/doc-ifyswxnq1838979.shtml</t>
+  </si>
+  <si>
+    <t>2018年04月03日 12:07</t>
+  </si>
+  <si>
+    <t>媒体谈抖音:速食套路化让用户陷入过度娱乐泥沼</t>
+  </si>
+  <si>
+    <t>['原标题：抖音的调性，过度娱乐之伤', '“那天，我刷了一个下午（抖音），头晕目眩飘飘欲仙，有一种怅然若失的不真实感，一个下午时光流逝后，我究竟收获了什么”', '作为近来话题度颇高的一款音乐创意类短视频社交应用，上线于2016年9月的抖音，诞生时间并不算长。', '然而，从2017年3月起，抖音就一直保持着快速增长的势头，2017年8月日均视频播放量达到了10亿，2018年春节期间更是收获了新一轮关注，活跃度也再创新高。', '极光大数据发布的《春节期间热点App数据观察》显示，春节当日，抖音的日活跃用户数量达到了3496万，增长率为7.47%。', '同时，抖音上流行的热门曲目、舞蹈动作，甚至是由抖音红人自创的各种“爆款菜单”，都在日常生活中得到迅速传播。', '抖音到底为什么“火”？', '15秒的舞台', '根据大数据服务商QuestMobile的数据，2018年1月，抖音用户主要集中于30岁以下的年轻人群体，其中24岁以下的用户占比高达75.5%，远超快手、火山小视频、西瓜视频等短视频平台；在城市等级分布上，抖音的一二线城市用户比例也高于其他短视频平台。', '从以上数据来看，一二线城市24岁以下的年轻人或许最容易被抖音吸引。这样的用户画像，与抖音曾选择的“年轻人的音乐短视频社区”的平台定位是相符合的。', '抖音采用“算法推荐+人工精选”的推荐机制，用户进入首页后，可直接观看竖屏全屏自动播放的高清短视频，并通过上下滑动屏幕来直接实现视频的切换。', '与此同时，抖音降低了视频制作的门槛。首先，每个视频只有15秒时长，在如此短暂的时间里，只要有一两处亮点，就能抓住看客的眼球；其次，抖音为用户提供了节奏感较强的音乐模板和相应的台词设计，并通过优化拍摄技术、增加滤镜特效等方式，让视频的拍摄过程更加轻松、有趣。', '另外，抖音还在平台上发起各种“挑战”，不断挖掘年轻人喜爱的玩法，鼓励用户在同一话题下制作更多的视频，也带动了一批用户的参与和“围观”，甚至出现大量用户“沉迷抖音”的现象。', '有人曾将抖音与快手进行对比，认为从视频的制作与传播效果上，快手与“广场”在某种程度上有契合点，它不设置频道分类，不对视频作标签化处理，将平台定位于“做一面镜子”。抖音则类似于“剧场”，它鼓励用户在舞台上演出规定性节目，并对“大V”用户进行精准包装与宣传，在“洗脑”音乐与多重特效的加持下，激发出用户的表演热情，而观者也可在一个又一个15秒视频中，不间断地感受到舞台上的娱乐气氛。', '过度娱乐之伤', '抖音的火爆，也伴随着持续不断的质疑之声。', '抖音的“挑战”玩法，固然能够激发用户快速制作出大量视频素材，但也会让短视频流于模式化的翻拍和跟风，无数的“海草舞”“社会步”在城市与乡村、街头巷尾与家庭居室中反复出现。同时，制作门槛的降低，也有可能导致视频内容品质参差不齐。', '短视频App的研发初衷或许是供人们消磨碎片化时间，但速食、搞笑、套路化的短视频却不断诱惑用户投入更多时间，由此陷入过度娱乐的泥沼。', '在一篇题为《不刷抖音，也不玩快手的90后和00后们》的文章中，网名为“狍子”的高三学生这样写道：“那天，我刷了一个下午（抖音），头晕目眩飘飘欲仙，有一种怅然若失的不真实感，一个下午时光流逝后，我究竟收获了什么？”', '抖音平台上，还经常出现以用户所在工作场合为录制背景的视频。例如，在机场、医院、银行等场所，乘务人员、医护人员或银行职员身着工装跳集体操、做场景表演，展现出严肃工作之外的活泼一面，风格也以搞笑、搞怪为主。', '这样的视频大多会在屏幕下方标注出“下班后”“手术后”“加班结束”等字样。人们在工作之余借助短视频平台放松身心、活跃气氛、构建和谐的同事关系，本是无可厚非之举，但一些特定职业关系到民众生命安全、财产安全，是否应避免将工作场景过分娱乐化，尚值得进一步商榷。', '而对于亲友参与拍摄的抖音视频，情况则有所不同。', '一方面，年轻人带动家中长辈一起制作视频，让更多年龄层次的人体会到了新鲜事物的乐趣；另一方面，在娱乐视频里，用户原有的社会关系被稀释为简单的“抖友”，部分消解了现实生活的真实感。', '由于用户在拍摄时模糊了表演与现实的界限，有可能引发意外事件。近日就有用户在模仿有难度的抖音视频时，失手造成了家人受伤。', '此外，部分恶搞视频的流行，也容易引起不必要的跟风模仿。', '影响越大，责任越大', '在流量与争议并存的现状之下，抖音近日举办了一场线上发布会，公布了新的品牌口号“记录美好生活”，同时宣布将开展“美好生活”计划。', '该计划中提到，抖音将设置风险提示系统和时间管理系统。', '从“年轻人的音乐短视频社区”到“记录美好生活”，抖音发布的新品牌定位，意味着平台对自身的调性进行了调整。', '而距离这场线上发布会结束还不到一周，抖音、快手等短视频平台就被媒体爆出部分微商借制作视频兜售假货的现象。', '在这些平台上搜索“自制”“彩妆”等关键词，可以找到微商自制知名品牌化妆品并进行售卖的视频；而当关键词变为“奢侈”“包”“名表”等后，展览山寨奢侈品的页面就会出现。', '抖音、快手等短视频平台，也许正在成为微商售假的“跨平台”隐蔽窗口。', '对此，抖音、快手都迅速回应称，对涉嫌制假售假的不良账号，将发现一起、处理一起、绝不姑息。但是，由于无法预知用户发布的内容和动机，平台方需要不断完善审核和触发机制。', '2018年3月22日，国家有关部门发布《关于进一步规范网络视听节目传播秩序的通知》，提出坚决禁止非法抓取、剪拼改编视听节目的行为；不给存在导向问题、版权问题、内容问题的剪拼改编视听节目提供传播渠道等。', '新规的出台，也意味着抖音等短视频平台要对平台的导向、版权、内容作出更为严格的自我审核。', '提供影响公众的产品，就必须承担公共责任，不能只见利不见义，影响越大，责任就应越大。']</t>
+  </si>
+  <si>
+    <t>http://news.sina.com.cn/c/zs/2018-04-03/doc-ifyteqtq3082257.shtml</t>
+  </si>
+  <si>
+    <t>2018年04月02日 17:34</t>
+  </si>
+  <si>
+    <t>新京报刊文谈“狱中猎艳”案:制度落实上出现问题</t>
+  </si>
+  <si>
+    <t>['原标题：前狱警告诉你，“狱中猎艳”案到底是哪里出了问题 | 新京报专栏', '“狱中猎艳”案再现，不意味着当下的监狱管理体制都不严。但即便是个案，都足以提醒我们，道德教育固然重要，制度落实才是根本。', '文\xa0|安光系', '3年前黑龙江省讷河监狱在押犯人狱中猎艳案被曝光，引发轩然大波；如今，同在一省的牡丹江监狱，类似乱象又被曝出。', '据新京报报道，2009年，在牡丹江监狱服刑的张钧波，在狱中用手机飞信网络聊天时，结识了离异女士王楠（化名），两人很快确立了“恋爱”关系。张某以减刑需要“疏通关系”为由，骗得王楠向其汇款340余万元（用狱警纪某的银行账户转账），这笔钱被张某在狱中通过买“黑彩”挥霍一空。', '东窗事发后，涉事监狱向王楠做出若干补偿。但已被单独禁闭的张某，在2015年又通过手机骗取了王楠几十万元。', '两个监狱几乎“跌在同一个坑里”，让很多人将质疑矛头对准了监狱管理问题。', '“狱中猎艳”案源于某些制度落实上出现了问题', '作为一名前监狱警察，我曾在监狱工作了近10年，对该案中的漏洞，也有挺深的体认。', '就罪犯管理而言，很多年前，我所在的监狱就形成了硬性规定：服刑人员必须相互进行监督。罪犯的任何行动，都必须要有三至五人在一起。这三五个人平时是固定在一起，不会分开，相互进行监督。一人如果出了事故而其他人没有报告，也会受到相应的处罚。这是监狱通行规则，可在该案中，牡丹江监狱并未真正执行或落实。', '值得一说的是，这些年来，我们的监狱管理模式多是建立在经验基础上的，根据经验而来，并有延续性。很多规定，都是在过去几十年来发生的血泪事故基础上总结出来的。从这点来看，这名罪犯在长达几年时间里用手机，这所监狱至少在罪犯之间的监督制度落实方面，出了问题。', '其次，我国《监狱法》明确规定，即使罪犯的信件，也都必须进行检查；罪犯接见，也需要进行监听。这些措施的目的，是为了掌握更多的罪犯思想动态和相关信息，防止罪犯因为诸如家庭变故而发生情绪波动而做出脱逃之类的举动来。', '当年我在基层工作时，也曾从信件中发现某服刑人员有脱逃迹象，因此及时采取了一些措施，防止脱逃。后来，在我调走一年多后，这名罪犯还是脱逃了。由此可见，掌握罪犯本人的信息，控制其对外的信息交流，对监狱管理者而言是多么重要。', '后来，随着现代科技进步，手机一直是被禁止在监内使用的。最近几年，从前同事那里得知，连干警都不允许在监舍内使用手机。罪犯更不可能。所以，在手机不准带入监舍检查的规定的落实上，该监狱也应当是形同虚设。', '再次，监狱的正常监控系统也出了问题。最近几年，随着科技的发展，监狱已经有了规模不小的监控中心。有一批专门的工作人员，对生产车间和罪犯生活的地方进行24小时监控。', '前年夏天回国，一个还在监狱当警察的同学跟我抱怨，他因为在上班时玩手机，被他所在的监狱监控中心发现，事后被罚了款。', '由此可见，整个监狱系统在设施和制度上，都有着极严格的规定和要求。2015年，牡丹江监狱不可能不使用电子监控设备。这起事件里，电子监控的执行环节明显出了问题。制度形同虚设，再好的理念也无济于事。', '最后，公开举报系统失效。正常情况下，监狱有着极严格的举报体系。一方面，当地检察院驻监检察室在每一个罪犯的生活所在地，都设有公开举报箱，这些信件，会由检察官直接去取。另一方面，监狱自己也有着单独的举报系统，这些信箱会有上级专门的工作人员定期开箱。罪犯张某长期使用手机，不可能不被发现或举报。这个系统，在这里好像也失灵了。', '监狱也不是“法外之地”', '“因涉及张某诈骗案，前后共有5名狱警被起诉，其中4人已审理终结，另有部分狱警被内部处分。” 这个信息告诉我们，这次事件，不是某一个干警出了问题，而是一批人都出了问题。', '几名干警用自己的账户同时给罪犯转钱，让人震惊。与此同时，也必须反思少数狱警职业素养的欠缺。如何在监狱系统对警察进行教育、监督和管理，仍将是全国司法系统长期探索的一道难题。', '当年，从读警察学校开始，学校就开始对我们进行了严格的道德教育。我和班上的同学，多数人也是带着要改造罪犯的理想，进入监狱系统工作。这几十年来，他们当中的绝大多数，无不在勤勤恳恳、尽心尽责地守在这个岗位上。', '这起事件的发生，并不意味着当下的监狱管理体制不严。我们不能因为出了某一个事情，而去否定多数监狱警察的工作，把监狱想象成一个“法外之地”。', '但这起“狱中猎艳”案即便只是极端个案，也足以提醒我们，道德教育固然重要，制度落实才是根本。好制度如果不落实，就只能是一句空话；如果不落实，类似的事件还有可能再次发生。']</t>
+  </si>
+  <si>
+    <t>http://news.sina.com.cn/c/zs/2018-04-03/doc-ifyteqtq3009654.shtml</t>
+  </si>
+  <si>
+    <t>2018年04月03日 09:37</t>
+  </si>
+  <si>
+    <t>党报评厅官为“续官命”被骗4000万:进步勿靠捷径</t>
+  </si>
+  <si>
+    <t>['原标题：进步不能靠“捷径”（红船观澜）', '“厅官为‘续官命’被骗4000万元”……前不久，媒体报道少数领导干部前几年为买官，不惜砸重金求“高人”疏通，结果“竹篮打水一场空”，不仅没升官，反丢了“乌纱帽”。', '领导干部追求进步，本无可厚非。为民服务中一马当先，干事创业中奋发有为，这样的干部自然更有机会获得提拔。然而，一些人却把心思用错了地方，他们不信组织信“大师”，不靠勤勉靠“捷径”。有的干部认为自己年龄大了，想抓住最后机会“临门一脚”，为仕途“画个感叹号”；有的觉得自己辛辛苦苦数十载，“没有功劳也有苦劳”，就想找“能人”开路；还有的甚至把升官当成最大追求，认为“到点了就该提”，如果组织这条“大路”行不通，就找能接“天线”的“高人”开“后门”……人有所好，以好诱之无不取。正是一些人升迁心切，才使得一些自诩“手握天线”的江湖骗子有机可乘，而上当受骗者往往只能吃“哑巴亏”。', '一般而言，能走上领导岗位的干部，认知水平和判断能力都不低。按理说，不会仅凭骗子的一面之词而动辄将数百万甚至上千万的钱财拱手相送。是什么让他们一叶障目？说穿了，还是这些人“官迷心窍”，听说谁有“门道”，便像落水者抓住“救命稻草”般，不惜代价也要试一把。那些一时侥幸得逞者，登上高位便迫不及待地大肆敛财，不仅要收回当初狠下的血本，更想大捞一笔……这样的案例还少吗？', '花钱跑官买官、卖官受贿敛财、大肆权钱交易……领导干部花钱找“能人”“疏通”，实则打开了“潘多拉魔盒”。为了填补跑官买官所需的巨额资金，有的人要么在现位上疯狂敛财，要么以未来职位作赌注，甚至将手中的权力当作“期货”做交易。陕西省国土厅原厅长王登记就曾斥资上亿元，企图通过“掮客”帮忙升任副省级，并许诺如果升职为省政协副主席出钱1亿、升为副省长出2亿；安徽省泗县县委原书记晏金星任职10年间，受贿600多次，其中“卖官”近百次……如此买官卖官、受贿行贿，不仅严重带坏一地一域干部队伍风气、污染政治生态，更累及党的形象，给党和人民的事业造成难以挽回的损失。', '人生有进退，职位有高低。“金字塔形”的干部层级结构，决定了大部分人得甘当“塔基”。与其走旁门左道，最终落得人财两空的可悲境地，倒不如以平常心看待升迁，沉下心来踏踏实实干事，在岗位上发光发热、造福于民，这就是个人价值的最好实现。', '党的十九大报告指出，“坚持正确选人用人导向，匡正选人用人风气，突出政治标准”，强调“事业为上、公道正派”，营造风清气正的良好政治生态。随着“铁规”发力，监督到位，选人用人机制不断完善，跑官要官、买官卖官的利益链条一定能够被彻底斩断，实现党内正气充盈，清气满乾坤。']</t>
+  </si>
+  <si>
+    <t>http://news.sina.com.cn/c/zs/2018-04-03/doc-ifyswxnq1618368.shtml</t>
+  </si>
+  <si>
+    <t>2018年04月03日 07:50</t>
+  </si>
+  <si>
+    <t>70市网约车细则擅设行政处罚 某平台去年被罚5亿</t>
+  </si>
+  <si>
+    <t>['原标题：博弈网约车立法：司机和车辆资质是否应放宽？', '本报记者\xa0王峰\xa0北京报道', '导读', '今年全国两会至今，提高网约车立法层级的呼声不断，但体现为观点鲜明对立的两方：一方认为应放松对网约车司机、车辆资质的许可；另一方认为应保持目前的许可，但应提升法律层级，以加强对违规网约车的处罚力度。', '3月31日，中国政法大学法治政府研究院发布的《法治政府蓝皮书》统计，截至2018年2月4日，共有190个城市（包括4个直辖市，186个地级市）、49个县（区、市）发布了网约车细则。', '2016年7月，交通部等七部委发布《网络预约出租汽车经营服务管理暂行办法》（下称《暂行办法》）。从法律性质来看，其效力层级较低。《暂行办法》属于部门规章，而各城市发布的细则绝大部分属于规章以下的规范性文件。中国政法大学法治政府研究院副教授林华介绍，能查询到全文的184个城市的网约车细则中，以规章（即市政府令）形式发布的只有6个城市。', '21世纪经济报道了解到，今年全国两会至今，提高网约车立法层级的呼声不断，但体现为观点鲜明对立的两方：一方认为应放松对网约车司机、车辆资质的许可；另一方认为应保持目前的许可，但应提升法律层级，以加强对违规网约车的处罚力度。', '建议国务院出台网约车行政法规', '据中国政法大学法治政府研究院发布的《法治政府蓝皮书》统计，截至2018年2月4日，共有190个城市（包括4个直辖市，186个地级市）、49个县（区、市）发布了网约车细则。', '在190个城市中，共有187个城市规定了网约车的车籍，占比为98%。未规定车籍的，仅有大庆、辽阳、阜阳这三个城市。其中，重庆、合肥等24个城市还限定车籍必须在市区注册。在49个县中，有36个县规定网约车车籍应当为本县。', '在网约车司机户籍限制方面，《法治政府蓝皮书》统计发现，北京、上海、天津、平凉、商丘、驻马店、东营、通化等8个城市要求网约车司机必须具有本地户籍，其中通化市还要求必须具有市区户籍。有146个城市规定具有本地户籍，或者取得本地居住证的，均可以申请成为网约车司机。在48个县中，有38个县规定了网约车司机的户籍或居住证。', '国家行政学院副教授王静认为，从网约车部门规章到地方实施细则，都设置了严苛的准入门槛，使得可以合法接入平台的车辆和驾驶员数量大幅减少。', '全国人大代表、民革中央组织部部长叶赞平介绍，据有关方面提供的数据推算，我国网约车驾驶员获证率只有10%左右、车辆获证率只有5%左右。', '在今年全国两会上，21世纪经济报道记者得到的多份代表建议都呼吁，放宽对网约车车辆、司机的许可。全国人大代表、山东三箭置业集团有限公司油漆粉刷工陈雪萍建议，可以考虑按照工作时长或者订单数量，将全职与兼职司机加以区分，进行分类施策。对于全职运力，可以采取许可的形式；对于兼职运力，可以采取备案的形式，由平台进行日常监管。', '国家行政学院副教授王静认为，国务院应当以行政法规的形式，对网约车做出全新的制度安排，以适应移动互联网和大数据时代的需要，从国家战略的高度，对网约车的发展予以考虑。另外，地方网约车实施细则，也应升级为地方政府规章乃至地方性法规，从而有助于避免出现限制户籍的地域歧视等问题。', '将《暂行办法》由部门规章上升为行政法规的另一个理由是，网约车不仅是交通出行问题，网约车平台更是互联网平台经济、共享经济的代表领域。', '《法治政府蓝皮书》认为，由交通运输部门来起草和主导规章的制定，其不可避免的一个局限是路径依赖和保守思维，让严重依赖传统监管模式的部门对创新领域来进行制度全新设计，难度过大。', '法律层级能否提高', '“美团打车在上海上线的第一天，就被有关部门约谈，要求其使用符合规定的车辆、驾驶员，并将相关信息实时接入监管平台。现在看来情况很不理想，据上海市出租车行业协会的调查，美团打车接入的大部分车辆是私家车，大部分司机也没有相关资质。”一名上海市出租车企业负责人告诉记者。', '上述负责人说，有关部门撤销对美团打车平台的资质许可，甚至在上海地区对美团打车停网，都在可考虑的处罚措施之列。', '但是，这样的处罚存在巨大争议。', '“按照法律效力，部门规章只能做出警告和罚款这两种行政处罚，无权做出收回经营权的处罚。”交通部深化出租汽车改革首席专家徐康明告诉21世纪经济报道记者。', '以北京为例，对非法营运普遍采取罚款1.1万元的措施，而这笔罚款很大可能是由网约车平台埋单。有业内权威人士告诉记者，某平台2017年在全国缴纳了约5亿元罚款。', '“由于《暂行办法》的法律层级低，造成处罚手段少且弱，进而造成整个行业的违法成本很低。同时，由于资本对网约车行业的高关注度，违法、抗法带来的正向回报就很高。”徐康明说。', '今年全国两会上，一份30位全国人大代表联名的议案被提交全国人大，议案建议制定网络预约出租汽车管理法，这是第一次正式提出为网约车制定一部法律。', '据21世纪经济报道了解，议案提出的立法背景之一，即在部分已经出台网约车管理细则的地区，存在执行松懈、监管缺位的情况，未能对非法网约车运营做到严格执法、有法必依、违法必究。依据程序，全国“两会”后，全国人大将对这份议案进行立法调研。', '相关的举措也在陆续推出。近日，交通部办公厅、公安部办公厅联合发出通知，要求切实做好出租汽车驾驶员背景核查与监管等有关工作。业内人士介绍，有关部门正在酝酿加强网约车事中事后监管的规定。', '但网约车立法短期内恐难以落地。', '“出租车属于城市公交的一部分，城市公交又属于道路运输的一部分。目前，我国关于道路运输立法都还没有‘排上号’，制定一部出租汽车的法律，是短暂无望的。”在3月27日举行的维护出租汽车行业公平竞争研讨会上，交通运输部管理干部学院教授张柱庭说。', '张柱庭认为，可行的出路是尽快把现有的规章升级成行政法规，并加快《道路运输条例》的修订，在其中增加出租汽车的内容。', '当然，地方立法存在质量良莠不齐的问题。中国政法大学法治政府研究院副教授林华介绍，有70个城市在没有上位法依据的情况下，在当地网约车细则中，擅自增设或者变相设定了罚款、收回经营权、暂停新增注册、责令停业整顿、吊销许可证等行政处罚。']</t>
+  </si>
+  <si>
+    <t>http://news.sina.com.cn/c/2018-04-03/doc-ifyteqtq2886150.shtml</t>
+  </si>
+  <si>
+    <t>2018年04月03日 06:03</t>
+  </si>
+  <si>
+    <t>中青报谈研究生自杀：板子不能只打任何一方</t>
+  </si>
+  <si>
+    <t>['原标题：研究生自杀：板子不能只打任何一方', '和谐的师生关系至少应该有三个方面：一是德行与学问俱佳的导师，二是真诚而好学的学生，三是缜密且有力制度保障。', '3月26日，武汉某高校硕士研究生陶某跟母亲进行了一场有关导师的对话后，从宿舍楼坠楼身亡。该校宣传部表示，自杀事件发生后，学校高度重视，立即成立专班调查和处置相关事宜。', '而在数月前，西安某高校也发生了一起博士生溺亡事件。两起自杀事件，再次引发舆论对师生关系的关注。', '从笔者的经验来看，和谐的师生关系至少应该有三个方面：一是德行与学问俱佳的导师，二是真诚而好学的学生，三是缜密且有力的制度保障。换言之，在研究生自杀的问题上，把板子仅仅打在任何一方，把责任全部推给任何一方，都是不合理的，也是难以解决问题的。那样只会让师生关系紧张化，让导师和学生心中都草木皆兵。', '对于学生来说，学生入学之前是否经过心理方面的检查，确定心理健康的程度；出现心理问题后，能否获得及时有效的心理干预；对导师不满意时，是否能够申请更换导师；权利受到侵害后，是否有通畅的权利救济渠道……这些不仅是对学生的保护，也是学术研究机制能否良性运转的保障。', '对于导师来说，则需要制定科学化的导师责任制度，建立健全对导师进行师德和学术两方面评价的机制。这一方面是为了约束老师的行为，防止老师滥用职权，把学生当成自己的廉价劳动力和勤杂工，防止师生关系变成人身隶属关系。另一方面，也是对老师的学术研究的一种鞭策和引导，有利于在高校内部、高校之间形成学术共同体评价机制。如此，不仅可以减少学生对导师的依赖，还能使学生得到多元化的指导，更可以为学生选择导师提供一定的参考，避免选了不适合自己的导师。', '当然，不论是老师还是学生，要想保障其应有的权利，都需要有一整套完整的、具有公信力的申诉和救济渠道。这套救济渠道应该具备安全、信任和支持三方面的功能和特点，而构建一个兼具三方面的权威渠道，将有效克服当前救济方式较为混乱和低阶的情况，也能防止行政权力过度干预学术研究。', '总而言之，高校的教育和学术管理、评价应当以教育和学术为本，采用教育、学术标准和原则，而不能被非教育和学术因素影响。这样，才能让导师和学生的关系，回到单纯的教育和学术定位上，也才能拯救任何偏离学术研究的导师和学生。']</t>
+  </si>
+  <si>
+    <t>http://news.sina.com.cn/o/2018-04-03/doc-ifyteqtq2882851.shtml</t>
+  </si>
+  <si>
+    <t>2018年04月03日 05:51</t>
+  </si>
+  <si>
+    <t>媒体评甘肃扶贫路刷涂料整改：不只是作风问题</t>
+  </si>
+  <si>
+    <t>['原标题：“扶贫路”刷涂料整改，不只是作风问题', '工程建设时的偷工减料、整改落实时的敷衍搪塞，秉承的是一以贯之的思路：只求得外边光鲜，可以蒙混过关就行。', '一条题为《甘肃火了！》的文章，日前刷屏朋友圈。', '据央视报道，甘肃省折达公路是一条投资近16亿的扶贫公路，此前因考勒隧道工程质量问题被举报。调查结果显示，考勒隧道内原设计为“双层钢筋”，施工后却变成了“单层钢筋”，存在着严重安全隐患。随即，调查组要求相关部门对隧道封路进行加固整修。', '然而，央视记者近日调查发现，当地并没有进行隧道加固，只是找人刷了些涂料。而当记者到甘肃省公路管理局及其上级甘肃省交通厅采访时，却被像踢皮球一样推来推去。', '4月2日，甘肃省交通厅官网通报消息，决定“对中央电视台曝光的工作不实、推诿扯皮的6名相关人员进行停职调查，并责成甘肃省公路航空旅游投资集团公司对项目业主、施工等单位相关人员做出处理。”此外，对折达公路考勒隧道立即进行交通管制；成立以甘肃省交通运输厅厅长为组长的调查工作组等。', '甘肃省在有关部门媒体曝光后，迅速采取补救措施，并特别表明要查找“作风不实、工作推诿、态度生硬”等顽疾，表态要“零容忍”“彻查”“知耻而后勇”，这无疑值得肯定。', '但工程建设时偷工减料、整改落实时敷衍搪塞，一以贯之的思路是：涂涂抹抹，只求外表光鲜可以蒙混过关就行。至于工程质量、安全责任、社会影响等，并不在考虑范围之内。', '复盘这起事件，当地监管部门对建设单位、施工单位公然的“体贴”乃至袒护，不免让人将质疑的矛头对准了有关监管人员与建设方、监理方间的政商关系，指向了扶贫建设资金使用的正当性。', '好在，甘肃省交通厅在通报中立下了军令状，要“彻查工程质量安全问题背后的违规违纪腐败问题及工作作风问题，以零容忍的态度严肃追责问责。”严查之下，想必很多疑点可以渐次廓清。', '就像涂涂抹抹遮不住“单层钢筋”的脆弱，本质上的“腐败案件”也没法用“作风问题”来涂抹——我们希望，以这条引发公众强烈关切、存在严重安全隐患、涉嫌扶贫腐败的问题隧道为突破口，当地调查组可以一追到底，对其中的违纪违法问题彻查清楚，及时予以公开，也严肃整治这种“以涂抹代整改”的局域政治生态。', '□胡印斌（媒体人）']</t>
+  </si>
+  <si>
+    <t>http://news.sina.com.cn/c/nd/2018-04-03/doc-ifyswxnq1549472.shtml</t>
+  </si>
+  <si>
+    <t>2018年04月03日 03:22</t>
+  </si>
+  <si>
+    <t>新京报：建设西湖大学 追求的不是新增一所大学</t>
+  </si>
+  <si>
+    <t>['原标题：建设西湖大学，追求的不是新增一所大学', '西湖大学是民办大学，相比此前公办的南方科大，在探索新的办学模式上，会有一定优势，这也是舆论看好西湖大学的原因。', '据报道，4月1日，以西湖高等研究院为前身的西湖大学获教育部批准设立。这标志着社会力量举办、国家重点支持的新型高等学校——西湖大学进入全面建设发展的阶段。', '作为非营利性的高等学府，西湖大学由浙江省统筹管理和指导，将聚焦基础性、前沿科学技术研究，坚持发展有特色学科，注重学科深度交叉融合，着力培育拔尖创新人才。', '去年年底，施一公在杭州的公开演讲中放出“豪言”：到2019年年底，西湖大学师资规模将超过拥有24位诺贝尔奖获得者的洛克菲勒大学，教师科研水平很可能成为中国之最；5年后，教师科研水平比肩东京大学、清华、北大等知名学府，成为亚洲一流；15年后，在各项指标上和加州理工大学媲美，成为世界范围内最好的大学之一。', '作为一所新型研究型大学，“新”在哪儿是社会普遍关心的问题。实际上，不论是办成小而精的研究型大学，还是办成世界一流大学，固然有其突破价值，但如果以西湖大学为突破口，对中国高等教育做出增量改革贡献，探索新的办学模式，或许会更有价值。', '由于西湖大学是民办大学，因此，相比此前公办的南方科大来说，在探索新的办学模式上，会有一定优势，这也是舆论看好西湖大学的原因。但是，鉴于我国已有的民办大学，虽然由社会资金举办，学校没有行政级别，但很多学校也缺乏现代治理，没有充分办学自主权，也有舆论担心西湖大学和南方科大的发展轨迹会差不多，最终还是会成为和国内现有大学办学体制差不多的学校。', '建设西湖大学，肯定追求的不是新增一所大学。目前，我国各地都重视高等教育投入，致力于打造一流大学、一流学科，在建设一流大学、一流学科过程中，各地高校出现到其他高校挖人才的做法。这种挖人才做法，对于高校自身建设和人才发展无疑有一定意义，但是，从国家全局看，“搬运工”式的发展对高等教育并无增量——一个人才在清华做出的成果，和在浙大做出的成果，对国家来说相差无几，只有做出更好的成果才有意义。', '这就需要西湖大学以新的办学体制给出答案。中国高等教育的改革，核心应该仍旧是南科大筹建时就提出的“去行政化”，建立现代大学制度。西湖大学虽为民办，也同样需进行去行政化、去功利化的改革，这需要政府部门推进教育管办评分离改革，给大学更大办学自主权，同时，大学要建立现代治理结构，推进学术自治、教授治校。', '西湖大学提出，将按照现代大学制度的要求，努力构建完善的治理体系。学校设立董事会，校董会作为最高决策机构，实行董事会领导下的校长负责制。校长执行董事会决定，负责学校日常管理。同时设立监事会、顾问委员会、校务委员会、学术委员会和学位委员会等，按照章程和相关规定开展活动，形成董事会和校长依法行使职权、教师治学、民主管理、社会参与的大学治理体系。', '能否切实建立现代大学制度，将是西湖大学办学的最大看点。这也是社会对这所新大学的期待。', '□熊丙奇（学者）']</t>
+  </si>
+  <si>
+    <t>http://news.sina.com.cn/c/nd/2018-04-03/doc-ifyswxnq1513476.shtml</t>
+  </si>
+  <si>
+    <t>2018年04月03日 01:57</t>
+  </si>
+  <si>
+    <t>18名干部年终总结查重不过关被追责 有人只改数字</t>
+  </si>
+  <si>
+    <t>['原标题： 18名干部年终总结“查重”不过关被追责，最夸张的只改一个数字', '2016年3月，在四川省纪委监察厅指导下，华西都市报开设了专门进行舆论监督的栏目“监督进行时”，一共报道了13期。今天起，这个栏目将更名为“麻辣烫”。', '同样是四川省纪委监委指导、同样是专门进行舆论监督，为什么要更名？这里面有故事。', '2015年9月14日上午，四川省纪委召开媒体恳谈会。会上，与媒体推心置腹的省纪委领导开了个玩笑，说：北京有“朝阳群众”，我们四川媒体，能不能也打造一个有影响力的四川品牌？', '一年多后的2016年12月16日，四川省纪委、省委宣传部召开深化正风肃纪舆论监督媒体恳谈会。这个会上，关于“麻辣烫”的解读正式出炉：打造四川正风肃纪舆论监督“麻辣烫”品牌，“‘麻’，各级媒体要加强与纪检监察机关互动，让监督无处不在，密密麻麻；‘辣’，批评直言不讳，警醒辛辣；‘烫’，就是让‘四风’无处遁形，违者烫手。”', '“监督进行时”更名为“麻辣烫”，就是属于顺应新要求，更展现了我们的决心：驰而不息改进作风，绝不能让“四风”反弹回潮，把作风建设引向深入，不断厚植党执政的政治基础。', '您如果发现身边有官僚主义、形式主义、享乐主义、奢靡之风等“四风”问题，请拨打华西都市报-封面新闻24小时值守的热线电话：（028）96111。', '3月4日，华西都市报-封面新闻获悉：今年年初，内江市东兴区纪委，在例行检查各乡镇（街道）领导班子成员2017年的述责述廉报告（俗称“年终总结”）时，发现部分干部存在照抄照搬、抄袭拼凑或相互抄袭的现象；“有的甚至把2016年的总结，只将时间改为2017年；或者把文中的‘十八大’、改为‘十九大’，就交上来。两个年度的总结，内容95%相似。”', '216名乡镇（街道）科级领导干部中，有18人被发现有这种情况。', '这18名领导干部都受到了通报批评，其中，2名相互照抄的领导干部还受到了责令作出深刻书面检查和诫勉谈话处理；18名领导干部限期整改：重新撰写述责述廉报告，写好后交党委书记审核、报区纪委存档。', '内江市东兴区纪委副书记、监委副主任郭启文说，通报批评、诫勉谈话、书面检查，原本是不同的三种处理方式；三种处理方式合并使用，这在“第一种形态”运用中属于顶格处理。“这么大的处理力度，说明我们当初的震惊程度，也证明了我们对此事的重视程度。”', '内江市委常委、市纪委书记、市监委主任黄春江，对东兴区纪委监委的处理，持肯定态度。他说：这是对干部队伍中的形式主义说“不”。', '被处理干部受到的警醒，也非常明显，有人甚至说：“年终总结年年交，以为‘上面的’看都不会看。没想到，上级会如此认真。”', '近日，华西都市报—封面新闻调查记者，去到内江现场调查。', '市纪委检查，这次有些不寻常', '今年1月9日，内江市纪委监委党风政风监督室副主任李婕，带队到东兴区，检查东兴区委、区政府领导班子2017年度党风廉政建设主体责任落实情况。行前，分管党风政风室的内江市纪委副书记、监委副主任李斌，告诉李婕：“抓不出问题，你们就不要回来。”', '李婕把压力层层传递，要求东兴区纪委接受检查的内容，“不仅要提供2017年的，还要提供2016年的”。', '这让迎接检查的李琳最初有些意外。', '李琳是东兴区纪委监委党风政风监督室负责人，“以前，都只看报告内容是否齐全，包括党政‘一把手’履行党风廉政建设第一责任人责任、其他班子成员履行‘一岗双责’，以及领导干部个人廉洁从政等内容。这次市上为什么不按常理出牌、还要前一年的？”', '上级机关的不寻常做法，让李琳更加重视这次年终专项督查。她与鞠武利、段治鑫、张婷三位同事商量后，提出了从述责述廉报告入手、深入纠治“四风”形式主义新表现的工作思路，并立即向分管领导罗锐、郭启文，以及主要领导欧阳健承做了汇报。征得领导同意后，1月18日，马上逐一电话通知乡镇、街道：请立即将班子成员2016年的述责述廉报告交到纪委来。', '通知特意没有说明收集的原因，“免得有人弄虚做假、临时篡改。”张婷说，“有的乡镇（街道）不知道为什么要收前一年的。还发生了插曲，有人打电话，说你们是不是通知错了？现在是2018年，应该收2017年的，怎么还会收2016年的？”', '1月19日，216份2016年的总结，全部收回来了。', '惊讶：前后两年的述责述廉报告，改个数字就了事', '2017年度的述责述廉报告，早在2017年12月年终考核时，区纪委就收齐了。', '2016年度的收上来之后，李琳、鞠武利、段治鑫、张婷，4人用了将近一周的时间，逐一对比、仔细察看。李琳说：对比着看，完全是市纪委这次的不寻常之举，提醒了她。', '逐一对比，有两种方式：同一个人，前后两年的，纵向对比着看；同一个乡镇（街道）的班子成员，横向对比着看。', '看着看着，令人惊讶的事，发生了。', '段治鑫负责看苏家乡的。看到苏家乡人大主席曹明的报告时，他吃惊地发现：曹明完全在“抄袭自己”。', '“怎么抄袭的？他抄袭自己前一年的。他前后两年的总结，只有两个地方有改动。第一个地方是标题，2016年，曹明的总结标题是《2016年度述责述廉报告》；2017年，曹明的总结标题是《2017年度履职情况工作报告》；第二个地方是总结的第一段第三句话，2016年写的是，‘以‘十八’重要精神思想为指导’，2017年则改动为‘以‘十九’重要精神思想为指导’（原文如此，少了一个“大”字，应为‘十八大’、‘十九大’——记者注）。其余的，几乎一个字没变。”', '让段治鑫再吃一惊的故事，还在发生。', '对比完曹明的总结之后，他把苏家乡与曹明同一个班子的其他几位领导干部的总结，又拿来与曹明的进行比对。', '“哦，天那！”苏家乡党委副书记陈秀美的总结，与曹明的几乎完全一样，“两人的总结，内容95%完全相同。都是三个小标题，只有第一个小标题略有不同：曹明的是‘加强学习\xa0 夯实自身思想政治基础’，陈秀美的则是‘加强理论学习\xa0 提高拒腐防变能力’，其余两个小标题完全一样；另外，还有一处不同，是最后一段的第一句话，曹明写的是‘作为乡人大主席’、陈秀美写的是‘作为党委副书记’。”', '段治鑫将自己的发现，汇报给了李琳。', '问责：三种处理方式合并使用\xa0 给全区一个警醒', '仔细对比后，李琳完全难以理解：“简直太不可思议了！”“太不像话了！对组织安排的工作，居然如此敷衍！”', '那一刻，李琳的脑海中，浮现出了很多的程度副词和感叹号。', '她马上把情况汇报给了分管常委罗锐和分管副书记郭启文，两位分管领导见此情形也是吃惊不小，马上带着曹明、陈秀美的几份总结，找到了东兴区委常委、区纪委书记、区监委主任欧阳健承。', '欧阳健承不信有这样的事。但将几份报告亲自对照后，他直摇头：“除曹明、陈秀美之外，其他人的呢？”', '李琳回答：其他还有16人，也不同程度存在照抄照搬、抄袭拼凑或相互抄袭，“个别乡镇的纪委书记，前后两年的报告，甚至只改动了案件数据。”', '闻言，欧阳健承说：“每年的重点工作、中心工作，都不一样，报告里面都没有体现出来？”', '李琳回答：“没有。”', '欧阳健承决定：“一定要问责！这次要抓典型，给全区一个警醒！”', '几天之后的1月31日，东兴区纪委发出“内纪东（2018）7号”文件，对均有6名领导班子成员照抄照搬的顺河镇、双才镇、苏家乡和这18名领导干部进行通报批评，责令限期整改；严肃问责曹明、陈秀美。', '依据《四川省党风廉洁建设党委主体责任追究办法（试行）》，决定对曹明、陈秀美进行诫勉谈话。', '2月1日下午4时，在苏家乡党委书记李世宏办公室，李世宏对曹明、陈秀美，进行了诫勉谈话。', '2月6日，曹明、陈秀美的书面检查，交到了区纪委；同时交来的，还有责令重新撰写的2017年度履职情况报告。这一回的报告，两人的完全不同。', '“这样的处理，会对当事的干部产生什么影响？”', '李琳回答：“责任追究情况，是领导班子及其成员业绩评定、奖励惩处、选拔任用的重要依据。受到责任追究的领导班子、领导干部，将被取消当年年度考核评优和评选各类先进的资格。”', '内江市东兴区纪委副书记、监委副主任郭启文说，通报批评、诫勉谈话、书面检查，原本是不同的三种处理方式；三种处理方式合并使用，这在“第一种形态”运用中属于顶格处理。“这么大的处理力度，说明我们当初的震惊程度，也证明了我们对此事的重视程度。”', '包括曹明、陈秀美在内被处理的18名干部，受到的警醒，也非常明显，有人甚至说：“年终总结年年交，以为‘上面的’看都没看。没想到，上级会如此认真。”', '内江市纪委：对形式主义说“不”', '对东兴区纪委监委的这样处理，内江市纪委监委，持肯定态度。', '内江市纪委副书记、监委副主任李斌，对东兴区的做法，评价为“敢于亮剑”。他说，基层干部直面群众，总结回顾一年的工作，岂是简简单单的变换几个文字、调整几个数据就能完成的，“这是对党、对组织、对自己、对群众极度不负责任的表现！”“东兴区对这种浮于表面的作风及时‘亮剑’，得到了广大干部群众的广泛关注和一致好评。”', '内江市委常委、市纪委书记、市监委主任黄春江，谈及此事时也接连点赞。他说：这是对干部队伍中形式主义坚决说“不”，充分展示了内江市市县两级纪委监委、坚决贯彻落实习近平总书记重要批示精神的政治勇气和驰而不息查纠“四风”、改进作风的责任担当。', '在黄春江看来，领导班子成员年终述责述廉报告照抄照搬、抄袭拼凑或相互抄袭，“看似文风问题，实则是缺乏担当、作风不实的具体表现。党员领导干部的文风，折射的是其作风和日常工作状态，我们可以由此观察其所在党组织对全面从严治党重大决策部署贯彻落实情况。文风不正、作风不实，必然影响效率、耽误工作，最终损害的是党的形象和广大群众的利益。对此类问题，内江市县两级纪委监委将坚决予以查纠。”', '华西都市报-封面新闻记者 曹笑 内江摄影报道']</t>
+  </si>
+  <si>
+    <t>http://news.sina.com.cn/c/sd/2018-04-03/doc-ifysuuya1064569.shtml</t>
+  </si>
+  <si>
+    <t>2018年04月03日 17:04</t>
+  </si>
+  <si>
+    <t>国歌立法后唱不好就违法？提案委员否认：要敬畏</t>
+  </si>
+  <si>
+    <t>['原标题：国歌法诞生后要心存敬畏 但不是单个人唱不好就是违法', '余玮', '2018年3月3日、5日，国歌声中，全国政协十三届一次会议、十三届全国人大一次会议相继开幕。“起来！不愿做奴隶的人们……”这铿锵激昂的旋律，在无数场合让亿万中国人民心潮澎湃。', '自1935年电影《风云儿女》上映，主题歌《义勇军进行曲》就成为中华民族解放的号角；1949年，中国人民政治协商会议第一届全体会议确定《义勇军进行曲》为代国歌；2004年，十届全国人大二次会议通过宪法修正案，正式将其确定为中华人民共和国国歌。', '2017年10月1日，《中华人民共和国国歌法》正式实施。继《中华人民共和国国旗法》《中华人民共和国国徽法》之后，另一重要的国家象征——国歌也有了一部专门的法律。这个消息让连续10年提案为国歌立法的全国政协委员于海非常激动，身为解放军军乐团团长的他曾在无数重大场合挥动手中的指挥棒，让激扬雄浑的《义勇军进行曲》响彻四方。', '连续10年递交提案', '舞蹈家赵汝蘅委员戏言：“看来，我们执着一件事，有时还得发扬‘祥林嫂精神’！”', '2017年9月1日下午，十二届全国人大常委会第二十九次会议表决通过《中华人民共和国国歌法》。', '在长沙机场候机的于海收到了这个令他十分激动的消息。这年4月24日，于海第一时间获悉全国人大常委会已正式将国歌法列入立法工作计划，将这一消息发至政协文艺组委员群中时，大家纷纷表示祝贺。此前，曾有委员在两会期间开玩笑说：“于委员每年提案国歌立法，有些絮絮叨叨，成了‘祥林嫂’。”这时，舞蹈家赵汝蘅委员戏言：“看来，我们执着一件事，有时还得发扬‘祥林嫂精神’！”', '2008年3月，于海第一次当选全国政协委员。首次参政议政，应该拿出什么样的提案呢？于海想起，这么多年来，自己从一个普通的乐队演奏人员，成长为解放军军乐团团长，与国歌结下了不解之缘。“我曾在国庆阅兵、奥运会开幕式等大型活动中指挥上千人的乐团演奏国歌。庄严的时刻，当几十万人安静下来，我指挥的手臂落下，铿锵有力的国歌奏响时，我心中的自豪和崇敬之情油然而生。”', '一直以来，我国有关国歌的法规几乎是空白。“我国早在1990年颁布实施了《中华人民共和国国旗法》，1991年颁布实施了《中华人民共和国国徽法》，但一直没有对国歌立法。为确保国歌得到同等对待，我建议抓紧制定、颁布《中华人民共和国国歌法》，通过立法统一使用版本、统一使用场合、规范使用标准等。”于海说，2008年起，他连续10年递交有关国歌立法的提案。', '于海说，在日常生活中，不尊重国歌、滥用国歌、国歌演奏错误的情况时有发生。比如，国歌演奏演唱时有的人缺乏敬意，打闹嬉笑、交头接耳，不注重文明礼仪，甚至私人婚丧庆悼和商业活动等场合奏唱国歌，都是非常不严肃的；其次，有人将国歌作为手机铃声，也有一些游戏的背景音乐使用国歌，甚至有人胡乱改编国歌词曲等等。由于历史原因，国歌的词曲谱先后出现多个版本，不统一的版本导致演奏演唱不规范。“这都是对国歌的不尊重。”', '目前很多青少年对国歌并不够熟悉。在对大学生的一次调查中，能将国歌歌词全部写对的人数只占二成左右。在另外一次对小学生的调查问卷中，竟有人回答中国国歌的作曲者是贝多芬。于海认为国歌的宣传教育和国家立法同样重要，要让那些原先不会唱、唱不准国歌的人唱对、唱好。', '尊重每个音符与字词', '于海幽默地说：“感谢您的支持，终于见到‘曙光’了！”', '2017年4月27日上午，于海受邀出席在全国人大机关举行的有关国歌立法的座谈会。会上，他第一次见到了一次次为自己作提案答复的全国人大法工委国家法室副主任王曙光。王曙光紧握着于海的手说：“每次都是我给您写回复，后来我都不知道怎么答复才让您满意，现在终于列入了立法计划。祝贺您。”于海幽默地说：“感谢您的支持，终于见到‘曙光’了！”', '座谈会上，于海就国歌使用存在的问题、哪些情形不能使用国歌、国歌标准版本如何发布等问题谈了自己的看法。', '6月22日，十二届全国人大常委会第二十八次会议首次审议国歌法草案，标志着我国国歌立法进入关键阶段。这让于海感到“非常兴奋”。', '虽然2014年底，中共中央办公厅、国务院办公厅发布并实施了《关于规范国歌奏唱礼仪的实施意见》，首次对国歌奏唱的场合、礼仪和宣传教育作出规定，但在于海看来，这些规定远远不够：“国歌是国家的第一声音，奏唱它的人必须心怀崇敬。”他坚定地认为，国歌使用规定非常有必要提升到法律层面。', '8月28日上午举行的十二届全国人大常委会第二十九次会议上，国歌法草案二次审议稿提请审议。为鼓励和提倡公民和组织奏唱国歌，激发爱国主义热情，草案二次审议稿中建议增加规定：国家鼓励公民和组织在适宜的场合奏唱国歌，表达爱国情感。而对侮辱国歌的违法行为，草案二次审议稿也进一步明确法律责任。', '有常委会组成人员和部门提出，草案一次审议稿中“国歌不得用于或者变相用于广告”可能“误伤”公益广告，建议将不得奏唱、使用的情形集中规定。在国歌教育方面，草案二次审议稿提出“国歌列入中小学教材”，中小学应将国歌作为爱国主义教育的重要内容，组织学生学唱国歌，教育学生了解国歌的历史和精神内涵、遵守国歌奏唱礼仪。', '9月1日这天下午，在长沙机场准备返京的于海接到王曙光的微信：“下午刚刚全国人大常委会国歌立法投票，顺利通过！您的坚持，您的努力，您的贡献，终于有了结果！”飞机落地，打开手机，他接收到大量的祝贺短信与微信，原来新闻在第一时间报道了国歌法的通过。', '保护的不仅是46秒', '“国外的乐队在演奏我们的国歌时，经常听起来不顺耳，就是因为使用的乐器问题。”', '“国歌作为主权国家的声音形象，应该和国旗、国徽同样受到法律保护。比如它的标准是什么，应该用什么速度、什么情绪演奏，如果出现损害国歌的情况应该承担什么法律责任等。”于海惊喜地发现，通过的国歌法比他的提案“更周到更全面”。', '国歌法明确规定了应当奏唱国歌的九类场合，还规定：奏唱国歌时，在场人员应当肃立，举止庄重，不得有不尊重国歌的行为；国歌不得用于或者变相用于商标、商业广告，不得在私人丧事活动等不适宜的场合使用，不得作为公共场所的背景音乐等。', '虽然1982年通过的《关于中华人民共和国国歌的决议》发布国歌的曲谱（旋律谱），但长期以来，并未发布标明配器、奏唱速度和力度的国歌标准曲谱，也未发布用于播放的国歌官方录音版本，导致国歌演奏存在不规范现象。为防止再出现上述情况，不让国歌的演奏、播放效果受到影响，国歌法规定，奏唱国歌应当使用国歌标准演奏曲谱或者国歌官方录音版本，由国务院确定的部门组织审定、录制，并在中国人大网和中国政府网上发布。', '对此，于海表示十分赞同。有着多年演奏国歌经验的他告诉记者：“通常来看国歌能不能准确地奏唱，一个重要因素就是乐队的配器问题。我们国家乐队演奏的国歌，顺耳、准确。但是，国外的乐队在演奏我们的国歌时，经常听起来不顺耳，就是因为使用的乐器问题。我们演奏国歌，开始用的都是明亮的小号，但有的国家就用黑管等，有时显得滑稽、不严肃。”', '于海在电视中经常发现，在欢迎我国领导人的欢迎仪式上，许多国家军乐团演奏的《义勇军进行曲》竟然出现多处错误。“按技术水平来看，该国军乐团演奏《义勇军进行曲》游刃有余，究其原因，就是他们使用了一个错误的乐谱版本。”于海指出，“我国领导人出访时，一些东道主国家演奏的我国国歌乐谱十分不规范，其中有的国家演奏的版本严重错误”。', '于海曾一直呼吁，肆意亵渎、玷污国歌，在气氛不适宜的场合滥用国歌等行为，应受到法律的禁止，国歌法对国歌奏唱行为应予以规范，还国歌以严肃性和神圣性。欣慰的是，通过的国歌法对损害国歌形象的行为明确了处罚措施。', '事实上，一些国家早已在法律中对篡改国歌或贬损国歌的行为有明确处罚条款。马来西亚《国歌法》规定，在公共场合对国歌表现出不尊重的人，将被处以不超过100林吉特（约合人民币159元）的罚款，或最长一个月的监禁。', '校园里，孩子们三三两两经过操场走向教室，国歌突然响起，所有孩子们都自发停下脚步肃立……这样一段视频红遍网络，无数网友为之动容。“国歌理应被严肃对待，尤其在公众场合，应该制止、惩治恶意奏唱国歌的行为。”于海强调，这并不意味着唱歌跑调就会被处罚，重点在于要对国歌表现出应有的尊重。至于如何界定“恶意”以及具体采取什么惩治措施，需要交由法律专家、公安机关决定。', '对于国歌立法，有人说，是不是以后唱不好国歌就违法了。于海表示这是一种误解。“国歌立法重点是说在正式场合下，对国歌要敬畏，这是对国家民族的尊重；在公开场合下，演奏国歌应该有一个参照，使用正确的版本演奏；在重大场合下，国歌在演奏演唱时应该被尊重——并不是说单个人唱不好国歌就是违法。”', '2017年9月6日，于海出席政协第十二届全国委员会优秀提案和先进承办单位表彰会，并接受“优秀提案”奖牌。在2017年3月6日全国政协十二届五次会议第2274号“关于尽快为国歌立法的提案”原件上，记者注意到有金铁霖、梁晓声、王兴东、田青、吴欢、刘宇一、汪国新、李延声、孙丽英、董保华等40位联名提案人签名。于海坦言，提案工作是人民政协工作的重要组成部分，很高兴自己能以提案的形式参政议政，服务国家与人民。', '“第一声音”，成为浸入血液中的音符', '“很多人问我，为什么国歌最后一句‘前进、前进、前进进’，多一个‘进’字呢？我总是回答：这才是国歌的点睛之笔。”', '新中国国歌经历了几次变动：1949年《义勇军进行曲》被确定为代国歌；1978年《义勇军进行曲》被重新填词；1982年撤销1978年版本，恢复原始版本；2004年正式将《义勇军进行曲》作为国歌写入宪法。上海音乐出版社利用专业优势，组织专家多次论证，通过与指挥新中国国歌最多的指挥家于海、著名钢琴家郎朗及解放军军乐团、中国爱乐乐团、中央歌剧院合唱团的合作，出版了《中华人民共和国国歌》钢琴独奏谱、钢琴与齐唱谱、管乐队总谱/分谱、管弦乐队总谱/分谱等多种谱本形式。所选乐谱通过多方版本考源，对国歌的奏唱、乐器的配置、演奏时长等均作出较为精准的诠释，维护国歌的严肃性。', '“国歌的背后是国格，体现的是国家意志和民族精神。”于海说，国歌中每一个音符、每一句歌词，都饱含着砥砺奋进的中国精神和中国力量。作为一名军人、指挥家，于海曾在无数重要场合指挥奏唱国歌，对国歌有着独特而深厚的感情。“在革命、建设和改革的不同时期，《义勇军进行曲》始终是中华民族的最强音。”', '于海演奏、指挥过100多个国家的国歌，对中国国歌有最为深厚的感情。“我们的国歌有84个字，37小节，奏唱只要46秒。”在于海的家里，他仔细整理多年来积累的厚厚几大本简报、几大袋材料和几十个不同版本的国歌曲谱。“在演奏和指挥国歌的近50年中，它的每一个字、每一个音符都已渗透进我的生命。”', '社会上曾流行过有10多个国歌版本，对于国歌版本不统一造成的困扰，他有切身的体会。“我是北京奥运会开幕式演奏唱国歌的指挥。就开幕式上怎么演奏国歌、用什么样的感情、什么样的速度演奏国歌等方面，我曾经与音乐总监发生过争执，他当时认为国歌要舒缓一点。这个音乐总监是我很尊敬的音乐家，造成争执的原因，就是因为国歌版本不统一造成的，因为当时国歌在用什么速度、用什么情绪演奏等方面并没有标明。”', '刚开始，很多人不理解为什么要为国歌立法。在一些场合讨论国歌立法的时候，还有人提出，我们的国歌歌词是不是过时了，是不是应该写一个新的歌词？但于海坚持：国歌不能改！', '于海查了很多资料：1949年探讨将《义勇军进行曲》作为国歌的时候，也有人提出疑问：共和国成立了，中国人民站起来了，为什么还要说“中华民族到了最危险的时候”呢？大家为这一句话展开了很多讨论。最终，还是确定用《义勇军进行曲》作为国歌，提醒中华民族居安思危、不断前进。于海说：“我们仍然需要居安思危、众志成城，把我们的血肉筑成新的长城！因此，国歌不能改。”', '于海说，也曾有一些文化界人士对国歌有误解，有些知名文艺工作者甚至认为我国国歌《义勇军进行曲》的歌词不符合当今时代特征。然而国歌是一个国家政体的标志，世界上历时最久的荷兰国歌《威廉颂》已有近500年的历史，法国国歌《马赛曲》则诞生于法国大革命前夕，经历了战火的洗礼，一直延续至今。', '“每首国歌背后都有其独特的、不可替代的历史价值，我国国歌也是如此，在正式场合的使用和演奏时，无论歌词、基调、和声配器都不能随意修改。很多人问我，为什么国歌最后一句‘前进、前进、前进进’，多一个‘进’字呢？我总是回答：这才是国歌的点睛之笔——‘前进进’的节奏感，凸显了国歌精神的进行时态，它在指引我们。”于海说。', '来源：北京日报']</t>
+  </si>
+  <si>
+    <t>http://news.sina.com.cn/c/sd/2018-03-27/doc-ifysqfnh4718177.shtml</t>
+  </si>
+  <si>
+    <t>2018年03月27日 17:23</t>
+  </si>
+  <si>
+    <t>这师所有连队WIFI全覆盖 军报：正视官兵网络需求</t>
+  </si>
+  <si>
+    <t>['原标题：中部战区陆军某师：所有连队全部覆盖WIFI网络', '中部战区陆军某师推进', '“智慧军营”建设让现代科技惠及官兵', '所有连队全部覆盖WIFI网络', '■记者 钱晓虎\xa0 通讯员 张雅东 郑岳明', '初春，严寒依然笼罩太行山区。在中部战区陆军某师座座营院，记者却感受到了WIFI网络带来的阵阵火热和温暖——', '“闺女，爸爸给你买了新书包，新学期更要加油努力哟！”忙完一天的训练，取出手机连上WIFI网络，某团四级军士长杜晋鹏正在和女儿视频聊天。春节期间，由于自己担负战备值班任务没能休假，轮班调整休息后，想着女儿快开学了，就在手机购物网站上买了一个新书包寄回家。杜晋鹏高兴地说，作为一个老兵，常年与家人聚少离多，平日上网给家里添置一些生活物品，用视频聊天将喜悦和家人分享……虽然身在军营，感觉离家并不遥远。', '去年底，该师党委提出了“智慧军营、科技军营、开放军营”建设规划，按照数字化营区建设标准，将无线WIFI网络接入营区。现在，该师所有建制连队都实现了WIFI共享网络进班排的梦想：免费网吧、亲情热线、智能电器……无处不在的网络让官兵真切体会到现代科技带来的便捷。“没有WIFI共享网络之前，想和家人视频聊天，费钱不说，信号也不稳定。现在，不但网速快，而且经济、方便！”谈起无线网络带来的变化，杜晋鹏的一番感言说出了广大基层官兵的心声。', '记者注意到，WIFI网络进班排，变化正悄然在该师升腾。该师领导告诉记者，在学习贯彻十九大精神过程中，他们依托军营WIFI网络，研发出一款集资料查询、信息推送、讨论交流等于一体的“排头兵”手机APP理论学习辅助系统，让方寸荧屏成为理论学习交流的新阵地。', '“一不怕苦，二不怕死，紧握手中武器苦练本领。”中士李乃超的手机屏保，用的是这句让人提气的话。在他的指点下进入“排头兵”讨论社区，3M/s的网速使操作十分顺畅。他说，今年1月3日，习主席视察部队时，勉励官兵“钢多了，气要更多，骨头要更硬”，现在，一批展现钢多气足的栏目深受大家欢迎：“训练建言”后台跟帖已超过1000条，“训练之星”评选也异常火爆，访问量已突破5000人次……', '借助WIFI共享网络进班排的东风，师机关积极推动“WIFI网络+”的探索运用：微电影、微讲堂等“指尖课堂”拨动官兵心弦，军营超市、强身健体等“掌上工程”持续受到热捧……一系列网络惠兵举措在覆盖军营的同时，温暖、滋润着官兵心田。“年度健康体检刚结束，健康状况就被记录到个人电子健康档案里。”从驻训点返营的上等兵李政，拿着手机里卫生队发来的电子体检表，对自己的身体状况更加充满了信心。', '“无线网络进军营，安全性怎么保证？”在网络管理后台，参谋周可认真解答记者的疑问。针对可能出现的安全隐患，他们除了有的放矢开展专题保密教育外，还按照上级有关管理规定，研究制订了《移动设备管理使用实施细则》和《WIFI网络上网行为规范》，通过明确智能手机使用时段等有效措施，力避智能手机管理“一管就死、一放就乱”的怪圈。同时，为提升官兵科学、安全用网意识，他们接入了一套无线网络用户管理与认证系统，通过设立不良网站黑名单、定期更新过滤关键词、禁止非法信息输入等手段，进行动态跟踪监控，确保无线网络上行、下行数据安全可靠。', '“建设‘WIFI军营’，好比一把双刃剑，肯定会增加安全管理和保密工作的难度。”所属某团政委李忠清深有感触地说，“但绝不能因噎废食，只要管理好组织好，双刃剑就能为我所用，成为战斗力的倍增器。”', '在“松骨峰特功连”，大学生士兵哦勒佳斯走上讲台，就“新时代青年官兵的奋斗目标”谈认识、话体会。课后，他依托WIFI网络，将视频上传到“排头兵”手机APP，与远在千里之外的“大功三连”结对共享互学：兵言兵语、网言网语瞬间“嗨翻”，原本枯燥的理论学习课堂在这里一下子兵味儿十足。“将别人的经验学过来，也让咱们‘最可爱的人’的精神走出去。”连队指导员陈凯说，下步他们还将依托WIFI网络，延伸拓宽学习共建方式，让网络真正惠及每名官兵、促进各项工作。', '“抬起右腿、跟上节奏……再来一次！”采访临近结束，官兵开始室内体能训练。下士温壮壮邀请记者，一起进行体能热身。温壮壮面前摆放着一部智能手机，里面正运行一款健身APP。“练了不到一个月，效果棒棒的。”动感的节奏，科学的示范，温壮壮练得满头大汗。他告诉记者，自从有了WIFI共享网络，跟随网上教练同步开展科学训练，正成为时下官兵体能训练的一种新潮流。', '随着时代的发展，智能手机迅速走进人们的生活。有人认为，它甚至成为继空气、水、食物之后，人类生活所需的“第四类物质”。智能手机能不能在军营用？《规定》给出了答案，基层官兵点赞叫好。', '开放的社会没有封闭的军营，军人也有权利享受社会发展的成果。智能手机有其两面性，但辩证地看，没有两面性的事物是不存在的。当年收音机、手表进军营，一些带兵人也视其为“异类”，坏处列了不少，但在今天看来，很多所谓的“负面影响”其实是管理者的心态问题。', '军人是驾驭一个时代最先进科技的人，对新生事物应该持开放包容的接纳态度。“接纳”二字，体现的是胸怀，更是担当，最难的是突破思维藩篱。当前，我们必须正视官兵的“信息需求”“网络需求”，切莫再自欺欺人地拒绝“第四类物质”。', '“网络关”如何连着“时代关”、如何“顺势”和“因势”——', '冷：智能手机试用后，军营网吧、俱乐部关门上锁了', '热：打游戏、看视频、聊网友，对智能手机热情高涨', '思考：智能手机打开的是一扇窗，是一代人的生活', '曾几何时，“断网犹如断氧”成为入营新兵的通病，“上网东躲西藏”是老兵与管理者的“躲猫猫”游戏。', '智能手机开始试用带来哪些新变化？以前，军营网吧是大家最爱光顾的地方，现在不一样了，电脑上有的智能手机上一样不少，足不出户随时随地就能过网瘾。”官兵对智能手机打开的精彩世界充满热情，打游戏、看视频……', '“智能手机的功能是‘正’是‘负’”的问题曾困扰很多单位主官，但对官兵来说，智能手机会成为提升打赢能力的利器。依托智能手机开展网络政工，为战斗力提挡加速。', '冷：据上网行为数据分析，“网游”比重逐渐下降', '热：大部分人不再顾着“玩”，有“正事”的多了', '思考：实现官兵“想要的”和部队教育“想给的”二者融合', '想玩大型实战色彩浓厚的竞技游戏，将采用“互联网+电脑”的方式组织；想边看电影边聊天，将采用“互联网+手机”的方式，通过在营区可控范围内安装移动Wi-Fi，实现流畅体验。', '娱乐需求过盛，恰恰是智能手机推开之初，人的需求是动态发展的，要把眼光放长远。要让官兵‘想要的’和部队‘想给的’二者融合互补，实现教育管理新景观。', '——你练长跑晒圈数、我练器械晒腹肌，你班秀红旗、我班挥战旗，“双争”争出了士气；', '——汇聚网文、集合热帖，打造“教育超市”，官兵各取所需；', '探索实践的步伐还未停止。为了把“会玩”的小聪明变成“会用”的大智慧，政治干部这样启发官兵：“少下载新游戏，多钻研新应用。”时间久了，大家的目光转移了，纷纷下载安装党报党刊客户端、关注学习教育公众号，有的连队还刮起了“比比谁的软件优”“优秀App我发现”比学赶帮超新风。', '从“玩具”到“工具”，智能手机在官兵手里完成一次角色大翻转。', '冷：一份讲稿满堂灌、一篇笔记大家抄的时代已经远去', '热：智能手机“火”了网络政工', '思考：“小屏幕”开阔的是眼界，提升的是境界', '“智能手机进军营不能单单作为一种时代标志，还要打造更多的‘互联网+’服务基层、服务官兵。”', '在机关制定的相关方案中，记者找到了答案：', '——构建网上学习平台。以班为单位成立网上“学习小组”，微信推送“学习小组”公众号，分享一条理论观点、关注一个励志故事、撰写一篇学习体会，通过评论点赞刷状态收获学习成果。', '——构建网上教育平台。研发调查问卷手机App，问需官兵近期关注的热点问题，系统自动统计选项比例，判断官兵关注点、需求点，有的放矢开展教育。', '——构建网上党建平台。建立网上视频会议系统、“思想交锋微信群”、“党员模范先锋榜”，及时召开会议，让一些面对面不好说的话、议的事，通过键对键形式讲清楚、论明白，官兵时时点赞党员、处处评议党员。', '——构建网上文化平台。总结拍摄身边典型，官兵通过网上学习、集中投票、跟帖留言等形式学有目标；建立兴趣爱好群，开展网上诗文、歌曲、摄影等作品展评活动，以文化人。', '——构建网上管理平台。请假外出发路线、活动场所发位置、在外人员发语音、探亲休假发视频，实时检查在外人员情况；建立部队、家庭和官兵本人三级联络群，及时了解官兵家庭状况，掌握官兵思想变化。']</t>
+  </si>
+  <si>
+    <t>http://news.sina.com.cn/o/2018-03-07/doc-ifyrztfz9839974.shtml</t>
+  </si>
+  <si>
+    <t>2018年03月07日 10:35</t>
+  </si>
+  <si>
+    <t>琼州海峡大雾滞留数万旅客 要建跨海大桥或隧道？</t>
+  </si>
+  <si>
+    <t>['原标题：瞭望：解琼州海峡通道之困，要不要建跨海大桥或隧道', '凌广志 涂超华 赵叶苹', '今年春节，数以百万计的游客涌入海南，在碧海蓝天和阳光沙滩享受了一个温暖的假期。然而，2月18日开始，一场67年不遇的持续性大雾天气，叠加春节黄金周返程高峰，在海口城北三个港口附近的道路上每天滞留上万辆汽车、数万名旅客无法及时出岛，引起全国关注。', '滞留事件发生后，在海南省委领导的积极指导下，海口市于2月18日启动港口滞港应急三级、二级处置预案，并在19日将应急响应升至一级，以全城总动员24小时不间断服务全力保障通航、疏导旅客。将疏导旅客情绪放在与疏导交通同等重要的位置，通过伴随式服务让归心似箭的滞留旅客“堵路不堵心”。“车子堵着多久，海口人就陪了多久。”海口在事件中的疏导服务得到不少滞留旅客的由衷肯定。', '与此同时，海口市政府秘书长邓立松向《瞭望》新闻周刊记者表示，琼州海峡对岸的大力支持是打赢这场“抗雾保运”战的重要基础，在春运前后，海口市与湛江市多次沟通，并在入岛和出岛高峰时相互支持。在广东省的大力支持和帮助下，至2月24日晚23时完成南下海口空载航次300次，极大地提升了出岛运输效率。', '2月26日上午10时，鉴于海口市三个港口运转状态良好，待渡车辆809辆，无旅客滞留，海口市终止应急响应。在启动应急响应的8天时间里，海口共输送138902辆车和713820名旅客过海。至此，一场备受关注的入岛旅客、车辆的大“撤退”宣告结束。', '目前已雾散人归，本刊记者对此追踪调研时发现，“海口大堵车”引发的热议还在持续。在海南建省办特区三十周年之际，社会舆论为海口全城总动员所展现的应急处置能力和众多市民温情相助频频点赞的同时，有关海南通道建设和国际旅游岛如何更好提升管理水平的讨论也在升温。', '通过能力不足矛盾突出', '海口旅客大撤退已经结束，但关于海南岛通道建设的讨论还在持续。据《瞭望》新闻周刊记者了解，目前进出海南岛只有两种方式，航空和海运。随着海南国际旅游岛建设的快速推进，近年来每年春节入岛自驾游车辆都保持15%以上的幅度增长。2015年至2017年春运，通过琼州海峡进出岛的车辆分别为39.1万辆次、57.4万辆次、74万辆次，2年几乎翻了一倍。', '海口市常务副市长顾刚向《瞭望》新闻周刊记者介绍说，“琼粤两省的航运企业在琼州海峡共有53艘客滚船，海口三大港正常情况下每天运输能力为1.9万辆左右，基本能满足需求，但这一运力经不起任何的风吹草动。”实际上，高峰期旅客和车辆滞留事件并非仅此一次。2014年春节，由于游客自驾游井喷，三亚、海口等地交通一度瘫痪，大量人员和车辆滞留海口。', '海南省发改委在接受《瞭望》新闻周刊记者书面采访时表示，此次事件暴露出琼州海峡通道存在的三个方面问题：', '一是综合交通体系亟待完善，综合运输枢纽的集疏运体系尚不健全；', '二是运输服务水平亟待提高，综合客运枢纽体系建设比较滞后，不同运输方式之间的无缝衔接有待完善，客运组织水平和服务品质有待提高；', '三是琼州海峡运输效率不高，与陆运存在瓶颈。港口设施无法满足船舶、旅客高品质出行的新需求，整体运输服务品质较低，平均等待时间与运输时间过长。', '与此同时，海南另一个重要的出行通道——空运能力也已饱和。每年春节前后，海口前往北上广等热点城市的航班都是一票难求，根本原因还在于航空运力不足。据了解，海口美兰机场2017年旅客吞吐量2258万人次，凤凰机场1938万人次。海南省民航工作办公室主任王春向《瞭望》新闻周刊记者表示，现有资源条件下已经达到保障上限，使得航空公司无法大幅增加进出海南航班。', '要不要建跨海大桥或隧道', '事件暴露出的进出岛通过能力不足，再次让一个已沉寂多时的话题浮出水面：到底要不要建设桥梁或隧道让海南与内陆地区的交通网络实现互联互通？支持者多认为方便出入，可以带动区域经济发展；反对声则认为，那样海南岛只会更堵。', '“琼州海峡是否要建海底隧道或是大桥，是否需加快推进需全面考量。”海南大学旅游学院教授谢彦君在接受采访时认为，过海桥隧项目需要从多角度来进行论证。如果单纯从旅游的角度来看，海底隧道或者大桥可以不建。因为海南的旅游季节性特征极强，而大桥或隧道需要每天有足够的车流量。', '海南省发改委也表示，在相关部门的共同推动下，琼州海峡跨海工程前期工作已取得了一些阶段性成果，但尚有较多社会、经济、技术及建设等问题有待进一步深入研究论证。', '“比起修建桥梁和海底隧道这种方案，当下最好的做法是加强海运和航空通行能力建设，”顾刚说，旅客和车辆渡海过至对岸正常情况下大概需要4个小时。随着琼粤两省琼州海峡港航一体化的深入推进，海峡航运能力水平有望大为提高。', '海南省和广东省对标打造的海口新海港和徐闻南山港正在加速建设当中，海口新海港已经部分投入使用，待徐闻南山港建成，由海口新海港前往徐闻南山港的距离将缩短三分之一，将极大提升现在的运力。此外，两地正在探索实现海峡水上运输服务方式多元化，推进高速客船和水上飞机项目。', '不过，据《瞭望》新闻周刊记者了解，两省港航一体化的深入推进还面临着不小的困难。广东省政协去年9月一份《关于“琼州海峡通畅问题”专题调研报告》显示，两省港航资源整合工作矛盾比较突出，对一体化的推进将产生较大阻力。由于双方航运市场主体众多、企业性质多样，企业间利益牵扯多，市场秩序协调难度较大，现运营模式仍需优化。海南省发改委也认为，两省新建港口进度不同步，制约港航业发展，亟需所有船舶统一调度、统一经营、统一服务等级和服务标准。', '此外，海南空运能力的“天花板”也需要尽快打破。民航海南安全监管局副局长罗镜飞告诉《瞭望》新闻周刊记者，目前海南航路少，进出港走廊比较窄，如要起降更多架次飞机，机场需要扩容的同时还需尽快打开更多空域资源。', '据海南省发改委介绍，去年国家发改委和民航局联名下发的《全国民用运输机场布局规划》明确，除了海南已建成及在建的海口、三亚、琼海3个机场，布局规划新增的4个机场分别为儋州、西沙、南沙、东方/五指山。未来海南岛将形成“南北东西、两干两支”民航机场布局，其中“两干”为海口机场和三亚机场，“两支”为博鳌机场和儋州机场。', '“出入岛”困境要从管理上破题', '旅客滞留引发社会广泛关注的背后折射出全国人民对海南的爱与痛，也推动国际旅游岛建设如何提高管理能力和水平的深入反思。比如，有观点认为，面对游客和车辆短时间内集中入岛的情况，管理部门是否真的应来者不拒？', '“海南作为一个岛屿，生态容量有限。政府应该对海南环境承载力进行科学评估，在发展旅游和保护生态环境之间找到一个平衡点。”海南省发明协会会长、“国家万人计划”人才陈明发向《瞭望》新闻周刊记者表示，尽管很多人认为国际旅游岛就应该开放而不是限制，但事实上每年冬天海南南部三亚、陵水、保亭等多个城市交通都处于半瘫痪状态，优质沙滩等生态资源这些年破坏性开发和使用也很严重。', '陈明发认为，海南可以像其他地区和景点那样，实行网络预约限额制，在生态环境可承受范围内实行预约入岛。如此海南的旅游业才能提供优质的服务，旅客才能拥有更好的旅游体验。', '早在2010年，国务院颁布的《关于推进海南国际旅游岛建设发展的若干意见》就明确了建设国际旅游岛的六大战略定位，部分受访人士认为，海南的建设发展应该牢牢围绕着六大定位，对标国外一流度假目的地，高起点、高标准推进。', '“海口现已要求规划局和新海港规划单位启动新海港待渡区的规划，争取年内开始建设。”邓立松表示，海口还将很快启动智慧港的开发建设，推出根据手机号码和车牌号码预约排号的系统，未来旅客和车辆能根据排号预计等待时间，合理安排出行计划。', '考验着海南的还有岛内公共交通建设的问题。目前海南公共交通配套与全域旅游、美丽乡村的要求还存在一定差距。目前正在大力发展共享性的交通体系，方便游客在海南省内出行。然而海南旅游具有明显的季节性，以怎样的标准来规划海南的公共交通及配套建设，不至于在淡季造成极大浪费，也是摆在海南面前的一道难题。', '在海口三大港口通行速度恢复正常的2月25日晚，海南省省长沈晓明在三亚主持召开省政府专题会议，研究部署环岛旅游公路规划建设工作。他表示，环岛旅游公路是创建全域旅游示范省的重要抓手，要以高度的历史责任感，努力创造传世之作，使之成为海南的一张标志性名片。', '来源：《瞭望》新闻周刊']</t>
+  </si>
+  <si>
+    <t>http://news.sina.com.cn/c/sd/2018-03-04/doc-ifyrztfz7596199.shtml</t>
+  </si>
+  <si>
+    <t>2018年03月04日 11:36</t>
+  </si>
+  <si>
+    <t>陕北千亿矿权案再起波澜：民企称官方拒不履约</t>
+  </si>
+  <si>
+    <t>['原标题：千亿矿权案起波澜：凯奇莱称西勘院不履行合同，申请强制执行', '澎湃新闻记者 王健', '备受瞩目的“陕北千亿矿权案”再起波澜：榆林市凯奇莱能源投资有限公司称，由于西安地质矿产勘查院不履行最高院终审判决中确定的一项义务，公司已于2月5日向陕西高院申请强制执行。', '引发这场长达十二年官司的，系西勘院与凯奇莱公司签订的、涉及千亿煤炭资源的《合作勘查合同书》。由于合同签订后，西勘院拒不履行合同内容，凯奇莱公司在多次交涉无果的情况下将其诉至法院。', '在历经一审胜诉，重审败诉后，凯奇莱公司上诉至最高院。2017年12月16日，最高院法槌落下，判决双方签订的《合作勘查合同书》有效，双方继续履行；西勘院向凯奇莱公司支付违约金1365万元。', '凯奇莱公司代理律师赵振凯向澎湃新闻（www.thepaper.cn）表示，最高院判决生效后，西勘院主动履行了关于违约金的判决内容，但不履行最高院判决书中确定的最重要的一项义务，即双方继续履行合同。因此，凯奇莱公司向陕西高院申请强制执行，2月5日，律师向陕西高院提交了强制执行申请。', '2月24日，澎湃新闻前往西勘院采访，却被值班室保安告知该单位尚未上班，无法联系采访。随后，澎湃新闻致电该院办公室一负责人，询问西勘院是否履行、如何履行最高院判决？该负责人称：“具体情况我也不清楚，以官网1月16日发布的文章为准。”', '西勘院拒不履约引发官司', '西勘院与凯奇莱公司的合作始于2003年8月25日，双方签订《陕西省榆林市横山县波罗—红石桥地区煤炭资源合作勘查合同书》，约定由凯奇莱公司出资1200万元，西勘院对波罗井田进行勘查。', '凯奇莱公司法定代表人赵发琦说：“当时签订合同的时候，西勘院只是完成普查，获得前期探矿权，这个前期探矿权作价评估为1400万，双方协商调整价格为1500万。双方约定，我们出资1200万元，拥有80%的探矿权权益，以及以后勘查区勘查升值、联合开发，还是矿权转让，所产生的利益，我们拥有80%的权益。”', '赵发琦强调：“需要说明的是，普查阶段没有查明煤炭储量，不能作为资源储量计算价值。按照合同约定，我们双方需要进行的详查、精查。当时双方初步预算详查、精查总费用为800万元。详查是查明储量，精查是了采矿做准备。详查、精查完成之后，就具备了开采条件。”', '在上述合同中，双方约定了二八分成的权益比例，即协议生效后，该勘查区无论升值、联合开发，还是矿权转让，所产生的利益，西勘院与凯奇莱公司均以2：8的比例分享。', '同时，合同还约定了勘查成果处置办法：由西勘院和凯奇莱公司按所占权益比例成立有限责任公司联合开发；或由西勘院、凯奇莱公司协商，西勘院将所占权益经法定评估机构评估后转让给凯奇莱公司，由其独自开发。', '赵发琦表示，在之后的履约过程中，凯奇莱公司先后支付过2100万元。“其中，我们第一次给他们支付1200万元，他们违约退回。后来他们进行详查、精查，又主动要求我方支付了900万元勘查费，但之后西勘院又不如约履行合同，由此引发争端。”', '前述最高院终审判决书显示，西勘院拒不履约的主要理由是，双方签订的合同与陕西省政府第21次常务会议纪要精神违背，且系为规避该会议纪要精神而倒签合同。', '西勘院提及的陕西省政府第21次常务会议纪要精神是指，2003年10月22日，陕西省政府常务会议纪要（第21次）确定，对由政府前几年已经给予一些煤田探矿权的单位，一律视作代表政府实施地质勘查，探矿权人无权处置矿权，其探矿权是否转让、转让给谁、如何转让，一律由省政府根据基地建设总体规划和转化项目落实情况作出决策。', '最高院认定合同有效', '针对前述陕西省政府第21次常务会议纪要，最高院在终审时审理查明，该会议纪要的密级为“秘密”，凯奇莱公司不在该文件发送范围内。', '最高院还查明，陕西省国土厅《关于协调解决“榆林市横山县波罗-红石桥地区煤炭资源合作勘查争议情况”的报告》载明，西勘院与凯奇莱签订合同的日期为2003年8月25日；西勘院提交的有关《合作勘查合同书》签订时间为2004年2月19日的证人证言，证人未到庭接受庭审质证。', '该案终审判决书显示，最高院认为，陕西省政府常务会议纪要不属于法律和行政法规，不能作为认定合同无效的依据。双方是否倒签合同，只涉及合同成立生效的起始点，不涉及合同有效无效，与双方争议焦点并无关联。', '按照《公司法》司法解释相关规定，最高院认为西勘院与凯奇莱公司签订的合同，不因缔约时凯奇莱公司尚未设立而无效。而且，即使是按照西勘院的主张，在2014年2月19日，双方当事人才在合同上加盖公章，也只能证明西勘院在凯奇莱公司依法成立后，通过补正合同缺陷的行为再一次与凯奇莱公司确认了合同的效力。', '据上，最高院认为，西勘院与凯奇莱公司签订的《合作勘查合同书》有效。', '2017年12月16日，就西勘院与凯奇莱公司的合作勘查合同纠纷一案，最高院作出终审判决。判决主要内容为，西勘院与凯奇莱公司签订的《合作勘查合同书》有效，双方继续履行；西勘院在判决生效后的十五日内，向凯奇莱公司支付违约金1365万元。', '西勘院反思“依法治企”', '最高院作出判决后，西勘院于1月16日在其官网发布的一篇名为《最高院依法驳回凯奇莱公司索要探矿权诉请，西勘院郑重反思依法治企》的文章。文章称，西勘院坚决执行最高人民法院生效判决，已于1月5日，向凯奇莱公司支付违约金1365万元。', '西勘院在该文中称，“关于凯奇莱公司起诉受让西勘院矿业权的诉讼请求，最高院认为凯奇莱公司要求转让探矿权的请求不符合法律、行政法规对于探矿权转让的规定，不予支持。且涉案合同中探矿权转让只是意向性表示，不是正式的合同权利义务。该判决使争议十二年的所谓‘千亿元矿权’之争一锤定音，法律保护了国有资产。”', '判决书显示，最高院认为，“双方当事人在履行《合作勘查合同书》的初始阶段即发生争议，致使双方合作的详查和精查工作均未依合同实际启动。因此，合同约定的转让探矿权的前提条件尚不具备。”', '凯奇莱公司执行阶段代理律师赵振凯认为，“双方在最高院审理本案的时候，均未提交关于该煤田普查、详查、精查均已完成、探矿权转让前提条件已经成就的证据。因此，最高院才驳回了凯奇莱关于探矿权转让的诉请。”', '此外，前述西勘院发布的文章还将最高院判决结果概括总结为：“一、驳回凯奇莱公司索要矿业权的诉讼请求；二、认定双方当年签订的《合作勘查合同书》有效。”对此，赵振凯认为，这一概括并不准确，“最高院除了认定双方签订的《合作勘查合同书》有效，更判令双方继续履行此合同。”', '按照合同约定，甲方西勘院与乙方凯奇莱公司所占权益比例为2：8，对双方所取得的勘查成果，由甲、乙双方按所占权益比例成立有限责任公司联合开发，或由甲、乙双方将所占权益经法定机构评估后转让给乙方，由乙方独自开发。', '凯奇莱：最高院判决生效后，西勘院未履行合同', '澎湃新闻从凯奇莱公司法定代表人赵发琦处获知，最高院判决生效后，凯奇莱公司曾函告西勘院，要求尽快履行最高院判决，以维护双方合法权益。但对方至今并未回函。', '凯奇莱公司函告内容共七项，其中包括要求西勘院尽快明确详查及精查工作是否已经完成，如完成请尽快将决算报告和相关资料报凯奇莱公司，以便凯奇莱公司支付相关费用；请西勘院尽快明确勘查成果处置方式，即按照双方所占权益比例成立有限责任公司联合开发，或西勘院将所占权益经法定机构评估后转让给凯奇莱公司，由后者独自开发。', '而西勘院并未回复此函告，只是向凯奇莱公司支付了1365万元违约金。凯奇莱公司因此认为西勘院拒不履行最高院“双方继续履行合同”的判决，遂委托陕西树理律师事务所律师赵振凯为代理律师，处理该判决的执行问题。', '“西勘院拒不执行法院判决，所以我们要向陕西高院申请强制执行。”赵振凯说，“2月5日，我代表凯奇莱公司，向该案一审法院陕西高院提交了强制执行申请书，法院正在依照程序办理。”', '2月24日，澎湃新闻前往西勘院采访，却被值班室保安告知该单位尚未上班，无法联系采访。随后，澎湃新闻致电该院办公室一负责人，询问西勘院是否履行、如何履行最高院判决？该负责人称：“具体情况我也不清楚，以官网1月16日发布的文章为准。”']</t>
+  </si>
+  <si>
+    <t>http://news.sina.com.cn/o/2018-02-25/doc-ifyrvaxf0353021.shtml</t>
+  </si>
+  <si>
+    <t>2018年02月25日 13:10</t>
+  </si>
+  <si>
+    <t>北京的无雪之冬 早在他的计算之中</t>
+  </si>
+  <si>
+    <t>['原标题：北京的无雪之冬，早在他的计算之中', '你只知道今年北京的冬天没下雪，你或许不知道北京已经创下新纪录——连续115天（截至2月14日）无有效降水。究竟是怎么回事？来听专家说一说。', '作者 王嘉兴', '北京已经创下新纪录——连续115天（截至2月14日）无有效降水（0.1毫米以上降水）。在有记录可查的历史上，这是时间最长的一次，北京从来没有这么干过。', '人们调侃“北京人要去南方看雪”。中央气象台的专家表示，这是因为目前冷空气占主要地位，暖湿气流上不来。“这个解释并不本质。”中国工程院院士、中国气象局气候变化特别顾问丁一汇告诉中国青年报·中青在线记者，“要联系更大的气候背景。”', '', '', '在位于中国气象局的办公室里，这位80岁的老人从几摞半人高的纸堆中，抽出一份日本气象厅发布的全球海水温度图，详细解释造成北京“无雪之冬”的原因。', '过去50多年，他每天都和这些画着红绿线的地图打交道。图上一个不起眼的小气旋，可能几个月后就变成会造成数百亿元直接经济损失的台风。', '丁一汇和他的团队曾成功预测1998年夏天席卷整个长江流域的洪水，也见过持续两个月的干旱致上千万人饮水困难、数十万公顷作物绝收，“能做的只有提前预报，降低损失”。他给国家主席、国务院总理讲气象预测，环保部等国家部委至今每个月都请他参加座谈会。', '他更为人熟知的身份，是中国科学院大学（下文简称“国科大”）的老师。从1978年中科院研究生院建校至今，他一直讲授气象类专业研究生必修核心课《高等气象学》。在教育部第四轮学科评估中，国科大的大气科学获评A+。当年坐在教室里听课的学生，已经有5人成为两院院士，还有人获得有气象学界诺贝尔奖之称的Rossby奖章。', '小到城市一角的晴雨变化，大到整块大陆的季风气候，乃至全球变暖或地球进入小冰期的大趋势，都是丁一汇关心的事情。', '他揣摩大半生的，是最难以揣摩的“天意”。', '- 01 -', '“泄洪、炸坝还是保堤？预报容不得一点差错”', '许多年后，面对气候预测室最先进的超级计算机，丁一汇总会想起上报特大洪水预测结果的那个下午。', '那是1998年4月，汛期还没到，丁一汇和同事在国家防汛抗旱总指挥部（下文简称“防总”）第一次全体会议上，向时任国务院副总理温家宝提出，长江流域极可能发生类似1954年的特大洪水。', '经过讨论，防总对这个判断表示认可，丁一汇也被时任国家主席江泽民请到钓鱼台国宾馆，当面做汇报。', '雨要来了。', '在之后的几个月里，中央气象台预报员时刻接收着全国2000多个观测站上传的资料。他们不时将天气图放大、激烈讨论，打往各省气象台讨论雨情的电话没停过。老预报员一边参考天气图，一边分析计算结果，最终画出一个“圈”，对下雨的地点和雨量作出判断。', '当时的气象预测远不如现在可靠，讨论时，甚至需要预报员伏在雨量板上手绘降雨图，再投影出来。', '这场让全国五分之一人口受灾的特大洪水被丁一汇写入课件。近年来，每讲到此处，阶梯教室里的上百名学生总是格外认真。根据他们转述，“见惯了风雨”的丁老师用6页课件讲述他亲历的这段历史。', '最惊险的时刻是1998年8月6日，当时，荆江大坝随时可能决堤，炸药已经埋好，分洪区也疏散了。凭借准确的雨量预报，防总决定守堤，最终安全度过洪峰。“是泄洪、炸坝还是保堤？预报容不得一点差错。”丁一汇总是这样强调。', '他的讲义变得越来越厚。2008年的雪灾、2012年北京暴雨等灾害被写进教材。学生会提起当时学校连夜通知停课，或是因为交通瘫痪，在雨里跋涉数小时才回到家。', '刚走进《高等气象学》课堂的年轻人大多想不到，讲台上声音洪亮、思路清晰的老爷子已经80岁高龄。学生赵寅偶然看到系所大楼里的一块展板，才知道这门课丁老师教了40年。', '一年两个学期，每周两次，丁一汇从来没有因为身体不适或忙碌而告假。上课的学生有气象专业的，也有学习海洋、农业、地质等相关专业的，还有从气象局、地方气象台来的。丁一汇希望更多人知道，“气象预测不是测测温度、看看云，而是依靠严密的数理计算”。', '根据中国气象学会2014年的调查，截至当时，超过三分之一的中国气象预报员对预报技术毫无认识。“连预报员都不懂，公众更无法知道天气预报的不确定性来自何处。我们不可能实现预报完全准确，只能尽可能逼近真实结果。”丁一汇说。', '上大学前，赵寅和多数同学一样，对这个学科全部的理解仅限于新闻联播后的那个电视节目。在丁一汇的课堂上，她才知道，前辈为了将天气预报准确率提高1%，要付出多少努力。她也了解到不少气象灾难，如1975年河南大水灾。人们直到第二天才知道，两个大水库发生了垮坝。根据当时的报告，河南省全省死亡人数2.6万人。', '“如果能提前预报那场暴雨，损失会小得多。”丁一汇在课上一字一顿地说。', '赵寅觉得，能够探索自然本质的规律挺幸福的，“虽然只是从一个很小的角度”。', '- 02 -', '为坐在谈判桌上的人输送武器弹药', '40年里，《高等气象学》的上课地点随中科院校址的变化搬动了三次。丁一汇不用再像上世纪70年代时那样，将厚厚一卷用毛笔写的教学图，费力钉在黑板上，或是为一节课，眯着眼睛写50张投影用的透明胶板。', '他编写的教材被台湾、新加坡等亚洲国家气象专业作为主教材使用。在国内，书总是一再版就脱销，学校只能给学生油印。', '丁一汇每学期都重新编写课件，加入学生常提的问题，删去过时的研究结果，改动能达到10%。有一块内容始终不变：气象学曲折的发展史。面对每一届学生，丁一汇都要讲这一课，尽管气象预测已经摒弃原来“估计”的做法，完全靠“算”。', '“开这门课，就是因为叶笃正先生的鼓励。他希望我把过去的三门课程合成一门课来讲，让理论、观测、计算能有机地统一。”丁一汇说。他还会在课上郑重地介绍谢义炳、陶诗言等。', '新中国成立后，包括他们在内的一批气象学家放弃了在国外刚刚起步的事业，选择回国。“是他们把中国的气象学科带到现代。”丁一汇说，过去中国的气象学科属于地理学，他们为其注入计算的思想。', '老人在很多场合提起这些前辈，希望他们的故事能在人们的记忆中尽可能停得久一点。', '丁一汇每周准时出现在教室里。他偶尔会提到“前几天开展的南海季风试验”，或是讲起在国家气候中心带领七百多位科学家研究新的预报系统。', '上世纪90年代，中国还没有研究气候的业务部门，包括丁一汇在内的十多名科学家联名向时任国务院副总理朱镕基上书，才成立国家气候中心，丁一汇是第一位主任。', '花了5年时间，我国第一代气候预测模型终于“能用了”。中国气象学科的研究走向“现代”。气象预报员不必再听着广播里大段的学术词汇，对着昏暗的光线，在气象图上画满密密麻麻的红线、绿线和紫线，预测未来的天气走向。', '过去，国际上不认可中国的季风，认为那是印度季风的一个延伸。南海季风试验成功后，气象学界才认识到它对整个东亚国家雨带和雨季的影响。', '1996年，丁一汇任政府间气候变化委员会（IPCC）第一工作组主席。这是人类对自己居住的环境进行气候变化评估的组织，第一工作组负责的是科学问题，“我们选择第一工作组，是希望把问题弄清楚，当时也有实力研究问题了。”', '1990年以前，中国还是IPCC的受援助国，连往返的差旅费都由别人赞助，组织会议、发言的都是西方国家。', '那时，美国已经完全用计算机处理气象数据，进行定量计算，自动完成预报。中国还处在人工阶段，表格图纸是手绘的，统计是人工计算的，最多用上手摇的计算机，结果还得人工分析。', '形成气候变化评估报告是最艰难的。气候变化的原因不存在争议，但各国在治理问题上很难达成一致。发达国家不认为自己要为气候变化负责，发展中国家希望少减排一些。', '丁一汇所在的中国气候变化专家委员会被誉为“为坐在谈判桌上的人输送武器弹药的人”。中国领导人参加世界气候大会、中国参与《巴黎协定》制定，背后都依靠这群人提供技术支持。', '- 03 -', '“难得很啊，三次才报对两次”', '读大学时，丁一汇差点因为色弱从北京大学物理系退学。他坚持要学气象学，在学校“赖”了一个多月，后来通过副系主任谢义炳的特殊考核才留下。', '他本想研究台风，但为了帮助刚起步的空军事业，他研究过导弹飞行的大气平流层。文革伊始，从日本、韩国飘来很多探测中国情报的气球，军方需要预测飞行物的轨迹，他又开始做高空风预报。1975年河南水灾后，他被安排研究暴雨灾害，“总算和台风接近点了”。', '丁一汇得过国家自然科学二、三奖，国家科技进步一、二等奖，世界气象组织杰出工作成就奖……但他只关心气候预报系统的建设。花了近10年，他才将准确率提高5%。', '“难得很啊，三次才报对两次。”丁一汇感慨。他记得1999年预测错了雨带，耽误了几天防汛工作。', '20年过去了，中国气象预报系统的准确率已经达到70%以上，雾霾被列入预报的范围，人们甚至可以预测气象与生态圈、地质活动的相互作用。丁一汇能根据云图预测半个月内的空气状况，林业部会向他了解森林防火的形势，发改委还专门成立了应对气候变化司。', '预报员只需要坐在电脑前，就可以跟全国4万多个观测站点和各级气象台视频会商，实时查阅数据资料。他们不用需要手绘降雨圈。计算机输入数据后，能计算出雨带的位置和雨量，精确度可以控制在5公里之内。', '过去，人们只能从电视和广播中听到未来3天的天气预报。现在打开手机App，就能看到周边3小时的云图，中国的天气预测可靠时间也延长到7天。', '丁一汇曾在一次会议上碰到国科大丁仲礼校长，对方说：“老丁，这门课你想讲到什么时候，就讲到什么时候。”丁一汇表示，《高等气象学》迟早得交到下一代人手里。他尝试过培养“接班人”，但不少优秀学生都选择到国外大学读书、任教。', '“这门课太深太广，很难有人对各个方向都精通。”在他眼里，年轻一代预报员还需要历练，有时看到中央电视台的天气预报思路有问题，他还忍不住和家人念叨。', '半个多世纪前，20岁的丁一汇好奇“台风怎么从一个很弱的小涡旋，发展成破坏力那么强的东西”。在揣摩“天意”半个多世纪后，造访人间的阴晴雨雪成了他最熟悉的“朋友”。', '“预报员大多忽略了一件事，今年是拉尼娜年，北京会一直刮干燥的北风，所以降水很少。另一个结果是，今年冬天，北京的空气质量很好。”在采访的结尾，丁一汇笑着向中国青年报·中青在线记者解释。', '阳光透过办公室的玻璃照进来，窗外晴空万里，只听得到阵阵风声。没有一点下雪的迹象。', '', '']</t>
+  </si>
+  <si>
+    <t>http://news.sina.com.cn/s/sd/2018-02-23/doc-ifyrvspi0934516.shtml</t>
+  </si>
+  <si>
+    <t>2018年02月23日 08:46</t>
+  </si>
+  <si>
+    <t>雾锁海峡的海口:交警过年不放假 每200米设志愿点</t>
+  </si>
+  <si>
+    <t>['原标题：雾锁海峡路难行 悉心保障缓焦心 海口：应急第五天（民生调查）', '本报记者 丁 汀', '不足20公里的道路上，如果滞留过万车辆，会是什么情形？', '2月18日起的海口，这一幕就发生了。春节期间，受大雾天气影响，琼州海峡通航条件较差，导致万余车辆、数万游客滞留海口。', '这么多人在春节里长期滞留，物资供应怎么办？老人、小孩和病人又怎么办？', '2月21日，在海口的各大港口，物资供应充足，越来越多的捐助物资被送往港口，三餐供应也有了热粥、热饭。每200米设置一处志愿点，老人、孩子得到妥善照顾，生病的人也在医疗点得到治疗。路并没有堵死，应急车道还是畅通的。滞留群众甚至苦中作乐打起扑克。', '为了做好滞留旅客的保障工作，18日起，海口启动二级应急响应，19日上升为一级应急响应。截至22日，城市的应急响应时间已经将近120小时。', '滞留', '揪心也暖心', '“我从1991年开始在港口工作。从没见过春节期间这么密集的大雾。”21日，海南海峡航运股份有限公司新闻发言人谢焕杰苦笑着说，“这个年过得不容易。”', '海口往返琼州海峡一共有55艘船只，49艘来自海峡股份。“我们节前就开始准备了，按照原先的测算，截至2月13日进岛车辆逾10万辆，比去年增加20%。如果49艘船只正常通航，运力本来是不成问题的。”谢焕杰说。', '然而，大雾造成琼州海峡停航，滞留乘客不断增加。18日凌晨起，海口秀英港、新海港、南港所在的滨海大道上，滞留车辆已达万辆，而滨海大道总长不过20公里。俯瞰滨海大道，密密麻麻的车辆让半座城都变成了停车场。', '在海口市秀英港门口，海口新海轮渡码头有限公司的陈华章嗓子已经喊哑，但他还在引导旅客。', '焦心的，并不只有海港和交通部门的工作人员。海口市春运办18日启动全市二级应急预案，19日启动一级应急预案，交警、公安、消防、安监、民政、医疗等全市各部门联动，放弃休假；志愿者们也走上街头，有的全家总动员；宾馆、酒店提供爱心餐点。截至22日下午1时，海口现已发放矿泉水17850箱、八宝粥12250箱、饼干2870箱、方便面13500箱、热馒头31300个、面包18750个、应急快餐10800份，共救助7.5万人次。', '及时的救助和充分的保障，让许多人缓解了焦心。重庆的张女士带着小儿子，在滞留期间当起了临时志愿者；四川刘女士一家六口已经滞留超过24小时，其中还有不足两岁的婴儿，但她说：“没事，慢慢等，海口这边的人也着急嘛。”物资保障上，水和食物倒是不缺，但来之不易的热汤、热饭则优先给老人、孩子，现场秩序井然。', '同样来自重庆，秦女士一行12人截至21日已滞留超过18个小时。她说：“遇到大雾是没办法的事，海口的保障，我们看在眼里。人美、景好，以后还要来的！”', '保障', '细心加耐心', '海口市交警支队支队长李辉介绍：“我们整个7天都没放假。春节，谁家没要紧事？可这7天，连假条都没收到一张。刚动完手术的设施大队大队长，都在路面上值班48个小时了。”', '“正因为大家都放弃了休假，我们更要铆足劲，用细心加耐心，把工作做好。”海口市常务副市长顾刚说。', '关于滞留，很多人在网上的评论区里进行了深入思考：“为什么港口增多了船只，滞留反而更严重？”“政府部门有没有提前研判？”“气象部门是不是可以提前预警？”', '政府积极听取意见，采取措施。18日起，各类媒体24小时发布滚动信息，提示人们气象信息和路况；城市公共服务APP“椰城市民云”增加了地点定位，方便用户；海口会展中心设置了临时安置点，可以休息、过夜；三大运营商加“椰城市民云”，共推送信息3655.4万条。唯有一条，没法“变通”：大雾通航有安全隐患，不能拿成千上万群众的生命财产安全撞大运。', '18日，滞留车辆堵住了市区的通行道路，只剩下一条应急通道。“必须得拓宽应急通道。只要港口有车辆放行，我们就赶紧抓住时间窗口进行疏散。”李辉说道，“一米一米地挤出第二、三条应急通道，每条应急通道，都要兄弟们干一通宵。”', '18日，因突发大雾停航4次，最长一次8小时。19日至20日，滞留严重程度达到顶峰，滞留车辆逾2万辆，人们的情绪较为焦虑，有人开始长摁喇叭、乱抛垃圾。', '“堵在路上不容易。看到乱抛垃圾的，默默过去捡起来就是了。”秀英区环卫工人李海燕说，“顶多经过车辆时多问一句：‘有没有垃圾让我顺手带走？’时间长了，大家也就自觉配合我们工作了。”', '滞留旅客，牵动着海南省委省政府的心。海南省委书记刘赐贵在现场指出，很多滞留车辆带着老人、小孩长时间等待，各方面工作人员都要充分理解滞留旅客的心情，进一步精心细致地做好服务，让每位旅客带着海南的温暖离开。', '通航', '走心更尽心', '“我从19日晚就到海口了。到21日下午还没走成。海口的保障是到位的，天气情况我们也了解。可现在唯一的念头，是快些过海。”河南旅客李女士表示。', '对于滞留人群而言，没什么消息比“船从对岸过来”更令人期盼的了。的确，运力问题，牵动着各方的目光；沟通、协调增加运力，也在获得各方的支持。海南省省长沈晓明专门批示：加强与广东方面轮渡的协调互动，科学调度运力尽快渡客，并全力精心做好旅客滞留海口期间的各项服务保障工作，信息要及时更新。', '据海口市交通局局长刘东介绍，经海口市委市政府沟通协调，春运期间，湛江发往海口的班次每日最高可达98航次。船务公司都不希望放空船，因为这意味着成本将提高一倍。但不放空船，效率得不到保证。仅2月20日，湛江放空船舶到海口就达37航次。平时，两港日均合计发班约80个航次；2月20日，则达到143航次，较平时增长了78%。', '过琼州海峡，如果不坐飞机，就只有海运一条道。位于广东徐闻县的海安新港和海安港，是海口秀英港、新海港的两大对开港口。春运以来，为缓解海口返程旅客运输压力，湛江市委、市政府和徐闻县委、县政府提供了不少支持和帮助。', '如何让这条通道发挥更高的效率？海南和广东还在谋划对策。2月21日上午，按照海南省委省政府要求，省委常委、海口市委书记张琦一行前往徐闻县调研，并与湛江市举行座谈会，研究建立长效工作机制，从根本上解决好春运保障问题，商议共建琼州海峡两岸应急危机处理机制的具体事项。', '据介绍，湛江方面表示，湛江将全力以赴协助海口市做好春运服务保障。将建立并进一步完善危机应急预案方案，形成高效、同步、和谐共振的协调指挥机制。', '海口市市长丁晖要求，保持全员动员应急状态，全部要到一线，确保工作没有盲区。', '截至21日21时，海口三港7天共运送约8.2万辆汽车安全过海。22日下午5时，海口市政府提示：目前三港正常通航。由于港口外道路有车辆10916辆，港区内车辆3520辆，共计14436辆待渡。市区交通压力较大，港口外道路严重拥堵，过海车辆滞港时间长达14小时以上，建议其他过海车辆23日早6时前暂不前往海口三港。', '截至发稿时，海口近120小时的城市应急管理仍在继续。“现在船只运力能够保障，两岸沟通协调也很畅通，运力同比提升了1/3以上。可以说，只要天气好转，车辆滞留的情况就能缓解。”刘东说。', '一堂城市文明“公开课”（记者手记）', '海口的滞留新闻，是给这个城市、给每个滞留的人上的一堂猝不及防的公开课。', '在遭遇突发事件时，是有条不紊还是无从下手；在供应紧张时，是漫天涨价还是平稳合理；在路程堵塞时，是文明有序还是杂乱无章；在面对抱怨时，是辩解反击还是宽容担当；在自身不足时，是完善改进还是怠惰不前……反映城市的管理水平，更体现城市的文明程度。', '某种意义上，对一个旅游城市来说，文明程度和风景秀丽程度同等重要。', '对旅途中的人来说，也是一场考验。长时间困于道路，心情急躁，无处抓挠，可以理解。但是，发泄和暴躁无济于事。如何面对，不仅影响自己的心情，也会影响他人的行为。少一些急躁，多一些宽容，少一些愤怒，多一些理解，少一些任性，多一些文明，对自己来讲，是文明与修养，看在他人眼里，也是别样的风景。', '所有的遗憾和不足，所有的进步与努力，都告诉每个归途的人：文明的城市，源自精细的管理；文明的公民，会将美好的力量传递。', '愿返程的路程更顺畅些。', '点击进入专题']</t>
+  </si>
+  <si>
+    <t>http://news.sina.com.cn/s/2018-02-23/doc-ifyrvaxe8992628.shtml</t>
+  </si>
+  <si>
+    <t>2018年02月23日 03:17</t>
+  </si>
+  <si>
+    <t>陕西千亿矿权纠纷:“黑金”争夺战背后的权力寻租</t>
+  </si>
+  <si>
+    <t>['', '原标题：陕西千亿矿权12年纠纷：“黑金”争夺战背后的权力寻租', '（本文刊发于《中国经济周刊》2018年第6期）', '《中国经济周刊》 记者 徐豪 | 北京报道', '位于陕北的榆林市，因地下蕴藏丰富的矿产资源而被称为“中国的科威特”。1982年，新华社一条“陕北有煤海，质优易开采”的消息让外界知晓了其丰富的煤炭储量。', '榆林煤炭储量有多少？有数据显示，其煤炭预测储量2720亿吨，探明储量1490亿吨。在“煤炭黄金十年”和原油价格上涨时期，能源工业一度占据陕西省工业的半壁江山，最高时占比达到60%。', '2003年，榆林市凯奇莱能源投资有限公司（下称“凯奇莱”）与陕西省地质矿产勘查开发局西安地质矿产勘查开发院（下称“西勘院”）签订《合作勘查合同书》，联合进行详查、精查波罗—红石桥勘查区煤炭资源。', '然而，这一估值曾达数千亿的煤矿并没有给凯奇莱法人代表赵发琦带来财富，双方因合作勘查合同产生纠纷，案件诉讼历时十几年。2017年12月21日，最高人民法院作出终审判决，判定凯奇莱与西勘院签订的合同合法有效、继续履行。', '维权近12年后终于有了结果，但赵发琦对《中国经济周刊》记者表示，“没有太多高兴，还要继续斗争。”', '一波三折的“合作勘查”', '赵发琦提供的资料显示，2003年8月25日，凯奇莱与西勘院签订了《合作勘查合同书》。', '《中国经济周刊》记者看到的合同复印件显示，凯奇莱与西勘院约定按8：2的比例出资，对陕西省横山县波罗—红石桥勘查区（波罗井田）的煤炭资源进行合作详查及勘探，该矿区的探矿权，经法定评估机构评估，并报国土资源厅备案，双方协商确定其价值为1500万元。协议生效后，该勘查区无论升值、联合开发，还是矿权转让，所产生利益均以8：2比例分享。', '许可勘查面积为279.24平方公里的波罗井田，位于榆林市的榆阳区与横山县境内，后来初步勘探储量近20亿吨。“煤炭黄金十年”期间，随着煤矿价格一路飙升，市场估值曾达3800亿元。', '签署协议前，赵发琦并不知道能不能挖到“黑金”，用他的话说，“勘查投资就跟赌博一样”，因为不知道地下到底有没有矿、质量怎么样。', '2004年3月，西勘院将合同及探矿权评估报告摘要报送陕西省国土厅备案。国土厅认为，按照相关规定，双方将合同报国土厅备案即可，但按照陕西省政府2003年10月20日召开的第21次会议纪要（下称“21次会议纪要”）还应提交有关部门的批准文件。', '赵发琦表示，随后他向一位时任省政府领导反映情况，该领导批示省国土厅处理。', '2004年8月，陕西省国土厅称：“我厅认为，凯奇莱公司与陕西省地质矿产勘查开发局西安地质矿产开发院合作勘查，符合国家法律法规要求，该公司已承诺愿意承担风险，也愿意按照陕西省政府有关规定进行合作勘查，可批准其合作勘查。”随后，凯奇莱向西勘院转款1200万元，用于支付前期探矿权费用。', '然而在2005年3月，西勘院退还了凯奇莱1200万元探矿权费用，并致函称：“根据《中华人民共和国矿产资源法》的有关规定，我院与你公司签订合作勘查项目……由于与2003年10月22日陕西省人民政府召开的21次会议纪要有关政策不相一致，无法按合同约定实施，所以不能收取你公司款项。”', '双方进行协调后，2005年5月26日，凯奇莱向西勘院支付勘查前期工作费用900万元，西勘院出具了收据。', '陕西省国土厅也于2005年11月8日向陕西省政府办公厅作出《关于协调解决榆林市横山县波罗—红石桥地区煤炭资源合作勘查争议情况的报告》（“65号文”），报告称：“经审查，我厅认为，双方承诺愿意承担风险，也愿意按照陕西省政府有关规定进行合作勘查，符合国家法律、法规要求，可同意其合作勘查。”', '但“65号文”并没能让凯奇莱与西勘院继续顺利履行合同。', '从胜诉到败诉', '双方“重归于好”后，2005年12月8日，凯奇莱去函西勘院，希望西勘院立即履行合同义务，尽快提供详查设计和预算，明确凯奇莱公司还应支付的款项数额。西勘院却回复称，“我们关于波罗井田的合作，仅靠我方力量，已经无力启动。”', '这背后又生出了另一条运作路线，赵发琦认为西勘院“一女二嫁”。', '2005年12月14日，陕西省国土厅致函陕西省地矿局称，收到时任陕西省政府领导的批文，“要求我厅对中国化学工程集团（下称‘中化工程’）、香港益业投资（集团）有限公司（下称‘香港益业’）要求参与陕北榆横项目配套井田勘查工作的报告提出意见。”', '据媒体报道，2004年11月，中化工程、香港益业与榆林市政府签订了陕北能源化工基地榆横240万吨甲醇MTO项目合作协议，涉及的投资额达150亿元。2005年10月10日，陕西省发改委下发批文，明确“该项目的配套井田为波罗井田，面积339.2平方公里，地质储量15.68亿吨，可开采量10.98亿吨”。', '2006年1月13日，陕西省国土厅向陕西省政府报送的《关于中国化学工程集团有限公司 香港益业投资（集团）有限公司参与波罗井田煤炭资源勘探工作协调意见的请示》称，根据省政府领导批示，西勘院应与中化工程、香港益业积极主动协调签订“波罗井田”勘探（精查）合作勘查协议。按照中化工程和香港益业出资，西勘院负责勘探工作，勘探成果归出资人所有的原则，待“甲醇MTO项目”经主管部门核准立项后，由西勘院依法将该井田探矿权转让给项目开发业主。', '2006年4月12日，西勘院与香港益业签订关于“波罗井田”的合作勘查合同书。而西勘院持有的“横山县波罗—红石桥地区煤矿普查”探矿权，在340平方公里的波罗井田范围内的面积约为258平方公里，这两块区域大部分是重合的。', '2006年5月，凯奇莱将西勘院起诉至陕西省高级人民法院。2006年10月19日，陕西省高院一审判决凯奇莱胜诉。陕西省高院判决，凯奇莱与西勘院于2003年8月25日的合作勘查合同有效，双方继续履行；西勘院应在判决书生效后10日内，向凯奇莱公司支付违约金2760万元；在判决生效一个月内，将探矿权转入凯奇莱公司名下。', '西勘院对陕西省高院的判决不服，2006年11月，上诉到最高人民法院。', '赵发琦称，2008年4月底，时任最高法副院长奚晓明主动邀请陕西省政府官员到最高法“商议案情”。2008年5月，陕西省政府致函最高法报告该省对于此案的意见。', '这份《关于西勘院与凯奇莱公司探矿权纠纷情况的报告》的函显示，陕西省政府向最高法提出的意见和请求中，包括“西勘院与凯奇莱公司的合作勘查合同没有完成备案，没有实施，应属无效合同”“省高院一审判决对引用文件依据的理解不正确”等。同时还提出，“如果维持省高级人民法院的判决，将会产生一系列严重后果”，“对陕西的稳定和发展大局带来较大的消极影响”。', '此函当时经媒体曝光后，曾引起轩然大波。南开大学法学院教授侯欣一等数位法学专家联名向最高法发送了一封《关于呼吁最高人民法院抵制非法函件干预司法的建议书》。', '直到2009年11月，最高法才作出二审裁定，认为原审判决认定事实不清，发回重审。2011年3月，陕西省高院重审判决，西勘院与凯奇莱合同无效。凯奇莱公司不服重审判决，又上诉至最高法。此案于2013年6月25日第一次开庭审理后，2017年1月12日再次开庭审理，法庭未当庭宣判。', '关键的“21次会议纪要”', '在这起纠纷中，“21次会议纪要”被多次提起，其究竟指什么？', '2003年10月20日，陕西省政府召开2003年第21次常务会议，会议决定包括：陕北尚未登记探矿权的煤炭资源，一律由省政府安排登记直接掌握；对省政府前几年已给予探矿权的单位，一律视作代表政府实施勘查，探矿权人无权处置探矿权，其探矿权是否转让、转让给谁、如何转让，一律由省政府根据基地建设总体规划和转化项目落实情况作出决策。', '所谓“基地”指2003年3月，原国家计委正式批准启动建设的陕北能源化工基地，这是全国唯一的国家级能源化工基地，区域为榆林、延安两市，面积8万平方公里。同月，第一次陕北能源化工基地建设座谈会要求尽快实现基地建设从“一次性能源产品开发”向“资源的深加工和就地转化”转变。', '《财经》曾报道称，“要支撑起这盘大棋，必须保证有足够多的转化项目进驻基地。”为此，陕西省政府以配套煤矿作为优惠政策。能够为投资人配套煤矿的前提是，省政府必须有能力统一调配基地范围内的煤矿，上收对煤矿勘探权的处置权成为必然。', '《矿产资源法》规定，“国家实行探矿权、采矿权有偿取得的制度”“已取得采矿权的矿山企业……经依法批准可以将采矿权转让他人采矿”。在“21次会议纪要”以前，陕西与全国其他省份一样，对勘查作业区内发现的可采矿产资源，探矿权人有权优先取得勘查作业区内矿产资源的采矿权。', '在纠纷中双方的一个焦点是，凯奇莱与西勘院合作勘查合同的签署时间，是在“21次会议纪要”出台之前还是之后。西勘院在多次法庭举证中，都表示合同实际上是在“21次会议纪要”出台之后签署的。凯奇莱方面对此予以否认。', '在纠纷日趋引发舆情后，2011年4月，陕西省政府党组在《关于横山“波罗井田”矿权问题调查处理情况的报告》中称，西勘院与凯奇莱签订的合同属于孤本合同，当事双方均无合同原件。对西勘院关于合同签订的相关供述及证据予以采信，即这份合同是为规避“21次会议纪要”，将合同日期倒签至纪要出台前，是双方蓄意违规签订的虚假合同。', '在2017年1月12日最高人民法院的庭审现场，双方再次就此问题控辩，凯奇莱公司表示，“合作勘查合同书是双方真实的意思表示，不存在陕西高院认定的恶意串通、损害国家利益之行为。”', '赵发琦认为，“21次会议纪要”实际上是本案一系列纠纷的主要根源，“21次会议纪要就是省政府自己制定的‘家法’，导致西勘院持有的上千平方公里的矿权转给形形色色的商人。行政力量强行干预市场，给权力寻租创造了空间。”', '“女港商”刘娟', '在凯奇莱与西勘院的纠纷中，刘娟的入局引人注目。公开报道显示，刘娟上世纪80年代曾在陕西省政府办公厅当打字员，90年代移民香港从商，后来还担任陕西省政协常委。在政府的红头文件中，转化项目的开发主体是中化工程与香港益业两家公司，但在与西勘院签订合作勘查合同时，只剩香港益业一家。', '赵发琦称，“在探明了储量有了利益后，他们就要把凯奇莱踢出去。”', '合同规定，探矿权范围340平方公里，精查工作全部由香港益业出资，西勘院负责勘查施工，合作取得的精查成果和探矿权增值全部属香港益业所有。香港益业只有在转化项目（即上文所述甲醇MTO项目）核准或省发改委备案批准落实后，才予以配置煤矿矿权。', '2006年7月7日，陕西省发改委以677号文件，给240万吨甲醇MTO一期60万吨甲醇项目备案；8月24日，陕西省国土厅以便函的方式为该项目备案。但据财新报道，刘娟直到2016年都没有拿到探矿权，而没有探矿权的刘娟，“却还是在半年左右时间拿到了环评、安评、水评、土地预审等五部门的手续”。', '2007年6月5日，陕西中化益业能源投资有限公司（下称“中益能投”）和陕西中化益业能源有限公司（下称“中益能源”）的投资额为22.9亿元的240万吨甲醇MTO一期60万吨甲醇项目与配套的波罗井矿年产1000万吨项目同时开工。这两个项目公司有着共同的实际控股股东陕西益业投资有限公司（下称“益业投资”），益业投资成立于2006年4月14日，法定代表人为刘娟。', '2008年7月，中益能投曾进行投资人（股权）变更，法人股东由益业投资和中化工程，变更为益业投资和陕西太兴置业，中化工程彻底退出。', '2008年11月，刘娟开始了与陕西国企延长石油集团的合作。双方将中益能投和中益能源两家公司估值4.9亿元，延长石油投入资金2.499亿，分别占股51%。涉案的波罗煤田仍被配置给益业投资，延长石油有意合作开发。赵发琦曾举报称，延长石油和中益能投在陕西榆横煤化学工业区一期在建项目中以虚假在建工程作价评估套取国有资产；延长石油和中益能源共同委托陕西正德信资产评估公司以非法开采的波罗煤矿作价评估，涉嫌合谋骗取国有资产。', '2013年5月，陕西省国资委的调查报告认为，事件不存在国有资产流失、合谋骗取国有资产等问题。', '而实际上，2010年6月，延长石油向陕西省国资委申请对收购资产评估报告备案。陕西省国资委审核发现，评估报告存在虚假、违规等问题，并对两份评估报告不予备案。但在2011年，合作申请得到陕西省国资委批准，而合作资产评估并未完成。', '《中国经济周刊》记者多次联系刘娟采访，其电话均未接通。', '上诉与举报', '凯奇莱公司在2006年一审胜诉后，因被查出虚报注册资金等问题，被撤销登记，丧失了诉讼主体资格，后来赵发琦也被警方通缉。2011年8月，赵发琦被抓捕，进看守所133天后被判无罪。', '在无罪释放之后，赵发琦再次将与西勘院的合同纠纷案上诉至最高法。凯奇莱法律顾问、北京市中闻律师事务所律师刘长透露，2017年12月21日，最高法以约见谈话的形式下达了判决书。在上诉的同时，赵发琦还公开举报了多名官员，其中最高法原副院长奚晓明、陕西省国土资源厅原厅长王登记等人现在已经“落马”。', '有知情人士向《中国经济周刊》记者透露，2017年2月至4月，十八届中央第十一巡视组对陕西省开展了巡视“回头看”，巡视组曾对陕西矿产资源领域的腐败专门提出过意见，指出矿产资源探矿、开釆、经营及国有公司增资扩股等方面的腐败问题“还没有揭开盖子”。', '央视新闻报道称，这起纠纷此前由于政府无形之手的介入，导致双方缠斗多年，陕西省部分领导甚至参与其中。', '赵发琦说：“本案的实质，就是波罗井田探矿权的归属问题，这本来是一个简单的经济纠纷案件，为什么会用了十几年时间？”', '直到2017年12月21日最高法终审判决凯奇莱胜诉、凯奇莱与西勘院签订的合同有效，陕西省已经换了几任领导，煤炭黄金十年也已过去，煤矿至今空闲在毛乌素沙漠里。', '此次胜诉后，按照合同，凯奇莱还将与西勘院合作。凯奇莱法律顾问刘长说，“近期去了一趟西安，与西勘院的领导进行了面谈，也给西勘院正式去函，对接下一步的合作，但目前还未收到书面回复。”《中国经济周刊》记者多次联系西勘院现任院长王战社采访，未获得其回应。', '2018年第6期《中国经济周刊》封面', '来源：中国经济周刊']</t>
+  </si>
+  <si>
+    <t>http://news.sina.com.cn/o/2018-02-05/doc-ifyreuzn3274822.shtml</t>
+  </si>
+  <si>
+    <t>2018年02月05日 17:49</t>
+  </si>
+  <si>
+    <t>烟草提税带来控烟红利2年吃空：去年销量止跌反升</t>
+  </si>
+  <si>
+    <t>['原标题：为什么控烟这么多年，烟却越卖越多？2017年卷烟销量绝地反弹', '南方都市报消息，2015年中国曾提高烟草消费税，后影响2015年和2016年两年的卷烟销量下滑，达到了控制烟草消费的成效。不过，种种迹象显示，卷烟销量下降的趋势已经被“扭转”，2015年烟草产品提税带来的“控烟红利”已被“吃空”。烟草专卖局的官方数据显示，2017年中国卷烟销量绝地反弹，止跌反升，全年卖出4737.8万箱，较2016年增长0.8%。', '“若不继续提税 ，中国烟草消费将成一匹‘脱缰野马’” ，一名控烟专家表示，中国仍有较大空间提高烟草税和烟草价格的空间，而且政府应该持续、定期提高烟草税，“需要赶快拿出策略，烟草税收调整的行动要再快一点。”', '2017年卷烟销量绝地反弹', '国家烟草专卖局官方网站数据显示，2014年的全国卷烟销量达到了近年来的顶峰，一共卖出了5099万箱，较2013年增加了105万箱。', '2015年，财政部宣布，将卷烟批发环节从价税税率由5%提高至11%，并按0.005元/支加征从量税，此次提税迎合了当前国际上普遍对烟产品课以重税的大趋势。', '就在2015年，全国卷烟销量下降。全国全年的卷烟销量达到4979万箱，比上一年度减少了120万箱。这是2000年以来全国卷烟销量首次出现下降。', '随后的2016年，全国卷烟销量又大幅下滑277.6万箱，下降到4701.4万箱，下降幅度达5.6%。', '不过，卷烟销量下降的趋势在仅仅两年之后就被烟草业扭转，通过烟草提税实现的控烟成效在2017年就已经被“吃空”，卷烟销量的数字开始逆势抬头。2017年全国卷烟销量达到4737.8万箱，增长幅度0.8%。', '烟草专卖局对今年的卷烟销量也显得信心十足。据悉，根据烟草专卖局的计划，2018年的卷烟销量还要继续提高，今年的卷烟销量预计可以达到4750万箱，“在实际工作中，要努力争取回归历史最好水平”，烟草专卖局局长凌成兴说。', '研究称国人烟草购买力增速世界第一', '年度卷烟销量的增加意味着中国国民在一年内吸烟数量增加。中国是世界上最大的烟草消费和生产国。中国每年的烟草消费量相当于排名第2-29位的所有国家烟草消费量的总和。全世界每年超过三分之一的烟草是中国人消费的。', '在过去二十年间，中国的经济飞速发展，人均GDP年增长率高达10%左右，中国居民的收入水平和购买力也大幅上升。尽管中国政府在2009年和2015年两次提高卷烟消费税，中国的卷烟消费量仍然持续大幅增加。', '中国每年的烟草消费量相当于排名第2-29位的所有国家烟草消费量的总和。全世界每年超过三分之一的烟草是中国人消费的。', '对外经济贸易大学教授、世界卫生组织烟草控制与经济政策合作中心主任郑榕的团队研究了从2001-2016年中国居民的卷烟支付能力，或者叫卷烟购买力。', '她发现，2001-2016年间，由于中国居民收入增长幅度超过卷烟价格增长幅度，导致中国的卷烟支付能力在同期持续增强。', '具体而言，2016年平均卷烟支付能力是2001年的1.85倍。对于主要供低收入人群消费的低价卷烟来说，2016年国人的支付能力是2001年时的2.09倍。', '据南都记者了解，在农村地区很多商店里卖的最便宜的五类烟，价格只需要3块钱一包，这些卷烟产品针对的消费群体正是农村低收入群体。', '为什么控烟这么多年，中国人的卷烟消费居高不下，而且消费的卷烟越来越多？', '通俗地解释，居民收入水平不断提高，对于吸烟者而言，卷烟变得更加负担得起。国内市场卷烟涨价的幅度跟不上人均收入涨价的幅度，而低价烟的价格尤其低，即使是低收入群体，他们的烟草消费能力也在过去十多年持续攀升。', '根据研究，目前中国的卷烟支付能力已经排在168个有数据可取的国家的第45位。短短不到20年，中国的卷烟支付能力已经从排名最低的1/4国家组，跃升至第二高的四分位国家组，支付能力的增速高居世界第一。', '“若不继续提税 ，中国烟草消费将成一匹‘脱缰野马’” ，一名控烟专家表示，中国仍有较大空间提高烟草税和烟草价格的空间，而且政府应该持续、定期提高烟草税，“需要赶快拿出策略，烟草税收调整的行动要再快一点。”', '需要对烟草制品动态“提税”', '实际上，“提税”等价格政策被认为是烟草控制最高效、最有用的办法。2006年在华生效的《世界卫生组织烟草控制框架公约》中提出了一揽子控烟措施，首要的便是价格和税收政策——各缔约方承认价格和税收政策是减少各阶层人群，特别是青少年烟草消费的有效和重要手段。', '价格政策对于“保护弱势群体，尤其是青少年和低收入群体尤为重要”，控烟组织认为，在提税提价的具体方式上，应该大幅提高从量税并设置卷烟最低价格，以改变当前价格及其低廉的低价烟供给现状。', '对烟草产品提税提价也是每年全国政协委员、全国人大代表向有关部门带去建议。不过，荒谬的是，不少这样的建议、提案却直接归口到了不断努力加大烟草消费的烟草专卖局来答复，而非财税部门或者健康管理部门。', '从建议提案的答复内容看，世界卫生组织公约中敲定的提价提税措施受到烟草专卖局的阻碍。烟草专卖局更多是从给国家增加财政收入的角度来看待提价提税政策，而非从控制公众吸烟，特别是防止青少年染上烟草的角度来看待。', '在烟草专卖局2016年给一名政协委员的答复函中，烟草专卖局几乎否定了政协委员几乎所有的建议，包括进一步提高烟草税和烟草价格、设置卷烟最低价格标准、动态调整烟草消费税税率、提高烟草税率、逐步取消烟叶税等建议，并明确答复称，“我局认为目前不宜再提高烟草税。”', '烟草专卖局的理由之一是，从2006年《烟草控制框架公约》在中国生效至2015年，我国每条卷烟税费由21.9元增加到82.5元，零售价格由50.8元提高到125.7元，年均增长10.6%，高于居民消费价格指数增长。', '卷烟价格的大幅度提高却并未导致中国卷烟消费量下降。事实上，这十六年，中国卷烟消费量增加了40%。', '卷烟的价格提升说明不了问题。《中国卷烟支付能力研究：2001-2016》也显示，2001至2016年间，中国卷烟的名义加权平均零售价格提高了218%（从2001的4.12元/包提高至2016年的13.09元/包），卷烟价格的大幅度提高却并未导致中国卷烟消费量下降。事实上，这十六年，中国卷烟消费量增加了40%。', '这项研究给中国的烟草税收政策制定者提出了警示：“在经济持续快速发展的背景下，中国的烟税政策尤其需要关注卷烟支付能力变化，而非卷烟价格变化。”', '来源：南方都市报']</t>
+  </si>
+  <si>
+    <t>http://news.sina.com.cn/c/sd/2018-01-31/doc-ifyrcsrw0579916.shtml</t>
+  </si>
+  <si>
+    <t>2018年01月31日 13:14</t>
+  </si>
+  <si>
+    <t>孩子先会打游戏再会系鞋带 如何智斗他们手机瘾？</t>
+  </si>
+  <si>
+    <t>['原标题：寒假来了，“智斗”熊孩子的手机瘾', '期末考试一结束，北京12岁的男孩唐轩拥有了自己的第三部手机。', '唐轩的前两部手机有着类似的命运：都是因为自己总是用手机玩游戏被爸爸一气之下摔坏了，一次摔在地板上，一次直接甩出了窗外。这次再度拥有手机，是因为唐轩期末考试成绩不错，再加上他已经向爸爸承诺：寒假里每天玩游戏时间绝不超过半个小时。', '孩子“触网”已经从“一个值得关注的社会现象”变为“普遍存在的社会现实”。', '根据第40次《中国互联网络发展状况统计报告》显示，截至2017年6月，我国青少年网民（19岁以下）近1.7亿，约占全国网民的22.5%。', '而不久前由中国青少年宫协会儿童媒介素养教育研究中心发布的《2016-2017中国儿童网络素养状况系列研究报告》则做了更为细化的研究，研究结果显示：我国儿童触网低龄化趋势明显。平均有超过29.1%的学龄前儿童（3~6岁）每天使用网络的时间在30分钟以上，此后，随着年龄的增长，网络使用时间逐渐增加，到了14岁，已有60.8%的儿童网络使用时间超过30分钟。', '00后、10后们被称为“数字原住民”已经成为事实，“熊孩子”投身网络就像鱼儿遇到水那般游刃有余，而只能称得上“网络移民”的父母遇到网络时则显得有些水土不服，当“数字原住民”和“网络移民”在家中遭遇，他们之间的不协调便演变成了“手机争夺战”“网络保卫战”，甚至还出现过“小学生玩网游和家长一言不合跳楼”的惨剧。', '随着寒假的到来，这样的战争势必更加白热化。', '面对越来越智能的手机和无孔不入的网络，孩子能否不被网游绑架？“网络移民”和“数字原住民”之间的“数字代沟”能否填平？中国青年报·中青在线记者采访了多名孩子、家长及专家，试图找到答案。', '“爸爸用过的每一部手机都有《王者荣耀》”', '“我们班44个人，大概有40个人都玩游戏。”来自广东的初一男孩光亮说，他是班上极少数不玩游戏的，“经常感觉被孤立”。', '确实，由中国青少年宫协会儿童媒介素养教育研究中心完成的《2016~2017中国儿童网络素养状况系列研究报告》显示，00后儿童是网游一代。娱乐是儿童使用网络的主要目的，3~9岁儿童周末使用电脑、手机、平板电脑等娱乐行为（玩游戏、看视频、听音乐、看漫画等）超过30分钟的比率达48.5%，10~14岁则已达57.1%。3~14岁儿童中平均有33.3%的儿童还会自主研究网络游戏攻略，在13岁就已超过半数，达到51.3%。', '“现在的孩子是先学会打游戏，后会系鞋带的。”中国青少年宫协会儿童媒介素养教育研究中心主任张海波说，现在的孩子完全可以称为“游一代”。', '手机游戏不可避免地成为孩子和家长间冲突的导火索。调查显示有53.1%的高年龄段儿童曾因为上网问题与父母争论过，到了14岁争论最多，达到65%。', '不过，就在人们痛骂手机游戏如何诱骗孩子的时候，一个孩子却这样说：“我爸爸在我们家的每个手机上都下载了《王者荣耀》，他下班回家经常打游戏很长时间，我有时候看着他玩，他玩得入迷了根本没发现。”', '无论给00后、10后贴上怎样的标签，都改变不了他们是个孩子这个事实，他们的很多行为来自上行下效。', '“我最恨的就是儿子迷恋手机游戏的状态就像着了魔。”唐轩的爸爸唐先生说，期末考试前唐轩腿受了伤在家休息，唐先生帮他制定了详细的在家复习计划，但是，“只要我没看着他，他就会把手机拿出来玩游戏，怎么说都不管用。”后来唐先生一气之下把唐轩的手机扔出了窗外。', '唐先生可以这样简单粗暴地对待唐轩，却无法用同样的方法对付唐轩的妈妈。', '唐轩的妈妈工作很辛苦，经常加班，所以，回到家后总是喜欢用玩游戏来放松。“有时候吃饭她都拿着iPad在玩。”唐先生说，唐轩玩游戏入迷就是从跟着妈妈一起“保卫萝卜”开始的。', '很多专家都明确指出，在教育孩子的过程中“身教”胜过“言传”，其实，唐轩的妈妈也知道自己的行为会影响孩子，但是，当疲惫袭来时放纵自己的渴望总会战胜做孩子榜样的要求。', '显然，面对网络成人和孩子经受着同样的考验。“作为家长来说，首先要提升自己的媒介素养，有些家长的态度是自己可以玩手机但不让孩子玩，这绝不是一个好办法。”中国青少年研究中心少年儿童研究所所长孙宏艳说，这样做只能动摇孩子对家长的信任，同时也可能逼得孩子的上网行为更加隐蔽。', '“只要拿手机就以为我是玩游戏”', '“其实，只要不玩游戏孩子其他方面都挺好的。”唐先生说。', '很多家长都跟唐先生一样，以为跟儿子的战斗就是跟游戏的战斗，只要隔离了游戏就是战胜了手机、战胜了网络。', '但是对于00后、10后这些“数字原住民”来说，网络和手机绝不等同于游戏。', '“我在《我的世界》里重建了一个故宫，”来自成都的初二年级男孩邱晨说，他跟一群“同伴”共同完成了这个宏大的工程，邱晨的工作是负责外围城墙的建造，在这个过程中了解了什么是斗拱、什么是榫卯。', '“我在手机上查各种资料、用手机听歌、用手机记录自己的感受，即使是玩游戏我们经常和世界各地的人联网打，不知不觉就练了英语。”北京的初一女生王瑶说。', '“他们一出生就面对着一个无所不在网络世界，数字化生存是他们从小就开始的生存方式。”张海波说，他们在网络上娱乐、在网络上交往、在网络上学习，还在网络上表达自己。', '对孩子们来说，“虚拟的世界其实也是一个完整的世界”。', '但是，家长们对此有着深深的误解。', '“我一拿手机他们就认为我在玩游戏，这让我非常愤懑，有时候就要吵上几句。”邱晨说，为了不让他玩游戏，父母把他的课外时间几乎都占上了，周一到周五中有4天的晚上都要上课外班，“即使这样他们仍然不满意，好不容易上完了所有的课、写完了所有的作业，我刚拿出手机放松一下，我爸就说‘你怎么一有时间就玩游戏呀，去做几篇阅读理解去’。”', '家长的这种误解不仅造成了和孩子之间的矛盾，同时也让孩子们远离父母。', '“我妈给我规定了上网时间，每天做完作业可以上网5~10分钟，其实这点时间什么也干不了，连看新闻都看不完。我干脆不当着她的面上网。”王瑶说，每次10分钟到了妈妈让停止她就停止，但是等家里人都睡下之后，她还会偷偷爬起来上网。', '有些孩子走得更远。', '不玩游戏的初一男孩光亮说，班里面玩游戏的同学下课总是聚在一起，玩得好的同学就被其他同学称为“大师”，“大师”们经常被同学请教，于是他们就把自己玩游戏的成功经验写下来，做成攻略，然后抄在一张张纸上，卖给同学。', '当孩子有意远离家长时，家长对孩子的影响就微乎其微了。光亮说班上有同学为了买游戏装备经常向同学借钱。', '互联网双刃剑的剑柄要掌握在家长手中', '就在这种“猫捉老鼠式”的互动中，孩子们把家长甩在了后面。', '“我们在研究中发现，儿童数字化成长有三个显著的关键年龄，5岁、10岁和14岁。”张海波说，他们从一个互联网的“小玩家”变成了“小用户”，最终成长为一个能很好利用网络的“小创客”。', '而在14岁这个年龄段上，孩子们在互联网世界超越了父母，成为比父母懂得多的人。', '一位多年关注儿童媒介素养的专家举了一个例子：成年人因为以往学习习惯的固化使他们在网络的使用上遭遇了瓶颈，比如同样是学习制作PPT，成年人的学习方式可能是找一本教材，而小孩子很可能在第一次做PPT的时候把页面上的每一个“菜单”都拉下来试着使用一下，“这样做完了第一次PPT之后，他们就几乎完全掌握了要领，而成人则很可能要经过很多次才能学会。”', '成年人也感到了这种差距，“我们的调查显示，63%的14岁儿童的爸妈承认孩子懂得比自己更多。”张海波说。', '互联网的“后喻时代”就在眼前。成年人的内心感到了恐慌。', '“对于网络我确实有很多不明白的地方。”王瑶的妈妈狄女士说，但是，要跟上孩子们也真的不容易，“有时候孩子说出的话我都不懂，更别说搞懂网上那些内容”。', '不少家长选择逃避，孩子和家长之间的数字鸿沟日益明显。', '其实，每一代亲子间都存在代沟，填平这个鸿沟的关键人物是父母。', '“与其把网络这把双刃剑交给孩子，不如把剑柄抓在家长自己手里。”一位一直从事青少年教育的专家说，因为家长越是远离网络，我们的孩子就越有可能被网络上那些负面的东西绑架。', '“家长要和孩子一起学习。”张海波说，把“反喻时代”变为“共喻时代”，家长要跟上科技发展的最新脚步，及时理解潮流文化。', '当然，这也不是一个家庭能解决的。“一方面国家应该净化网络空间，有良心有社会责任感的企业也要为儿童的成长提供技术上的帮助。”孙宏艳说，另外，学校也要进行相关的媒介素养教育，要把学校的信息技术课改为媒介素养课，现在的孩子在操作层面的技术比成人要走得更靠前，但是面对信息时的自我保护和鉴别能力还亟待加强，学校应该承担起这个教育任务。', '中国青年报·中青在线记者 樊未晨']</t>
+  </si>
+  <si>
+    <t>http://news.sina.com.cn/o/2018-01-29/doc-ifyqyesy3391624.shtml</t>
+  </si>
+  <si>
+    <t>2018年01月29日 05:08</t>
+  </si>
+  <si>
+    <t>稽查人员装哑巴侦查假烟作坊 头目曾施舍其食物</t>
+  </si>
+  <si>
+    <t>['原标题：重庆烟草稽查人员“伪装”去暗查，被查者：讲装，你们才专业', '春节临近，香烟俏销，蠢蠢欲动的烟贩子频频以身试法。他们以为，制假、发货、送货、匿赃及销赃，各环节都已经伪装得近似完美了，狠捞一笔是铁板钉钉的事。', '殊不知，有这样一群人，他们的坚强后盾是国家和人民，他们的职业就是跟烟贩子比谁更会装……', '本周一（22日）子夜，重庆主城一幢安置房小区居民楼，4个伪装成睡衣男的烟草稽查执法人员，突然现身假烟匿赃窝点。', '“要讲装，你们才是专业的。“这次较量的输者——涉案老板指认现场时，对执法人员说出真心话，该案涉案金额40多万元。', '擅长伪装的低头族', '最近，上游慢新闻-重庆晚报记者采取伴随式采访，见证了烟草稽查执法人员的高超伪装术。', '25日中午，江北区五里店小有名气的“黑娃夜蹄花”大排档，着便装的张强等4个烟草稽查执法人员，夹着肥而不腻的蹄花沾着红油调和，大快朵颐。他们落坐的地方，是刻意挑选、无其他顾客的三楼，诉说办案得失、聊着兄弟情。', '办案后吃江湖菜，是去年6月以来他们的不成文规矩，买单者流轮转。去年6月1日，重庆烟草稽查总队创新整合执法资源，抽调全市区县稽查精干人员，组成“百人团”稽查假烟、暗流烟等违法行为。张强等人，正是“百人团”中的精英。', '上周二（16日），张强这组执法人员，得到一条情报：有个假烟贩子是福建人，在长寿区有个家，其妻子为当地人，孩子正读幼儿园。晚饭后，此人可能会携妻儿，去当地一家商场的游乐场翻斗乐陪娃儿耍。此人长啥样？情报不明。庆幸，关于此人身高、发型及戴万国牌手表的信息准确。', '情报还说，次日晚8时，此人会在游乐场出现。张强对情报反复梳理后，让低头族马力接近对方。', '马力，相貌普通得像丢在沙滩的一粒沙，费尽眼力都找不到他。他的上衣口袋，随时都鼓胀着，里面是手机和小砖块大的超级容量充电器，低头族是给他人的强烈印象，更是他高超伪装术的障眼法。', '这次，他的任务是拍下此人相貌，助行动组进一步精准打击。', '傍晚6时许，翻斗乐外的家长休息区有一排靠墙的长椅，家长可随时起身招呼自己的孩子。马力头戴耳机，一边听有声小说，一边用余光观察来者。他无法知道这个福建人的大致年龄。符合情报描述的身高者太多，发型也可能变。搜寻戴表者是有效方法，然后，再从戴表者中找到戴万国牌手表的人。', '等待对常人来说是寂寞的，但对马力来说，他擅长的就是等待。期间，他有意无意地对着那群耍得欢的娃儿喊，“幺儿，你小心点，不要跑，隔会儿摔到，会疼。”“你小心点嘛，刚才跟你讲了，啷个就当耳边风了哟。”……', '当然，低头族更多时候是低头。他在手机上快速浏览万国牌手表的各种款式，尤其是外形。还故意打开微信，发现场拍的孩子们玩耍照片。微信允许自己给自己发照片等信息，他就这样干。此举，是他把自己装进陌生角色时，摸索出防信息泄漏的安全方法。', '晚8时，戴万国手表的男人没出现。马力发了一个流口水的微信表情给张强，它是继续等待猎物的暗号。20分钟后，他的视线在佯装看孩子时停顿了一下，只有他知道猎物现身了。', '当时，有个男的戴万国手表，40多岁，发型与情报中的大致相同。隔着围栏，他和妻子正安慰刚摔倒的儿子，他操一口夹杂福建口音的普通话。', '很巧，另一个孩子跳到围栏旁。马力立马变成戏精。', '他走过去，对孩子招手，“儿子乖，待会我给你买可乐。来来来，我给你照张相。”一连串的话说出，被唤作儿子的男孩子最初有点诧异，但买可乐的诱惑让他无意识地向围栏靠近了些，揪住此时机，马力用手机拍照。看似对着男孩拍，其实镜头对准福建男子。', '这是稽查组第一次得到了涉案人的近照。外围组员，按调整后的战术悄无声息设伏。每个人的手机里，都有了福建人的近照。', '跟车是个技术话', '夜色中，商场外人流如织，旁人觉得再正常不过了。', '距商场对面公路边，有辆轿车，车内后排的马力清楚：商场车库出口，有个提购物袋等同伴驾车出库的人；商场大门外，有个穿快递员工作服的，怀抱纸箱，等着营业员来取件；他坐的轿车旁，有个穿代驾背心的，正在揽客——他们都是他同事。', '穿代驾背心者叫罗兵，驾车技术一流，谈吐像个耍娃，跟车跟人从未失手。', '临近晚9时，福建人的车从车库开出，车内有他的妻儿。罗兵很自然地闪身进了马力坐的轿车，若即若离地咬住对方的车。', '长寿城区的主干道上，福建人开车像在发神经。车少时，要么开得很慢，要么就靠在路边过一两分钟再走；车多的时候，偶尔别车插队，甚至毫无征兆地提速驶入相向车道。此人的反常举动越多，罗兵的心就越踏实，他知道跟对了猎物。', '跟车过程中，罗兵选择性地记牢了福建人所开小车的尾灯形状、位置、亮度及车牌尾数。他凭这样的记忆方法，就算相隔10多辆车，福建人的车也无法在车流中把他甩掉。', '福建人的车在城内发了20多分钟“神经”后，驶上高速公路。这种状况，从跟车技巧来说是个非常大的挑战。理由是，目标车如果在路口或临近下道口，突然停下不走，跟踪车只能硬着头皮往前开。不这样干的话，狡猾的目标车司机会立即发现被跟踪。', '', '', '担心什么来什么！临近晏家收费站下道口，福建人的车停在分道口的安全岛上。更让人抓狂的是，他还下车往来车方向张望。罗兵的车就在500米外，正快速接近。', '他知道，不能停车，于是正常驱车前行。两车相会时，他连余光都没看福建人一眼。', '情报继续传来，福建人的目的地是主城。当晚，他会遥控指挥3箱用快递纸箱伪装的假烟，用长途汽车运到龙头寺。情报还说，福建人用这3箱货投石问路。', '凭职业经验，罗兵断定福建人会顺高速路江北收费站进主城。罗兵还揣摸，福建人虽干不法勾当，但从他陪儿子耍翻斗乐的事看，他还不至于疯狂到把同车妻儿当作逃避打击的棋子；第二天，福建人应该是送孩子到主城上幼儿园。', '张强和另一个组员，快速往龙头寺长途汽车站集结。罗兵把车停在收费广场的阴影角落，怠速不熄火。', '约20分钟，福建人的车果然驶出收费站。', '隔墙有个不睡人', '在驶往主城的路上，福建人的车没再发生突然停车等异常。', '在龙头寺长途汽车站，张强和同事按各自位置，等待3个快递纸箱在客车行李舱露面。', '作为组长的张强，眼神如炬。在部队他是侦察兵，在边境丛林里时常隐蔽10多个小时，地下挖个坑，头顶树枝匍匐不动，敏感性强和制定临场战术是他强项。', '吻合情报特征的客车进站了，旅客们各自把行李搬走。张强发现，所有行李中根本没有纸箱。他很镇定，发信息给罗兵，问：福建人到什么地方了？罗兵回话，刚上渝鲁大道。', '这下张强的心里有数了。原来，这辆客车未进站前，他便在一群三轮摩托车司机和羊儿客中晃荡。他的职责是堵住这个接货人可能逃跑的主要路口，择机跟踪，为深挖出福建人投石问路背后，那些更多的假烟打基础。他心里有数的原因，是晃荡中他听到有个三轮摩托车司机羡慕地讲，有个兄弟伙接了笔大业务，替人送3个行李箱，价格是200元。', '一个三轮摩托车司机靠近客车行李舱，拖出3个行李箱，塞进后座，一溜烟消失在夜色。', '继续跟福建人的车？还是跟三轮摩托车？在仅有这辆办案车，且情况很紧急的情况下，更考验张强的智慧。', '战机稍纵即逝，张强用微信给组员发了一个字母“B”，然后钻进一辆路边出租车。', '“B”是未到汽车站时，他和这个组员临时商定的另一个行动代号，指B计划，表示若情况突变，他会立即坐出租车跟踪，组员选择坐摩托车尾随而来，彼此交叉跟踪。坐上出租车后，他发了一个车牌号，很快，他从后视镜里看到了组员搭乘的二轮摩托车。', '三轮摩托车开得不快，停在了唐家院子轻轨站附近的那栋小区门外。3个行李箱不好拿，司机把其中1个行李箱暂放小区保安亭，拖着另2个行李箱进了一幢居民楼电梯。这让张强内心狂喜，他知道跟踪遇到了菜鸟。后来的情况表明，没这么简单。', '他戴上耳机，故意把手机捏着手里，佯装在小区跑步后回家的业主，跟司机上了电梯。电梯停下时，张强愣了，整层楼是家私人宾馆，老板把各套房隔成小间。司机对这里似乎有点熟，径直通过前台，往巷道那头的方向走去。', '“你找哪个？”他正欲尾随，被前台老板叫住。', '“有房没得？我想先看下房间。”他出于职业本能，随口回答。', '对话间，巷道那头的司机已从张强视线消失。老板找到一串房门钥匙，起身带路时，司机已出现在巷道。从哪间出来的？他已无从知晓。', '趁司机下楼取另一件行李箱时，张强开了一间临近前台、从司机返回必路过的房。他虚掩房门，打开猫眼，竖起耳朵。', '他在等待。当行李拖动声在巷道响起时，声音必然从房门外经过。是时，从猫眼能锁定是否是司机。最后，随便找个借口，或者跟本不需要任何借口，就能在老板和司机眼皮底下，找到司机去的那间房。', '巷道响起行李声后不久，张强成功了。', '司机放行李的房间，正好是张强开的房间隔墙。', '一墙之隔的那边有多少货？还有没有其他人在里面？会不会有人半夜来取走？……张强决定当个隔墙有耳的人。他搬来椅子靠着房门，竖着耳朵听了一夜。', '偶遇同事装两口子', '罗兵那边的跟踪也有实际进展，福建人进了距龙头寺不远的一个小区，其楼层和房门号被锁定。', '能快速锁定福建人住的门牌号，纯属偶然。这个小区没有地下车库，福建人的车停在露天。罗兵清楚，这种状况特别不利于隐蔽自己。马力眼尖，发现福建人下车时，衣服已经更换了。这意味着，在并不太明亮的停车场通往小区居民楼的路上，稍不注意，福建人就可能被跟掉。', '“紧盯他穿的鞋子！”罗兵也发现此状况，一点不急。跟踪人盯鞋子，是他从业10多年来跟踪人从未失手的绝招——一个人在外，衣裤或发型可能会换，但鞋子不可能提两三双。', '“我看到救星了！怎么把她忘了。”马力突然有些兴奋。原来，在两人说话之间，他看到自己单位一位女稽查队员，遂马上联想到她就是该小区业主。', '更巧的是，露天停车场相邻的小区公路边，正在转圈圈锻炼的女同事几乎同时发现了他们。', '彼此短暂的对视中，心里有了默契。“哎哟，你转累没得吗？我们该回去了哟。”罗兵迎上去，跟此时表情已经转变成情侣的女同事打招呼。', '福建人正走在离他们10多米远的地方，方向是居民楼。他的“尾巴”是鞋子。', '一不做二不休，罗兵搀起女同事的手，跟了上去。他不怕女同事的丈夫误会？原来，女同事的丈夫也是烟草专卖局的工作人员，认识罗兵。', '“就算撞到了她老公，他也晓得我们是在装，是为工作在演戏。”25日中午，罗兵跟同事一起吃江湖菜时，如是说。', '搀着女同事，罗兵在电梯里很放松，待福建人按下8楼后，他随机按下了10楼。8楼门开，福建人一家下了。就在电梯即将合拢时，他快速闪出电梯，在对方掏钥匙开门声音的指引下，他看到了对方的房间号。', '“都说三人行必有我师，你哥子是三人行偶有我妹哟。”吃饭时，张强打趣罗兵当时的机智，也赞赏女同事的默契配合。', '时间推移到本周一上午，宾馆房间是假烟中转地、福建人的主城住处是最终流入市场的匿赃窝点等信息，被彻底摸清。', '当天晚上，福建人住的这个小区楼下，多了4个遛狗、打麻将、提着夜宵回家和被老婆撵出家的男人。', '再后来，福建人家的电突然断了。他开门后，有了本文开头那幕。', '输家不装时硬碰硬', '值得一提的是，在这场“谁比谁更会装”的较量中，绝大多数涉烟违法人员都选择雪藏自己，同时也雪藏涉案香烟。一件件的长条形香烟，在他们手里，会变出圆形、三角形等千奇百怪的包装。当然，货物被拦截之际，也是涉烟违法人彻底成为输家之时。', '然而，有些嫌疑人员装到一半就露出来狰狞面目。这时，对执法人员来说是最危险的，需要硬碰硬的技巧和意志。', '2年前，南岸区鹅公岸桥头，一辆运假烟小货车始终无法摆脱张强和同事跟踪，突然毛了，把货车停在路边弃车就跑。', '张强脚力好且会格斗，一个飞扑把对方掀翻压身下，同时左手使出箍对方脖子动作。待同事赶到，把此人控制后，张强往桥中方向飞奔。他看到逃跑者正持一把四五十厘米的刀，威逼过往车辆停车。他快追到时，此人逼停一辆摩托跑了。', '他返回，同事见他衣裤和左手全是血，他才发现手指受伤，箍对方脖子时，有根四五厘米长、掉在地上的木签，从他手指盖缝插进了皮肉，深度达2个指关节……一周后，是他办婚宴的日子。他为了戴进婚戒，拨掉了指甲盖。', '去年，罗兵与同事跟踪一辆运假烟货车。在普通公路，货车被拦截受查。司机见执法人员仅2人，遂跑回驾驶室，快速抓起一把榔头。就在他反身要砸之际，罗兵借助车门牢牢地把他夹在驾驶室。同事趁势夺下榔头。', '“当时，司机反抗得凶惨了。那车货，涉案金额近百万元。”说起那一幕，罗兵坦言，好险，若不及时控制住司机，后果必是血的代价。', '佩服得五体投地', '来自重庆烟草稽查总队的消息表明，去年，重庆烟草稽查战绩斐然，“百人团”作为去年6月1日起推出的创新稽查模式，通过整合全市39个区县的执法力量，形成了在以战代训、先进经验共享模式下，重拳打击涉烟案的高压执法新常态。', '据悉，在重庆烟草的每个区县局，抽调二三人到主城总队参与执法行动，每批次人数约100人。参与者到这个团队中，感受团结、互帮且共进的战友关系，遂叫“百人团”。另外，让稽查业务“传帮带”，是“百人团”初衷，最终目标是把各区县前来轮训的执法干骨的综合业务水平，提高到靠近总队执法的理念、方法及成效。', '在这些精英中，张强等人的神通自“百人团”成立以来，是大家学习的教学样本。张强当侦查兵时也干缉私，迄今有敲墙壁和轻跺地板的习惯，这一招帮助他发现了不少藏烟暗格。每逢此时，大家称他是在装泥水匠；上周行动时，那个搭乘两轮摩托车的，叫朱乙，他的伪装术使落网人员事后都夸“装得太像”。去年夏天，广州城郊，他装哑巴，每晚仅穿一条短裤，把一身弄得脏兮兮后，到一个假烟生产的作坊周边转悠。那里有10多个马仔放哨，生产车间出入口无法知晓。他夜夜醉酒或逢人哇哇乱指。伪装一个星期后，这个窝点被掀翻，马仔完全傻眼了，曾施舍食物给他的制假和售假头目，被抓获时对他佩服得五体投地……', '一个老烟草稽查执法人员讲，涉烟案违法人员，在比谁比谁会装的这场人生游戏中，他们会输得最惨，这是毫无悬念的。他们中，轻者被纳入诚信黑名单，丢人现眼；重者被处罚金，并担刑责坐牢。', '来源：重庆晚报']</t>
+  </si>
+  <si>
+    <t>http://news.sina.com.cn/c/sd/2018-01-27/doc-ifyqyesy2625298.shtml</t>
+  </si>
+  <si>
+    <t>2018年01月27日 12:04</t>
+  </si>
+  <si>
+    <t>儿童邪典片流入中国毒害儿童 邪典文化到底是什么</t>
+  </si>
+  <si>
+    <t>['原标题：“儿童邪典片”是一种视觉变态和伤害，那邪典文化到底是什么', '近日，国内外视频网站出现了大量不良儿童视频。这些视频以卡通片、儿童剧、木偶剧、动漫为包装，对艾莎公主、米老鼠、蜘蛛侠、小猪佩奇等卡通形象进行二次加工，其中充斥着大量血腥、暴力、恐怖、色情等内容。', '国内媒体纷纷以“邪典儿童片”“儿童邪典片”来称呼这些儿童视频，但是这类儿童视频，真的属于邪典文化吗？什么才是真正的邪典文化呢？1月25日晚，澎湃新闻专访了长期致力于邪典文化开发的文化出版机构“联邦走马”创始人恶鸟。', '创立于2011年的联邦走马是一个非常有意思的文化机构，它主要由出版和装置工作室两部分构成，核心成员都是一些趣味接近的文化创意者。看过他们的出版物、文创产品、装置和展览，就会发现他们对邪典文化，也就是打破常规美学的执着。', '《联邦走马文艺日历》使得它们逐渐为公众注意，而去年出版的鲍勃·迪伦薯片诗集和刚刚推出的布劳提根胶囊诗集则是恶鸟认为的具有代表性的邪典产品。', '在恶鸟看来，所谓的“儿童邪典片”其实和邪典文化完全不挨边。“艺术品里也会用到裸体，但是和色情片里用到的裸体，肯定是不一样的意义。”', '恶鸟认为，从邪典这个名称，“我们可以看出，首先它的邪，是剑走偏锋的偏，不走主流的表现方式，而且喜欢风格极致化。这个典，还是要有艺术经典的可能性，很多当年的邪典，都成为后来的电影风格化经典作品，比如库布里克的、大卫·林奇的、昆汀的。”', '“那些儿童片，纯粹是趣味变态”', '澎湃新闻：最近被高度关注的“儿童邪典片”，你觉得属于邪典文化吗，和邪典有联系吗？', '恶鸟：其实完全不挨边，只是因为有些元素和手段来自常见的邪典电影。打个比方，艺术品里会用到裸体，但和色情片里用到的裸体，肯定是不一样的意义。邪典电影里会体现一些暴力、色情的元素，但这些是表达他背后系统和艺术的手段。', '澎湃新闻：也就是说，邪典电影里出现暴力、色情元素，并不是单纯为了呈现这些。而色情电影，色情就是本身，它是为了传播色情、调动情欲。', '恶鸟：对，这些儿童视频里，只是表现这些手段，手段成了内容本身。', '所以可以列下邪典的几个特色，甚至从名字上我们可以看出。首先它的邪，是剑走偏锋的偏，不走主流的表现方式，而且喜欢风格极致化。这个典，还是要有艺术经典的可能性，很多当年的邪典，都成为后来的电影风格化经典作品，比如库布里克的、大卫·林奇的、昆汀的。', '邪典会有一些特色，比如艺术性、风格化极致，有一圈人疯狂迷恋甚至信仰它里面的文化，有奇特的趣味，但是成系统性，不按常规类型分类，它创造分类、跨界，侦探、悬疑、怪物、惊悚都有，但它背后有其探讨的文化深层的东西，比如《发条橙》。', '澎湃新闻：把cult翻译成邪典，我个人觉得很好很准确，是邪，不是恶。这些儿童片显然是恶吧。', '恶鸟：更应该是趣味变态。趣味如果是恶、怪、坏，都还是有其秩序的，比如萨德的作品，探讨了恶，电影里也非常恶，但是他是有秩序探讨恶的问题。', '那些儿童片，我觉得恶还不准确，纯粹趣味变态。因为cult book里有一本经典的是雅歌塔·克里斯多夫的《恶童日记》。文学艺术性非常高，一种理性的“恶”，因为对于他人的感情及同理心，正是在将一切换算成疼痛程度的“理性化”过程中失落了。和我们观看的那种儿童的恶，差别巨大。', '澎湃新闻：我明白你的意思。我说这些儿童片是恶，主要是从背后制作的人，他们的目的，这种片子传播产生的效果，这些层面讲的。', '恶鸟：是的。我们观看过程中，如果没有前因后果的，情感带入以及理性过程参与，直接扑面而来的是暴力、色情、变态的视觉，那是一种视觉变态和伤害。基本色情片和所谓的“儿童邪典片”，都是这个问题。', '澎湃新闻：《恶童日记》虽然里面有残酷的青春，但是雅歌塔·克里斯多夫是从揭示、批判战争腐蚀纯真世界的角度，其实是充满了人性的。', '恶鸟：我可以举一部中国真正的儿童cult片——1963年由谢添导演的《小铃铛》。', '澎湃新闻：这是给儿童看的吗？', '恶鸟：对的。', '能归为邪典的，首先是要有艺术上的尝试', '澎湃新闻：刚刚你谈这些，里面也带到了邪典文化，包括影视、文学的一些基本的概念和核心的精神内涵。如果要你用几个关键词来描述下的话，你会选择哪几个词？', '恶鸟：想法离奇、风格怪异、感官强烈、严肃而非主流，常常伴随黑色幽默。', '澎湃新闻：其实谈到主流和非主流，有不少原本是非主流的文化，会反过来影响主流文化、主流审美、主流趣味。', '恶鸟：只有当下的非主流。主流都是从非主流里吸取新奇的想法和文化。', '澎湃新闻：比如《大话西游》，这个从风格上来说，也算是接近邪典了吧。', '恶鸟：《大话西游》算是开启国内cult电影，比较经典的一个类型。', '澎湃新闻：一开始也不被接受和叫好。', '恶鸟：区域也有些区分，中国走武侠和神话，日本走神怪，美国走黑帮和恐怖，欧洲偏情感和宗教，粗略的随便一个直觉。科幻则好多地方都有。', '澎湃新闻：这跟区域本身的文化性格和传统有关。', '恶鸟：所以邪典文化是根植于本土的一种文化，只是边缘一些的文化，或者把边缘文化用了艺术的形式来表现，则是邪典。', '澎湃新闻：边缘的往往是先锋的。', '恶鸟：一个边缘文化，一个实验先锋表现，两者是邪典的可能性，昆汀的《低俗小说》，可以算是一个非常成功的典范。还有很多，《发条橙》《搏击俱乐部》等等。', '澎湃新闻：你举的这些都成了经典。', '恶鸟：所以英国的《每日电讯报》也曾做过一个cult book的列表，发现都是经典，影响了我们对文化艺术的理解。', '澎湃新闻：那等而下之的呢，也就是说处理得不好，或者本身过度剑走偏锋，会不会也会产生一些负面影响？', '恶鸟：有粗俗的硬汉侦探小说、情色文学以及想象力不足的科幻惊悚。但这都还只是处理不好，至少有在做艺术处理。', '澎湃新闻：和色情电影、暴力电影，本身的出发点不一样？', '恶鸟：对的', '澎湃新闻：也就是说能归为邪典的，本身它主观上要具备艺术上的尝试。', '恶鸟：是的，从而产生一种艺术仪式感，让观众和读者有种追随和狂热信仰的可能，或者一种结构存在。', '我一直喜欢拿数学来打比方，如果主流做的那些努力和探索，都是正数，数学中除去0以外，还有和正数一样巨大的负数，对于数学家来说，正数和负数一样迷人。', '澎湃新闻：你是什么情境下开始接触邪典，然后创立一个致力于邪典文化的文化出版机构？', '恶鸟：联邦走马的定义，只是希望从这些边缘的角度，去挖掘和发现另一种美，就像波德莱尔的《恶之花》。它的趣味现在会称为坏的，但是它是有秩序的，并非混乱的恶。而是用了刚才探索邪典电影的说法，它是用了一些先锋实验的形式去挖掘表现。']</t>
+  </si>
+  <si>
+    <t>http://news.sina.com.cn/o/2018-01-27/doc-ifyqyqni3704922.shtml</t>
+  </si>
+  <si>
+    <t>2018年01月27日 11:35</t>
+  </si>
+  <si>
+    <t>聚焦临终关怀：没有经济收益 医院普遍缺乏动力</t>
+  </si>
+  <si>
+    <t>['原标题：临终关怀没有经济收益，医院普遍缺乏动力', '临终病床，能再多些吗？（聚焦·临终关怀追踪（下））', '临终患者需界定标准', '当生命体征不能逆转，比如癌症晚期扩散不可治愈，就应确定为临终患者。如果没界定，易造成医疗资源浪费', '家住湖南省邵东县的王秀林去年底因结肠癌去世。她从确诊为中晚期结肠癌到去世仅1年多时间。', '在确诊结肠癌前1年，王秀林先后在镇卫生院、县医院、市医院住院治疗，一直没有查出确切的病症，身体却越来越差。儿子曾俊把她接到成都某大医院检查，最终确诊为结肠癌，此间的检查、治疗等费用就花了好几万元。', '确诊后不久，王秀林便在医院接受了癌变组织切除手术，手术费用近6万元。这次手术比较成功，她的病情得到初步控制。王秀林的女儿考虑到大医院住院费用高，弟弟上班忙，将她接到湖南邵阳市某二级医院住院治疗。', '10个月后，王秀林的病情出现恶化，医生认为癌细胞已扩散，建议转大医院。曾俊将王秀林接到成都大医院，希望能控制病情。“医生表示，妈妈的癌症已是晚期，再治疗没有意义，但我不想放弃，现代医学技术这么发达，可能有奇迹。”曾俊说。', '王秀林在大医院住院近3个月，一共花费近20万元，其间还接受了第二次癌变组织切除手术，病情却继续恶化。曾俊回忆说：“妈妈接受化疗，不久头发全部掉光，肚子胀得像个篮球，四肢瘦得皮包骨头。那段时间她半夜都会喊疼。妈妈遭受了巨大的痛苦，我们做儿女的无比心疼。”', '最后，曾俊收到医院下达的王秀林病危通知。曾俊接受现实，将王秀林送到家里照顾。5天后，王秀林去世。为了给王秀林治病，家人不仅花光了所有积蓄，还借了债。', '“临终患者的界定需要标准。”中国老龄事业发展基金会北京松堂关怀医院院长李松堂分析，当生命体征不能逆转，比如癌症晚期扩散不可治愈，就应确定为临终患者。如果没界定，医生和家属坚持对患者使用昂贵的药品、进行各种检查和ICU抢救，易造成医疗资源浪费，还给家庭和社会带来很大负担。“患者如果被确诊为临终病人，就可转到临终关怀病房或者临终关怀医院，得到及时关怀，不仅花费大大减少，还能在生命最后一段时间生活得相对轻松，走得也更从容。”', '中国抗癌协会副秘书长刘端祺认为，我国每年有近300万疼痛的癌症晚期患者，都需要临终关怀，制定临终关怀服务标准非常重要。有些机构做的临终关怀服务比较低端，主要照顾患者的生活，护理员的专业水平有限，没能给患者好的医疗照护；还有些机构打着临终关怀的幌子，实际上仍给患者进行昂贵治疗和检查。“临终关怀要以关怀为主，让患者临终前舒服，治疗手段主要是给患者吃止痛药、24小时护理、输液、心灵关怀和营养支持，很少做手术。”', '临终病床需医保支持', '医保应将临终关怀的药物和服务项目纳入报销范围，已纳入的应提高报销比例。这样医院才有动力去发展临终关怀事业，家属更愿意将临终患者转到临终病房', '去年3月，北京市海淀医院设立安宁病房：一间男病房，一间女病房，一共6张床。海淀医院安宁病房主任秦苑介绍，安宁病房目前能接受的临终患者数量有限，打算今年扩建成独立的病区。“安宁病房的规模大小，取决于政府和医院的支持力度有多大。”秦苑解释说，安宁病房运营亏本，资金不足，成立后规模就很小。', '“临终关怀需要政府介入，做好引导。”秦苑介绍，去年下半年，北京市有关部门开始在不同级别的医疗机构试点，探索为临终关怀服务科学定价，制定各级医院临终关怀服务的标准。去年2月，国家卫生计生委出台了《安宁疗护中心基本标准（试行）》 和《安宁疗护中心管理规范（试行）》，但北京只有个别的临终关怀机构能达到标准。北京大学首钢医院设立了临终关怀中心，是独立的科室，规模约18张病床，但目前也是在贴本运营。', '刘端祺认为，大医院做临终关怀必须得到国家政策扶持。从成本收益看，做临终关怀没经济收益，医院普遍缺乏动力。他建议政府对设立临终关怀病房的医院按照病床数量进行补贴，同时改变收费体系，让从事临终关怀的医务工作者的劳动价值得到体现。', '“临终患者如果不做临终关怀，而做各种没必要的治疗，费用昂贵，无论是患者还是国家都难以承受。”刘端祺分析，现在临终关怀所需的药物有的不报销，有的报销比例太低，而临终患者接受昂贵的化疗等治疗，医保却给报销，相当于间接鼓励过度治疗。他建议，医保将临终关怀的药物和服务项目纳入报销，已纳入的提高报销比例。这样医院才有动力去发展临终关怀事业，患者家属更愿意将临终患者转到临终病房。', '刘端祺介绍，一些发达国家的医保政策规定得很细。以肿瘤为例，患者早期抗肿瘤治疗有效，就全力救治，医保报销，如果证实患者治疗无效，还进行抗肿瘤治疗，医保就不给报销，但患者接受临终关怀，医保都报销。', '秦苑认为，医院做好临终关怀服务，离不开专业的团队。大多数临终患者同时遭受身体上的痛苦和精神上的恐惧，单纯靠医生和护士还不够，需要一个专业的、跨学科的团队，包括医生、护士、心理师、社工、营养师、康复师、药师等。', '秦苑介绍，海淀医院的临终关怀团队主要包括医生和护士，编制内没有人文关怀人员，只能靠医生和护士自学人文关怀知识，再把人文支持带进工作中。社工和心理师都是以志愿者的形式加入团队，医院不给报酬。志愿者相对固定编制人员，不够专业、持久、稳定。医院要想做好临终关怀，一定要把专业团队建立起来。', '“临终关怀的人才供给不足。”秦苑建议，医学院在本科和研究生阶段设置临终关怀相关必修课程，有条件的可开设临终关怀专业，以培养更多的专业人才。', '为了增加临终关怀人才供给，国家卫生计生委家庭司启动临终关怀人才培训，去年12月已举办第一期培训。', '社会办医需优惠政策', '临终关怀医院有一定的公益性，政府可对其免税或者降低税率，同时按照实际床位数进行补贴。对于非营利性医院，无论公办民办，政策都应一视同仁', '北京通州的王大妈今年75岁，半年前在北京某三甲医院被诊断为乳腺癌骨转移，医生认为已无治疗意义，建议出院回家。王大妈的女儿将她接回家，并准备后事。', '王大妈的老伴在2016年12月去世，女儿在企业担任中层管理人员，工作忙，没有时间照顾她。6个月前，女儿将她送到北京松堂关怀医院。“当时害怕自己很快就要死在医院。”王大妈笑着说。', '王大妈现在病情稳定，除了双手经常疼痛，已能下床走动，生活基本能自理。记者到病房采访时，王大妈正在帮助照顾病情更重的老人吃饭。护理员说，王大妈现在恢复得不错，是个奇迹。', '“待在家里太闷。邻居没有老人，都是上班的，白天连个说话的都没有。”王大妈说，她在医院受到了很好的照顾，饮食规律，营养均衡，有小病还能得到及时治疗。', '记者谈及死亡时，王大妈并不忌讳。“我不怕死，下辈子想做个男人。”王大妈笑着说。原来，医院提供了心理治疗，心理师经常对她进行死亡教育和心理抚慰。', '“前几天，女儿来医院接我回家，我不想离开。”王大妈说，她与病友已成为好朋友，舍不得离开。医院偶尔还会举办一些娱乐活动，比如护理员和志愿者表演节目、播放电影等，自己感觉过得很快乐。', '李松堂说，政府应鼓励更多社会资本举办临终关怀医院，提供多样化、多层次的临终关怀服务。临终关怀医院有一定的公益性，政府可对其免税或者降低税率，同时按照实际床位数进行补贴。对于非营利性医院，无论公办民办，政策都应一视同仁。', '“政府应出台更多优惠政策，鼓励发展临终关怀的配套产业。”刘端祺说，一台进口洗澡机需花费100万元，但很方便，患者不需大幅动作即可完成洗澡，在洗澡的同时还能接受按摩。这种设备技术难度并不大，但我国市场上没厂商生产，只能进口。很多临终患者长时间在床上躺着，需要各种形状的特制枕头来垫身体一些关键部位。比如患者平躺着，两腿的皮肤靠在一起，很容易生褥疮，在中间垫个特制的枕头就能防止。“这类枕头由中药材、荞麦和一些特殊化学材料填充，可针对不同的病症。然而，市场上很难买到这样的枕头，很多患者用的都是家人缝制的枕头。”']</t>
+  </si>
+  <si>
+    <t>http://news.sina.com.cn/c/sd/2018-01-26/doc-ifyqwiqk8352258.shtml</t>
+  </si>
+  <si>
+    <t>2018年01月26日 07:47</t>
+  </si>
+  <si>
+    <t>山东原副省长季缃琦跌落“银座”:被举报侵吞国资</t>
+  </si>
+  <si>
+    <t>['原标题：山东原副省长季缃琦跌落“银座”，被举报侵吞国资', '一度有“‘银座’上的副省长”之称的季缃绮，一手缔造鲁商集团辉煌，但也深陷股权腾挪背后的国资流失争议。', '2018年1月4日，中央纪委监察部网站发布消息：因涉嫌严重违纪，山东省副省长季缃绮正接受组织审查。季缃绮是中共十九大后山东被查的第一位副省级官员。相比短暂的副省长从政经历，季缃绮在山东从商经历更具传奇。', '作为全国商业系统第一家转制国企鲁商集团的前任董事长，季缃绮是公认的商界能人，一手缔造鲁商集团辉煌，但也深陷股权腾挪背后的国资流失争议。', '“银座”上的副省长', '2017年12月21日，山东省召开党员领导干部会议，传达学习中央经济工作会议精神，作为副省长的季缃绮缺席会议。不少当地人士注意到这一细节，并猜测季缃绮或已落马。不久，传言成真。', '现年58岁的季缃绮是山东费县人，工作未离山东，长期任职于山东商业系统，曾任山东省商业集团有限公司（下称“鲁商集团”）总经理、董事长等职。', '2013年1月，季缃绮升任山东省副省长，成为副省级干部。相比短暂的副省长从政经历，季缃绮更被人熟知的身份是鲁商集团董事长，在鲁商集团的20余年，季缃绮是带领这家全国商业系统第一家转制国企从弱变强的重要掌舵人，曾被誉为“山东商业帝国掌门人”。', '鲁商集团官网介绍，其以营业收入1016.17亿元，位列2017年中国企业500强第152位，旗下业务涵盖现代零售、房地产、生物医药等多个领域，拥有两家上市公司，从业人员近20万人。', '1992年，全国省级商业系统改革如火如荼，山东省商业厅利用当时的契机进行彻底改制：将行政职能彻底移交，按市场规律转制企业，自主经营、自负盈亏。鲁商集团由此而来。', '“转制之后鲁商集团被完全抛向市场。”一位曾在鲁商集团工作过的人士向《财经》记者回忆，“季缃绮最早在鲁商集团下面一个超市任职，卖些酒水和日杂用品，当年他骑着三轮车到处送货，埋头苦干，挺辛苦的。”', '“很有冲劲”的季缃绮在鲁商集团很快有了崭露头角的机会。据《经济观察报》报道，组建之初的鲁商集团销售额不足5亿元，账面总资产3.5亿元，在一无资金、二无设施、三无人才、四无经验的情况下，要去承建“山东世界贸易中心”。这是一个高186米、总建筑面积16万平方米的“江北第一高楼”，时任山东世界贸易中心总经理的季缃绮引入当时国际通行的“休闲经济”理念，把项目设计成集零售、酒店、餐饮、娱乐、会展、写字间六大功能于一体的大型综合设施。这一举措备受银行追捧，项目遂得以顺利完工。', '2002年2月28日，山东省政府任命季缃绮为鲁商集团总经理，同年10月，季缃绮又被任命为鲁商集团董事长。', '接近季缃绮的人士告诉《财经》记者，季缃绮担任董事长后，立刻开始大刀阔斧改革，显示出他在经商方面的天赋。早在山东省商业厅改制为鲁商集团之初，有一个“造船工程”——起初几年，鲁商集团没有具体发展方向，只要有人提出方案，集团管理层认为可行，就拨付数十万元作为启动资金，集团下属公司最多时有近200多家。但这些下属公司并未能给集团带来实际效益。季缃绮任董事长之后，“颇具魄力地”砍掉这些下属公司。', '与此同时，2002年季缃绮任鲁商集团董事长之后，针对当时主业不突出、缺乏核心竞争力等情况，提出资源整合，进行经营战略转型。从2002年任董事长到2013年离开，季缃绮担任鲁商集团“一把手”11年，集团业务发展迅速，是中国服务业500强排行榜中的“常客”。', '有熟悉鲁商集团的人士称，季缃绮在经商方面确实很有能力，但也与鲁商集团背后的资源和背景密不可分。季当年在济南曾不择手段打压竞争企业。', '季缃绮一度有“‘银座’上的副省长”之称。一方面，“银座”是鲁商集团旗下最知名品牌；另一方面，暗指其经商期间所获的财富。', '据《财经》记者了解，季缃绮落马的传言早在其担任副省长之前即已出现，对他涉嫌贪腐的举报则要更早。', '一位曾在鲁商集团工作过的人士对《财经》记者强调，很多下属钦佩季缃绮商业上的能力，但对其被查“并不感到意外”，季掌管鲁商集团多年，“手上资金充裕，稍不留神就会犯错误”。', '侵吞国资之疑', '山东青岛鲁商凯悦大酒店，这个北方地区第一家建在海滩上的五星级酒店颇具知名度。但少为人知的是，围绕这家酒店背后的股权转让争议已持续经年。', '2006年5月2日，青岛银座地产有限公司（下称“青岛银座公司”）、上海方辰投资有限公司（下称“上海方辰公司”）以5000万元买下青岛海景国际大酒店发展有限公司（下称“海景酒店”）80%股份，其中青岛银座公司持股65%，上海方辰公司持股15%。', '工商资料显示，青岛银座公司成立于2004年8月11日，前身为青岛金雨辰置业有限公司（下称“青岛金雨辰公司”），发起股东为青岛海悦集团有限公司（持股30%）、自然人张桂云（持股30%）、徐斗（持股20%）、张卫（持股20%）。', '2006年3月，青岛金雨辰公司变更为青岛银座公司，法定代表人由范桂丽变为季缃绮，股东变为山东银座地产有限公司（下称“山东银座公司”）、北京银座合智房地产开发有限公司（下称“北京银座合智公司”）及自然人张卫。2007年8月，股东名单里没有了自然人张卫。至此，青岛银座公司成为鲁商集团下属企业。', '一年之后的2008年5月，季缃绮被选举为青岛银座公司的法定代表人与董事长。一个月后的6月3日，青岛银座公司将持有海景酒店21.12%的股权转让给上海方辰公司。这之后，海景酒店变更为青岛鲁商凯悦大酒店。', '海景酒店股东之一、季缃绮商业上曾经的合作伙伴徐乃亮指控，在海景酒店股权变动操作中，季缃绮涉嫌侵吞国有资产——先以含有国资背景的青岛银座公司购买海景酒店股权，然后再分文未收转让给季缃绮等私人持股的上海方辰公司。', '就该笔股权购置款，《财经》记者曾联系青岛银座公司求证，但该公司在工商注册中留下的地址与电话均不存在。其母公司鲁商置业股份有限公司（600223.SH）证券部有关人士对《财经》记者表示，由于季缃绮案敏感，公司不方便接受采访，同时表示不便透露青岛银座公司的联系方式，对该公司究竟在何处办公也无法作出准确答复，仅表示“应该还是在即墨”。', '上海方辰公司后变更为山东方辰公司，其工商登记电话也为空号。', '据接近徐乃亮的人士告诉《财经》记者，在收购海景酒店过程中，季缃绮一方迟迟未支付余款及利息，双方由“合作”变“反目”。', '工商资料显示，上海方辰公司成立于2005年1月28日，经营范围是实业投资、商务咨询等，股东由30多位鲁商集团高层及相关人员构成，其中季缃绮出资210万元，持股7%。2008年，上海方辰公司迁入山东，变更为山东方辰投资有限公司（下称“山东方辰公司”），但股东方基本维持不变，季缃绮仍持股7%。', '迟至2013年12月28日，季缃绮才将山东方辰公司7%的股权转让给自然人刘晓临——此时季缃绮任山东省副省长已有近一年时间。', '2009年，中共中央办公厅、国务院办公厅印发《国有企业领导人员廉洁从业若干规定》，第5条规定，国有企业领导人员应当忠实履行职责，不得从事营利性经营活动和有偿中介活动，或者在本企业的同类经营企业、关联企业和与本企业有业务关系的企业投资入股。', '此外，《关于严禁党政机关和党政干部经商、办企业的决定》明确要求，乡（含乡）以上党政机关在职干部（包括退居二线的干部），一律不得以独资或合股、兼职取酬、搭干股分红等方式经商、办企业。', '季缃绮在担任副省长将近一年时间后才将在山东方辰公司7%的股权转让出去，涉嫌违反上述规定。', '针对上述涉嫌侵吞国资的疑问，《财经》记者曾向鲁商集团提出采访要求，对方以“有关部门在办案，不便接受采访”为由婉拒，其相关下属公司也未接受采访。《财经》记者曾在1月10日向山东省国资委方面求证上述举报事项的真实性，一位工作人员表示，判断是否涉嫌侵吞国有资产，需要具体情况具体分析，不排除“合法”的可能性。该人士强调，有关部门并未宣布季缃绮涉嫌违纪的具体事项，国资部门不便接受采访。', '合作者反目', '自2009年8月，徐乃亮开始实名举报季缃绮涉嫌侵吞国有资产。', '2014年4月2日，从新西兰回国后不久的徐乃亮，从北京乘坐飞机前往青岛，在流亭国际机场，徐被山东胶州市检察院带走。2015年8月，山东胶州市法院一审判决徐乃亮因犯行贿罪与非法转让、倒卖土地使用权罪，判决有期徒刑12年。2016年6月，青岛市中级法院在二审判决中对徐乃亮案定罪部分维持原判，但减轻量刑，由一审12年有期徒刑变为8年6个月有期徒刑。', '据徐案判决书，徐乃亮案所涉行贿罪可追溯到十几年前——2001年7月，青岛雨辰房地产开发有限公司（下称“青岛雨辰公司”）成立，徐乃亮为法定代表人，后变更为范桂丽。', '法院审理查明，时任即墨开发区工委副书记、管委会副主任的邹新军在青岛雨辰公司开发项目过程中提供了帮助，此后邹新军在担任即墨沁园春宾馆总经理期间又向徐乃亮所在的另一家公司提供帮助。2005年7月，邹新军以买房的名义向徐乃亮“借款”60万元。这60万元被法院认定为徐乃亮行贿的贿款。', '徐乃亮所犯非法转让、倒卖土地使用权罪，也与青岛雨辰公司有关。根据二审判决书，2006年2月，青岛雨辰公司采取以土地投资入股的虚假方式，将27.3337万平方米土地中尚未开发的18.0766万平方米土地使用权非法转让给青岛金雨辰公司，收取土地受让款约1.17亿元。', '当时，青岛金雨辰公司法定代表人正是季缃绮。', '二审判决之后，徐乃亮提出申诉，其委托代理人北京市中银律师事务所律师胡功群提到，二审期间，他曾要求季缃绮出庭作证，“既然说徐乃亮转让土地违法，那作为买方的青岛金雨辰公司是否同样涉嫌违法，时任法定代表人季缃绮是否也要承担相应责任？但季缃绮并未出庭”。', '相关材料显示，青岛金雨辰公司是2004年6月青岛雨辰公司以土地投资设立，后变更为鲁商集团旗下的青岛银座公司，季缃绮曾担任法定代表人。', '接近徐乃亮的人士提供的一份录音记录表明，在2010年12月份，徐乃亮、季缃绮及邹新军还曾有一次面谈，就当时的一些矛盾进行商议。事后来看，并未谈拢。', '二审判决后，徐乃亮开始服刑。由于其对判决结果有异议，一直申诉。胡功群认为，徐乃亮案无论行贿罪还是非法转让、倒卖土地使用权罪均难以成立。徐乃亮方认为，徐被追刑责与其实名举报行为相关。', '“靠商吃商”', '海景酒店股权转让引发的国资流失争议，并未止于2008年，其背后的“故事”至少延续到2013年。', '2013年7月，鲁商集团一份会议纪要显示，集团同意山东世贸中心以1.31亿元收购北京东方航华房地产开发有限公司（下称“北京东方航华公司”）及自然人张卫持有的海景酒店19.66%的股权。', '这是一笔颇为蹊跷的收购。根据前述2006年海景酒店股权转让合同，在海景酒店出让80%股权过程中，北京东方航华公司已将所持海景酒店10%股权全部转让给青岛银座公司，按理该公司已不再持有海景酒店的任何股份，但上述2013年的会议纪要表明，北京东方航华公司在2013年还持有海景酒店股权。', '值得一提的是，北京东方航华公司最初法定代表人是李岩松，他是季缃绮生意上的合作伙伴，该公司此后经历过多次名称的变更，现名为北京银座锦绣投资有限公司，1月18日，《财经》记者根据该公司在工商注册中留下的电话号码拨打过去，提示为空号。其工商登记地址也未有该公司办公。', '知情人称，发生这样的情况，不排除其中有代持股份的情况。', '北京东方航华公司成立于2003年8月4日，经营范围主要为房地产开发。2008年12月，鲁商集团为第一大股东的ST万杰（现为鲁商置业600223.SH）发布公告称，进行重大资产置换及购买资产，其中，对北京东方航华公司实施资产购买。公告透露了北京东方航华公司一位名为张桂云的自然人股东，她在青岛金雨辰公司中的身份也是股东。公告信息显示：2006年10月31日，张桂云出资200万元，持有北京东方航华公司20%股权，直至2008年1月25日，张桂云仍持有北京东方航华公司20%股权。', '知情人称，张桂云系国内一位知名书画家的妻子。', '公开资料显示，2001年，该书画家即与鲁商集团有交集，当年，鲁商集团旗下索菲特银座大饭店开业两周年典礼时，其曾出席。季缃绮喜好书画。2012年，季缃绮接受《山东商报》采访时表示，创办于2003年的银座美术馆拥有藏品2000多件，包括齐白石、张大千、徐悲鸿、范曾等大家的珍贵笔墨。在评价范曾时，季缃绮称：“范曾先生是银座美术馆的老朋友，银座美术馆不仅收藏有他的许多好作品，而且在收藏过程中得到了范先生的指导。”', '《财经》记者曾通过多种途径试图联系该书画家，但其助理表示，其不接受采访。', '2015年11月3日至2016年1月3日，山东省委第三巡视组对鲁商集团进行专项巡视。巡视组在反馈意见中直指，“靠商吃商、以权谋私、违规违纪问题仍有发生。有的领导干部利用职权谋取私利；有的帮助亲戚朋友经商办企业，与集团业务搞关联交易。”', '2016年7月，季缃绮的老部下、鲁商集团时任副总经理姜升显被查。在这前后，季缃绮作为副省长主管的文化、广播电影电视等领域也屡有人员被查。包括2016年山东出版集团有限公司原党委委员、副总经理刘强被查；2017年2月，山东广播电视台原党委书记魏绍水涉嫌严重违纪被查；2017年5月，山东广播电视台党委委员、副总编辑（副厅级）王英涉嫌严重违纪被查。', '在季缃绮被宣布落马前的几个月，有关部门曾不止一次找徐乃亮了解举报事项。《财经》记者获悉，近期，有关部门也找过不少鲁商集团现任或离任高层人士谈话，了解相关情况。', '《财经》记者 鲁伟/文']</t>
+  </si>
+  <si>
+    <t>http://news.sina.com.cn/c/sd/2018-01-25/doc-ifyqyuhy6343274.shtml</t>
+  </si>
+  <si>
+    <t>2018年01月25日 14:44</t>
+  </si>
+  <si>
+    <t>11省市违规围填海项目或被拆 有地方代企业缴罚款</t>
+  </si>
+  <si>
+    <t>['原标题：11省市违规围填海项目或面临拆除', '经济参考报讯 近日，国家海洋局公布13条具体措施，将围填海问题的管控措施上升到“史上最严”。其中包括，“违法且严重破坏海洋生态环境的围海，分期分批一律拆除；通过围填海进行商业地产开发的，一律禁止”。', '十三条措施严控围填海', '具体而言，海洋局将聚焦“十个一律”“三个强化”，管控围填海项目。“十个一律”是指：违法且严重破坏海洋生态环境的围海，分期分批，一律拆除；非法设置且严重破坏海洋生态环境的排污口，分期分批一律关闭；围填海形成的、长期闲置的土地，一律依法收归国有；审批监管不作为、乱作为，一律问责；对批而未填且不符合现行用海政策的围填海项目，一律停止；通过围填海进行商业地产开发的，一律禁止；非涉及国计民生的建设项目填海，一律不批；渤海海域的围填海，一律禁止；围填海审批权，一律不得下放；年度围填海计划指标，一律不再分省下达。', '“三个强化”即坚持“谁破坏，谁修复”的原则，强化生态修复；以海岸带规划为引导，强化项目用海需求审查；加大审核督察力度，强化围填海日常监管。', '1月21日，在全国海洋工作会议上，针对2018年的工作部署，国家海洋局党组书记、局长王宏指出，将巩固围填海管控、海岸线保护、海域海岛有偿使用等改革成果，健全实施方案和配套政策制度，逐级分解管控和保护目标，结合各地实际制定地方监管措施。', '值得一提的是，在围填海管控方面，将实施最严格的系列措施。其中包括：取消区域建设用海、养殖用海规划制度，已批准的，停止执行。强化围填海年度计划指标硬约束，原则上不再审批一般性填海项目，年度计划指标主要用于保障重大建设项目、公共基础设施、公益事业和国防建设等4类用海，且不再分省下达。', '此外，实施围填海“空间”限批和“用途”限批，加强围填海的事中事后监管。严格执行建设项目用海控制标准。严格海域使用论证评审。沿海省（区、市）要依法依规、分类施策、稳妥有序地解决未确权和确权闲置等围填海历史遗留问题。', '不合理围填海现象突出', '海洋局相关负责人介绍，围填海在一定程度上缓解了沿海用地紧张，但同时，不合理的围填海和违法的围填海也给海洋生态环境、海洋开发秩序带来了一系列问题。', '2017年，国家海洋局组建国家海洋督察组，分两批对沿海11个省（区、市）开展了围填海专项督察，同步对河北、福建和广东3省开展了例行督察。从第一批督察情况来看，截至目前，辽宁、河北、江苏、福建、广西、海南等6省（区）政府已责令整改842件，立案处罚262件，罚款12.47亿元，拘留1人，约谈110人，问责22人。', '该负责人介绍说，6省（区）共性的、突出的问题主要集中在三个方面：一是部分地区脱离实际需求盲目填海，填而未用、长期空置，个别项目违规改变围填海用途，用于房地产开发，浪费海洋资源，损害生态环境。二是违法审批，监管失位。有些地方责任不落实、履职不到位问题突出；违反海洋功能区划审批项目，化整为零、分散审批等问题频发；基层执法部门对于政府主导的未批先填项目制止难、查处难、执行难普遍存在；违法填海罚款由地方财政代缴，或者先收缴再返还给违法企业，行政处罚流于形式。三是近岸海域污染防治不力，陆源入海污染源底数不清，局部海域污染依然严重；督察组排查出的各类陆源入海污染源，与沿海各省报送入海排污口数量差距巨大。', '加大海洋生态修复工作', '针对围填海活动存在的突出问题，海洋局方面表示，已经分别与辽宁、浙江和海南省政府及有关地市政府负责人进行了面对面沟通、约谈。2017年内，完成了沿海11个省区市围填海专项督察全覆盖。截至目前，第一批6省（区）的督察意见已经全部反馈完毕。海洋督察对6省（区）的工作进入整改追责阶段。', '下一步，将进一步压实地方政府在海洋生态修复工作中的主体责任，并通过奖补资金等手段方式鼓励支持地方政府开展修复工程，计划到2020年，完成不少于66个海湾的整治，完成不少于50个生态岛礁工程，修复岸线不少于2000公里，修复滨海湿地面积不少于1.8万公顷；到2025年，近岸海域水环境质量得到明显改善。', '国家海洋局副局长林山青指出，近年来，针对围填海对海洋生态环境造成的影响，中央和地方各级政府加大海域海岸带、海岛整治修复力度，着力推进“蓝色海湾”、“南红北柳”、“生态岛礁”海洋生态重大修复工程。“十二五”以来累计修复岸线260多公里，恢复修复滨海湿地面积4100多公顷，受损海洋生态系统得到初步恢复，取得了良好的社会、经济和生态效应。', '林山青说，下一步，一是要采取严厉措施，严管严控围填海；二是进一步压实地方政府在海洋生态修复工作中的主体责任，鼓励支持地方政府开展修复工程，计划到2025年，近岸海域水环境质量得到明显改善，生态功能和服务价值显著提升，生态环境整治修复能力全面提升，基本实现“水清、岸绿、滩净、湾美”的美丽海洋建设目标。']</t>
+  </si>
+  <si>
+    <t>http://news.sina.com.cn/c/sd/2018-01-25/doc-ifyqyesy1225724.shtml</t>
+  </si>
+  <si>
+    <t>2018年01月25日 10:06</t>
+  </si>
+  <si>
+    <t>一共几个猴？武汉大学长江学者“造假”纷争背后</t>
+  </si>
+  <si>
+    <t>['来源：中国新闻周刊', '原标题：“一共几个猴？”武汉大学长江学者“造假”纷争背后', '现在的关键是', '李红良对举报事项的辩解有没有原始记录', '以及能不能向公众公开', '武大教授被举报造假：', '原始记录有待公开', '本刊记者/霍思伊', '本文首发于总第839期《中国新闻周刊》', '“我们提供的是一剑封喉的证据。”', '1月21日，霍文哲在接受《中国新闻周刊》采访时，谈到自己举报李红良论文造假提供的证据时，说了上面一句话。', '1月18日，一篇《“千人计划”专家举报武大“长江学者”论文涉嫌造假》的调查报道在微信公众号“知识分子”上首发，很快引发舆论热议。', '此时，霍文哲的身份尚未被公开，他在文中化名为H，举报武汉大学教授李红良的两篇论文涉嫌造假。', '这两篇文章分别为《靶向CFLAR改善小鼠和非人灵长类动物的非酒精性脂肪肝炎》（简称C文），和《多泡体调控蛋白Tmbim1通过靶向Tlr4的溶酶体降解改善小鼠和猴子的非酒精性脂肪肝病》（简称T文），均发表在《自然·医学》上。并且，经《知识分子》调查发现，两文应属于同期研究，其中的猴子实验共用了同一组实验对照猴。', 'C文发表后，武汉大学基础医学院在官网上称，该论文是武汉大学首次以独立第一作者单位和通讯作者单位在《自然·医学》发文。', '事实上，仅在2017年一年，李红良就在《自然·医学》上先后发表了4篇文章。', '周期争议', '1月18日晚22时，武汉大学官方微博发布该校学术委员会声明，称学术委员会于2017年4月28日第一次收到相关匿名举报，并于2017年12月18日责成武汉大学人民医院，组织包括三名校外院士在内的五名专家进行鉴定。专家组认为，李红良被举报的猴子实验相关数据不曾伪造，并表示将再次组织专家进行鉴定和评判。', '1月18日、19日两天中，武大官微连续发布三篇李红良团队针对举报的声明，对霍文哲质疑的实验周期和实验用猴数量做出了解释。', '1月19日，武大新闻发言人李霄鹍在接受《中国科学报》采访时，首次披露此前一直化名H的举报人，是武汉大学“千人计划”学者霍文哲。', '霍文哲现为武汉大学基础医学院教授，国家“千人计划”入选者、美国天普大学医学院病理系终身正教授，解剖及细胞生物学系正教授。', '而据武汉大学官网，李红良现任武大基础医学院院长，武汉大学动物实验中心主任，兼任武汉大学模式动物研究所所长，武汉大学心血管病研究所副所长，中南医院医学科学研究中心主任。', '作为国家杰出青年基金获得者，教育部“长江学者”特聘教授，科技部中青年科技创新领军人才和国家“万人计划”领军人才，近5年中，李红良已发表SCI论文120余篇。', '2017年，他连续第三年入选爱思唯尔（Elsevier）发布的中国高被引学者榜单，也是武汉大学唯一一位入选医学领域榜单的教授。', '李霄鹍还介绍，李红良2008年入职武汉大学以后，用十年时间建立起150余人的科研团队，包括5名教授，23名助理研究员及博士后研究人员，41名研究生，88名实验技术人员。', '2010年，武汉大学通过公开招聘方式，聘任霍文哲为武汉大学A3动物实验中心主任，于2014年8月31日“合同期限届满自行终止”。2015年，学校再次以公开招聘方式产生A3动物实验室主任，李红良在与包括霍文哲在内的3名学者竞争中胜出，任该实验室主任至今。', '霍文哲质疑的，是李红良上述两文中的实验周期和实验用猴数量，与论文描述不符，涉嫌伪造。', '根据李红良论文的描述，实验最关键的是起始周（0周）的注射环节。李红良团队需要打开猴子腹腔，找到肝脏门静脉并注射AAV8（血清型编号为8的腺病毒）。在注射完毕之后的数据收集期内，每天两次给注射了病毒的猴子喂食高脂肪食物，让其发展至严重的非酒精性脂肪肝炎（NASH），以检验引入AAV8-CFLAR（S1）/AAV8-TMBIM1是否能阻断非酒精性脂肪肝炎的恶化，以及改善严重的病情。', '霍文哲据《实验猴个体档案》发现，李红良团队从广西防城港常春生物技术有限公司购买了50只猴子，猴子到达武汉大学模式动物研究所的时间，为2016年3月2日。', '经过2周适应期后，据霍提供的《肝脏代谢猴模型的建立与应用实验时间表》（简称“实验时间表”），3月15日、16日，李红良团队对50只猴子进行各项生理指标的检测，并于5月6日实施了AAV8周围静脉注射。', '但如果以5月6日为0周算起，直至C文和T文的投稿日2016年9月9日和10月2日，两个猴子实验的周期至多分别为18周和不足22周的时间，远远不足论文中描述的30周和32周。', '李团队随后回应称，0周应为2016年3月17日至26日，而不是霍文哲所推测的5月6日。', '根据他们制作的《实验关键节点流程图》，从猴子度过适应期后的第二天算起，在3月17日至26日的为期10天中，李团队进行了50只猴子的肝组织开腹活检，并进行了32只猴子的肝脏门静脉注射AAV8病毒注射。其中的12只注射了AAV8-GFP，10只注射了AAV8-CFLAR（S1），还有10只注射了AAV8-TMBIM1。', '4月18日至21日，为了检测表达效率，进行了50只猴子的肝组织穿刺活检。', '为保证AAV8所携带基因的稳定表达，李团队在第一次肝门静脉注射病毒的7周后，也就是霍提到的5月6日，对50只猴子由四肢外周静脉进行第二次AAV8病毒注射。', '李红良表示，举报人正是从5月6日参与实验的一名实验员处，获知了第二次注射的时间，因而假定这一时间是实验开始的时间。他认为，这只是建立在 “零星实验记录”基础之上的“推测”。', '李红良同时指出，数据收集的实验周期在论文的初稿和终稿之间有过变动。他出具的论文初稿官方系统生成截图显示，第一次投稿所用的数据为20周。', '但不久后，他收到《自然·医学》审稿人的意见，对方建议李团队更新更远期治疗效果的数据，于是李团队应审稿人和杂志社的要求，对相应数据进行更新，从20周增至30周（C文）和32周（T文）。', '李团队称，上述原始记录清晰可查，与论文所述完全符合，并附审稿人建议截图和回修投稿截图。', '具体时间节点为，从2017年3月17日第一次注射开始，到8月10日为评价治疗效果而进行的肝脏穿刺活检，共计20周。', '9月9日（C文）和10月2日（T文）投出两篇文章时，使用了这一时段的实验数据。', '论文回修后数据延长收集到2016年10月18日，此时距3月17日正好30周，为C文回修稿所用数据。10月29日，则为T文数据收集的截止点，共计32周。', '但霍文哲对此表示不信服。他告诉《中国新闻周刊》，在他获得的一份实验设计总表中，并没有表明3月17日至26日这一注射环节，此前的《实验时间表》中也没有提及。', '而其他实验环节，比如3月16日的体检，5月6日的外周静脉注射，在多份实验记录中都有备案，可以相互印证。', '另外一个疑点是《实验时间表》中所列的8月份注射手术。据《实验时间表》，李团队于8月3日、4日、10日和11日分别给AAV-REC组40号猴、AAV-GFP组8号猴、AAV-GFP组23号猴和AAV-Segement组的50号猴，进行了“腹腔注射，肝脏取样”，每天一只。', '霍文哲提供了详细的《猴实验手术纪录》以证明其真实性。名为“猴子（雄性）代谢紊乱模型”的记录显示，李团队于8月1、2日两天为四只猴子预注射，即通过肝脏门静脉注射生理盐水，手术地点为武汉大学动物实验中心实验楼一楼104室，主刀人为方静，田松、朱祥玉、王勇为助手。', '实验设计总表中也列出了这一环节。', '李红良团队的王勇此前也向“知识分子”回忆，有两次猴子注射实验，印象第一次“是在5月份”，是“通过外周血管打进去”。第二次则是开腹，做肝脏的门静脉注射，由他负责麻醉。', '霍文哲推测，王勇所述的5月份之后的“第二次门静脉注射”，应该就是指8月份这次注射。', '但在李所出具的《实验关键时间节点》中，完全没有提及这四只猴的注射手术，只是注明于8月9日至10日，进行了20周截止点的50只猴肝脏穿刺活检，以检测病毒表达效率。', '霍文哲认为，李红良是故意在声明中避开了这个疑点，因为他无法回答：如果关键时间节点上的每个步骤最终都顺利实施，为何还要单独进行这四只猴的门静脉注射？“完全没有必要。”', '他据此推测，“李的实验人员只是在文章投出去前1个月（2016年8月），象征性地做了4只猴的手术肝腹腔腺病毒（AAV）注射。”这远远小于论文中描述的26只（其中C文8只，T文8只，两文共用的对照组猴子10只）实验用猴。', '延期质疑', '在1月20日发表于“知识分子”上的《霍文哲实名再质疑》中，霍指出，即便是李红良按照审稿人的建议又加了10周或12周的实验周期，但“这也不符合科学实验设计的常识，更不符合实验动物伦理的要求，尤其是大动物（猴子）实验”。', '根据实验动物伦理的要求，所有的动物实验项目必须经过动物实验使用伦理委员会批准。被批准的项目要严格按照申请的内容执行（包括动物实验周期），实验结束后，动物不能被继续使用或再用于其他实验，除非重新提交动物实验申请，获伦理委员会审批通过。', '一位不愿具名的动物实验伦理专家告诉《中国新闻周刊》，国内大多数实验动物中心都设有伦理委员会，主要目的是为了确保在实现动物的科研价值时，可以最大程度地减少伤害，因此任何可能对动物造成伤害的实验行为，都必须要详尽地列入报告中，经伦理委员会的专家组审核通过后方可进行实验。并且一经批准，不得随意更改。', '在李红良的实验中，包括肝脏门静脉注射、外周静脉注射以及肝脏穿刺活检等行为，由于都会造成对动物的伤害，所以必须要详尽地列入申请报告中。', '因此，如果李团队在3月17日至26日这10天内进行了首次门静脉注射，应该写入相应的伦理文件中。', '上述动物试验伦理专家还强调，延长周期属于重大变更，必须上报伦理委员会进行二次申请。但由于此前对相应的实验细节已经有过申报，如果除了周期，其他都不变的情况下，可以采取简化程序。“如果速度快的话，当天就可以。”', '他也证实，由于动物实验的特殊性，按照规定，申报的实验周期结束后，动物不得被继续使用，有时会对其实施安乐死。', '但李团队在声明中写道，截至2016年8月10日，20周实验结束后，实验猴并未被处死，研究人员继续对实验猴予以高脂饮食，以期研究更远期的治疗效果。', '显然，从20周实验完结日，到审稿人给出意见，然后李红良进行二次伦理文件申请之间，仍然存在一个时间差。理论上，李团队由于无法预期实验周期的延长，至少在8月10日至审稿人回修意见到达日之间，不应该继续对猴子喂食。', '因此，霍文哲质疑，究竟是因为审稿人意见，还是李自己最初设计的实验周期就是30周，现有的声明给出的答案依然暧昧不清。', '另据李提供的审稿人评语：“喂高脂20周的时间太短，非酒精性肝脂肪病变还未发生。”霍提出疑问：“为什么在猴肝脏还没出现NASH的第20周就匆忙投稿了？”', '他表示，李红良需要提供有审稿人回修意见到达具体日期的截图，以证明审稿人意见是在10月18日之前提出。“10月18日是30周的时间节点，如果是这之后收到审稿人意见，30周的说法就站不住脚了。”', '论文瑕疵', '在实验设计方面，霍文哲还指出，由于初始时给50只猴手术的周期长达10天，会导致整个实验周期存在前后不一致和实验条件不等同的问题。', '例如，3月17日注射的猴子，很难和3月26日注射的猴子放在同等条件下进行比较观察。“相差几个小时，都会产生误差，更别提是10天。”', '参与门静脉注射的主刀方静接受《中国科学报》采访时说，手术台上共有主刀、医助和器械助手三个人，还有2名工作人员在手术室巡回做一些协助工作。“10天时间里，我们每天从8点左右开始工作到晚上五六点，有时晚些到七八点，中间有短暂的午餐时间。”“每只猴的手术大概需要40~50分钟，快的话30分钟。”', '但方静的第一助手田松接受“知识分子”采访时曾说：“一只猴子大概1~2个小时。”', '霍文哲表示，田松的说法更加准确。因为一般的食蟹猴平均体重约三四公斤，但按照C文所述，课题组选取的实验对象是已经有中度脂肪肝变性的猴子，体重较普通猴子翻倍，能达到8~9公斤。猴子的肥胖增加了手术的难度，对主刀而言，要在肝脏丰富的组织中精准地找到肝脏门静脉，是一个不小的挑战。', '对有经验的手术者而言，最快也要一个小时。', '在霍此前提供的“猴子（雄性）代谢紊乱模型”记录中，李团队分别于8月3日、4日、10日和11日给四只猴子进行门静脉注射，麻醉时间达3个小时。', '他指出，如果手术时间只需要40~50分钟的话，只需要麻醉一个小时就可以了，没必要长达3个小时，这从侧面佐证了田松的说法。', '田松在接受“知识分子”采访时还曾说：“大部分是门静脉注射的，有少数非常肥胖的猴子，手术方式很麻烦”，“是肠系膜注射的”。', '因此霍文哲强调，由李团队自制的《实验关键节点流程图》，无法证明他的任何实验，应该提供带有实验人员签名的原始实验记录，包括给每只猴子手术的具体日期以及手术细节，如：是否找到了猴子的肝门静脉？哪几只猴是肠系膜注射的？“这些注射部位的变化没有在文章里体现出来。”', '此外，5月6日外周静脉注射这个细节，李红良也没有写入C文和T文的初稿中。', '据方静介绍，5月6日第二次注射的目的，是确保病毒携带的基因在猴子肝脏中有稳定表达，起增强、维持作用，“如果再对猴子进行开腹手术，可能会发生应激打击，影响实验结果。”', '霍文哲质疑，既然这次注射如此重要，为何只在2017年10月6日的“更正”中简单提及。“更正”中写道：“在初稿中，由于作者的疏忽，忘记在文中的‘实验方法’中加入第二次外周静脉注射。”', '霍文哲从时间上推测，可能是因为2017年4月李得知自己被举报，于是临时给《自然·医学》杂志写信，要求增补5月6日的记录。但目前没有证据证明他的这一推测。', '《中国新闻周刊》联系李红良，得到的答复是：“李红良团队希望以学术方式解决学术争议，随时且仅向武汉大学学术委员会及其组成的专家小组提供完整、原始的实验记录并接受其调查。在武汉大学学术委员会作出最终结论之前，我们谢绝一切新闻媒体采访。”', '已有信息表明，李红良在2017年4月和7月均曾受到举报。武汉大学学术委员会在官方声明中称，曾于2017年4月28日第一次收到对李红良的匿名举报，随即按《武汉大学学术不端行为查处细则》启动内部调查。', '2017年12月，学术委员会组织专家进行鉴定，鉴定结果是不存在数据伪造。', '当《中国新闻周刊》询问武汉大学宣传部部长徐业勤，是否可以提供相应证据以支撑第一次调查的结论，徐业勤表示，由于学校已经开始重新调查，在进一步深入调查之后，“会一起有一个结论，交待更清晰。”', '霍文哲表示，此前他从相关实验人员处了解到，第一次调查时，学校并没有对他们进行约谈，询问相关细节。', '为了保证调查的公正性和客观性，他建议校方应该委托第三方机构进行调查，而不仅仅是校内自查。', '针对本次举报，前述不具名专家指出，除非有确凿的证据表明，李红良篡改或伪造了实验记录，否则很难对其定性。即便在实验周期或数量上存在问题，也只能称其为“管理上的瑕疵”。“实验记录不完善可能是他手下学生的问题，像李红良这种‘大老板’一般很少亲自参与实验，而是把控大的方向。”', '武汉大学新闻中心1月22日在回复《中国新闻周刊》的采访请求时称，希望新闻媒体配合创造相对平稳的舆论环境，让霍文哲教授、李红良教授以学术方式解决学术争议，共同接受武汉大学学术委员会及其组成的专家小组的独立调查，在武汉大学学术委员会作出最终结论之前，谢绝一切新闻媒体采访。', '据了解，最新的调查结果“应该能在这个学期结束之前出来”。']</t>
+  </si>
+  <si>
+    <t>http://news.sina.com.cn/c/sd/2018-01-25/doc-ifyqyuhy6201774.shtml</t>
+  </si>
+  <si>
+    <t>2018年01月25日 07:38</t>
+  </si>
+  <si>
+    <t>儿童邪典视频如何通过网站审核:或因考核压力惹祸</t>
+  </si>
+  <si>
+    <t>['原标题：“儿童邪典视频”调查：视频审核主要靠人又是KPI惹祸？', '大量披着儿童喜爱的动画角色而制作的充斥着暴力、色情、低级笑料的视频内容去年出现在国外的视频网站You\xa0Tube上。由于《冰雪奇缘》里的艾莎公主是这类视频最常利用的角色，因此这个事件被称为“爱莎门”。近日，有家长在微博上反映，这些在被境外封杀的视频悄悄流入国内市场，优酷、爱奇艺、腾讯、搜狐等视频网站全部中招。南都记者调查获悉，虽然目前国内各大主流视频网站均进行了紧急处理。但这绝不是一次突击清理这么简单。视频网站对UGC（用户原创内容）是如何进行审核和监管的？这类视频如何堂而皇之通过审核？艾媒咨询集团CEO张毅接受南都记者采访时表示，UGC内容是目前的大趋势，对这种模式的监管和审核应该越来越受到重视。', '审核主要依靠人工？', '上周，微博网友“肉呆大魔王”在微博上呼吁网友关注并举报问题视频。事件引起关注之后，1月20日，腾讯、爱奇艺、优酷等发布了紧急声明，纷纷表示采取措施。主要通过封停账号、屏蔽搜索关键词、下架视频等方式进行处理。昨日上午，南都记者在几个主流视频网站搜索发现，绝大部分关键词搜索已经被屏蔽。', '但南都记者注意到，微博网友“sihan涵晗”在优酷的声明微博下评论称：有人曝光就查一下，没人曝光就随便发视频……该网友的评论实则指出了这次事件背后的根本问题--视频网站对UGC内容审查机制是否存在漏洞？大规模的问题视频是如何通过了审核的？', '南都记者了解到，目前视频网站审核UGC内容主要依靠关键字排查、视频抽帧、人工审核等手段。有知情人士向南都记者表示，视频审核一部分依靠机器筛查，主要借助视频中的关键字+图像识别。机器审核视频是基于深度学习图像识别云，实际也是将视频截图，由机器审核每一张截图的安全性。不过具体是3秒截一张还是5秒截一张，松紧度由视频网站自己控制。机器审核视频原理是先建模，然后导入海量的数据建库，让多个机器同时进行深度样本学习，再标注无法通过的图像种类，进而把这些样本揉碎、旋转、添加“噪音”，提高机器识别能力。对于不能通过的视频，机器审核会给出两类结果：确定不能通过的，这类准确率几乎99.5%以上：仅作参考的，准确率在95%到97%，这就意味着，该视频需要再次进行人工审核。机器基本能筛过99%的视频，只有1%需要再次动用人工。', '“在实际操作中，上面所提到的流程是理想状态，更多的上传视频其实还是主要依靠人工审核，机器只是辅助。”一家视频网站的相关负责人向南都透露，比如机器检测到流量的异动，点击、评论等数据短期内暴涨，借助这个辅助手段，审核人员会对视频二次审核，如果涉黄涉暴就会处理；如果视频即便涉黄涉暴，但数据没有飙升，也很难发现。“视频总量太大，人工只能抽检，没办法普查，发现问题其实都是概率事件。”', 'KPI考核的压力？', '这是否意味着，针对上传视频的监管，目前并没有什么好办法，主要大量依赖人力审核？对于上述疑问，目前，爱奇艺、优酷土豆、搜狐等都不愿意对审核和监管的细节详细解读。', '不过，很多网友都曾抱怨过，上传视频网上审核时间偏长。南都记者此前试验也发现，在白天上班时间，上传一个5分钟的视频，大约半个小时到一个小时就能审核通过。但在深夜，同样上传一段5分钟的视频，等待审核通过的时间需要3个小时或者更长。对此，业内人士表示，晚上审核的人少，相对会慢一些。', '在上述视频问题出现后，有网友建议，视频网站应加强算法等，采用更好的技术手段来解决这一问题。但有网友指出，有的上传视频其实反映的价值观非常隐晦，目前的AI技术根本不能够筛查出来。比如，表面上是一个教小孩子DIY橡皮泥的视频，中间有一小段出现了明显类似内脏的东西，橡皮泥的颜色也类似器官。昨日中午，南都记者在优酷还看到了比这位网友描述的更加隐晦的包含暴力暗示的视频内容。一段表面来看是视频制作者带着芭比娃娃和小猪佩奇一家玩过家家游戏，但中间会出现小猪的头被“不经意”扭断的画面。', '一位曾在某内容平台负责视频内容审核的业内人士向南都记者透露，“如果平台这类视频上线量不够，用户留存率不高的，人工审核时就会有意识地去增多这些问题视频。”比如，今天上线的视频总量有5000个，按照KPI的考核情况，为了炒热度和点击量，就可能会选择尺度比较大、有冲击性的视频上线。这个比例每天都在调整，至于有冲击性的内容的尺度把握，“要看负责审核的人，很多人都不会看具体内容，只是看视频的栏标签，这些栏目标签都是人添加的。色情、恶搞的点击率明显比优质视频的高多了。”该人士表示，虽然审核人员不与视频热度KPI考核直接挂钩，但KPI考核还是会影响选择上线视频的倾向性。', '至于机器审核的截图和动图，“这些都是可以人工操作的，根据需求规避。”上述人士表示，这其实都是行业的潜规则。', '用实名制认证防范？', '针对这一次采取“封停账号、屏蔽搜索关键词、下架视频等方式”净化问题视频之后，视频网站如何预防此类内容和事件的再次出现？目前视频网站的审查和监管还存在哪些短板，未来将如何提高把关水平？', '相对于目前的审查手段，业内认为，实名制的推进才能减少用户权益受损。2017年6月1日正式施行的《中华人民共和国网络安全法》要求，“网络运营者为用户提供信息发布、即时通讯等服务，在与用户签订协议或者确认提供服务时，应当要求用户提供真实的身份信息。用户不提供真实身份信息的，网络运营者不得为其提供相关服务。”去年7月，bilibili（B站）已公告开始采用实名制，UP主（视频创作者或上传者）上传视频内容（包括新增、编辑、换源等）需通过实名验证。昨日，优酷土豆方面向南都表示，目前还没有接到消息要实名制。搜狐、爱奇艺对此没有回应。', '作者：莫柳 陈琳玫', '来源：南方都市报', '点击进入专题']</t>
+  </si>
+  <si>
+    <t>http://news.sina.com.cn/c/sd/2018-01-23/doc-ifyqwiqi5646294.shtml</t>
+  </si>
+  <si>
+    <t>2018年01月23日 07:41</t>
+  </si>
+  <si>
+    <t>在线教育打开你知识空间:1.44亿用户 1941亿市场</t>
+  </si>
+  <si>
+    <t>['原标题：在线教育，打开你的知识空间（大数据观察·数字经济）', '习近平总书记强调，加快建设数字中国，更好服务我国经济社会发展和人民生活改善。当前，网络信息技术日新月异，以数字化、网络化、智能化为特征的信息化浪潮蓬勃兴起。以信息技术为核心的数字经济正以前所未有的态势改变着中国，为高质量发展输送了新动能、拓展了新空间，为满足人们美好生活的需要提供了新选择、带来了新便利。', '本栏目今起推出数字经济系列报道，聚焦经济发展新常态下动力转换带来的新趋势，感受创新发展给百姓生活带来的新气象。', '——编\xa0\xa0者', '3200余门', '我国慕课数量位居世界第一', '变革教学模式：让“随时随地学习”多一条门路', '河南省郑州市市民万晓云平时在金融行业工作，内心却是个传统文化迷。前些日子，她对中国古代服饰产生了浓厚兴趣，很想系统地学习一下。于是万晓云想到了“中国大学慕课”平台。', '上海工程技术大学的《中国历代服饰赏析》让万晓云眼前一亮。每节课十几分钟的视频，支持在线讨论，之后完成课后小测验……15周下来，万晓云不仅达成了了解中国古代服饰的愿望，还拿到了课程的结业证书。', '“这样的学习方式，对于我这种上班族来说，非常实用。”万晓云说：“让我跑到学校里去蹭课，我没时间，也懒得去。让我看大部头的专著，又很难集中精力。重点突出而又简单明了的视频教学，我很喜欢。”', '教育部日前公布的统计数据显示，中国的慕课建设与应用呈现爆发式增长，多所高水平大学陆续在国际著名课程平台开课，有关高校和机构自主建成10余个国内慕课平台，460余所高校建设的3200余门慕课上线课程平台，5500万人次的高校学生和社会学习者选学课程，我国慕课数量已位居世界第一。', '除了中国大学慕课、网易公开课等免费通识类教育课程之外，越来越多专业细分的教育平台也涌现出来。有专注于从幼儿园到高中阶段的“K12”基础教育，如哒哒英语、学而思网校等；有应对雅思、托福、公务员等专门考试的线上培训，如中公教育、启德考培等；还有闯关做题等工具类的应用，比如猿题库、问他作业等。', '互联网给教育带来了显著的变化，这种变化不仅表现在时间空间上的突破，更体现在教育的教、学、评、测等多个环节。在互联网模式下，学习不再只是呈现、接收、反馈的过程，而是一种全新的认知过程。课程的建设也不再只是师生传授，需要更加关注进度设计、用户感受、社会参与等。', '“在线教育是互联网革新课程的重要形式，但浅层学习、保持率低等也是常见问题。”北京师范大学教授余胜泉说：“互联网课程更需要关注学习认知和学习活动的设计，在这一方面，或许大数据的深度挖掘将激发颠覆性变革。比如，当课程后台大数据显示，在课程进行到某一时段时，有超过一半的学员做出了暂停或回放的动作，那么课程开发人员就可以了解课程的难点所在，并有针对性地优化教学内容。”', '89.8%', '全国中小学网络接入占比', '缩小教育差距：为贫困地区孩子开一扇窗户', '海南联通跨海光纤专线远程在线教育系统的开通，把祖国南端的三沙市永兴学校与海口市滨海第九小学紧密联系在了一起。虽然相隔着几百公里的距离，但“同步课堂”却能让视频两端的孩子们同唱一首歌、同跳一支舞。目前，两所学校已经开设数学、语文绘本、国学诵读、音乐四门课的远程课堂，两地的孩子也成了相互熟悉的好朋友。', '前不久，在北京鲁迅故居的小四合院内，著名儿童文学家、国际安徒生奖获得者曹文轩通过远程直播平台为全国平安希望小学的学生们带来了一堂形式新颖、内涵丰厚的经典文学课。上百所农村学校的孩子们在经典文学作品中感受到“故乡”的文化与魅力。', '将优质的教育资源与边远贫困地区的距离从万水千山缩短到一屏之隔，在线教育开启了教育公平的新模式。数据显示，截至2017年第三季度末，全国中小学中，89.8%的学校实现了网络接入，85.1%的学校已拥有多媒体教室。“互联网搭建起一条信息的通道，大大提升了贫困地区的教育教学水平，为那里的孩子打开了一扇窗。”正如中国教育学会会长钟秉林所言，互联网已成为有助于实现教育公平、促进优质教育均衡发展的重要力量。', '“对于一些中西部农村地区来说，硬件条件的改善有目共睹，但是在软件维护、互动方式、教师应用等配套投入上仍需要下一番功夫。”国家教育咨询委员会秘书长张力认为，政府应持续增大财政投入力度，并且鼓励地区之间的对口支援，同时倡导企业和公众开展慈善帮扶，共同帮助贫困地区搭建起真正好用、真正实用的网络教育平台。', '1941亿元', '2017年市场规模预估', '完善行业监管：为标准认证体系拉一条准绳', '“雅思口语30天速成，外教一对一辅导。”看到网上的雅思辅导班价格实惠、时间自由，大学生小陈果断报了名。然而，随着课程的深入，小陈发现教育平台所说的“根据学员的要求安排上课时间”“定期测试”等大多都是“空头支票”，“英语金牌讲师”“专业八级外教名师”等也只是噱头。', '“在线提交的问题，平均一周左右才有答复，实在太慢了。”北京市海淀区的王女士给儿子在网上报了一个“数学尖子班”课程，本想及时得到名师点拨，没想到网校承诺的“答疑解惑”，不是慢吞吞的简单回复，就是石沉大海杳无音信。', '为培养孩子对英语的兴趣，江苏南京的黄女士在一家英语早教平台给儿子开通了在线课程。“刚开始孩子兴趣很大，可是几次课后，换了一名外教老师。新的老师跟孩子互动很少，儿子便不肯再学了。”黄女士说：“我想直接退费，可平台的工作人员总是百般阻拦，非让我再试试其他课程。”', '……', '当教育的“慢”碰上互联网的“快”，在线教育在发展的过程中难免遇到种种问题。', '“在线教育还算是个新生事物，几乎没有准入门槛，相关的监管体系也尚未建立起来。必须加强法律监管、强化企业责任，让在线教育真正转向育人，优质的教育资源才能惠及更多人。”北京大学教育学院副教授蒋承说：“而且市场上比较火的在线教育产品往往是针对应试教育的，这其实与网络教育的素质全面、优质均衡等目标是背离的。”', '艾瑞咨询研究数据显示，2017年，中国在线教育市场规模预计达到1941亿元，同比增长22.9%。未来几年，中国在线教育的市场规模也将继续保持稳健的增长势头。', '“目前社会培训机构教师、独立教师这类人员的在线授课，属于市场行为，其管理主要通过在线平台的监管和消费者的选择，因此授课人员常常鱼龙混杂。”21世纪教育研究院副院长熊丙奇表示，必须加快建立起互联网教师的资格认证和质量认证体系，这是在线教育平台良性发展所需的必要环节。']</t>
+  </si>
+  <si>
+    <t>http://news.sina.com.cn/c/2018-01-23/doc-ifyquixe6490193.shtml</t>
+  </si>
+  <si>
+    <t>2018年01月23日 03:03</t>
+  </si>
+  <si>
+    <t>最穷上市公司未交60元年费 官网域名被人抢注转卖</t>
+  </si>
+  <si>
+    <t>['原标题：60元年费没交，“最穷上市公司”域名被人抢注，9.9万元转卖', '1月15日，每日经济新闻（微信号：nbdnews）独家报道了*ST华泽（000693，SZ）官网因欠费遭暂停一事（《最穷上市公司！552位员工，账上只剩178元，网站欠费被关停》）。', '上述事件目前又有新进展，*ST华泽的官网域名正被转卖。1月21日，该网站域名现持有人向记者表示，因上市公司未续费，目前已被这名现持有人重新注册，正以9.9万元的价格转卖。', '知名品牌网站域名被二次抢注，继而转卖获利的情形并不少见。网络上存在不少专业注册以及囤积域名的人士，并希望借此获利。某业内人士便介绍，有的网站域名2014年成交价为80万元，2017年便已涨至500万元。', '60元年费未交被他人“捡漏”', '1月21日，每日经济新闻（微信号：nbdnews）记者访问*ST华泽官网“www.hznc.com.cn”发现，该域名正在转让出售。出售发布时间为2018年1月18日，交易类型为一口价，价格为9.9万元，域名过期时间为2020年3月4日。', '记者根据网页中所留联系方式联系上域名所有者，对方自称是该域名目前的持有者，并表示原持有人到期未续费，被自己捡漏了。他还称，该域名续费1年只需要60元。', '*ST华泽为何未能对网站域名续费？该人士认为，都有大意的时候，联想当年的域名事件也是因为大意。', '*ST华泽网站欠费早在1月中旬便被曝出。1月12日，*ST华泽通过互动易平台回复投资者问询时表示：公司网址因欠费暂停。*ST华泽也被一些投资者甚至媒体戏称为“最穷上市公司”。', '陷入困境的*ST华泽近年持续亏损，自身资金状况不佳。2015年、2016年，公司净利润分别亏损1.55亿元、4.04亿元；2017年前三季度，公司净利润亏损1.15亿元。截至2017年三季度末，*ST华泽货币资金余额只有100多万元；母公司资产负债表下，货币资金余额更是只有177.92元。', '对*ST华泽网站被捡漏抢注，有资深投资人士表示，如今互联网高度发达，网站成为公司形象的重要展示，也是投资者了解公司动态的窗口之一，且不论*ST华泽是否因“太穷”而交不起维护费用，但这种疏漏也反应了公司治理的问题。', '二次抢注域名的是什么人', '随着互联网的发展，域名抢注以及转让市场也较为活跃且越加成熟。', 'hznc.com.cn（即*ST华泽前官网域名）的现持有者便透露，域名交易市场是个很大的市场，属于全球性的交易；较为知名的案例便有联想以及开心网。他自己也是通过正规渠道获得的这个域名。', '每日经济新闻（微信号：nbdnews）记者搜索发现，网络存在不少提供域名抢注服务的公司。这些公司网站上可以提供域名查询、过期域名等资料，并有针对域名的竞价拍卖平台。不少域名被明码标价，域名的身价与其“谐音”直接相关。譬如一个名为“xk.net”的域名，被简介为“辛苦、学库、显卡”等含义，网站给其估价达66万元。不过，不少域名的详细资料需要开通会员才可以看到。', '业内资深炒家介绍说：“域名就跟股市、古董一样，大家一起炒，今年拍卖1亿，明年再拿出来拍卖，同样的东西就变成1.3亿，后年继续。”他还举例说，有某域名2014年成交价80万元，2017年就估值500万元，估计再过两年能值700万元。', '确实，一个形象简洁的域名对网站流量有着直接的影响，这是企业对域名十分在意的原因。与*ST华泽对公司官网如此不重视导致丢失官网域名的情况相比，还有一些上市公司则是愿意为域名砸下重金。', '比如，当时立志转型互联网金融公司的*ST匹凸（600696，SH）花费500万元购买了域名“WWW.P2P.CN”。P2P.com、P2P.cn这样的域名简明易懂，可以说是P2P行业最佳域名之一。', '浙江裕丰律师事务所高级合伙人厉健接受每日经济新闻（微信号：nbdnews）记者采访时表示，域名本身来弹性比较大，多数选择的是与品牌对应的字母组合，另外与持有者对域名的宣传，广告投入等相关，域名的商业价值很难界定；一般而言域名到期没有续费，就丧失了所有权，其他人有权去申请注册。但注册后，要看是否利用了此前的影响力，是否借此误导了消费者——如果不存在这些情况，那也没有问题。', '每经记者\xa0曾剑\xa0翟敏']</t>
+  </si>
+  <si>
+    <t>http://news.sina.com.cn/c/sd/2018-01-22/doc-ifyquptv8499452.shtml</t>
+  </si>
+  <si>
+    <t>2018年01月22日 08:17</t>
   </si>
 </sst>
 </file>
@@ -489,7 +1575,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:E103"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -497,232 +1583,1752 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>5</v>
+      </c>
+      <c r="D2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
+        <v>9</v>
+      </c>
+      <c r="D3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+        <v>13</v>
+      </c>
+      <c r="D4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
+        <v>17</v>
+      </c>
+      <c r="D5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
+        <v>21</v>
+      </c>
+      <c r="D6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="C8" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
+        <v>29</v>
+      </c>
+      <c r="D8" t="s">
+        <v>30</v>
+      </c>
+      <c r="E8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="C9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
+        <v>33</v>
+      </c>
+      <c r="D9" t="s">
+        <v>34</v>
+      </c>
+      <c r="E9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="C10" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
+        <v>37</v>
+      </c>
+      <c r="D10" t="s">
+        <v>38</v>
+      </c>
+      <c r="E10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="C11" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
+        <v>41</v>
+      </c>
+      <c r="D11" t="s">
+        <v>42</v>
+      </c>
+      <c r="E11" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="C12" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
+        <v>45</v>
+      </c>
+      <c r="D12" t="s">
+        <v>46</v>
+      </c>
+      <c r="E12" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>48</v>
       </c>
       <c r="C13" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
+        <v>49</v>
+      </c>
+      <c r="D13" t="s">
+        <v>50</v>
+      </c>
+      <c r="E13" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>26</v>
+        <v>52</v>
       </c>
       <c r="C14" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
+        <v>53</v>
+      </c>
+      <c r="D14" t="s">
+        <v>54</v>
+      </c>
+      <c r="E14" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>28</v>
+        <v>56</v>
       </c>
       <c r="C15" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
+        <v>57</v>
+      </c>
+      <c r="D15" t="s">
+        <v>58</v>
+      </c>
+      <c r="E15" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="C16" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
+        <v>61</v>
+      </c>
+      <c r="D16" t="s">
+        <v>62</v>
+      </c>
+      <c r="E16" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="C17" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
+        <v>65</v>
+      </c>
+      <c r="D17" t="s">
+        <v>66</v>
+      </c>
+      <c r="E17" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>34</v>
+        <v>67</v>
       </c>
       <c r="C18" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
+        <v>68</v>
+      </c>
+      <c r="D18" t="s">
+        <v>69</v>
+      </c>
+      <c r="E18" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>36</v>
+        <v>71</v>
       </c>
       <c r="C19" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
+        <v>72</v>
+      </c>
+      <c r="D19" t="s">
+        <v>73</v>
+      </c>
+      <c r="E19" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="C20" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
+        <v>76</v>
+      </c>
+      <c r="D20" t="s">
+        <v>77</v>
+      </c>
+      <c r="E20" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="s">
+        <v>79</v>
+      </c>
+      <c r="C21" t="s">
+        <v>80</v>
+      </c>
+      <c r="D21" t="s">
+        <v>81</v>
+      </c>
+      <c r="E21" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>82</v>
+      </c>
+      <c r="C22" t="s">
+        <v>83</v>
+      </c>
+      <c r="D22" t="s">
+        <v>84</v>
+      </c>
+      <c r="E22" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>86</v>
+      </c>
+      <c r="C23" t="s">
+        <v>87</v>
+      </c>
+      <c r="D23" t="s">
+        <v>88</v>
+      </c>
+      <c r="E23" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>90</v>
+      </c>
+      <c r="C24" t="s">
+        <v>91</v>
+      </c>
+      <c r="D24" t="s">
+        <v>92</v>
+      </c>
+      <c r="E24" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>94</v>
+      </c>
+      <c r="C25" t="s">
+        <v>95</v>
+      </c>
+      <c r="D25" t="s">
+        <v>96</v>
+      </c>
+      <c r="E25" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>97</v>
+      </c>
+      <c r="C26" t="s">
+        <v>98</v>
+      </c>
+      <c r="D26" t="s">
+        <v>99</v>
+      </c>
+      <c r="E26" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>101</v>
+      </c>
+      <c r="C27" t="s">
+        <v>102</v>
+      </c>
+      <c r="D27" t="s">
+        <v>103</v>
+      </c>
+      <c r="E27" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>105</v>
+      </c>
+      <c r="C28" t="s">
+        <v>106</v>
+      </c>
+      <c r="D28" t="s">
+        <v>107</v>
+      </c>
+      <c r="E28" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>109</v>
+      </c>
+      <c r="C29" t="s">
+        <v>110</v>
+      </c>
+      <c r="D29" t="s">
+        <v>111</v>
+      </c>
+      <c r="E29" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>112</v>
+      </c>
+      <c r="C30" t="s">
+        <v>113</v>
+      </c>
+      <c r="D30" t="s">
+        <v>114</v>
+      </c>
+      <c r="E30" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>116</v>
+      </c>
+      <c r="C31" t="s">
+        <v>117</v>
+      </c>
+      <c r="D31" t="s">
+        <v>118</v>
+      </c>
+      <c r="E31" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>120</v>
+      </c>
+      <c r="C32" t="s">
+        <v>121</v>
+      </c>
+      <c r="D32" t="s">
+        <v>122</v>
+      </c>
+      <c r="E32" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>123</v>
+      </c>
+      <c r="C33" t="s">
+        <v>124</v>
+      </c>
+      <c r="D33" t="s">
+        <v>125</v>
+      </c>
+      <c r="E33" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>127</v>
+      </c>
+      <c r="C34" t="s">
+        <v>128</v>
+      </c>
+      <c r="D34" t="s">
+        <v>129</v>
+      </c>
+      <c r="E34" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>131</v>
+      </c>
+      <c r="C35" t="s">
+        <v>132</v>
+      </c>
+      <c r="D35" t="s">
+        <v>133</v>
+      </c>
+      <c r="E35" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>135</v>
+      </c>
+      <c r="C36" t="s">
+        <v>136</v>
+      </c>
+      <c r="D36" t="s">
+        <v>137</v>
+      </c>
+      <c r="E36" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>139</v>
+      </c>
+      <c r="C37" t="s">
+        <v>140</v>
+      </c>
+      <c r="D37" t="s">
+        <v>141</v>
+      </c>
+      <c r="E37" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>143</v>
+      </c>
+      <c r="C38" t="s">
+        <v>144</v>
+      </c>
+      <c r="D38" t="s">
+        <v>145</v>
+      </c>
+      <c r="E38" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>147</v>
+      </c>
+      <c r="C39" t="s">
+        <v>148</v>
+      </c>
+      <c r="D39" t="s">
+        <v>149</v>
+      </c>
+      <c r="E39" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>151</v>
+      </c>
+      <c r="C40" t="s">
+        <v>152</v>
+      </c>
+      <c r="D40" t="s">
+        <v>153</v>
+      </c>
+      <c r="E40" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>155</v>
+      </c>
+      <c r="C41" t="s">
+        <v>156</v>
+      </c>
+      <c r="D41" t="s">
+        <v>157</v>
+      </c>
+      <c r="E41" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="C21" t="s">
+      <c r="B42" t="s">
+        <v>159</v>
+      </c>
+      <c r="C42" t="s">
+        <v>160</v>
+      </c>
+      <c r="D42" t="s">
+        <v>161</v>
+      </c>
+      <c r="E42" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" s="1" t="n">
         <v>41</v>
+      </c>
+      <c r="B43" t="s">
+        <v>163</v>
+      </c>
+      <c r="C43" t="s">
+        <v>164</v>
+      </c>
+      <c r="D43" t="s">
+        <v>165</v>
+      </c>
+      <c r="E43" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="s">
+        <v>167</v>
+      </c>
+      <c r="C44" t="s">
+        <v>168</v>
+      </c>
+      <c r="D44" t="s">
+        <v>169</v>
+      </c>
+      <c r="E44" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="s">
+        <v>171</v>
+      </c>
+      <c r="C45" t="s">
+        <v>172</v>
+      </c>
+      <c r="D45" t="s">
+        <v>173</v>
+      </c>
+      <c r="E45" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="s">
+        <v>175</v>
+      </c>
+      <c r="C46" t="s">
+        <v>176</v>
+      </c>
+      <c r="D46" t="s">
+        <v>177</v>
+      </c>
+      <c r="E46" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="s">
+        <v>179</v>
+      </c>
+      <c r="C47" t="s">
+        <v>180</v>
+      </c>
+      <c r="D47" t="s">
+        <v>181</v>
+      </c>
+      <c r="E47" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="s">
+        <v>183</v>
+      </c>
+      <c r="C48" t="s">
+        <v>184</v>
+      </c>
+      <c r="D48" t="s">
+        <v>185</v>
+      </c>
+      <c r="E48" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="s">
+        <v>187</v>
+      </c>
+      <c r="C49" t="s">
+        <v>188</v>
+      </c>
+      <c r="D49" t="s">
+        <v>189</v>
+      </c>
+      <c r="E49" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="s">
+        <v>191</v>
+      </c>
+      <c r="C50" t="s">
+        <v>192</v>
+      </c>
+      <c r="D50" t="s">
+        <v>193</v>
+      </c>
+      <c r="E50" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="s">
+        <v>195</v>
+      </c>
+      <c r="C51" t="s">
+        <v>196</v>
+      </c>
+      <c r="D51" t="s">
+        <v>197</v>
+      </c>
+      <c r="E51" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="s">
+        <v>199</v>
+      </c>
+      <c r="C52" t="s">
+        <v>200</v>
+      </c>
+      <c r="D52" t="s">
+        <v>201</v>
+      </c>
+      <c r="E52" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="s">
+        <v>203</v>
+      </c>
+      <c r="C53" t="s">
+        <v>204</v>
+      </c>
+      <c r="D53" t="s">
+        <v>205</v>
+      </c>
+      <c r="E53" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
+      <c r="A54" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="s">
+        <v>207</v>
+      </c>
+      <c r="C54" t="s">
+        <v>208</v>
+      </c>
+      <c r="D54" t="s">
+        <v>209</v>
+      </c>
+      <c r="E54" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="A55" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="s">
+        <v>211</v>
+      </c>
+      <c r="C55" t="s">
+        <v>212</v>
+      </c>
+      <c r="D55" t="s">
+        <v>213</v>
+      </c>
+      <c r="E55" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
+      <c r="A56" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="s">
+        <v>215</v>
+      </c>
+      <c r="C56" t="s">
+        <v>216</v>
+      </c>
+      <c r="D56" t="s">
+        <v>217</v>
+      </c>
+      <c r="E56" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5">
+      <c r="A57" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="s">
+        <v>219</v>
+      </c>
+      <c r="C57" t="s">
+        <v>220</v>
+      </c>
+      <c r="D57" t="s">
+        <v>221</v>
+      </c>
+      <c r="E57" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5">
+      <c r="A58" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="s">
+        <v>223</v>
+      </c>
+      <c r="C58" t="s">
+        <v>224</v>
+      </c>
+      <c r="D58" t="s">
+        <v>225</v>
+      </c>
+      <c r="E58" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5">
+      <c r="A59" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="s">
+        <v>227</v>
+      </c>
+      <c r="C59" t="s">
+        <v>228</v>
+      </c>
+      <c r="D59" t="s">
+        <v>229</v>
+      </c>
+      <c r="E59" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5">
+      <c r="A60" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="s">
+        <v>231</v>
+      </c>
+      <c r="C60" t="s">
+        <v>232</v>
+      </c>
+      <c r="D60" t="s">
+        <v>233</v>
+      </c>
+      <c r="E60" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5">
+      <c r="A61" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="s">
+        <v>235</v>
+      </c>
+      <c r="C61" t="s">
+        <v>236</v>
+      </c>
+      <c r="D61" t="s">
+        <v>237</v>
+      </c>
+      <c r="E61" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5">
+      <c r="A62" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="s">
+        <v>239</v>
+      </c>
+      <c r="C62" t="s">
+        <v>240</v>
+      </c>
+      <c r="D62" t="s">
+        <v>241</v>
+      </c>
+      <c r="E62" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5">
+      <c r="A63" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="s">
+        <v>243</v>
+      </c>
+      <c r="C63" t="s">
+        <v>244</v>
+      </c>
+      <c r="D63" t="s">
+        <v>245</v>
+      </c>
+      <c r="E63" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5">
+      <c r="A64" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="s">
+        <v>247</v>
+      </c>
+      <c r="C64" t="s">
+        <v>248</v>
+      </c>
+      <c r="D64" t="s">
+        <v>249</v>
+      </c>
+      <c r="E64" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5">
+      <c r="A65" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="s">
+        <v>251</v>
+      </c>
+      <c r="C65" t="s">
+        <v>252</v>
+      </c>
+      <c r="D65" t="s">
+        <v>253</v>
+      </c>
+      <c r="E65" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5">
+      <c r="A66" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="s">
+        <v>255</v>
+      </c>
+      <c r="C66" t="s">
+        <v>256</v>
+      </c>
+      <c r="D66" t="s">
+        <v>257</v>
+      </c>
+      <c r="E66" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5">
+      <c r="A67" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="s">
+        <v>259</v>
+      </c>
+      <c r="C67" t="s">
+        <v>260</v>
+      </c>
+      <c r="D67" t="s">
+        <v>261</v>
+      </c>
+      <c r="E67" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5">
+      <c r="A68" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="s">
+        <v>263</v>
+      </c>
+      <c r="C68" t="s">
+        <v>264</v>
+      </c>
+      <c r="D68" t="s">
+        <v>265</v>
+      </c>
+      <c r="E68" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5">
+      <c r="A69" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="s">
+        <v>267</v>
+      </c>
+      <c r="C69" t="s">
+        <v>268</v>
+      </c>
+      <c r="D69" t="s">
+        <v>269</v>
+      </c>
+      <c r="E69" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5">
+      <c r="A70" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="s">
+        <v>270</v>
+      </c>
+      <c r="C70" t="s">
+        <v>271</v>
+      </c>
+      <c r="D70" t="s">
+        <v>272</v>
+      </c>
+      <c r="E70" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5">
+      <c r="A71" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="s">
+        <v>273</v>
+      </c>
+      <c r="C71" t="s">
+        <v>274</v>
+      </c>
+      <c r="D71" t="s">
+        <v>275</v>
+      </c>
+      <c r="E71" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5">
+      <c r="A72" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="s">
+        <v>276</v>
+      </c>
+      <c r="C72" t="s">
+        <v>277</v>
+      </c>
+      <c r="D72" t="s">
+        <v>278</v>
+      </c>
+      <c r="E72" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5">
+      <c r="A73" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="s">
+        <v>280</v>
+      </c>
+      <c r="C73" t="s">
+        <v>281</v>
+      </c>
+      <c r="D73" t="s">
+        <v>282</v>
+      </c>
+      <c r="E73" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5">
+      <c r="A74" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="s">
+        <v>284</v>
+      </c>
+      <c r="C74" t="s">
+        <v>285</v>
+      </c>
+      <c r="D74" t="s">
+        <v>286</v>
+      </c>
+      <c r="E74" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5">
+      <c r="A75" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="s">
+        <v>288</v>
+      </c>
+      <c r="C75" t="s">
+        <v>289</v>
+      </c>
+      <c r="D75" t="s">
+        <v>290</v>
+      </c>
+      <c r="E75" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5">
+      <c r="A76" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="s">
+        <v>292</v>
+      </c>
+      <c r="C76" t="s">
+        <v>293</v>
+      </c>
+      <c r="D76" t="s">
+        <v>294</v>
+      </c>
+      <c r="E76" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5">
+      <c r="A77" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="s">
+        <v>296</v>
+      </c>
+      <c r="C77" t="s">
+        <v>297</v>
+      </c>
+      <c r="D77" t="s">
+        <v>298</v>
+      </c>
+      <c r="E77" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5">
+      <c r="A78" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="s">
+        <v>300</v>
+      </c>
+      <c r="C78" t="s">
+        <v>301</v>
+      </c>
+      <c r="D78" t="s">
+        <v>302</v>
+      </c>
+      <c r="E78" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5">
+      <c r="A79" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="s">
+        <v>304</v>
+      </c>
+      <c r="C79" t="s">
+        <v>305</v>
+      </c>
+      <c r="D79" t="s">
+        <v>306</v>
+      </c>
+      <c r="E79" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5">
+      <c r="A80" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="s">
+        <v>308</v>
+      </c>
+      <c r="C80" t="s">
+        <v>309</v>
+      </c>
+      <c r="D80" t="s">
+        <v>310</v>
+      </c>
+      <c r="E80" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5">
+      <c r="A81" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="s">
+        <v>312</v>
+      </c>
+      <c r="C81" t="s">
+        <v>313</v>
+      </c>
+      <c r="D81" t="s">
+        <v>314</v>
+      </c>
+      <c r="E81" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5">
+      <c r="A82" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="s">
+        <v>316</v>
+      </c>
+      <c r="C82" t="s">
+        <v>317</v>
+      </c>
+      <c r="D82" t="s">
+        <v>318</v>
+      </c>
+      <c r="E82" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5">
+      <c r="A83" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="s">
+        <v>320</v>
+      </c>
+      <c r="C83" t="s">
+        <v>321</v>
+      </c>
+      <c r="D83" t="s">
+        <v>322</v>
+      </c>
+      <c r="E83" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5">
+      <c r="A84" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="s">
+        <v>324</v>
+      </c>
+      <c r="C84" t="s">
+        <v>325</v>
+      </c>
+      <c r="D84" t="s">
+        <v>326</v>
+      </c>
+      <c r="E84" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5">
+      <c r="A85" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="s">
+        <v>328</v>
+      </c>
+      <c r="C85" t="s">
+        <v>329</v>
+      </c>
+      <c r="D85" t="s">
+        <v>330</v>
+      </c>
+      <c r="E85" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5">
+      <c r="A86" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="s">
+        <v>332</v>
+      </c>
+      <c r="C86" t="s">
+        <v>333</v>
+      </c>
+      <c r="D86" t="s">
+        <v>334</v>
+      </c>
+      <c r="E86" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5">
+      <c r="A87" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="s">
+        <v>336</v>
+      </c>
+      <c r="C87" t="s">
+        <v>337</v>
+      </c>
+      <c r="D87" t="s">
+        <v>338</v>
+      </c>
+      <c r="E87" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5">
+      <c r="A88" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="s">
+        <v>340</v>
+      </c>
+      <c r="C88" t="s">
+        <v>341</v>
+      </c>
+      <c r="D88" t="s">
+        <v>342</v>
+      </c>
+      <c r="E88" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5">
+      <c r="A89" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="s">
+        <v>344</v>
+      </c>
+      <c r="C89" t="s">
+        <v>345</v>
+      </c>
+      <c r="D89" t="s">
+        <v>346</v>
+      </c>
+      <c r="E89" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5">
+      <c r="A90" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="s">
+        <v>348</v>
+      </c>
+      <c r="C90" t="s">
+        <v>349</v>
+      </c>
+      <c r="D90" t="s">
+        <v>350</v>
+      </c>
+      <c r="E90" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5">
+      <c r="A91" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="s">
+        <v>352</v>
+      </c>
+      <c r="C91" t="s">
+        <v>353</v>
+      </c>
+      <c r="D91" t="s">
+        <v>354</v>
+      </c>
+      <c r="E91" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5">
+      <c r="A92" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="s">
+        <v>356</v>
+      </c>
+      <c r="C92" t="s">
+        <v>357</v>
+      </c>
+      <c r="D92" t="s">
+        <v>358</v>
+      </c>
+      <c r="E92" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5">
+      <c r="A93" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="s">
+        <v>360</v>
+      </c>
+      <c r="C93" t="s">
+        <v>361</v>
+      </c>
+      <c r="D93" t="s">
+        <v>362</v>
+      </c>
+      <c r="E93" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5">
+      <c r="A94" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="s">
+        <v>364</v>
+      </c>
+      <c r="C94" t="s">
+        <v>365</v>
+      </c>
+      <c r="D94" t="s">
+        <v>366</v>
+      </c>
+      <c r="E94" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5">
+      <c r="A95" s="1" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="s">
+        <v>368</v>
+      </c>
+      <c r="C95" t="s">
+        <v>369</v>
+      </c>
+      <c r="D95" t="s">
+        <v>370</v>
+      </c>
+      <c r="E95" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5">
+      <c r="A96" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="s">
+        <v>372</v>
+      </c>
+      <c r="C96" t="s">
+        <v>373</v>
+      </c>
+      <c r="D96" t="s">
+        <v>374</v>
+      </c>
+      <c r="E96" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5">
+      <c r="A97" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="s">
+        <v>376</v>
+      </c>
+      <c r="C97" t="s">
+        <v>377</v>
+      </c>
+      <c r="D97" t="s">
+        <v>378</v>
+      </c>
+      <c r="E97" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5">
+      <c r="A98" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="s">
+        <v>380</v>
+      </c>
+      <c r="C98" t="s">
+        <v>381</v>
+      </c>
+      <c r="D98" t="s">
+        <v>382</v>
+      </c>
+      <c r="E98" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5">
+      <c r="A99" s="1" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="s">
+        <v>384</v>
+      </c>
+      <c r="C99" t="s">
+        <v>385</v>
+      </c>
+      <c r="D99" t="s">
+        <v>386</v>
+      </c>
+      <c r="E99" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5">
+      <c r="A100" s="1" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="s">
+        <v>388</v>
+      </c>
+      <c r="C100" t="s">
+        <v>389</v>
+      </c>
+      <c r="D100" t="s">
+        <v>390</v>
+      </c>
+      <c r="E100" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5">
+      <c r="A101" s="1" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="s">
+        <v>392</v>
+      </c>
+      <c r="C101" t="s">
+        <v>393</v>
+      </c>
+      <c r="D101" t="s">
+        <v>394</v>
+      </c>
+      <c r="E101" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5">
+      <c r="A102" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="s">
+        <v>396</v>
+      </c>
+      <c r="C102" t="s">
+        <v>397</v>
+      </c>
+      <c r="D102" t="s">
+        <v>398</v>
+      </c>
+      <c r="E102" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5">
+      <c r="A103" s="1" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="s">
+        <v>400</v>
+      </c>
+      <c r="C103" t="s">
+        <v>401</v>
+      </c>
+      <c r="D103" t="s">
+        <v>402</v>
+      </c>
+      <c r="E103" t="s">
+        <v>403</v>
       </c>
     </row>
   </sheetData>
